--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21067.77852661908</v>
+        <v>24450.41285996905</v>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41110.75872825553</v>
+        <v>54210.78917208679</v>
       </c>
       <c r="B3" t="n">
-        <v>332</v>
+        <v>1078</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61153.73892989199</v>
+        <v>83971.16548420452</v>
       </c>
       <c r="B4" t="n">
-        <v>776</v>
+        <v>1803</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81196.71913152844</v>
+        <v>113731.5417963223</v>
       </c>
       <c r="B5" t="n">
-        <v>1128</v>
+        <v>1914</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101239.6993331649</v>
+        <v>143491.91810844</v>
       </c>
       <c r="B6" t="n">
-        <v>1321</v>
+        <v>1560</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>121282.6795348014</v>
+        <v>173252.2944205577</v>
       </c>
       <c r="B7" t="n">
-        <v>1232</v>
+        <v>1171</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>141325.6597364378</v>
+        <v>203012.6707326755</v>
       </c>
       <c r="B8" t="n">
-        <v>1150</v>
+        <v>706</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>161368.6399380743</v>
+        <v>232773.0470447932</v>
       </c>
       <c r="B9" t="n">
-        <v>990</v>
+        <v>554</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>181411.6201397107</v>
+        <v>262533.4233569109</v>
       </c>
       <c r="B10" t="n">
-        <v>746</v>
+        <v>340</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>201454.6003413472</v>
+        <v>292293.7996690287</v>
       </c>
       <c r="B11" t="n">
-        <v>571</v>
+        <v>245</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>221497.5805429836</v>
+        <v>322054.1759811465</v>
       </c>
       <c r="B12" t="n">
-        <v>421</v>
+        <v>147</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>241540.5607446201</v>
+        <v>351814.5522932642</v>
       </c>
       <c r="B13" t="n">
-        <v>359</v>
+        <v>88</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>261583.5409462565</v>
+        <v>381574.9286053819</v>
       </c>
       <c r="B14" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>281626.521147893</v>
+        <v>411335.3049174997</v>
       </c>
       <c r="B15" t="n">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>301669.5013495295</v>
+        <v>441095.6812296174</v>
       </c>
       <c r="B16" t="n">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>321712.4815511659</v>
+        <v>470856.0575417351</v>
       </c>
       <c r="B17" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>341755.4617528024</v>
+        <v>500616.4338538529</v>
       </c>
       <c r="B18" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>361798.4419544388</v>
+        <v>530376.8101659706</v>
       </c>
       <c r="B19" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>381841.4221560752</v>
+        <v>560137.1864780884</v>
       </c>
       <c r="B20" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>401884.4023577117</v>
+        <v>589897.5627902061</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>421927.3825593482</v>
+        <v>619657.9391023238</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>441970.3627609846</v>
+        <v>649418.3154144415</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>462013.3429626211</v>
+        <v>679178.6917265593</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>482056.3231642576</v>
+        <v>708939.068038677</v>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>502099.303365894</v>
+        <v>738699.4443507948</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>522142.2835675305</v>
+        <v>768459.8206629124</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>542185.2637691669</v>
+        <v>798220.1969750302</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>562228.2439708033</v>
+        <v>827980.5732871479</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>582271.2241724399</v>
+        <v>857740.9495992657</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>602314.2043740763</v>
+        <v>887501.3259113834</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>622357.1845757128</v>
+        <v>917261.7022235012</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>642400.1647773492</v>
+        <v>947022.0785356188</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>662443.1449789857</v>
+        <v>976782.4548477366</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>682486.1251806221</v>
+        <v>1006542.831159854</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>702529.1053822585</v>
+        <v>1036303.207471972</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>621.6585511803065</v>
+        <v>606.26438839489</v>
       </c>
       <c r="B37" t="n">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1433.990480397446</v>
+        <v>1413.775454331769</v>
       </c>
       <c r="B38" t="n">
-        <v>809</v>
+        <v>755</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2246.322409614585</v>
+        <v>2221.286520268648</v>
       </c>
       <c r="B39" t="n">
-        <v>1523</v>
+        <v>1355</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3058.654338831725</v>
+        <v>3028.797586205528</v>
       </c>
       <c r="B40" t="n">
-        <v>1727</v>
+        <v>1696</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3870.986268048864</v>
+        <v>3836.308652142407</v>
       </c>
       <c r="B41" t="n">
-        <v>1467</v>
+        <v>1572</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4683.318197266003</v>
+        <v>4643.819718079287</v>
       </c>
       <c r="B42" t="n">
-        <v>1234</v>
+        <v>1261</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5495.650126483143</v>
+        <v>5451.330784016166</v>
       </c>
       <c r="B43" t="n">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6307.982055700282</v>
+        <v>6258.841849953045</v>
       </c>
       <c r="B44" t="n">
-        <v>632</v>
+        <v>698</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7120.313984917421</v>
+        <v>7066.352915889925</v>
       </c>
       <c r="B45" t="n">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7932.64591413456</v>
+        <v>7873.863981826804</v>
       </c>
       <c r="B46" t="n">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8744.977843351699</v>
+        <v>8681.375047763682</v>
       </c>
       <c r="B47" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9557.309772568839</v>
+        <v>9488.886113700561</v>
       </c>
       <c r="B48" t="n">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10369.64170178598</v>
+        <v>10296.39717963744</v>
       </c>
       <c r="B49" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11181.97363100312</v>
+        <v>11103.90824557432</v>
       </c>
       <c r="B50" t="n">
         <v>78</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11994.30556022026</v>
+        <v>11911.4193115112</v>
       </c>
       <c r="B51" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12806.63748943739</v>
+        <v>12718.93037744808</v>
       </c>
       <c r="B52" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13618.96941865453</v>
+        <v>13526.44144338496</v>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>14431.30134787167</v>
+        <v>14333.95250932184</v>
       </c>
       <c r="B54" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>15243.63327708881</v>
+        <v>15141.46357525872</v>
       </c>
       <c r="B55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>16055.96520630595</v>
+        <v>15948.97464119559</v>
       </c>
       <c r="B56" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16868.29713552309</v>
+        <v>16756.48570713248</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17680.62906474023</v>
+        <v>17563.99677306936</v>
       </c>
       <c r="B58" t="n">
         <v>5</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18492.96099395737</v>
+        <v>18371.50783900623</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19305.29292317451</v>
+        <v>19179.01890494311</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20117.62485239165</v>
+        <v>19986.52997087999</v>
       </c>
       <c r="B61" t="n">
         <v>6</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20929.95678160879</v>
+        <v>20794.04103681687</v>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>21742.28871082593</v>
+        <v>21601.55210275375</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>22554.62064004307</v>
+        <v>22409.06316869063</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>23366.95256926021</v>
+        <v>23216.57423462751</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>24179.28449847735</v>
+        <v>24024.08530056439</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>24991.61642769448</v>
+        <v>24831.59636650127</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>25803.94835691162</v>
+        <v>25639.10743243815</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>26616.28028612876</v>
+        <v>26446.61849837503</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>27428.6122153459</v>
+        <v>27254.12956431191</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28240.94414456304</v>
+        <v>28061.64063024879</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,1364 +1362,454 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>70.49382149496211</v>
+        <v>1.150862858152465</v>
       </c>
       <c r="B72" t="n">
-        <v>1220</v>
+        <v>2041</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>654.1346493376329</v>
+        <v>14.24658940957358</v>
       </c>
       <c r="B73" t="n">
-        <v>2858</v>
+        <v>3197</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1237.775477180304</v>
+        <v>27.34231596099469</v>
       </c>
       <c r="B74" t="n">
-        <v>2093</v>
+        <v>1919</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1821.416305022975</v>
+        <v>40.43804251241581</v>
       </c>
       <c r="B75" t="n">
-        <v>1349</v>
+        <v>1085</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2405.057132865646</v>
+        <v>53.53376906383691</v>
       </c>
       <c r="B76" t="n">
-        <v>883</v>
+        <v>663</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2988.697960708316</v>
+        <v>66.62949561525802</v>
       </c>
       <c r="B77" t="n">
-        <v>515</v>
+        <v>386</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3572.338788550987</v>
+        <v>79.72522216667915</v>
       </c>
       <c r="B78" t="n">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4155.979616393659</v>
+        <v>92.82094871810025</v>
       </c>
       <c r="B79" t="n">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4739.62044423633</v>
+        <v>105.9166752695214</v>
       </c>
       <c r="B80" t="n">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5323.261272079</v>
+        <v>119.0124018209425</v>
       </c>
       <c r="B81" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5906.902099921671</v>
+        <v>132.1081283723636</v>
       </c>
       <c r="B82" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6490.542927764342</v>
+        <v>145.2038549237847</v>
       </c>
       <c r="B83" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7074.183755607013</v>
+        <v>158.2995814752058</v>
       </c>
       <c r="B84" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7657.824583449684</v>
+        <v>171.3953080266269</v>
       </c>
       <c r="B85" t="n">
         <v>20</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8241.465411292354</v>
+        <v>184.491034578048</v>
       </c>
       <c r="B86" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8825.106239135024</v>
+        <v>197.5867611294692</v>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9408.747066977696</v>
+        <v>210.6824876808903</v>
       </c>
       <c r="B88" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9992.387894820367</v>
+        <v>223.7782142323114</v>
       </c>
       <c r="B89" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>10576.02872266304</v>
+        <v>236.8739407837325</v>
       </c>
       <c r="B90" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>11159.66955050571</v>
+        <v>249.9696673351536</v>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>11743.31037834838</v>
+        <v>263.0653938865747</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>12326.95120619105</v>
+        <v>276.1611204379959</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>12910.59203403372</v>
+        <v>289.2568469894169</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>13494.23286187639</v>
+        <v>302.3525735408381</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>14077.87368971906</v>
+        <v>315.4483000922592</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>14661.51451756173</v>
+        <v>328.5440266436803</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>15245.1553454044</v>
+        <v>341.6397531951014</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>15828.79617324708</v>
+        <v>354.7354797465225</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>16412.43700108975</v>
+        <v>367.8312062979437</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>16996.07782893242</v>
+        <v>380.9269328493647</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>17579.71865677509</v>
+        <v>394.0226594007859</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>18163.35948461776</v>
+        <v>407.1183859522069</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>18747.00031246043</v>
+        <v>420.2141125036281</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>19330.6411403031</v>
+        <v>433.3098390550492</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>link</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>19914.28196814577</v>
+        <v>446.4055656064703</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
-        <is>
-          <t>bnb</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>11.13282218119055</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1101</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>97.50093986860639</v>
-      </c>
-      <c r="B108" t="n">
-        <v>2600</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>183.8690575560223</v>
-      </c>
-      <c r="B109" t="n">
-        <v>2205</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>270.2371752434381</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1398</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>356.6052929308539</v>
-      </c>
-      <c r="B111" t="n">
-        <v>902</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>442.9734106182698</v>
-      </c>
-      <c r="B112" t="n">
-        <v>560</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>529.3415283056856</v>
-      </c>
-      <c r="B113" t="n">
-        <v>408</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>615.7096459931015</v>
-      </c>
-      <c r="B114" t="n">
-        <v>262</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>702.0777636805174</v>
-      </c>
-      <c r="B115" t="n">
-        <v>158</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>788.4458813679332</v>
-      </c>
-      <c r="B116" t="n">
-        <v>128</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>874.8139990553491</v>
-      </c>
-      <c r="B117" t="n">
-        <v>74</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>961.1821167427649</v>
-      </c>
-      <c r="B118" t="n">
-        <v>53</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1047.550234430181</v>
-      </c>
-      <c r="B119" t="n">
-        <v>47</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1133.918352117596</v>
-      </c>
-      <c r="B120" t="n">
-        <v>23</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1220.286469805012</v>
-      </c>
-      <c r="B121" t="n">
-        <v>28</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1306.654587492428</v>
-      </c>
-      <c r="B122" t="n">
-        <v>12</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1393.022705179844</v>
-      </c>
-      <c r="B123" t="n">
-        <v>11</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1479.39082286726</v>
-      </c>
-      <c r="B124" t="n">
-        <v>3</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1565.758940554676</v>
-      </c>
-      <c r="B125" t="n">
-        <v>7</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1652.127058242092</v>
-      </c>
-      <c r="B126" t="n">
-        <v>5</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1738.495175929507</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1824.863293616923</v>
-      </c>
-      <c r="B128" t="n">
-        <v>3</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1911.231411304339</v>
-      </c>
-      <c r="B129" t="n">
-        <v>2</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1997.599528991755</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>2083.967646679171</v>
-      </c>
-      <c r="B131" t="n">
-        <v>2</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>2170.335764366587</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>2256.703882054002</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>2343.071999741418</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>2429.440117428834</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>2515.80823511625</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>2602.176352803666</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>2688.544470491082</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>2774.912588178498</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>2861.280705865913</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>2947.648823553329</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1.449341410884476</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1531</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>12.3036647413671</v>
-      </c>
-      <c r="B143" t="n">
-        <v>2780</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>23.15798807184972</v>
-      </c>
-      <c r="B144" t="n">
-        <v>2010</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>34.01231140233234</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1317</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>44.86663473281496</v>
-      </c>
-      <c r="B146" t="n">
-        <v>786</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>55.72095806329758</v>
-      </c>
-      <c r="B147" t="n">
-        <v>510</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>66.57528139378019</v>
-      </c>
-      <c r="B148" t="n">
-        <v>306</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>77.42960472426282</v>
-      </c>
-      <c r="B149" t="n">
-        <v>229</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>88.28392805474543</v>
-      </c>
-      <c r="B150" t="n">
-        <v>159</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>99.13825138522805</v>
-      </c>
-      <c r="B151" t="n">
-        <v>98</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>109.9925747157107</v>
-      </c>
-      <c r="B152" t="n">
-        <v>71</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>120.8468980461933</v>
-      </c>
-      <c r="B153" t="n">
-        <v>53</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>131.7012213766759</v>
-      </c>
-      <c r="B154" t="n">
-        <v>30</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>142.5555447071585</v>
-      </c>
-      <c r="B155" t="n">
-        <v>29</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>153.4098680376412</v>
-      </c>
-      <c r="B156" t="n">
-        <v>20</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>164.2641913681238</v>
-      </c>
-      <c r="B157" t="n">
-        <v>17</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>175.1185146986064</v>
-      </c>
-      <c r="B158" t="n">
-        <v>15</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>185.972838029089</v>
-      </c>
-      <c r="B159" t="n">
-        <v>9</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>196.8271613595716</v>
-      </c>
-      <c r="B160" t="n">
-        <v>6</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>207.6814846900542</v>
-      </c>
-      <c r="B161" t="n">
-        <v>4</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>218.5358080205369</v>
-      </c>
-      <c r="B162" t="n">
-        <v>3</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>229.3901313510195</v>
-      </c>
-      <c r="B163" t="n">
-        <v>3</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>240.2444546815021</v>
-      </c>
-      <c r="B164" t="n">
-        <v>2</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>251.0987780119847</v>
-      </c>
-      <c r="B165" t="n">
-        <v>2</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>261.9531013424673</v>
-      </c>
-      <c r="B166" t="n">
-        <v>2</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>272.80742467295</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>283.6617480034326</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>294.5160713339152</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>305.3703946643978</v>
-      </c>
-      <c r="B170" t="n">
-        <v>2</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>316.2247179948805</v>
-      </c>
-      <c r="B171" t="n">
-        <v>2</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>327.0790413253631</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>337.9333646558457</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>348.7876879863283</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>359.6420113168109</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>370.4963346472936</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1</v>
-      </c>
-      <c r="C176" t="inlineStr">
         <is>
           <t>link</t>
         </is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24450.41285996905</v>
+        <v>21950.51786841352</v>
       </c>
       <c r="B2" t="n">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>54210.78917208679</v>
+        <v>52875.17916316107</v>
       </c>
       <c r="B3" t="n">
-        <v>1078</v>
+        <v>1150</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>83971.16548420452</v>
+        <v>83799.84045790861</v>
       </c>
       <c r="B4" t="n">
-        <v>1803</v>
+        <v>1907</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>113731.5417963223</v>
+        <v>114724.5017526561</v>
       </c>
       <c r="B5" t="n">
-        <v>1914</v>
+        <v>1924</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>143491.91810844</v>
+        <v>145649.1630474037</v>
       </c>
       <c r="B6" t="n">
-        <v>1560</v>
+        <v>1487</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>173252.2944205577</v>
+        <v>176573.8243421513</v>
       </c>
       <c r="B7" t="n">
-        <v>1171</v>
+        <v>1129</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>203012.6707326755</v>
+        <v>207498.4856368988</v>
       </c>
       <c r="B8" t="n">
-        <v>706</v>
+        <v>784</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>232773.0470447932</v>
+        <v>238423.1469316463</v>
       </c>
       <c r="B9" t="n">
-        <v>554</v>
+        <v>506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>262533.4233569109</v>
+        <v>269347.8082263939</v>
       </c>
       <c r="B10" t="n">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>292293.7996690287</v>
+        <v>300272.4695211414</v>
       </c>
       <c r="B11" t="n">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>322054.1759811465</v>
+        <v>331197.130815889</v>
       </c>
       <c r="B12" t="n">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>351814.5522932642</v>
+        <v>362121.7921106365</v>
       </c>
       <c r="B13" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>381574.9286053819</v>
+        <v>393046.453405384</v>
       </c>
       <c r="B14" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>411335.3049174997</v>
+        <v>423971.1147001316</v>
       </c>
       <c r="B15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>441095.6812296174</v>
+        <v>454895.7759948791</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>470856.0575417351</v>
+        <v>485820.4372896267</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>500616.4338538529</v>
+        <v>516745.0985843742</v>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>530376.8101659706</v>
+        <v>547669.7598791217</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>560137.1864780884</v>
+        <v>578594.4211738693</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>589897.5627902061</v>
+        <v>609519.0824686168</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>619657.9391023238</v>
+        <v>640443.7437633644</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>649418.3154144415</v>
+        <v>671368.4050581119</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>679178.6917265593</v>
+        <v>702293.0663528595</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>708939.068038677</v>
+        <v>733217.727647607</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>738699.4443507948</v>
+        <v>764142.3889423545</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>768459.8206629124</v>
+        <v>795067.0502371021</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>798220.1969750302</v>
+        <v>825991.7115318496</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>827980.5732871479</v>
+        <v>856916.3728265972</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>857740.9495992657</v>
+        <v>887841.0341213447</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>887501.3259113834</v>
+        <v>918765.6954160923</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>917261.7022235012</v>
+        <v>949690.3567108398</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>947022.0785356188</v>
+        <v>980615.0180055874</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>976782.4548477366</v>
+        <v>1011539.679300335</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1006542.831159854</v>
+        <v>1042464.340595082</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1036303.207471972</v>
+        <v>1073389.00188983</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>606.26438839489</v>
+        <v>611.6649902474339</v>
       </c>
       <c r="B37" t="n">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1413.775454331769</v>
+        <v>1522.892018583753</v>
       </c>
       <c r="B38" t="n">
-        <v>755</v>
+        <v>1112</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2221.286520268648</v>
+        <v>2434.119046920073</v>
       </c>
       <c r="B39" t="n">
-        <v>1355</v>
+        <v>1775</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3028.797586205528</v>
+        <v>3345.346075256391</v>
       </c>
       <c r="B40" t="n">
-        <v>1696</v>
+        <v>1884</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3836.308652142407</v>
+        <v>4256.573103592711</v>
       </c>
       <c r="B41" t="n">
-        <v>1572</v>
+        <v>1485</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4643.819718079287</v>
+        <v>5167.800131929031</v>
       </c>
       <c r="B42" t="n">
-        <v>1261</v>
+        <v>1131</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5451.330784016166</v>
+        <v>6079.027160265349</v>
       </c>
       <c r="B43" t="n">
-        <v>921</v>
+        <v>794</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6258.841849953045</v>
+        <v>6990.254188601669</v>
       </c>
       <c r="B44" t="n">
-        <v>698</v>
+        <v>524</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7066.352915889925</v>
+        <v>7901.481216937988</v>
       </c>
       <c r="B45" t="n">
-        <v>503</v>
+        <v>381</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7873.863981826804</v>
+        <v>8812.708245274309</v>
       </c>
       <c r="B46" t="n">
-        <v>341</v>
+        <v>243</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8681.375047763682</v>
+        <v>9723.935273610628</v>
       </c>
       <c r="B47" t="n">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9488.886113700561</v>
+        <v>10635.16230194695</v>
       </c>
       <c r="B48" t="n">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10296.39717963744</v>
+        <v>11546.38933028327</v>
       </c>
       <c r="B49" t="n">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11103.90824557432</v>
+        <v>12457.61635861959</v>
       </c>
       <c r="B50" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11911.4193115112</v>
+        <v>13368.8433869559</v>
       </c>
       <c r="B51" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12718.93037744808</v>
+        <v>14280.07041529222</v>
       </c>
       <c r="B52" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13526.44144338496</v>
+        <v>15191.29744362854</v>
       </c>
       <c r="B53" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>14333.95250932184</v>
+        <v>16102.52447196486</v>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>15141.46357525872</v>
+        <v>17013.75150030118</v>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15948.97464119559</v>
+        <v>17924.9785286375</v>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16756.48570713248</v>
+        <v>18836.20555697382</v>
       </c>
       <c r="B57" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17563.99677306936</v>
+        <v>19747.43258531014</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18371.50783900623</v>
+        <v>20658.65961364646</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19179.01890494311</v>
+        <v>21569.88664198278</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>19986.52997087999</v>
+        <v>22481.1136703191</v>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20794.04103681687</v>
+        <v>23392.34069865542</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>21601.55210275375</v>
+        <v>24303.56772699174</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>22409.06316869063</v>
+        <v>25214.79475532806</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>23216.57423462751</v>
+        <v>26126.02178366438</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>24024.08530056439</v>
+        <v>27037.2488120007</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>24831.59636650127</v>
+        <v>27948.47584033701</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>25639.10743243815</v>
+        <v>28859.70286867334</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>26446.61849837503</v>
+        <v>29770.92989700965</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>27254.12956431191</v>
+        <v>30682.15692534597</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28061.64063024879</v>
+        <v>31593.38395368229</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.150862858152465</v>
+        <v>1.104405714017753</v>
       </c>
       <c r="B72" t="n">
-        <v>2041</v>
+        <v>1558</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>14.24658940957358</v>
+        <v>12.31455615625972</v>
       </c>
       <c r="B73" t="n">
-        <v>3197</v>
+        <v>2762</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>27.34231596099469</v>
+        <v>23.5247065985017</v>
       </c>
       <c r="B74" t="n">
-        <v>1919</v>
+        <v>2071</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>40.43804251241581</v>
+        <v>34.73485704074367</v>
       </c>
       <c r="B75" t="n">
-        <v>1085</v>
+        <v>1279</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>53.53376906383691</v>
+        <v>45.94500748298564</v>
       </c>
       <c r="B76" t="n">
-        <v>663</v>
+        <v>800</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>66.62949561525802</v>
+        <v>57.15515792522761</v>
       </c>
       <c r="B77" t="n">
-        <v>386</v>
+        <v>495</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>79.72522216667915</v>
+        <v>68.36530836746959</v>
       </c>
       <c r="B78" t="n">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>92.82094871810025</v>
+        <v>79.57545880971156</v>
       </c>
       <c r="B79" t="n">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>105.9166752695214</v>
+        <v>90.78560925195353</v>
       </c>
       <c r="B80" t="n">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>119.0124018209425</v>
+        <v>101.9957596941955</v>
       </c>
       <c r="B81" t="n">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>132.1081283723636</v>
+        <v>113.2059101364375</v>
       </c>
       <c r="B82" t="n">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>145.2038549237847</v>
+        <v>124.4160605786794</v>
       </c>
       <c r="B83" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>158.2995814752058</v>
+        <v>135.6262110209214</v>
       </c>
       <c r="B84" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>171.3953080266269</v>
+        <v>146.8363614631634</v>
       </c>
       <c r="B85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>184.491034578048</v>
+        <v>158.0465119054054</v>
       </c>
       <c r="B86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>197.5867611294692</v>
+        <v>169.2566623476473</v>
       </c>
       <c r="B87" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>210.6824876808903</v>
+        <v>180.4668127898893</v>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>223.7782142323114</v>
+        <v>191.6769632321313</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>236.8739407837325</v>
+        <v>202.8871136743732</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>249.9696673351536</v>
+        <v>214.0972641166152</v>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>263.0653938865747</v>
+        <v>225.3074145588572</v>
       </c>
       <c r="B92" t="n">
         <v>2</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>276.1611204379959</v>
+        <v>236.5175650010992</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>289.2568469894169</v>
+        <v>247.7277154433411</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>302.3525735408381</v>
+        <v>258.9378658855831</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>315.4483000922592</v>
+        <v>270.1480163278251</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>328.5440266436803</v>
+        <v>281.358166770067</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>341.6397531951014</v>
+        <v>292.568317212309</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>354.7354797465225</v>
+        <v>303.778467654551</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>367.8312062979437</v>
+        <v>314.9886180967929</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>380.9269328493647</v>
+        <v>326.1987685390349</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>394.0226594007859</v>
+        <v>337.4089189812769</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>407.1183859522069</v>
+        <v>348.6190694235189</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>420.2141125036281</v>
+        <v>359.8292198657608</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>433.3098390550492</v>
+        <v>371.0393703080028</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>446.4055656064703</v>
+        <v>382.2495207502448</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21950.51786841352</v>
+        <v>22828.02936887104</v>
       </c>
       <c r="B2" t="n">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>52875.17916316107</v>
+        <v>43289.14277758768</v>
       </c>
       <c r="B3" t="n">
-        <v>1150</v>
+        <v>392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>83799.84045790861</v>
+        <v>63750.25618630431</v>
       </c>
       <c r="B4" t="n">
-        <v>1907</v>
+        <v>864</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>114724.5017526561</v>
+        <v>84211.36959502095</v>
       </c>
       <c r="B5" t="n">
-        <v>1924</v>
+        <v>1230</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>145649.1630474037</v>
+        <v>104672.4830037376</v>
       </c>
       <c r="B6" t="n">
-        <v>1487</v>
+        <v>1317</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>176573.8243421513</v>
+        <v>125133.5964124542</v>
       </c>
       <c r="B7" t="n">
-        <v>1129</v>
+        <v>1245</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>207498.4856368988</v>
+        <v>145594.7098211708</v>
       </c>
       <c r="B8" t="n">
-        <v>784</v>
+        <v>1132</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>238423.1469316463</v>
+        <v>166055.8232298875</v>
       </c>
       <c r="B9" t="n">
-        <v>506</v>
+        <v>885</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>269347.8082263939</v>
+        <v>186516.9366386041</v>
       </c>
       <c r="B10" t="n">
-        <v>328</v>
+        <v>715</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>300272.4695211414</v>
+        <v>206978.0500473207</v>
       </c>
       <c r="B11" t="n">
-        <v>216</v>
+        <v>537</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>331197.130815889</v>
+        <v>227439.1634560373</v>
       </c>
       <c r="B12" t="n">
-        <v>126</v>
+        <v>436</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>362121.7921106365</v>
+        <v>247900.276864754</v>
       </c>
       <c r="B13" t="n">
-        <v>89</v>
+        <v>302</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>393046.453405384</v>
+        <v>268361.3902734707</v>
       </c>
       <c r="B14" t="n">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>423971.1147001316</v>
+        <v>288822.5036821873</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>454895.7759948791</v>
+        <v>309283.6170909039</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>485820.4372896267</v>
+        <v>329744.7304996205</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>516745.0985843742</v>
+        <v>350205.8439083372</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>547669.7598791217</v>
+        <v>370666.9573170538</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>578594.4211738693</v>
+        <v>391128.0707257704</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>609519.0824686168</v>
+        <v>411589.1841344871</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>640443.7437633644</v>
+        <v>432050.2975432037</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>671368.4050581119</v>
+        <v>452511.4109519203</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>702293.0663528595</v>
+        <v>472972.5243606369</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>733217.727647607</v>
+        <v>493433.6377693536</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>764142.3889423545</v>
+        <v>513894.7511780703</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>795067.0502371021</v>
+        <v>534355.8645867868</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>825991.7115318496</v>
+        <v>554816.9779955035</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>856916.3728265972</v>
+        <v>575278.0914042201</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>887841.0341213447</v>
+        <v>595739.2048129367</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>918765.6954160923</v>
+        <v>616200.3182216533</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>949690.3567108398</v>
+        <v>636661.43163037</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>980615.0180055874</v>
+        <v>657122.5450390866</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1011539.679300335</v>
+        <v>677583.6584478032</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1042464.340595082</v>
+        <v>698044.7718565199</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1073389.00188983</v>
+        <v>718505.8852652365</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>611.6649902474339</v>
+        <v>794.7948524509637</v>
       </c>
       <c r="B37" t="n">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1522.892018583753</v>
+        <v>1516.601694780562</v>
       </c>
       <c r="B38" t="n">
-        <v>1112</v>
+        <v>734</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2434.119046920073</v>
+        <v>2238.408537110161</v>
       </c>
       <c r="B39" t="n">
-        <v>1775</v>
+        <v>1352</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3345.346075256391</v>
+        <v>2960.21537943976</v>
       </c>
       <c r="B40" t="n">
-        <v>1884</v>
+        <v>1506</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4256.573103592711</v>
+        <v>3682.022221769359</v>
       </c>
       <c r="B41" t="n">
-        <v>1485</v>
+        <v>1450</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5167.800131929031</v>
+        <v>4403.829064098957</v>
       </c>
       <c r="B42" t="n">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6079.027160265349</v>
+        <v>5125.635906428556</v>
       </c>
       <c r="B43" t="n">
-        <v>794</v>
+        <v>890</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6990.254188601669</v>
+        <v>5847.442748758154</v>
       </c>
       <c r="B44" t="n">
-        <v>524</v>
+        <v>754</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7901.481216937988</v>
+        <v>6569.249591087753</v>
       </c>
       <c r="B45" t="n">
-        <v>381</v>
+        <v>487</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8812.708245274309</v>
+        <v>7291.056433417352</v>
       </c>
       <c r="B46" t="n">
-        <v>243</v>
+        <v>390</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9723.935273610628</v>
+        <v>8012.86327574695</v>
       </c>
       <c r="B47" t="n">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10635.16230194695</v>
+        <v>8734.670118076549</v>
       </c>
       <c r="B48" t="n">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11546.38933028327</v>
+        <v>9456.476960406148</v>
       </c>
       <c r="B49" t="n">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12457.61635861959</v>
+        <v>10178.28380273575</v>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13368.8433869559</v>
+        <v>10900.09064506534</v>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>14280.07041529222</v>
+        <v>11621.89748739494</v>
       </c>
       <c r="B52" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>15191.29744362854</v>
+        <v>12343.70432972454</v>
       </c>
       <c r="B53" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>16102.52447196486</v>
+        <v>13065.51117205414</v>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>17013.75150030118</v>
+        <v>13787.31801438374</v>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>17924.9785286375</v>
+        <v>14509.12485671334</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18836.20555697382</v>
+        <v>15230.93169904294</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>19747.43258531014</v>
+        <v>15952.73854137254</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20658.65961364646</v>
+        <v>16674.54538370213</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>21569.88664198278</v>
+        <v>17396.35222603173</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>22481.1136703191</v>
+        <v>18118.15906836133</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23392.34069865542</v>
+        <v>18839.96591069093</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>24303.56772699174</v>
+        <v>19561.77275302053</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>25214.79475532806</v>
+        <v>20283.57959535013</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>26126.02178366438</v>
+        <v>21005.38643767972</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>27037.2488120007</v>
+        <v>21727.19328000932</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>27948.47584033701</v>
+        <v>22449.00012233892</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>28859.70286867334</v>
+        <v>23170.80696466852</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>29770.92989700965</v>
+        <v>23892.61380699812</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>30682.15692534597</v>
+        <v>24614.42064932772</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>31593.38395368229</v>
+        <v>25336.22749165732</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.104405714017753</v>
+        <v>1.229323849918455</v>
       </c>
       <c r="B72" t="n">
-        <v>1558</v>
+        <v>2468</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12.31455615625972</v>
+        <v>15.86818904973577</v>
       </c>
       <c r="B73" t="n">
-        <v>2762</v>
+        <v>3273</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>23.5247065985017</v>
+        <v>30.50705424955309</v>
       </c>
       <c r="B74" t="n">
-        <v>2071</v>
+        <v>1814</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>34.73485704074367</v>
+        <v>45.14591944937041</v>
       </c>
       <c r="B75" t="n">
-        <v>1279</v>
+        <v>1029</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>45.94500748298564</v>
+        <v>59.78478464918773</v>
       </c>
       <c r="B76" t="n">
-        <v>800</v>
+        <v>536</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>57.15515792522761</v>
+        <v>74.42364984900505</v>
       </c>
       <c r="B77" t="n">
-        <v>495</v>
+        <v>353</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>68.36530836746959</v>
+        <v>89.06251504882236</v>
       </c>
       <c r="B78" t="n">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>79.57545880971156</v>
+        <v>103.7013802486397</v>
       </c>
       <c r="B79" t="n">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90.78560925195353</v>
+        <v>118.340245448457</v>
       </c>
       <c r="B80" t="n">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>101.9957596941955</v>
+        <v>132.9791106482743</v>
       </c>
       <c r="B81" t="n">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>113.2059101364375</v>
+        <v>147.6179758480916</v>
       </c>
       <c r="B82" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>124.4160605786794</v>
+        <v>162.2568410479089</v>
       </c>
       <c r="B83" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>135.6262110209214</v>
+        <v>176.8957062477263</v>
       </c>
       <c r="B84" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>146.8363614631634</v>
+        <v>191.5345714475436</v>
       </c>
       <c r="B85" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>158.0465119054054</v>
+        <v>206.1734366473609</v>
       </c>
       <c r="B86" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>169.2566623476473</v>
+        <v>220.8123018471782</v>
       </c>
       <c r="B87" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>180.4668127898893</v>
+        <v>235.4511670469955</v>
       </c>
       <c r="B88" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>191.6769632321313</v>
+        <v>250.0900322468128</v>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>202.8871136743732</v>
+        <v>264.7288974466301</v>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>214.0972641166152</v>
+        <v>279.3677626464475</v>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>225.3074145588572</v>
+        <v>294.0066278462648</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>236.5175650010992</v>
+        <v>308.6454930460821</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>247.7277154433411</v>
+        <v>323.2843582458995</v>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>258.9378658855831</v>
+        <v>337.9232234457168</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>270.1480163278251</v>
+        <v>352.5620886455341</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>281.358166770067</v>
+        <v>367.2009538453514</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>292.568317212309</v>
+        <v>381.8398190451687</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>303.778467654551</v>
+        <v>396.478684244986</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>314.9886180967929</v>
+        <v>411.1175494448033</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>326.1987685390349</v>
+        <v>425.7564146446206</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>337.4089189812769</v>
+        <v>440.395279844438</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>348.6190694235189</v>
+        <v>455.0341450442553</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>359.8292198657608</v>
+        <v>469.6730102440726</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>371.0393703080028</v>
+        <v>484.3118754438899</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>382.2495207502448</v>
+        <v>498.9507406437072</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22828.02936887104</v>
+        <v>21557.53681289151</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43289.14277758768</v>
+        <v>45587.64240921188</v>
       </c>
       <c r="B3" t="n">
-        <v>392</v>
+        <v>550</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>63750.25618630431</v>
+        <v>69617.74800553225</v>
       </c>
       <c r="B4" t="n">
-        <v>864</v>
+        <v>1249</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>84211.36959502095</v>
+        <v>93647.85360185264</v>
       </c>
       <c r="B5" t="n">
-        <v>1230</v>
+        <v>1540</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104672.4830037376</v>
+        <v>117677.959198173</v>
       </c>
       <c r="B6" t="n">
-        <v>1317</v>
+        <v>1509</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>125133.5964124542</v>
+        <v>141708.0647944934</v>
       </c>
       <c r="B7" t="n">
-        <v>1245</v>
+        <v>1321</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>145594.7098211708</v>
+        <v>165738.1703908138</v>
       </c>
       <c r="B8" t="n">
-        <v>1132</v>
+        <v>1001</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>166055.8232298875</v>
+        <v>189768.2759871341</v>
       </c>
       <c r="B9" t="n">
-        <v>885</v>
+        <v>744</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>186516.9366386041</v>
+        <v>213798.3815834545</v>
       </c>
       <c r="B10" t="n">
-        <v>715</v>
+        <v>592</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>206978.0500473207</v>
+        <v>237828.4871797749</v>
       </c>
       <c r="B11" t="n">
-        <v>537</v>
+        <v>406</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>227439.1634560373</v>
+        <v>261858.5927760952</v>
       </c>
       <c r="B12" t="n">
-        <v>436</v>
+        <v>273</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>247900.276864754</v>
+        <v>285888.6983724156</v>
       </c>
       <c r="B13" t="n">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>268361.3902734707</v>
+        <v>309918.803968736</v>
       </c>
       <c r="B14" t="n">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>288822.5036821873</v>
+        <v>333948.9095650563</v>
       </c>
       <c r="B15" t="n">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>309283.6170909039</v>
+        <v>357979.0151613767</v>
       </c>
       <c r="B16" t="n">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>329744.7304996205</v>
+        <v>382009.1207576972</v>
       </c>
       <c r="B17" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>350205.8439083372</v>
+        <v>406039.2263540175</v>
       </c>
       <c r="B18" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>370666.9573170538</v>
+        <v>430069.3319503379</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>391128.0707257704</v>
+        <v>454099.4375466582</v>
       </c>
       <c r="B20" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>411589.1841344871</v>
+        <v>478129.5431429786</v>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>432050.2975432037</v>
+        <v>502159.6487392989</v>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>452511.4109519203</v>
+        <v>526189.7543356194</v>
       </c>
       <c r="B23" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>472972.5243606369</v>
+        <v>550219.8599319396</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>493433.6377693536</v>
+        <v>574249.9655282601</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>513894.7511780703</v>
+        <v>598280.0711245805</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>534355.8645867868</v>
+        <v>622310.1767209008</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>554816.9779955035</v>
+        <v>646340.2823172212</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>575278.0914042201</v>
+        <v>670370.3879135415</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>595739.2048129367</v>
+        <v>694400.4935098619</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>616200.3182216533</v>
+        <v>718430.5991061823</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>636661.43163037</v>
+        <v>742460.7047025027</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>657122.5450390866</v>
+        <v>766490.8102988231</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>677583.6584478032</v>
+        <v>790520.9158951434</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>698044.7718565199</v>
+        <v>814551.0214914638</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>718505.8852652365</v>
+        <v>838581.1270877841</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>794.7948524509637</v>
+        <v>638.5858263939878</v>
       </c>
       <c r="B37" t="n">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1516.601694780562</v>
+        <v>1349.728060772708</v>
       </c>
       <c r="B38" t="n">
-        <v>734</v>
+        <v>582</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2238.408537110161</v>
+        <v>2060.870295151429</v>
       </c>
       <c r="B39" t="n">
-        <v>1352</v>
+        <v>1207</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2960.21537943976</v>
+        <v>2772.01252953015</v>
       </c>
       <c r="B40" t="n">
-        <v>1506</v>
+        <v>1410</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3682.022221769359</v>
+        <v>3483.15476390887</v>
       </c>
       <c r="B41" t="n">
-        <v>1450</v>
+        <v>1514</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4403.829064098957</v>
+        <v>4194.296998287591</v>
       </c>
       <c r="B42" t="n">
-        <v>1194</v>
+        <v>1252</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5125.635906428556</v>
+        <v>4905.439232666312</v>
       </c>
       <c r="B43" t="n">
-        <v>890</v>
+        <v>1036</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5847.442748758154</v>
+        <v>5616.581467045033</v>
       </c>
       <c r="B44" t="n">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6569.249591087753</v>
+        <v>6327.723701423753</v>
       </c>
       <c r="B45" t="n">
-        <v>487</v>
+        <v>593</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7291.056433417352</v>
+        <v>7038.865935802474</v>
       </c>
       <c r="B46" t="n">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8012.86327574695</v>
+        <v>7750.008170181195</v>
       </c>
       <c r="B47" t="n">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8734.670118076549</v>
+        <v>8461.150404559916</v>
       </c>
       <c r="B48" t="n">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9456.476960406148</v>
+        <v>9172.292638938636</v>
       </c>
       <c r="B49" t="n">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10178.28380273575</v>
+        <v>9883.434873317357</v>
       </c>
       <c r="B50" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10900.09064506534</v>
+        <v>10594.57710769608</v>
       </c>
       <c r="B51" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11621.89748739494</v>
+        <v>11305.7193420748</v>
       </c>
       <c r="B52" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12343.70432972454</v>
+        <v>12016.86157645352</v>
       </c>
       <c r="B53" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13065.51117205414</v>
+        <v>12728.00381083224</v>
       </c>
       <c r="B54" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>13787.31801438374</v>
+        <v>13439.14604521096</v>
       </c>
       <c r="B55" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14509.12485671334</v>
+        <v>14150.28827958968</v>
       </c>
       <c r="B56" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15230.93169904294</v>
+        <v>14861.4305139684</v>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>15952.73854137254</v>
+        <v>15572.57274834712</v>
       </c>
       <c r="B58" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16674.54538370213</v>
+        <v>16283.71498272584</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>17396.35222603173</v>
+        <v>16994.85721710456</v>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>18118.15906836133</v>
+        <v>17705.99945148328</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>18839.96591069093</v>
+        <v>18417.141685862</v>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>19561.77275302053</v>
+        <v>19128.28392024073</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>20283.57959535013</v>
+        <v>19839.42615461945</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>21005.38643767972</v>
+        <v>20550.56838899817</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>21727.19328000932</v>
+        <v>21261.71062337689</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>22449.00012233892</v>
+        <v>21972.85285775561</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>23170.80696466852</v>
+        <v>22683.99509213433</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>23892.61380699812</v>
+        <v>23395.13732651305</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24614.42064932772</v>
+        <v>24106.27956089177</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>25336.22749165732</v>
+        <v>24817.42179527049</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.229323849918455</v>
+        <v>1.599399969905938</v>
       </c>
       <c r="B72" t="n">
-        <v>2468</v>
+        <v>1766</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15.86818904973577</v>
+        <v>13.03743340662324</v>
       </c>
       <c r="B73" t="n">
-        <v>3273</v>
+        <v>2907</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>30.50705424955309</v>
+        <v>24.47546684334055</v>
       </c>
       <c r="B74" t="n">
-        <v>1814</v>
+        <v>1944</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>45.14591944937041</v>
+        <v>35.91350028005785</v>
       </c>
       <c r="B75" t="n">
-        <v>1029</v>
+        <v>1248</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>59.78478464918773</v>
+        <v>47.35153371677516</v>
       </c>
       <c r="B76" t="n">
-        <v>536</v>
+        <v>680</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>74.42364984900505</v>
+        <v>58.78956715349246</v>
       </c>
       <c r="B77" t="n">
-        <v>353</v>
+        <v>492</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>89.06251504882236</v>
+        <v>70.22760059020976</v>
       </c>
       <c r="B78" t="n">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>103.7013802486397</v>
+        <v>81.66563402692707</v>
       </c>
       <c r="B79" t="n">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>118.340245448457</v>
+        <v>93.10366746364437</v>
       </c>
       <c r="B80" t="n">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>132.9791106482743</v>
+        <v>104.5417009003617</v>
       </c>
       <c r="B81" t="n">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>147.6179758480916</v>
+        <v>115.979734337079</v>
       </c>
       <c r="B82" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>162.2568410479089</v>
+        <v>127.4177677737963</v>
       </c>
       <c r="B83" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>176.8957062477263</v>
+        <v>138.8558012105136</v>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>191.5345714475436</v>
+        <v>150.2938346472309</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>206.1734366473609</v>
+        <v>161.7318680839482</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>220.8123018471782</v>
+        <v>173.1699015206655</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>235.4511670469955</v>
+        <v>184.6079349573828</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>250.0900322468128</v>
+        <v>196.0459683941001</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>264.7288974466301</v>
+        <v>207.4840018308174</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>279.3677626464475</v>
+        <v>218.9220352675347</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>294.0066278462648</v>
+        <v>230.360068704252</v>
       </c>
       <c r="B92" t="n">
         <v>4</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>308.6454930460821</v>
+        <v>241.7981021409693</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>323.2843582458995</v>
+        <v>253.2361355776866</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>337.9232234457168</v>
+        <v>264.674169014404</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>352.5620886455341</v>
+        <v>276.1122024511213</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>367.2009538453514</v>
+        <v>287.5502358878386</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>381.8398190451687</v>
+        <v>298.9882693245559</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>396.478684244986</v>
+        <v>310.4263027612732</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>411.1175494448033</v>
+        <v>321.8643361979905</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>425.7564146446206</v>
+        <v>333.3023696347078</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>440.395279844438</v>
+        <v>344.7404030714251</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>455.0341450442553</v>
+        <v>356.1784365081424</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>469.6730102440726</v>
+        <v>367.6164699448597</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>484.3118754438899</v>
+        <v>379.054503381577</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>498.9507406437072</v>
+        <v>390.4925368182944</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21557.53681289151</v>
+        <v>24075.53976926133</v>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45587.64240921188</v>
+        <v>49282.17765282244</v>
       </c>
       <c r="B3" t="n">
-        <v>550</v>
+        <v>702</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69617.74800553225</v>
+        <v>74488.81553638354</v>
       </c>
       <c r="B4" t="n">
-        <v>1249</v>
+        <v>1394</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>93647.85360185264</v>
+        <v>99695.45341994464</v>
       </c>
       <c r="B5" t="n">
-        <v>1540</v>
+        <v>1673</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>117677.959198173</v>
+        <v>124902.0913035057</v>
       </c>
       <c r="B6" t="n">
-        <v>1509</v>
+        <v>1558</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>141708.0647944934</v>
+        <v>150108.7291870668</v>
       </c>
       <c r="B7" t="n">
-        <v>1321</v>
+        <v>1241</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>165738.1703908138</v>
+        <v>175315.3670706279</v>
       </c>
       <c r="B8" t="n">
-        <v>1001</v>
+        <v>931</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>189768.2759871341</v>
+        <v>200522.0049541891</v>
       </c>
       <c r="B9" t="n">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>213798.3815834545</v>
+        <v>225728.6428377501</v>
       </c>
       <c r="B10" t="n">
-        <v>592</v>
+        <v>536</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>237828.4871797749</v>
+        <v>250935.2807213113</v>
       </c>
       <c r="B11" t="n">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>261858.5927760952</v>
+        <v>276141.9186048724</v>
       </c>
       <c r="B12" t="n">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>285888.6983724156</v>
+        <v>301348.5564884334</v>
       </c>
       <c r="B13" t="n">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>309918.803968736</v>
+        <v>326555.1943719945</v>
       </c>
       <c r="B14" t="n">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>333948.9095650563</v>
+        <v>351761.8322555557</v>
       </c>
       <c r="B15" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>357979.0151613767</v>
+        <v>376968.4701391167</v>
       </c>
       <c r="B16" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>382009.1207576972</v>
+        <v>402175.1080226779</v>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>406039.2263540175</v>
+        <v>427381.745906239</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>430069.3319503379</v>
+        <v>452588.3837898</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>454099.4375466582</v>
+        <v>477795.0216733612</v>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>478129.5431429786</v>
+        <v>503001.6595569223</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>502159.6487392989</v>
+        <v>528208.2974404835</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>526189.7543356194</v>
+        <v>553414.9353240445</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>550219.8599319396</v>
+        <v>578621.5732076056</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>574249.9655282601</v>
+        <v>603828.2110911667</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>598280.0711245805</v>
+        <v>629034.8489747278</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>622310.1767209008</v>
+        <v>654241.486858289</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>646340.2823172212</v>
+        <v>679448.1247418501</v>
       </c>
       <c r="B28" t="n">
         <v>2</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>670370.3879135415</v>
+        <v>704654.7626254112</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>694400.4935098619</v>
+        <v>729861.4005089722</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>718430.5991061823</v>
+        <v>755068.0383925333</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>742460.7047025027</v>
+        <v>780274.6762760945</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>766490.8102988231</v>
+        <v>805481.3141596556</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>790520.9158951434</v>
+        <v>830687.9520432167</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>814551.0214914638</v>
+        <v>855894.5899267778</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>838581.1270877841</v>
+        <v>881101.2278103388</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>638.5858263939878</v>
+        <v>700.3473700823724</v>
       </c>
       <c r="B37" t="n">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1349.728060772708</v>
+        <v>1531.736367534566</v>
       </c>
       <c r="B38" t="n">
-        <v>582</v>
+        <v>958</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2060.870295151429</v>
+        <v>2363.12536498676</v>
       </c>
       <c r="B39" t="n">
-        <v>1207</v>
+        <v>1659</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2772.01252953015</v>
+        <v>3194.514362438955</v>
       </c>
       <c r="B40" t="n">
-        <v>1410</v>
+        <v>1760</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3483.15476390887</v>
+        <v>4025.903359891149</v>
       </c>
       <c r="B41" t="n">
-        <v>1514</v>
+        <v>1490</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4194.296998287591</v>
+        <v>4857.292357343343</v>
       </c>
       <c r="B42" t="n">
-        <v>1252</v>
+        <v>1114</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4905.439232666312</v>
+        <v>5688.681354795537</v>
       </c>
       <c r="B43" t="n">
-        <v>1036</v>
+        <v>858</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5616.581467045033</v>
+        <v>6520.070352247731</v>
       </c>
       <c r="B44" t="n">
-        <v>751</v>
+        <v>588</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6327.723701423753</v>
+        <v>7351.459349699925</v>
       </c>
       <c r="B45" t="n">
-        <v>593</v>
+        <v>426</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7038.865935802474</v>
+        <v>8182.848347152119</v>
       </c>
       <c r="B46" t="n">
-        <v>417</v>
+        <v>271</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7750.008170181195</v>
+        <v>9014.237344604313</v>
       </c>
       <c r="B47" t="n">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8461.150404559916</v>
+        <v>9845.626342056506</v>
       </c>
       <c r="B48" t="n">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9172.292638938636</v>
+        <v>10677.0153395087</v>
       </c>
       <c r="B49" t="n">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9883.434873317357</v>
+        <v>11508.4043369609</v>
       </c>
       <c r="B50" t="n">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10594.57710769608</v>
+        <v>12339.79333441309</v>
       </c>
       <c r="B51" t="n">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11305.7193420748</v>
+        <v>13171.18233186528</v>
       </c>
       <c r="B52" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12016.86157645352</v>
+        <v>14002.57132931748</v>
       </c>
       <c r="B53" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12728.00381083224</v>
+        <v>14833.96032676967</v>
       </c>
       <c r="B54" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>13439.14604521096</v>
+        <v>15665.34932422187</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14150.28827958968</v>
+        <v>16496.73832167406</v>
       </c>
       <c r="B56" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>14861.4305139684</v>
+        <v>17328.12731912625</v>
       </c>
       <c r="B57" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>15572.57274834712</v>
+        <v>18159.51631657845</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16283.71498272584</v>
+        <v>18990.90531403064</v>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>16994.85721710456</v>
+        <v>19822.29431148284</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>17705.99945148328</v>
+        <v>20653.68330893503</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>18417.141685862</v>
+        <v>21485.07230638722</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>19128.28392024073</v>
+        <v>22316.46130383942</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>19839.42615461945</v>
+        <v>23147.85030129161</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20550.56838899817</v>
+        <v>23979.23929874381</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>21261.71062337689</v>
+        <v>24810.628296196</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>21972.85285775561</v>
+        <v>25642.0172936482</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>22683.99509213433</v>
+        <v>26473.40629110039</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>23395.13732651305</v>
+        <v>27304.79528855258</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24106.27956089177</v>
+        <v>28136.18428600478</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>24817.42179527049</v>
+        <v>28967.57328345697</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.599399969905938</v>
+        <v>1.472275551084977</v>
       </c>
       <c r="B72" t="n">
-        <v>1766</v>
+        <v>1503</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13.03743340662324</v>
+        <v>11.92667518976834</v>
       </c>
       <c r="B73" t="n">
-        <v>2907</v>
+        <v>2630</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>24.47546684334055</v>
+        <v>22.38107482845171</v>
       </c>
       <c r="B74" t="n">
-        <v>1944</v>
+        <v>2029</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>35.91350028005785</v>
+        <v>32.83547446713507</v>
       </c>
       <c r="B75" t="n">
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>47.35153371677516</v>
+        <v>43.28987410581843</v>
       </c>
       <c r="B76" t="n">
-        <v>680</v>
+        <v>849</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>58.78956715349246</v>
+        <v>53.7442737445018</v>
       </c>
       <c r="B77" t="n">
-        <v>492</v>
+        <v>571</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>70.22760059020976</v>
+        <v>64.19867338318517</v>
       </c>
       <c r="B78" t="n">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>81.66563402692707</v>
+        <v>74.65307302186852</v>
       </c>
       <c r="B79" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>93.10366746364437</v>
+        <v>85.10747266055189</v>
       </c>
       <c r="B80" t="n">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>104.5417009003617</v>
+        <v>95.56187229923526</v>
       </c>
       <c r="B81" t="n">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>115.979734337079</v>
+        <v>106.0162719379186</v>
       </c>
       <c r="B82" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>127.4177677737963</v>
+        <v>116.470671576602</v>
       </c>
       <c r="B83" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>138.8558012105136</v>
+        <v>126.9250712152854</v>
       </c>
       <c r="B84" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>150.2938346472309</v>
+        <v>137.3794708539687</v>
       </c>
       <c r="B85" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>161.7318680839482</v>
+        <v>147.8338704926521</v>
       </c>
       <c r="B86" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>173.1699015206655</v>
+        <v>158.2882701313355</v>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>184.6079349573828</v>
+        <v>168.7426697700188</v>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>196.0459683941001</v>
+        <v>179.1970694087022</v>
       </c>
       <c r="B89" t="n">
         <v>11</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>207.4840018308174</v>
+        <v>189.6514690473855</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>218.9220352675347</v>
+        <v>200.1058686860689</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>230.360068704252</v>
+        <v>210.5602683247523</v>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>241.7981021409693</v>
+        <v>221.0146679634356</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>253.2361355776866</v>
+        <v>231.469067602119</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>264.674169014404</v>
+        <v>241.9234672408024</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>276.1122024511213</v>
+        <v>252.3778668794857</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>287.5502358878386</v>
+        <v>262.8322665181691</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>298.9882693245559</v>
+        <v>273.2866661568524</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>310.4263027612732</v>
+        <v>283.7410657955358</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>321.8643361979905</v>
+        <v>294.1954654342192</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>333.3023696347078</v>
+        <v>304.6498650729026</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>344.7404030714251</v>
+        <v>315.1042647115859</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>356.1784365081424</v>
+        <v>325.5586643502693</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>367.6164699448597</v>
+        <v>336.0130639889526</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>379.054503381577</v>
+        <v>346.467463627636</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>390.4925368182944</v>
+        <v>356.9218632663193</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24075.53976926133</v>
+        <v>21828.00658327313</v>
       </c>
       <c r="B2" t="n">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49282.17765282244</v>
+        <v>43964.28604429883</v>
       </c>
       <c r="B3" t="n">
-        <v>702</v>
+        <v>451</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74488.81553638354</v>
+        <v>66100.56550532453</v>
       </c>
       <c r="B4" t="n">
-        <v>1394</v>
+        <v>1036</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99695.45341994464</v>
+        <v>88236.84496635023</v>
       </c>
       <c r="B5" t="n">
-        <v>1673</v>
+        <v>1398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>124902.0913035057</v>
+        <v>110373.1244273759</v>
       </c>
       <c r="B6" t="n">
-        <v>1558</v>
+        <v>1432</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>150108.7291870668</v>
+        <v>132509.4038884016</v>
       </c>
       <c r="B7" t="n">
-        <v>1241</v>
+        <v>1262</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>175315.3670706279</v>
+        <v>154645.6833494273</v>
       </c>
       <c r="B8" t="n">
-        <v>931</v>
+        <v>1059</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>200522.0049541891</v>
+        <v>176781.962810453</v>
       </c>
       <c r="B9" t="n">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>225728.6428377501</v>
+        <v>198918.2422714787</v>
       </c>
       <c r="B10" t="n">
-        <v>536</v>
+        <v>708</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250935.2807213113</v>
+        <v>221054.5217325044</v>
       </c>
       <c r="B11" t="n">
-        <v>326</v>
+        <v>476</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>276141.9186048724</v>
+        <v>243190.8011935301</v>
       </c>
       <c r="B12" t="n">
-        <v>235</v>
+        <v>363</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>301348.5564884334</v>
+        <v>265327.0806545558</v>
       </c>
       <c r="B13" t="n">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>326555.1943719945</v>
+        <v>287463.3601155815</v>
       </c>
       <c r="B14" t="n">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>351761.8322555557</v>
+        <v>309599.6395766072</v>
       </c>
       <c r="B15" t="n">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>376968.4701391167</v>
+        <v>331735.9190376329</v>
       </c>
       <c r="B16" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>402175.1080226779</v>
+        <v>353872.1984986585</v>
       </c>
       <c r="B17" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>427381.745906239</v>
+        <v>376008.4779596843</v>
       </c>
       <c r="B18" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>452588.3837898</v>
+        <v>398144.75742071</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>477795.0216733612</v>
+        <v>420281.0368817357</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>503001.6595569223</v>
+        <v>442417.3163427613</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>528208.2974404835</v>
+        <v>464553.5958037871</v>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>553414.9353240445</v>
+        <v>486689.8752648128</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>578621.5732076056</v>
+        <v>508826.1547258385</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>603828.2110911667</v>
+        <v>530962.4341868642</v>
       </c>
       <c r="B25" t="n">
         <v>4</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>629034.8489747278</v>
+        <v>553098.7136478899</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>654241.486858289</v>
+        <v>575234.9931089156</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>679448.1247418501</v>
+        <v>597371.2725699414</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>704654.7626254112</v>
+        <v>619507.552030967</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>729861.4005089722</v>
+        <v>641643.8314919927</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>755068.0383925333</v>
+        <v>663780.1109530184</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>780274.6762760945</v>
+        <v>685916.390414044</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>805481.3141596556</v>
+        <v>708052.6698750698</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>830687.9520432167</v>
+        <v>730188.9493360955</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>855894.5899267778</v>
+        <v>752325.2287971212</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>881101.2278103388</v>
+        <v>774461.5082581469</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>700.3473700823724</v>
+        <v>479.4648570792786</v>
       </c>
       <c r="B37" t="n">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1531.736367534566</v>
+        <v>1367.056372913435</v>
       </c>
       <c r="B38" t="n">
-        <v>958</v>
+        <v>886</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2363.12536498676</v>
+        <v>2254.647888747592</v>
       </c>
       <c r="B39" t="n">
-        <v>1659</v>
+        <v>1644</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3194.514362438955</v>
+        <v>3142.239404581749</v>
       </c>
       <c r="B40" t="n">
-        <v>1760</v>
+        <v>1885</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4025.903359891149</v>
+        <v>4029.830920415906</v>
       </c>
       <c r="B41" t="n">
-        <v>1490</v>
+        <v>1605</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4857.292357343343</v>
+        <v>4917.422436250063</v>
       </c>
       <c r="B42" t="n">
-        <v>1114</v>
+        <v>1156</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5688.681354795537</v>
+        <v>5805.013952084219</v>
       </c>
       <c r="B43" t="n">
-        <v>858</v>
+        <v>816</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6520.070352247731</v>
+        <v>6692.605467918376</v>
       </c>
       <c r="B44" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7351.459349699925</v>
+        <v>7580.196983752533</v>
       </c>
       <c r="B45" t="n">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8182.848347152119</v>
+        <v>8467.78849958669</v>
       </c>
       <c r="B46" t="n">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9014.237344604313</v>
+        <v>9355.380015420846</v>
       </c>
       <c r="B47" t="n">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9845.626342056506</v>
+        <v>10242.971531255</v>
       </c>
       <c r="B48" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10677.0153395087</v>
+        <v>11130.56304708916</v>
       </c>
       <c r="B49" t="n">
         <v>84</v>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11508.4043369609</v>
+        <v>12018.15456292332</v>
       </c>
       <c r="B50" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>12339.79333441309</v>
+        <v>12905.74607875747</v>
       </c>
       <c r="B51" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13171.18233186528</v>
+        <v>13793.33759459163</v>
       </c>
       <c r="B52" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14002.57132931748</v>
+        <v>14680.92911042579</v>
       </c>
       <c r="B53" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>14833.96032676967</v>
+        <v>15568.52062625994</v>
       </c>
       <c r="B54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>15665.34932422187</v>
+        <v>16456.1121420941</v>
       </c>
       <c r="B55" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>16496.73832167406</v>
+        <v>17343.70365792826</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17328.12731912625</v>
+        <v>18231.29517376241</v>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>18159.51631657845</v>
+        <v>19118.88668959657</v>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18990.90531403064</v>
+        <v>20006.47820543073</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19822.29431148284</v>
+        <v>20894.06972126488</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20653.68330893503</v>
+        <v>21781.66123709904</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21485.07230638722</v>
+        <v>22669.2527529332</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>22316.46130383942</v>
+        <v>23556.84426876735</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>23147.85030129161</v>
+        <v>24444.43578460151</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>23979.23929874381</v>
+        <v>25332.02730043567</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>24810.628296196</v>
+        <v>26219.61881626982</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>25642.0172936482</v>
+        <v>27107.21033210398</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>26473.40629110039</v>
+        <v>27994.80184793814</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>27304.79528855258</v>
+        <v>28882.39336377229</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>28136.18428600478</v>
+        <v>29769.98487960645</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28967.57328345697</v>
+        <v>30657.57639544061</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.472275551084977</v>
+        <v>1.452631992210765</v>
       </c>
       <c r="B72" t="n">
-        <v>1503</v>
+        <v>2445</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>11.92667518976834</v>
+        <v>16.15392799923096</v>
       </c>
       <c r="B73" t="n">
-        <v>2630</v>
+        <v>3393</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>22.38107482845171</v>
+        <v>30.85522400625115</v>
       </c>
       <c r="B74" t="n">
-        <v>2029</v>
+        <v>1820</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>32.83547446713507</v>
+        <v>45.55652001327133</v>
       </c>
       <c r="B75" t="n">
-        <v>1264</v>
+        <v>972</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43.28987410581843</v>
+        <v>60.25781602029152</v>
       </c>
       <c r="B76" t="n">
-        <v>849</v>
+        <v>529</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>53.7442737445018</v>
+        <v>74.95911202731172</v>
       </c>
       <c r="B77" t="n">
-        <v>571</v>
+        <v>297</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>64.19867338318517</v>
+        <v>89.66040803433191</v>
       </c>
       <c r="B78" t="n">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>74.65307302186852</v>
+        <v>104.3617040413521</v>
       </c>
       <c r="B79" t="n">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>85.10747266055189</v>
+        <v>119.0630000483723</v>
       </c>
       <c r="B80" t="n">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>95.56187229923526</v>
+        <v>133.7642960553925</v>
       </c>
       <c r="B81" t="n">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>106.0162719379186</v>
+        <v>148.4655920624127</v>
       </c>
       <c r="B82" t="n">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>116.470671576602</v>
+        <v>163.1668880694329</v>
       </c>
       <c r="B83" t="n">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>126.9250712152854</v>
+        <v>177.868184076453</v>
       </c>
       <c r="B84" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>137.3794708539687</v>
+        <v>192.5694800834732</v>
       </c>
       <c r="B85" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>147.8338704926521</v>
+        <v>207.2707760904934</v>
       </c>
       <c r="B86" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>158.2882701313355</v>
+        <v>221.9720720975136</v>
       </c>
       <c r="B87" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>168.7426697700188</v>
+        <v>236.6733681045338</v>
       </c>
       <c r="B88" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>179.1970694087022</v>
+        <v>251.374664111554</v>
       </c>
       <c r="B89" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>189.6514690473855</v>
+        <v>266.0759601185741</v>
       </c>
       <c r="B90" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>200.1058686860689</v>
+        <v>280.7772561255944</v>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>210.5602683247523</v>
+        <v>295.4785521326145</v>
       </c>
       <c r="B92" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>221.0146679634356</v>
+        <v>310.1798481396347</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>231.469067602119</v>
+        <v>324.8811441466549</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>241.9234672408024</v>
+        <v>339.5824401536751</v>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>252.3778668794857</v>
+        <v>354.2837361606953</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>262.8322665181691</v>
+        <v>368.9850321677155</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>273.2866661568524</v>
+        <v>383.6863281747356</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>283.7410657955358</v>
+        <v>398.3876241817559</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>294.1954654342192</v>
+        <v>413.0889201887761</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>304.6498650729026</v>
+        <v>427.7902161957962</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>315.1042647115859</v>
+        <v>442.4915122028165</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>325.5586643502693</v>
+        <v>457.1928082098366</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>336.0130639889526</v>
+        <v>471.8941042168568</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>346.467463627636</v>
+        <v>486.595400223877</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>356.9218632663193</v>
+        <v>501.2966962308972</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21828.00658327313</v>
+        <v>21906.99727445931</v>
       </c>
       <c r="B2" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43964.28604429883</v>
+        <v>42970.01325016841</v>
       </c>
       <c r="B3" t="n">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66100.56550532453</v>
+        <v>64033.02922587752</v>
       </c>
       <c r="B4" t="n">
-        <v>1036</v>
+        <v>848</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88236.84496635023</v>
+        <v>85096.04520158662</v>
       </c>
       <c r="B5" t="n">
-        <v>1398</v>
+        <v>1238</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110373.1244273759</v>
+        <v>106159.0611772957</v>
       </c>
       <c r="B6" t="n">
-        <v>1432</v>
+        <v>1351</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>132509.4038884016</v>
+        <v>127222.0771530048</v>
       </c>
       <c r="B7" t="n">
-        <v>1262</v>
+        <v>1323</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>154645.6833494273</v>
+        <v>148285.0931287139</v>
       </c>
       <c r="B8" t="n">
-        <v>1059</v>
+        <v>1081</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>176781.962810453</v>
+        <v>169348.109104423</v>
       </c>
       <c r="B9" t="n">
-        <v>777</v>
+        <v>907</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>198918.2422714787</v>
+        <v>190411.1250801321</v>
       </c>
       <c r="B10" t="n">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>221054.5217325044</v>
+        <v>211474.1410558412</v>
       </c>
       <c r="B11" t="n">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>243190.8011935301</v>
+        <v>232537.1570315503</v>
       </c>
       <c r="B12" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>265327.0806545558</v>
+        <v>253600.1730072594</v>
       </c>
       <c r="B13" t="n">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>287463.3601155815</v>
+        <v>274663.1889829686</v>
       </c>
       <c r="B14" t="n">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>309599.6395766072</v>
+        <v>295726.2049586776</v>
       </c>
       <c r="B15" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>331735.9190376329</v>
+        <v>316789.2209343867</v>
       </c>
       <c r="B16" t="n">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>353872.1984986585</v>
+        <v>337852.2369100959</v>
       </c>
       <c r="B17" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>376008.4779596843</v>
+        <v>358915.252885805</v>
       </c>
       <c r="B18" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>398144.75742071</v>
+        <v>379978.2688615141</v>
       </c>
       <c r="B19" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>420281.0368817357</v>
+        <v>401041.2848372231</v>
       </c>
       <c r="B20" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>442417.3163427613</v>
+        <v>422104.3008129323</v>
       </c>
       <c r="B21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>464553.5958037871</v>
+        <v>443167.3167886414</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>486689.8752648128</v>
+        <v>464230.3327643505</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>508826.1547258385</v>
+        <v>485293.3487400595</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>530962.4341868642</v>
+        <v>506356.3647157687</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>553098.7136478899</v>
+        <v>527419.3806914778</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>575234.9931089156</v>
+        <v>548482.3966671869</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>597371.2725699414</v>
+        <v>569545.4126428959</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>619507.552030967</v>
+        <v>590608.4286186051</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>641643.8314919927</v>
+        <v>611671.4445943142</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>663780.1109530184</v>
+        <v>632734.4605700233</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>685916.390414044</v>
+        <v>653797.4765457325</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>708052.6698750698</v>
+        <v>674860.4925214415</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>730188.9493360955</v>
+        <v>695923.5084971506</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>752325.2287971212</v>
+        <v>716986.5244728597</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>774461.5082581469</v>
+        <v>738049.5404485688</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>479.4648570792786</v>
+        <v>550.1503883791747</v>
       </c>
       <c r="B37" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1367.056372913435</v>
+        <v>1355.463091408411</v>
       </c>
       <c r="B38" t="n">
-        <v>886</v>
+        <v>722</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2254.647888747592</v>
+        <v>2160.775794437647</v>
       </c>
       <c r="B39" t="n">
-        <v>1644</v>
+        <v>1378</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3142.239404581749</v>
+        <v>2966.088497466883</v>
       </c>
       <c r="B40" t="n">
-        <v>1885</v>
+        <v>1744</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4029.830920415906</v>
+        <v>3771.40120049612</v>
       </c>
       <c r="B41" t="n">
-        <v>1605</v>
+        <v>1536</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4917.422436250063</v>
+        <v>4576.713903525356</v>
       </c>
       <c r="B42" t="n">
-        <v>1156</v>
+        <v>1274</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5805.013952084219</v>
+        <v>5382.026606554592</v>
       </c>
       <c r="B43" t="n">
-        <v>816</v>
+        <v>935</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6692.605467918376</v>
+        <v>6187.339309583828</v>
       </c>
       <c r="B44" t="n">
-        <v>583</v>
+        <v>703</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7580.196983752533</v>
+        <v>6992.652012613064</v>
       </c>
       <c r="B45" t="n">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8467.78849958669</v>
+        <v>7797.964715642301</v>
       </c>
       <c r="B46" t="n">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9355.380015420846</v>
+        <v>8603.277418671536</v>
       </c>
       <c r="B47" t="n">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10242.971531255</v>
+        <v>9408.590121700774</v>
       </c>
       <c r="B48" t="n">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11130.56304708916</v>
+        <v>10213.90282473001</v>
       </c>
       <c r="B49" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12018.15456292332</v>
+        <v>11019.21552775925</v>
       </c>
       <c r="B50" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>12905.74607875747</v>
+        <v>11824.52823078848</v>
       </c>
       <c r="B51" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13793.33759459163</v>
+        <v>12629.84093381772</v>
       </c>
       <c r="B52" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14680.92911042579</v>
+        <v>13435.15363684695</v>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>15568.52062625994</v>
+        <v>14240.46633987619</v>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>16456.1121420941</v>
+        <v>15045.77904290543</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>17343.70365792826</v>
+        <v>15851.09174593466</v>
       </c>
       <c r="B56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18231.29517376241</v>
+        <v>16656.4044489639</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>19118.88668959657</v>
+        <v>17461.71715199314</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20006.47820543073</v>
+        <v>18267.02985502237</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20894.06972126488</v>
+        <v>19072.34255805161</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21781.66123709904</v>
+        <v>19877.65526108084</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>22669.2527529332</v>
+        <v>20682.96796411008</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>23556.84426876735</v>
+        <v>21488.28066713932</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>24444.43578460151</v>
+        <v>22293.59337016855</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>25332.02730043567</v>
+        <v>23098.90607319779</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>26219.61881626982</v>
+        <v>23904.21877622703</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>27107.21033210398</v>
+        <v>24709.53147925626</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>27994.80184793814</v>
+        <v>25514.84418228549</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>28882.39336377229</v>
+        <v>26320.15688531473</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>29769.98487960645</v>
+        <v>27125.46958834397</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>30657.57639544061</v>
+        <v>27930.78229137321</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.452631992210765</v>
+        <v>1.798501006671782</v>
       </c>
       <c r="B72" t="n">
-        <v>2445</v>
+        <v>1748</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>16.15392799923096</v>
+        <v>12.96594551036145</v>
       </c>
       <c r="B73" t="n">
-        <v>3393</v>
+        <v>2805</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>30.85522400625115</v>
+        <v>24.13339001405111</v>
       </c>
       <c r="B74" t="n">
-        <v>1820</v>
+        <v>1964</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>45.55652001327133</v>
+        <v>35.30083451774078</v>
       </c>
       <c r="B75" t="n">
-        <v>972</v>
+        <v>1279</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>60.25781602029152</v>
+        <v>46.46827902143045</v>
       </c>
       <c r="B76" t="n">
-        <v>529</v>
+        <v>755</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>74.95911202731172</v>
+        <v>57.63572352512011</v>
       </c>
       <c r="B77" t="n">
-        <v>297</v>
+        <v>464</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>89.66040803433191</v>
+        <v>68.80316802880978</v>
       </c>
       <c r="B78" t="n">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>104.3617040413521</v>
+        <v>79.97061253249944</v>
       </c>
       <c r="B79" t="n">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>119.0630000483723</v>
+        <v>91.13805703618911</v>
       </c>
       <c r="B80" t="n">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>133.7642960553925</v>
+        <v>102.3055015398788</v>
       </c>
       <c r="B81" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>148.4655920624127</v>
+        <v>113.4729460435684</v>
       </c>
       <c r="B82" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>163.1668880694329</v>
+        <v>124.6403905472581</v>
       </c>
       <c r="B83" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>177.868184076453</v>
+        <v>135.8078350509478</v>
       </c>
       <c r="B84" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>192.5694800834732</v>
+        <v>146.9752795546374</v>
       </c>
       <c r="B85" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>207.2707760904934</v>
+        <v>158.1427240583271</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>221.9720720975136</v>
+        <v>169.3101685620168</v>
       </c>
       <c r="B87" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>236.6733681045338</v>
+        <v>180.4776130657064</v>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>251.374664111554</v>
+        <v>191.6450575693961</v>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>266.0759601185741</v>
+        <v>202.8125020730858</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>280.7772561255944</v>
+        <v>213.9799465767754</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>295.4785521326145</v>
+        <v>225.1473910804651</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>310.1798481396347</v>
+        <v>236.3148355841548</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>324.8811441466549</v>
+        <v>247.4822800878444</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>339.5824401536751</v>
+        <v>258.649724591534</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>354.2837361606953</v>
+        <v>269.8171690952237</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>368.9850321677155</v>
+        <v>280.9846135989134</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>383.6863281747356</v>
+        <v>292.1520581026031</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>398.3876241817559</v>
+        <v>303.3195026062927</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>413.0889201887761</v>
+        <v>314.4869471099824</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>427.7902161957962</v>
+        <v>325.6543916136721</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>442.4915122028165</v>
+        <v>336.8218361173617</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>457.1928082098366</v>
+        <v>347.9892806210514</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>471.8941042168568</v>
+        <v>359.1567251247411</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>486.595400223877</v>
+        <v>370.3241696284308</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>501.2966962308972</v>
+        <v>381.4916141321204</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21906.99727445931</v>
+        <v>26884.75420002801</v>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>476</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42970.01325016841</v>
+        <v>64137.33877439475</v>
       </c>
       <c r="B3" t="n">
-        <v>442</v>
+        <v>1894</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64033.02922587752</v>
+        <v>101389.9233487615</v>
       </c>
       <c r="B4" t="n">
-        <v>848</v>
+        <v>2357</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85096.04520158662</v>
+        <v>138642.5079231283</v>
       </c>
       <c r="B5" t="n">
-        <v>1238</v>
+        <v>1951</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106159.0611772957</v>
+        <v>175895.092497495</v>
       </c>
       <c r="B6" t="n">
-        <v>1351</v>
+        <v>1333</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>127222.0771530048</v>
+        <v>213147.6770718617</v>
       </c>
       <c r="B7" t="n">
-        <v>1323</v>
+        <v>801</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>148285.0931287139</v>
+        <v>250400.2616462285</v>
       </c>
       <c r="B8" t="n">
-        <v>1081</v>
+        <v>473</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>169348.109104423</v>
+        <v>287652.8462205952</v>
       </c>
       <c r="B9" t="n">
-        <v>907</v>
+        <v>292</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>190411.1250801321</v>
+        <v>324905.430794962</v>
       </c>
       <c r="B10" t="n">
-        <v>688</v>
+        <v>175</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>211474.1410558412</v>
+        <v>362158.0153693287</v>
       </c>
       <c r="B11" t="n">
-        <v>534</v>
+        <v>106</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>232537.1570315503</v>
+        <v>399410.5999436955</v>
       </c>
       <c r="B12" t="n">
-        <v>360</v>
+        <v>61</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253600.1730072594</v>
+        <v>436663.1845180622</v>
       </c>
       <c r="B13" t="n">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>274663.1889829686</v>
+        <v>473915.769092429</v>
       </c>
       <c r="B14" t="n">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>295726.2049586776</v>
+        <v>511168.3536667957</v>
       </c>
       <c r="B15" t="n">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>316789.2209343867</v>
+        <v>548420.9382411625</v>
       </c>
       <c r="B16" t="n">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>337852.2369100959</v>
+        <v>585673.5228155293</v>
       </c>
       <c r="B17" t="n">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>358915.252885805</v>
+        <v>622926.1073898959</v>
       </c>
       <c r="B18" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>379978.2688615141</v>
+        <v>660178.6919642626</v>
       </c>
       <c r="B19" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>401041.2848372231</v>
+        <v>697431.2765386294</v>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>422104.3008129323</v>
+        <v>734683.8611129962</v>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>443167.3167886414</v>
+        <v>771936.4456873629</v>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>464230.3327643505</v>
+        <v>809189.0302617296</v>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>485293.3487400595</v>
+        <v>846441.6148360964</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>506356.3647157687</v>
+        <v>883694.1994104632</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>527419.3806914778</v>
+        <v>920946.7839848299</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>548482.3966671869</v>
+        <v>958199.3685591966</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>569545.4126428959</v>
+        <v>995451.9531335634</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>590608.4286186051</v>
+        <v>1032704.53770793</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>611671.4445943142</v>
+        <v>1069957.122282297</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>632734.4605700233</v>
+        <v>1107209.706856664</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>653797.4765457325</v>
+        <v>1144462.29143103</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>674860.4925214415</v>
+        <v>1181714.876005397</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>695923.5084971506</v>
+        <v>1218967.460579764</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>716986.5244728597</v>
+        <v>1256220.045154131</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>738049.5404485688</v>
+        <v>1293472.629728497</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>550.1503883791747</v>
+        <v>609.2415456072885</v>
       </c>
       <c r="B37" t="n">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1355.463091408411</v>
+        <v>1508.355843994362</v>
       </c>
       <c r="B38" t="n">
-        <v>722</v>
+        <v>1006</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2160.775794437647</v>
+        <v>2407.470142381435</v>
       </c>
       <c r="B39" t="n">
-        <v>1378</v>
+        <v>1802</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2966.088497466883</v>
+        <v>3306.584440768509</v>
       </c>
       <c r="B40" t="n">
-        <v>1744</v>
+        <v>1811</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3771.40120049612</v>
+        <v>4205.698739155581</v>
       </c>
       <c r="B41" t="n">
-        <v>1536</v>
+        <v>1518</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4576.713903525356</v>
+        <v>5104.813037542655</v>
       </c>
       <c r="B42" t="n">
-        <v>1274</v>
+        <v>1177</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5382.026606554592</v>
+        <v>6003.927335929729</v>
       </c>
       <c r="B43" t="n">
-        <v>935</v>
+        <v>810</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6187.339309583828</v>
+        <v>6903.041634316802</v>
       </c>
       <c r="B44" t="n">
-        <v>703</v>
+        <v>626</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6992.652012613064</v>
+        <v>7802.155932703875</v>
       </c>
       <c r="B45" t="n">
-        <v>464</v>
+        <v>351</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7797.964715642301</v>
+        <v>8701.270231090948</v>
       </c>
       <c r="B46" t="n">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8603.277418671536</v>
+        <v>9600.384529478022</v>
       </c>
       <c r="B47" t="n">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9408.590121700774</v>
+        <v>10499.49882786509</v>
       </c>
       <c r="B48" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10213.90282473001</v>
+        <v>11398.61312625217</v>
       </c>
       <c r="B49" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11019.21552775925</v>
+        <v>12297.72742463924</v>
       </c>
       <c r="B50" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11824.52823078848</v>
+        <v>13196.84172302631</v>
       </c>
       <c r="B51" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12629.84093381772</v>
+        <v>14095.95602141339</v>
       </c>
       <c r="B52" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13435.15363684695</v>
+        <v>14995.07031980046</v>
       </c>
       <c r="B53" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>14240.46633987619</v>
+        <v>15894.18461818754</v>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>15045.77904290543</v>
+        <v>16793.29891657461</v>
       </c>
       <c r="B55" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15851.09174593466</v>
+        <v>17692.41321496168</v>
       </c>
       <c r="B56" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16656.4044489639</v>
+        <v>18591.52751334876</v>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17461.71715199314</v>
+        <v>19490.64181173583</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18267.02985502237</v>
+        <v>20389.7561101229</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19072.34255805161</v>
+        <v>21288.87040850997</v>
       </c>
       <c r="B60" t="n">
         <v>2</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>19877.65526108084</v>
+        <v>22187.98470689705</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20682.96796411008</v>
+        <v>23087.09900528412</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>21488.28066713932</v>
+        <v>23986.21330367119</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>22293.59337016855</v>
+        <v>24885.32760205827</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>23098.90607319779</v>
+        <v>25784.44190044534</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>23904.21877622703</v>
+        <v>26683.55619883242</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>24709.53147925626</v>
+        <v>27582.67049721949</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>25514.84418228549</v>
+        <v>28481.78479560656</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>26320.15688531473</v>
+        <v>29380.89909399363</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>27125.46958834397</v>
+        <v>30280.01339238071</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>27930.78229137321</v>
+        <v>31179.12769076778</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.798501006671782</v>
+        <v>1.643901980128047</v>
       </c>
       <c r="B72" t="n">
-        <v>1748</v>
+        <v>5667</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12.96594551036145</v>
+        <v>29.56453497194536</v>
       </c>
       <c r="B73" t="n">
-        <v>2805</v>
+        <v>2853</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>24.13339001405111</v>
+        <v>57.48516796376268</v>
       </c>
       <c r="B74" t="n">
-        <v>1964</v>
+        <v>892</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>35.30083451774078</v>
+        <v>85.40580095557999</v>
       </c>
       <c r="B75" t="n">
-        <v>1279</v>
+        <v>335</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>46.46827902143045</v>
+        <v>113.3264339473973</v>
       </c>
       <c r="B76" t="n">
-        <v>755</v>
+        <v>131</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>57.63572352512011</v>
+        <v>141.2470669392146</v>
       </c>
       <c r="B77" t="n">
-        <v>464</v>
+        <v>57</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>68.80316802880978</v>
+        <v>169.1676999310319</v>
       </c>
       <c r="B78" t="n">
-        <v>324</v>
+        <v>26</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>79.97061253249944</v>
+        <v>197.0883329228492</v>
       </c>
       <c r="B79" t="n">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>91.13805703618911</v>
+        <v>225.0089659146666</v>
       </c>
       <c r="B80" t="n">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>102.3055015398788</v>
+        <v>252.9295989064839</v>
       </c>
       <c r="B81" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>113.4729460435684</v>
+        <v>280.8502318983012</v>
       </c>
       <c r="B82" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>124.6403905472581</v>
+        <v>308.7708648901184</v>
       </c>
       <c r="B83" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>135.8078350509478</v>
+        <v>336.6914978819358</v>
       </c>
       <c r="B84" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>146.9752795546374</v>
+        <v>364.6121308737531</v>
       </c>
       <c r="B85" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>158.1427240583271</v>
+        <v>392.5327638655704</v>
       </c>
       <c r="B86" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>169.3101685620168</v>
+        <v>420.4533968573877</v>
       </c>
       <c r="B87" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>180.4776130657064</v>
+        <v>448.374029849205</v>
       </c>
       <c r="B88" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>191.6450575693961</v>
+        <v>476.2946628410224</v>
       </c>
       <c r="B89" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>202.8125020730858</v>
+        <v>504.2152958328397</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>213.9799465767754</v>
+        <v>532.135928824657</v>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>225.1473910804651</v>
+        <v>560.0565618164743</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>236.3148355841548</v>
+        <v>587.9771948082916</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>247.4822800878444</v>
+        <v>615.8978278001089</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>258.649724591534</v>
+        <v>643.8184607919262</v>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>269.8171690952237</v>
+        <v>671.7390937837436</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>280.9846135989134</v>
+        <v>699.6597267755609</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>292.1520581026031</v>
+        <v>727.5803597673782</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>303.3195026062927</v>
+        <v>755.5009927591955</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>314.4869471099824</v>
+        <v>783.4216257510128</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>325.6543916136721</v>
+        <v>811.3422587428302</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>336.8218361173617</v>
+        <v>839.2628917346474</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>347.9892806210514</v>
+        <v>867.1835247264647</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>359.1567251247411</v>
+        <v>895.1041577182821</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>370.3241696284308</v>
+        <v>923.0247907100994</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>381.4916141321204</v>
+        <v>950.9454237019168</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26884.75420002801</v>
+        <v>27407.66865997104</v>
       </c>
       <c r="B2" t="n">
-        <v>476</v>
+        <v>648</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64137.33877439475</v>
+        <v>70118.2328573346</v>
       </c>
       <c r="B3" t="n">
-        <v>1894</v>
+        <v>2531</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101389.9233487615</v>
+        <v>112828.7970546982</v>
       </c>
       <c r="B4" t="n">
-        <v>2357</v>
+        <v>2574</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>138642.5079231283</v>
+        <v>155539.3612520617</v>
       </c>
       <c r="B5" t="n">
-        <v>1951</v>
+        <v>1815</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>175895.092497495</v>
+        <v>198249.9254494253</v>
       </c>
       <c r="B6" t="n">
-        <v>1333</v>
+        <v>1103</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>213147.6770718617</v>
+        <v>240960.4896467888</v>
       </c>
       <c r="B7" t="n">
-        <v>801</v>
+        <v>600</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250400.2616462285</v>
+        <v>283671.0538441524</v>
       </c>
       <c r="B8" t="n">
-        <v>473</v>
+        <v>343</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>287652.8462205952</v>
+        <v>326381.6180415159</v>
       </c>
       <c r="B9" t="n">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>324905.430794962</v>
+        <v>369092.1822388795</v>
       </c>
       <c r="B10" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>362158.0153693287</v>
+        <v>411802.7464362431</v>
       </c>
       <c r="B11" t="n">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>399410.5999436955</v>
+        <v>454513.3106336066</v>
       </c>
       <c r="B12" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>436663.1845180622</v>
+        <v>497223.8748309702</v>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>473915.769092429</v>
+        <v>539934.4390283336</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>511168.3536667957</v>
+        <v>582645.0032256972</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>548420.9382411625</v>
+        <v>625355.5674230608</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>585673.5228155293</v>
+        <v>668066.1316204243</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>622926.1073898959</v>
+        <v>710776.6958177879</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>660178.6919642626</v>
+        <v>753487.2600151515</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>697431.2765386294</v>
+        <v>796197.824212515</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>734683.8611129962</v>
+        <v>838908.3884098786</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>771936.4456873629</v>
+        <v>881618.9526072422</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>809189.0302617296</v>
+        <v>924329.5168046057</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>846441.6148360964</v>
+        <v>967040.0810019693</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>883694.1994104632</v>
+        <v>1009750.645199333</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>920946.7839848299</v>
+        <v>1052461.209396696</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>958199.3685591966</v>
+        <v>1095171.77359406</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>995451.9531335634</v>
+        <v>1137882.337791424</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1032704.53770793</v>
+        <v>1180592.901988787</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1069957.122282297</v>
+        <v>1223303.466186151</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1107209.706856664</v>
+        <v>1266014.030383514</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1144462.29143103</v>
+        <v>1308724.594580878</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1181714.876005397</v>
+        <v>1351435.158778241</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1218967.460579764</v>
+        <v>1394145.722975605</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1256220.045154131</v>
+        <v>1436856.287172968</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1293472.629728497</v>
+        <v>1479566.851370332</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>609.2415456072885</v>
+        <v>559.4604523624078</v>
       </c>
       <c r="B37" t="n">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1508.355843994362</v>
+        <v>1339.966531639735</v>
       </c>
       <c r="B38" t="n">
-        <v>1006</v>
+        <v>653</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2407.470142381435</v>
+        <v>2120.472610917063</v>
       </c>
       <c r="B39" t="n">
-        <v>1802</v>
+        <v>1350</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3306.584440768509</v>
+        <v>2900.978690194391</v>
       </c>
       <c r="B40" t="n">
-        <v>1811</v>
+        <v>1607</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4205.698739155581</v>
+        <v>3681.484769471719</v>
       </c>
       <c r="B41" t="n">
-        <v>1518</v>
+        <v>1427</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5104.813037542655</v>
+        <v>4461.990848749047</v>
       </c>
       <c r="B42" t="n">
-        <v>1177</v>
+        <v>1325</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6003.927335929729</v>
+        <v>5242.496928026374</v>
       </c>
       <c r="B43" t="n">
-        <v>810</v>
+        <v>983</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6903.041634316802</v>
+        <v>6023.003007303702</v>
       </c>
       <c r="B44" t="n">
-        <v>626</v>
+        <v>777</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7802.155932703875</v>
+        <v>6803.50908658103</v>
       </c>
       <c r="B45" t="n">
-        <v>351</v>
+        <v>518</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8701.270231090948</v>
+        <v>7584.015165858357</v>
       </c>
       <c r="B46" t="n">
-        <v>222</v>
+        <v>339</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9600.384529478022</v>
+        <v>8364.521245135686</v>
       </c>
       <c r="B47" t="n">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10499.49882786509</v>
+        <v>9145.027324413013</v>
       </c>
       <c r="B48" t="n">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11398.61312625217</v>
+        <v>9925.53340369034</v>
       </c>
       <c r="B49" t="n">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12297.72742463924</v>
+        <v>10706.03948296767</v>
       </c>
       <c r="B50" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13196.84172302631</v>
+        <v>11486.545562245</v>
       </c>
       <c r="B51" t="n">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>14095.95602141339</v>
+        <v>12267.05164152232</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14995.07031980046</v>
+        <v>13047.55772079965</v>
       </c>
       <c r="B53" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>15894.18461818754</v>
+        <v>13828.06380007698</v>
       </c>
       <c r="B54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>16793.29891657461</v>
+        <v>14608.56987935431</v>
       </c>
       <c r="B55" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>17692.41321496168</v>
+        <v>15389.07595863164</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18591.52751334876</v>
+        <v>16169.58203790896</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>19490.64181173583</v>
+        <v>16950.08811718629</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20389.7561101229</v>
+        <v>17730.59419646362</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>21288.87040850997</v>
+        <v>18511.10027574095</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>22187.98470689705</v>
+        <v>19291.60635501827</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23087.09900528412</v>
+        <v>20072.1124342956</v>
       </c>
       <c r="B62" t="n">
         <v>2</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>23986.21330367119</v>
+        <v>20852.61851357293</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>24885.32760205827</v>
+        <v>21633.12459285026</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>25784.44190044534</v>
+        <v>22413.63067212759</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>26683.55619883242</v>
+        <v>23194.13675140491</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>27582.67049721949</v>
+        <v>23974.64283068224</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>28481.78479560656</v>
+        <v>24755.14890995957</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>29380.89909399363</v>
+        <v>25535.6549892369</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>30280.01339238071</v>
+        <v>26316.16106851423</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>31179.12769076778</v>
+        <v>27096.66714779155</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.643901980128047</v>
+        <v>1.929556761236186</v>
       </c>
       <c r="B72" t="n">
-        <v>5667</v>
+        <v>3878</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>29.56453497194536</v>
+        <v>21.06951635332853</v>
       </c>
       <c r="B73" t="n">
-        <v>2853</v>
+        <v>3273</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>57.48516796376268</v>
+        <v>40.20947594542088</v>
       </c>
       <c r="B74" t="n">
-        <v>892</v>
+        <v>1450</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>85.40580095557999</v>
+        <v>59.34943553751322</v>
       </c>
       <c r="B75" t="n">
-        <v>335</v>
+        <v>641</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>113.3264339473973</v>
+        <v>78.48939512960557</v>
       </c>
       <c r="B76" t="n">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>141.2470669392146</v>
+        <v>97.62935472169791</v>
       </c>
       <c r="B77" t="n">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>169.1676999310319</v>
+        <v>116.7693143137903</v>
       </c>
       <c r="B78" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>197.0883329228492</v>
+        <v>135.9092739058826</v>
       </c>
       <c r="B79" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>225.0089659146666</v>
+        <v>155.049233497975</v>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>252.9295989064839</v>
+        <v>174.1891930900673</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>280.8502318983012</v>
+        <v>193.3291526821596</v>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>308.7708648901184</v>
+        <v>212.469112274252</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>336.6914978819358</v>
+        <v>231.6090718663444</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>364.6121308737531</v>
+        <v>250.7490314584367</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>392.5327638655704</v>
+        <v>269.8889910505291</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>420.4533968573877</v>
+        <v>289.0289506426214</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>448.374029849205</v>
+        <v>308.1689102347137</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>476.2946628410224</v>
+        <v>327.3088698268061</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>504.2152958328397</v>
+        <v>346.4488294188984</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>532.135928824657</v>
+        <v>365.5887890109908</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>560.0565618164743</v>
+        <v>384.7287486030831</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>587.9771948082916</v>
+        <v>403.8687081951755</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>615.8978278001089</v>
+        <v>423.0086677872678</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>643.8184607919262</v>
+        <v>442.1486273793602</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>671.7390937837436</v>
+        <v>461.2885869714525</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>699.6597267755609</v>
+        <v>480.4285465635448</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>727.5803597673782</v>
+        <v>499.5685061556372</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>755.5009927591955</v>
+        <v>518.7084657477295</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>783.4216257510128</v>
+        <v>537.8484253398219</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>811.3422587428302</v>
+        <v>556.9883849319142</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>839.2628917346474</v>
+        <v>576.1283445240066</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>867.1835247264647</v>
+        <v>595.2683041160989</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>895.1041577182821</v>
+        <v>614.4082637081913</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>923.0247907100994</v>
+        <v>633.5482233002837</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>950.9454237019168</v>
+        <v>652.6881828923759</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27407.66865997104</v>
+        <v>24628.05010379229</v>
       </c>
       <c r="B2" t="n">
-        <v>648</v>
+        <v>115</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70118.2328573346</v>
+        <v>50206.71445017872</v>
       </c>
       <c r="B3" t="n">
-        <v>2531</v>
+        <v>721</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112828.7970546982</v>
+        <v>75785.37879656514</v>
       </c>
       <c r="B4" t="n">
-        <v>2574</v>
+        <v>1424</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>155539.3612520617</v>
+        <v>101364.0431429516</v>
       </c>
       <c r="B5" t="n">
-        <v>1815</v>
+        <v>1650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>198249.9254494253</v>
+        <v>126942.707489338</v>
       </c>
       <c r="B6" t="n">
-        <v>1103</v>
+        <v>1581</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>240960.4896467888</v>
+        <v>152521.3718357245</v>
       </c>
       <c r="B7" t="n">
-        <v>600</v>
+        <v>1211</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>283671.0538441524</v>
+        <v>178100.0361821109</v>
       </c>
       <c r="B8" t="n">
-        <v>343</v>
+        <v>948</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>326381.6180415159</v>
+        <v>203678.7005284973</v>
       </c>
       <c r="B9" t="n">
-        <v>178</v>
+        <v>713</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>369092.1822388795</v>
+        <v>229257.3648748837</v>
       </c>
       <c r="B10" t="n">
-        <v>101</v>
+        <v>521</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>411802.7464362431</v>
+        <v>254836.0292212702</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>351</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>454513.3106336066</v>
+        <v>280414.6935676566</v>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>497223.8748309702</v>
+        <v>305993.357914043</v>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>539934.4390283336</v>
+        <v>331572.0222604295</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>582645.0032256972</v>
+        <v>357150.6866068159</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>625355.5674230608</v>
+        <v>382729.3509532023</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>668066.1316204243</v>
+        <v>408308.0152995887</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>710776.6958177879</v>
+        <v>433886.6796459752</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>753487.2600151515</v>
+        <v>459465.3439923616</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>796197.824212515</v>
+        <v>485044.0083387481</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>838908.3884098786</v>
+        <v>510622.6726851345</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>881618.9526072422</v>
+        <v>536201.3370315209</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>924329.5168046057</v>
+        <v>561780.0013779073</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>967040.0810019693</v>
+        <v>587358.6657242938</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1009750.645199333</v>
+        <v>612937.3300706802</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1052461.209396696</v>
+        <v>638515.9944170667</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1095171.77359406</v>
+        <v>664094.6587634531</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1137882.337791424</v>
+        <v>689673.3231098396</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1180592.901988787</v>
+        <v>715251.987456226</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1223303.466186151</v>
+        <v>740830.6518026124</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1266014.030383514</v>
+        <v>766409.3161489988</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1308724.594580878</v>
+        <v>791987.9804953852</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1351435.158778241</v>
+        <v>817566.6448417717</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1394145.722975605</v>
+        <v>843145.3091881581</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1436856.287172968</v>
+        <v>868723.9735345446</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1479566.851370332</v>
+        <v>894302.637880931</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>559.4604523624078</v>
+        <v>813.0007162874593</v>
       </c>
       <c r="B37" t="n">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1339.966531639735</v>
+        <v>1636.09000981446</v>
       </c>
       <c r="B38" t="n">
-        <v>653</v>
+        <v>1016</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2120.472610917063</v>
+        <v>2459.179303341461</v>
       </c>
       <c r="B39" t="n">
-        <v>1350</v>
+        <v>1656</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2900.978690194391</v>
+        <v>3282.268596868462</v>
       </c>
       <c r="B40" t="n">
-        <v>1607</v>
+        <v>1640</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3681.484769471719</v>
+        <v>4105.357890395462</v>
       </c>
       <c r="B41" t="n">
-        <v>1427</v>
+        <v>1441</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4461.990848749047</v>
+        <v>4928.447183922463</v>
       </c>
       <c r="B42" t="n">
-        <v>1325</v>
+        <v>1150</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5242.496928026374</v>
+        <v>5751.536477449464</v>
       </c>
       <c r="B43" t="n">
-        <v>983</v>
+        <v>794</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6023.003007303702</v>
+        <v>6574.625770976465</v>
       </c>
       <c r="B44" t="n">
-        <v>777</v>
+        <v>606</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6803.50908658103</v>
+        <v>7397.715064503465</v>
       </c>
       <c r="B45" t="n">
-        <v>518</v>
+        <v>435</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7584.015165858357</v>
+        <v>8220.804358030466</v>
       </c>
       <c r="B46" t="n">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8364.521245135686</v>
+        <v>9043.893651557466</v>
       </c>
       <c r="B47" t="n">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9145.027324413013</v>
+        <v>9866.982945084468</v>
       </c>
       <c r="B48" t="n">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9925.53340369034</v>
+        <v>10690.07223861147</v>
       </c>
       <c r="B49" t="n">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10706.03948296767</v>
+        <v>11513.16153213847</v>
       </c>
       <c r="B50" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11486.545562245</v>
+        <v>12336.25082566547</v>
       </c>
       <c r="B51" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12267.05164152232</v>
+        <v>13159.34011919247</v>
       </c>
       <c r="B52" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13047.55772079965</v>
+        <v>13982.42941271947</v>
       </c>
       <c r="B53" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13828.06380007698</v>
+        <v>14805.51870624647</v>
       </c>
       <c r="B54" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>14608.56987935431</v>
+        <v>15628.60799977347</v>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15389.07595863164</v>
+        <v>16451.69729330048</v>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16169.58203790896</v>
+        <v>17274.78658682747</v>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>16950.08811718629</v>
+        <v>18097.87588035448</v>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17730.59419646362</v>
+        <v>18920.96517388148</v>
       </c>
       <c r="B59" t="n">
         <v>5</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18511.10027574095</v>
+        <v>19744.05446740848</v>
       </c>
       <c r="B60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>19291.60635501827</v>
+        <v>20567.14376093548</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20072.1124342956</v>
+        <v>21390.23305446248</v>
       </c>
       <c r="B62" t="n">
         <v>2</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>20852.61851357293</v>
+        <v>22213.32234798948</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21633.12459285026</v>
+        <v>23036.41164151648</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>22413.63067212759</v>
+        <v>23859.50093504348</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>23194.13675140491</v>
+        <v>24682.59022857048</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>23974.64283068224</v>
+        <v>25505.67952209749</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>24755.14890995957</v>
+        <v>26328.76881562448</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>25535.6549892369</v>
+        <v>27151.85810915149</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>26316.16106851423</v>
+        <v>27974.94740267849</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>27096.66714779155</v>
+        <v>28798.03669620549</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.929556761236186</v>
+        <v>1.437225579820829</v>
       </c>
       <c r="B72" t="n">
-        <v>3878</v>
+        <v>3141</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>21.06951635332853</v>
+        <v>18.37957311822866</v>
       </c>
       <c r="B73" t="n">
-        <v>3273</v>
+        <v>3384</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>40.20947594542088</v>
+        <v>35.32192065663648</v>
       </c>
       <c r="B74" t="n">
-        <v>1450</v>
+        <v>1687</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>59.34943553751322</v>
+        <v>52.2642681950443</v>
       </c>
       <c r="B75" t="n">
-        <v>641</v>
+        <v>812</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>78.48939512960557</v>
+        <v>69.20661573345214</v>
       </c>
       <c r="B76" t="n">
-        <v>295</v>
+        <v>415</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>97.62935472169791</v>
+        <v>86.14896327185997</v>
       </c>
       <c r="B77" t="n">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>116.7693143137903</v>
+        <v>103.0913108102678</v>
       </c>
       <c r="B78" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>135.9092739058826</v>
+        <v>120.0336583486756</v>
       </c>
       <c r="B79" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>155.049233497975</v>
+        <v>136.9760058870834</v>
       </c>
       <c r="B80" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>174.1891930900673</v>
+        <v>153.9183534254913</v>
       </c>
       <c r="B81" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>193.3291526821596</v>
+        <v>170.8607009638991</v>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>212.469112274252</v>
+        <v>187.8030485023069</v>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>231.6090718663444</v>
+        <v>204.7453960407147</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>250.7490314584367</v>
+        <v>221.6877435791226</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>269.8889910505291</v>
+        <v>238.6300911175304</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>289.0289506426214</v>
+        <v>255.5724386559382</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>308.1689102347137</v>
+        <v>272.5147861943461</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>327.3088698268061</v>
+        <v>289.4571337327539</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>346.4488294188984</v>
+        <v>306.3994812711617</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>365.5887890109908</v>
+        <v>323.3418288095696</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>384.7287486030831</v>
+        <v>340.2841763479774</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>403.8687081951755</v>
+        <v>357.2265238863852</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>423.0086677872678</v>
+        <v>374.1688714247931</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>442.1486273793602</v>
+        <v>391.1112189632009</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>461.2885869714525</v>
+        <v>408.0535665016087</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>480.4285465635448</v>
+        <v>424.9959140400165</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>499.5685061556372</v>
+        <v>441.9382615784243</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>518.7084657477295</v>
+        <v>458.8806091168321</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>537.8484253398219</v>
+        <v>475.82295665524</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>556.9883849319142</v>
+        <v>492.7653041936478</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>576.1283445240066</v>
+        <v>509.7076517320556</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>595.2683041160989</v>
+        <v>526.6499992704635</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>614.4082637081913</v>
+        <v>543.5923468088713</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>633.5482233002837</v>
+        <v>560.5346943472791</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>652.6881828923759</v>
+        <v>577.477041885687</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24628.05010379229</v>
+        <v>24235.42437802815</v>
       </c>
       <c r="B2" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50206.71445017872</v>
+        <v>49476.23600161611</v>
       </c>
       <c r="B3" t="n">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75785.37879656514</v>
+        <v>74717.04762520407</v>
       </c>
       <c r="B4" t="n">
-        <v>1424</v>
+        <v>1394</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101364.0431429516</v>
+        <v>99957.85924879203</v>
       </c>
       <c r="B5" t="n">
-        <v>1650</v>
+        <v>1590</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>126942.707489338</v>
+        <v>125198.67087238</v>
       </c>
       <c r="B6" t="n">
-        <v>1581</v>
+        <v>1536</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>152521.3718357245</v>
+        <v>150439.4824959679</v>
       </c>
       <c r="B7" t="n">
-        <v>1211</v>
+        <v>1276</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>178100.0361821109</v>
+        <v>175680.2941195559</v>
       </c>
       <c r="B8" t="n">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>203678.7005284973</v>
+        <v>200921.1057431438</v>
       </c>
       <c r="B9" t="n">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>229257.3648748837</v>
+        <v>226161.9173667318</v>
       </c>
       <c r="B10" t="n">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>254836.0292212702</v>
+        <v>251402.7289903198</v>
       </c>
       <c r="B11" t="n">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>280414.6935676566</v>
+        <v>276643.5406139077</v>
       </c>
       <c r="B12" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>305993.357914043</v>
+        <v>301884.3522374957</v>
       </c>
       <c r="B13" t="n">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>331572.0222604295</v>
+        <v>327125.1638610836</v>
       </c>
       <c r="B14" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>357150.6866068159</v>
+        <v>352365.9754846716</v>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>382729.3509532023</v>
+        <v>377606.7871082595</v>
       </c>
       <c r="B16" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>408308.0152995887</v>
+        <v>402847.5987318475</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>433886.6796459752</v>
+        <v>428088.4103554355</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>459465.3439923616</v>
+        <v>453329.2219790234</v>
       </c>
       <c r="B19" t="n">
         <v>17</v>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>485044.0083387481</v>
+        <v>478570.0336026114</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>510622.6726851345</v>
+        <v>503810.8452261993</v>
       </c>
       <c r="B21" t="n">
         <v>8</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>536201.3370315209</v>
+        <v>529051.6568497873</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>561780.0013779073</v>
+        <v>554292.4684733752</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>587358.6657242938</v>
+        <v>579533.2800969632</v>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>612937.3300706802</v>
+        <v>604774.0917205511</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>638515.9944170667</v>
+        <v>630014.9033441391</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>664094.6587634531</v>
+        <v>655255.7149677271</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>689673.3231098396</v>
+        <v>680496.5265913151</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>715251.987456226</v>
+        <v>705737.338214903</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>740830.6518026124</v>
+        <v>730978.1498384909</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>766409.3161489988</v>
+        <v>756218.9614620788</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>791987.9804953852</v>
+        <v>781459.7730856668</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>817566.6448417717</v>
+        <v>806700.5847092548</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>843145.3091881581</v>
+        <v>831941.3963328428</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>868723.9735345446</v>
+        <v>857182.2079564307</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>894302.637880931</v>
+        <v>882423.0195800187</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>813.0007162874593</v>
+        <v>656.371435116875</v>
       </c>
       <c r="B37" t="n">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1636.09000981446</v>
+        <v>1314.913163476722</v>
       </c>
       <c r="B38" t="n">
-        <v>1016</v>
+        <v>487</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2459.179303341461</v>
+        <v>1973.454891836568</v>
       </c>
       <c r="B39" t="n">
-        <v>1656</v>
+        <v>1102</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3282.268596868462</v>
+        <v>2631.996620196415</v>
       </c>
       <c r="B40" t="n">
-        <v>1640</v>
+        <v>1345</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4105.357890395462</v>
+        <v>3290.538348556262</v>
       </c>
       <c r="B41" t="n">
-        <v>1441</v>
+        <v>1329</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4928.447183922463</v>
+        <v>3949.080076916108</v>
       </c>
       <c r="B42" t="n">
-        <v>1150</v>
+        <v>1270</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5751.536477449464</v>
+        <v>4607.621805275954</v>
       </c>
       <c r="B43" t="n">
-        <v>794</v>
+        <v>1007</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6574.625770976465</v>
+        <v>5266.163533635801</v>
       </c>
       <c r="B44" t="n">
-        <v>606</v>
+        <v>795</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7397.715064503465</v>
+        <v>5924.705261995648</v>
       </c>
       <c r="B45" t="n">
-        <v>435</v>
+        <v>634</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8220.804358030466</v>
+        <v>6583.246990355494</v>
       </c>
       <c r="B46" t="n">
-        <v>312</v>
+        <v>520</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9043.893651557466</v>
+        <v>7241.788718715341</v>
       </c>
       <c r="B47" t="n">
-        <v>181</v>
+        <v>356</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9866.982945084468</v>
+        <v>7900.330447075187</v>
       </c>
       <c r="B48" t="n">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10690.07223861147</v>
+        <v>8558.872175435034</v>
       </c>
       <c r="B49" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11513.16153213847</v>
+        <v>9217.413903794881</v>
       </c>
       <c r="B50" t="n">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>12336.25082566547</v>
+        <v>9875.955632154728</v>
       </c>
       <c r="B51" t="n">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13159.34011919247</v>
+        <v>10534.49736051457</v>
       </c>
       <c r="B52" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13982.42941271947</v>
+        <v>11193.03908887442</v>
       </c>
       <c r="B53" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>14805.51870624647</v>
+        <v>11851.58081723427</v>
       </c>
       <c r="B54" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>15628.60799977347</v>
+        <v>12510.12254559411</v>
       </c>
       <c r="B55" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>16451.69729330048</v>
+        <v>13168.66427395396</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17274.78658682747</v>
+        <v>13827.20600231381</v>
       </c>
       <c r="B57" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>18097.87588035448</v>
+        <v>14485.74773067365</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18920.96517388148</v>
+        <v>15144.2894590335</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19744.05446740848</v>
+        <v>15802.83118739335</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20567.14376093548</v>
+        <v>16461.37291575319</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21390.23305446248</v>
+        <v>17119.91464411304</v>
       </c>
       <c r="B62" t="n">
         <v>2</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>22213.32234798948</v>
+        <v>17778.45637247289</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>23036.41164151648</v>
+        <v>18436.99810083273</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>23859.50093504348</v>
+        <v>19095.53982919258</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>24682.59022857048</v>
+        <v>19754.08155755242</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>25505.67952209749</v>
+        <v>20412.62328591227</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>26328.76881562448</v>
+        <v>21071.16501427212</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>27151.85810915149</v>
+        <v>21729.70674263197</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>27974.94740267849</v>
+        <v>22388.24847099181</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28798.03669620549</v>
+        <v>23046.79019935166</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.437225579820829</v>
+        <v>0.9163669782872857</v>
       </c>
       <c r="B72" t="n">
-        <v>3141</v>
+        <v>1896</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>18.37957311822866</v>
+        <v>13.45048016175103</v>
       </c>
       <c r="B73" t="n">
-        <v>3384</v>
+        <v>3022</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>35.32192065663648</v>
+        <v>25.98459334521478</v>
       </c>
       <c r="B74" t="n">
-        <v>1687</v>
+        <v>1986</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>52.2642681950443</v>
+        <v>38.51870652867854</v>
       </c>
       <c r="B75" t="n">
-        <v>812</v>
+        <v>1205</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>69.20661573345214</v>
+        <v>51.05281971214228</v>
       </c>
       <c r="B76" t="n">
-        <v>415</v>
+        <v>694</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>86.14896327185997</v>
+        <v>63.58693289560603</v>
       </c>
       <c r="B77" t="n">
-        <v>214</v>
+        <v>411</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>103.0913108102678</v>
+        <v>76.12104607906979</v>
       </c>
       <c r="B78" t="n">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>120.0336583486756</v>
+        <v>88.65515926253353</v>
       </c>
       <c r="B79" t="n">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>136.9760058870834</v>
+        <v>101.1892724459973</v>
       </c>
       <c r="B80" t="n">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>153.9183534254913</v>
+        <v>113.723385629461</v>
       </c>
       <c r="B81" t="n">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>170.8607009638991</v>
+        <v>126.2574988129248</v>
       </c>
       <c r="B82" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>187.8030485023069</v>
+        <v>138.7916119963885</v>
       </c>
       <c r="B83" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>204.7453960407147</v>
+        <v>151.3257251798523</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>221.6877435791226</v>
+        <v>163.859838363316</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>238.6300911175304</v>
+        <v>176.3939515467798</v>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>255.5724386559382</v>
+        <v>188.9280647302435</v>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>272.5147861943461</v>
+        <v>201.4621779137073</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>289.4571337327539</v>
+        <v>213.996291097171</v>
       </c>
       <c r="B89" t="n">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>306.3994812711617</v>
+        <v>226.5304042806347</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>323.3418288095696</v>
+        <v>239.0645174640985</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>340.2841763479774</v>
+        <v>251.5986306475622</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>357.2265238863852</v>
+        <v>264.132743831026</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>374.1688714247931</v>
+        <v>276.6668570144897</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>391.1112189632009</v>
+        <v>289.2009701979535</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>408.0535665016087</v>
+        <v>301.7350833814173</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>424.9959140400165</v>
+        <v>314.269196564881</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>441.9382615784243</v>
+        <v>326.8033097483448</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>458.8806091168321</v>
+        <v>339.3374229318085</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>475.82295665524</v>
+        <v>351.8715361152722</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>492.7653041936478</v>
+        <v>364.405649298736</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>509.7076517320556</v>
+        <v>376.9397624821997</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>526.6499992704635</v>
+        <v>389.4738756656635</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>543.5923468088713</v>
+        <v>402.0079888491272</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>560.5346943472791</v>
+        <v>414.542102032591</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>577.477041885687</v>
+        <v>427.0762152160547</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24235.42437802815</v>
+        <v>25756.28478611921</v>
       </c>
       <c r="B2" t="n">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49476.23600161611</v>
+        <v>44803.32213621886</v>
       </c>
       <c r="B3" t="n">
-        <v>751</v>
+        <v>357</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74717.04762520407</v>
+        <v>63850.35948631851</v>
       </c>
       <c r="B4" t="n">
-        <v>1394</v>
+        <v>789</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99957.85924879203</v>
+        <v>82897.39683641816</v>
       </c>
       <c r="B5" t="n">
-        <v>1590</v>
+        <v>1131</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>125198.67087238</v>
+        <v>101944.4341865178</v>
       </c>
       <c r="B6" t="n">
-        <v>1536</v>
+        <v>1327</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>150439.4824959679</v>
+        <v>120991.4715366175</v>
       </c>
       <c r="B7" t="n">
-        <v>1276</v>
+        <v>1188</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>175680.2941195559</v>
+        <v>140038.5088867171</v>
       </c>
       <c r="B8" t="n">
-        <v>936</v>
+        <v>1085</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>200921.1057431438</v>
+        <v>159085.5462368168</v>
       </c>
       <c r="B9" t="n">
-        <v>705</v>
+        <v>888</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>226161.9173667318</v>
+        <v>178132.5835869164</v>
       </c>
       <c r="B10" t="n">
-        <v>511</v>
+        <v>684</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251402.7289903198</v>
+        <v>197179.6209370161</v>
       </c>
       <c r="B11" t="n">
-        <v>344</v>
+        <v>558</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>276643.5406139077</v>
+        <v>216226.6582871157</v>
       </c>
       <c r="B12" t="n">
-        <v>255</v>
+        <v>466</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>301884.3522374957</v>
+        <v>235273.6956372154</v>
       </c>
       <c r="B13" t="n">
-        <v>201</v>
+        <v>369</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>327125.1638610836</v>
+        <v>254320.732987315</v>
       </c>
       <c r="B14" t="n">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>352365.9754846716</v>
+        <v>273367.7703374146</v>
       </c>
       <c r="B15" t="n">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>377606.7871082595</v>
+        <v>292414.8076875143</v>
       </c>
       <c r="B16" t="n">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>402847.5987318475</v>
+        <v>311461.8450376139</v>
       </c>
       <c r="B17" t="n">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>428088.4103554355</v>
+        <v>330508.8823877136</v>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>453329.2219790234</v>
+        <v>349555.9197378132</v>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>478570.0336026114</v>
+        <v>368602.9570879129</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>503810.8452261993</v>
+        <v>387649.9944380125</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>529051.6568497873</v>
+        <v>406697.0317881122</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>554292.4684733752</v>
+        <v>425744.0691382118</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>579533.2800969632</v>
+        <v>444791.1064883115</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>604774.0917205511</v>
+        <v>463838.1438384111</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>630014.9033441391</v>
+        <v>482885.1811885108</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>655255.7149677271</v>
+        <v>501932.2185386104</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>680496.5265913151</v>
+        <v>520979.2558887101</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>705737.338214903</v>
+        <v>540026.2932388098</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>730978.1498384909</v>
+        <v>559073.3305889094</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>756218.9614620788</v>
+        <v>578120.3679390091</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>781459.7730856668</v>
+        <v>597167.4052891087</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>806700.5847092548</v>
+        <v>616214.4426392084</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>831941.3963328428</v>
+        <v>635261.479989308</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>857182.2079564307</v>
+        <v>654308.5173394077</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>882423.0195800187</v>
+        <v>673355.5546895073</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>656.371435116875</v>
+        <v>669.8945970429877</v>
       </c>
       <c r="B37" t="n">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1314.913163476722</v>
+        <v>1538.340964599714</v>
       </c>
       <c r="B38" t="n">
-        <v>487</v>
+        <v>998</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1973.454891836568</v>
+        <v>2406.787332156441</v>
       </c>
       <c r="B39" t="n">
-        <v>1102</v>
+        <v>1655</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2631.996620196415</v>
+        <v>3275.233699713168</v>
       </c>
       <c r="B40" t="n">
-        <v>1345</v>
+        <v>1748</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3290.538348556262</v>
+        <v>4143.680067269896</v>
       </c>
       <c r="B41" t="n">
-        <v>1329</v>
+        <v>1590</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3949.080076916108</v>
+        <v>5012.126434826622</v>
       </c>
       <c r="B42" t="n">
-        <v>1270</v>
+        <v>1160</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4607.621805275954</v>
+        <v>5880.572802383349</v>
       </c>
       <c r="B43" t="n">
-        <v>1007</v>
+        <v>812</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5266.163533635801</v>
+        <v>6749.019169940076</v>
       </c>
       <c r="B44" t="n">
-        <v>795</v>
+        <v>564</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5924.705261995648</v>
+        <v>7617.465537496802</v>
       </c>
       <c r="B45" t="n">
-        <v>634</v>
+        <v>392</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6583.246990355494</v>
+        <v>8485.91190505353</v>
       </c>
       <c r="B46" t="n">
-        <v>520</v>
+        <v>275</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7241.788718715341</v>
+        <v>9354.358272610258</v>
       </c>
       <c r="B47" t="n">
-        <v>356</v>
+        <v>179</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7900.330447075187</v>
+        <v>10222.80464016698</v>
       </c>
       <c r="B48" t="n">
-        <v>266</v>
+        <v>138</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8558.872175435034</v>
+        <v>11091.25100772371</v>
       </c>
       <c r="B49" t="n">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9217.413903794881</v>
+        <v>11959.69737528044</v>
       </c>
       <c r="B50" t="n">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9875.955632154728</v>
+        <v>12828.14374283716</v>
       </c>
       <c r="B51" t="n">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10534.49736051457</v>
+        <v>13696.59011039389</v>
       </c>
       <c r="B52" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11193.03908887442</v>
+        <v>14565.03647795062</v>
       </c>
       <c r="B53" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11851.58081723427</v>
+        <v>15433.48284550734</v>
       </c>
       <c r="B54" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12510.12254559411</v>
+        <v>16301.92921306407</v>
       </c>
       <c r="B55" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>13168.66427395396</v>
+        <v>17170.3755806208</v>
       </c>
       <c r="B56" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13827.20600231381</v>
+        <v>18038.82194817753</v>
       </c>
       <c r="B57" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>14485.74773067365</v>
+        <v>18907.26831573425</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>15144.2894590335</v>
+        <v>19775.71468329098</v>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>15802.83118739335</v>
+        <v>20644.16105084771</v>
       </c>
       <c r="B60" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16461.37291575319</v>
+        <v>21512.60741840443</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17119.91464411304</v>
+        <v>22381.05378596116</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>17778.45637247289</v>
+        <v>23249.50015351789</v>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>18436.99810083273</v>
+        <v>24117.94652107461</v>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>19095.53982919258</v>
+        <v>24986.39288863134</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>19754.08155755242</v>
+        <v>25854.83925618807</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20412.62328591227</v>
+        <v>26723.28562374479</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>21071.16501427212</v>
+        <v>27591.73199130152</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>21729.70674263197</v>
+        <v>28460.17835885825</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>22388.24847099181</v>
+        <v>29328.62472641498</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>23046.79019935166</v>
+        <v>30197.0710939717</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9163669782872857</v>
+        <v>1.222905360581792</v>
       </c>
       <c r="B72" t="n">
-        <v>1896</v>
+        <v>3001</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13.45048016175103</v>
+        <v>18.01505274291596</v>
       </c>
       <c r="B73" t="n">
-        <v>3022</v>
+        <v>3438</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>25.98459334521478</v>
+        <v>34.80720012525013</v>
       </c>
       <c r="B74" t="n">
-        <v>1986</v>
+        <v>1668</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>38.51870652867854</v>
+        <v>51.59934750758431</v>
       </c>
       <c r="B75" t="n">
-        <v>1205</v>
+        <v>834</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>51.05281971214228</v>
+        <v>68.39149488991848</v>
       </c>
       <c r="B76" t="n">
-        <v>694</v>
+        <v>456</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>63.58693289560603</v>
+        <v>85.18364227225265</v>
       </c>
       <c r="B77" t="n">
-        <v>411</v>
+        <v>235</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>76.12104607906979</v>
+        <v>101.9757896545868</v>
       </c>
       <c r="B78" t="n">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>88.65515926253353</v>
+        <v>118.767937036921</v>
       </c>
       <c r="B79" t="n">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>101.1892724459973</v>
+        <v>135.5600844192552</v>
       </c>
       <c r="B80" t="n">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>113.723385629461</v>
+        <v>152.3522318015893</v>
       </c>
       <c r="B81" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>126.2574988129248</v>
+        <v>169.1443791839235</v>
       </c>
       <c r="B82" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>138.7916119963885</v>
+        <v>185.9365265662577</v>
       </c>
       <c r="B83" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>151.3257251798523</v>
+        <v>202.7286739485918</v>
       </c>
       <c r="B84" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>163.859838363316</v>
+        <v>219.520821330926</v>
       </c>
       <c r="B85" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>176.3939515467798</v>
+        <v>236.3129687132602</v>
       </c>
       <c r="B86" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>188.9280647302435</v>
+        <v>253.1051160955944</v>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>201.4621779137073</v>
+        <v>269.8972634779286</v>
       </c>
       <c r="B88" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>213.996291097171</v>
+        <v>286.6894108602627</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>226.5304042806347</v>
+        <v>303.4815582425969</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>239.0645174640985</v>
+        <v>320.2737056249311</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>251.5986306475622</v>
+        <v>337.0658530072653</v>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>264.132743831026</v>
+        <v>353.8580003895994</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>276.6668570144897</v>
+        <v>370.6501477719336</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>289.2009701979535</v>
+        <v>387.4422951542678</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>301.7350833814173</v>
+        <v>404.2344425366019</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>314.269196564881</v>
+        <v>421.0265899189361</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>326.8033097483448</v>
+        <v>437.8187373012703</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>339.3374229318085</v>
+        <v>454.6108846836045</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>351.8715361152722</v>
+        <v>471.4030320659386</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>364.405649298736</v>
+        <v>488.1951794482728</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>376.9397624821997</v>
+        <v>504.9873268306069</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>389.4738756656635</v>
+        <v>521.7794742129411</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>402.0079888491272</v>
+        <v>538.5716215952752</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>414.542102032591</v>
+        <v>555.3637689776094</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>427.0762152160547</v>
+        <v>572.1559163599436</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25756.28478611921</v>
+        <v>8214.867628428965</v>
       </c>
       <c r="B2" t="n">
-        <v>77</v>
+        <v>704</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44803.32213621886</v>
+        <v>67802.76622453066</v>
       </c>
       <c r="B3" t="n">
-        <v>357</v>
+        <v>2203</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>63850.35948631851</v>
+        <v>127390.6648206323</v>
       </c>
       <c r="B4" t="n">
-        <v>789</v>
+        <v>2181</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82897.39683641816</v>
+        <v>186978.563416734</v>
       </c>
       <c r="B5" t="n">
-        <v>1131</v>
+        <v>1617</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101944.4341865178</v>
+        <v>246566.4620128357</v>
       </c>
       <c r="B6" t="n">
-        <v>1327</v>
+        <v>1019</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>120991.4715366175</v>
+        <v>306154.3606089374</v>
       </c>
       <c r="B7" t="n">
-        <v>1188</v>
+        <v>730</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>140038.5088867171</v>
+        <v>365742.2592050391</v>
       </c>
       <c r="B8" t="n">
-        <v>1085</v>
+        <v>469</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>159085.5462368168</v>
+        <v>425330.1578011408</v>
       </c>
       <c r="B9" t="n">
-        <v>888</v>
+        <v>296</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>178132.5835869164</v>
+        <v>484918.0563972425</v>
       </c>
       <c r="B10" t="n">
-        <v>684</v>
+        <v>222</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>197179.6209370161</v>
+        <v>544505.9549933441</v>
       </c>
       <c r="B11" t="n">
-        <v>558</v>
+        <v>142</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>216226.6582871157</v>
+        <v>604093.8535894458</v>
       </c>
       <c r="B12" t="n">
-        <v>466</v>
+        <v>109</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>235273.6956372154</v>
+        <v>663681.7521855475</v>
       </c>
       <c r="B13" t="n">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>254320.732987315</v>
+        <v>723269.6507816493</v>
       </c>
       <c r="B14" t="n">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>273367.7703374146</v>
+        <v>782857.549377751</v>
       </c>
       <c r="B15" t="n">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>292414.8076875143</v>
+        <v>842445.4479738526</v>
       </c>
       <c r="B16" t="n">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>311461.8450376139</v>
+        <v>902033.3465699543</v>
       </c>
       <c r="B17" t="n">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>330508.8823877136</v>
+        <v>961621.245166056</v>
       </c>
       <c r="B18" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>349555.9197378132</v>
+        <v>1021209.143762158</v>
       </c>
       <c r="B19" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>368602.9570879129</v>
+        <v>1080797.042358259</v>
       </c>
       <c r="B20" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>387649.9944380125</v>
+        <v>1140384.940954361</v>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>406697.0317881122</v>
+        <v>1199972.839550463</v>
       </c>
       <c r="B22" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>425744.0691382118</v>
+        <v>1259560.738146564</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>444791.1064883115</v>
+        <v>1319148.636742666</v>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>463838.1438384111</v>
+        <v>1378736.535338768</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>482885.1811885108</v>
+        <v>1438324.433934869</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>501932.2185386104</v>
+        <v>1497912.332530971</v>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>520979.2558887101</v>
+        <v>1557500.231127073</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>540026.2932388098</v>
+        <v>1617088.129723174</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>559073.3305889094</v>
+        <v>1676676.028319276</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>578120.3679390091</v>
+        <v>1736263.926915378</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>597167.4052891087</v>
+        <v>1795851.82551148</v>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>616214.4426392084</v>
+        <v>1855439.724107581</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>635261.479989308</v>
+        <v>1915027.622703683</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>654308.5173394077</v>
+        <v>1974615.521299785</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>673355.5546895073</v>
+        <v>2034203.419895886</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>669.8945970429877</v>
+        <v>325.2766928219726</v>
       </c>
       <c r="B37" t="n">
-        <v>214</v>
+        <v>1032</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1538.340964599714</v>
+        <v>1824.317733079683</v>
       </c>
       <c r="B38" t="n">
-        <v>998</v>
+        <v>2352</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2406.787332156441</v>
+        <v>3323.358773337392</v>
       </c>
       <c r="B39" t="n">
-        <v>1655</v>
+        <v>2096</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3275.233699713168</v>
+        <v>4822.399813595102</v>
       </c>
       <c r="B40" t="n">
-        <v>1748</v>
+        <v>1456</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4143.680067269896</v>
+        <v>6321.440853852812</v>
       </c>
       <c r="B41" t="n">
-        <v>1590</v>
+        <v>951</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5012.126434826622</v>
+        <v>7820.481894110522</v>
       </c>
       <c r="B42" t="n">
-        <v>1160</v>
+        <v>606</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5880.572802383349</v>
+        <v>9319.522934368233</v>
       </c>
       <c r="B43" t="n">
-        <v>812</v>
+        <v>448</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6749.019169940076</v>
+        <v>10818.56397462594</v>
       </c>
       <c r="B44" t="n">
-        <v>564</v>
+        <v>311</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7617.465537496802</v>
+        <v>12317.60501488365</v>
       </c>
       <c r="B45" t="n">
-        <v>392</v>
+        <v>206</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8485.91190505353</v>
+        <v>13816.64605514136</v>
       </c>
       <c r="B46" t="n">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9354.358272610258</v>
+        <v>15315.68709539907</v>
       </c>
       <c r="B47" t="n">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10222.80464016698</v>
+        <v>16814.72813565678</v>
       </c>
       <c r="B48" t="n">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11091.25100772371</v>
+        <v>18313.76917591449</v>
       </c>
       <c r="B49" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11959.69737528044</v>
+        <v>19812.8102161722</v>
       </c>
       <c r="B50" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>12828.14374283716</v>
+        <v>21311.85125642991</v>
       </c>
       <c r="B51" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13696.59011039389</v>
+        <v>22810.89229668762</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14565.03647795062</v>
+        <v>24309.93333694533</v>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>15433.48284550734</v>
+        <v>25808.97437720304</v>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>16301.92921306407</v>
+        <v>27308.01541746075</v>
       </c>
       <c r="B55" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>17170.3755806208</v>
+        <v>28807.05645771846</v>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18038.82194817753</v>
+        <v>30306.09749797617</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>18907.26831573425</v>
+        <v>31805.13853823388</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>19775.71468329098</v>
+        <v>33304.17957849159</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20644.16105084771</v>
+        <v>34803.2206187493</v>
       </c>
       <c r="B60" t="n">
         <v>2</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21512.60741840443</v>
+        <v>36302.26165900701</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>22381.05378596116</v>
+        <v>37801.30269926472</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>23249.50015351789</v>
+        <v>39300.34373952243</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>24117.94652107461</v>
+        <v>40799.38477978014</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>24986.39288863134</v>
+        <v>42298.42582003785</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>25854.83925618807</v>
+        <v>43797.46686029556</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>26723.28562374479</v>
+        <v>45296.50790055327</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>27591.73199130152</v>
+        <v>46795.54894081098</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>28460.17835885825</v>
+        <v>48294.58998106869</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>29328.62472641498</v>
+        <v>49793.6310213264</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>30197.0710939717</v>
+        <v>51292.67206158411</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.222905360581792</v>
+        <v>0.7116888037574309</v>
       </c>
       <c r="B72" t="n">
-        <v>3001</v>
+        <v>6906</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>18.01505274291596</v>
+        <v>57.00020329726327</v>
       </c>
       <c r="B73" t="n">
-        <v>3438</v>
+        <v>1807</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>34.80720012525013</v>
+        <v>113.2887177907691</v>
       </c>
       <c r="B74" t="n">
-        <v>1668</v>
+        <v>666</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>51.59934750758431</v>
+        <v>169.5772322842749</v>
       </c>
       <c r="B75" t="n">
-        <v>834</v>
+        <v>274</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>68.39149488991848</v>
+        <v>225.8657467777808</v>
       </c>
       <c r="B76" t="n">
-        <v>456</v>
+        <v>129</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>85.18364227225265</v>
+        <v>282.1542612712867</v>
       </c>
       <c r="B77" t="n">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>101.9757896545868</v>
+        <v>338.4427757647925</v>
       </c>
       <c r="B78" t="n">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>118.767937036921</v>
+        <v>394.7312902582983</v>
       </c>
       <c r="B79" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>135.5600844192552</v>
+        <v>451.0198047518041</v>
       </c>
       <c r="B80" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>152.3522318015893</v>
+        <v>507.30831924531</v>
       </c>
       <c r="B81" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>169.1443791839235</v>
+        <v>563.5968337388158</v>
       </c>
       <c r="B82" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>185.9365265662577</v>
+        <v>619.8853482323216</v>
       </c>
       <c r="B83" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>202.7286739485918</v>
+        <v>676.1738627258275</v>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>219.520821330926</v>
+        <v>732.4623772193332</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>236.3129687132602</v>
+        <v>788.7508917128391</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>253.1051160955944</v>
+        <v>845.0394062063449</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>269.8972634779286</v>
+        <v>901.3279206998508</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>286.6894108602627</v>
+        <v>957.6164351933567</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>303.4815582425969</v>
+        <v>1013.904949686862</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>320.2737056249311</v>
+        <v>1070.193464180368</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>337.0658530072653</v>
+        <v>1126.481978673874</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>353.8580003895994</v>
+        <v>1182.77049316738</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>370.6501477719336</v>
+        <v>1239.059007660886</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>387.4422951542678</v>
+        <v>1295.347522154392</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>404.2344425366019</v>
+        <v>1351.636036647898</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>421.0265899189361</v>
+        <v>1407.924551141403</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>437.8187373012703</v>
+        <v>1464.213065634909</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>454.6108846836045</v>
+        <v>1520.501580128415</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>471.4030320659386</v>
+        <v>1576.790094621921</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>488.1951794482728</v>
+        <v>1633.078609115427</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>504.9873268306069</v>
+        <v>1689.367123608932</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>521.7794742129411</v>
+        <v>1745.655638102438</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>538.5716215952752</v>
+        <v>1801.944152595944</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>555.3637689776094</v>
+        <v>1858.23266708945</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>572.1559163599436</v>
+        <v>1914.521181582956</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8214.867628428965</v>
+        <v>10723.70515861414</v>
       </c>
       <c r="B2" t="n">
-        <v>704</v>
+        <v>1132</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67802.76622453066</v>
+        <v>82211.09601866713</v>
       </c>
       <c r="B3" t="n">
-        <v>2203</v>
+        <v>2725</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>127390.6648206323</v>
+        <v>153698.4868787201</v>
       </c>
       <c r="B4" t="n">
-        <v>2181</v>
+        <v>2238</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>186978.563416734</v>
+        <v>225185.8777387731</v>
       </c>
       <c r="B5" t="n">
-        <v>1617</v>
+        <v>1539</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>246566.4620128357</v>
+        <v>296673.2685988261</v>
       </c>
       <c r="B6" t="n">
-        <v>1019</v>
+        <v>858</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>306154.3606089374</v>
+        <v>368160.6594588791</v>
       </c>
       <c r="B7" t="n">
-        <v>730</v>
+        <v>501</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>365742.2592050391</v>
+        <v>439648.050318932</v>
       </c>
       <c r="B8" t="n">
-        <v>469</v>
+        <v>353</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>425330.1578011408</v>
+        <v>511135.441178985</v>
       </c>
       <c r="B9" t="n">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>484918.0563972425</v>
+        <v>582622.832039038</v>
       </c>
       <c r="B10" t="n">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>544505.9549933441</v>
+        <v>654110.222899091</v>
       </c>
       <c r="B11" t="n">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>604093.8535894458</v>
+        <v>725597.613759144</v>
       </c>
       <c r="B12" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>663681.7521855475</v>
+        <v>797085.0046191969</v>
       </c>
       <c r="B13" t="n">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>723269.6507816493</v>
+        <v>868572.3954792499</v>
       </c>
       <c r="B14" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>782857.549377751</v>
+        <v>940059.7863393029</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>842445.4479738526</v>
+        <v>1011547.177199356</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>902033.3465699543</v>
+        <v>1083034.568059409</v>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>961621.245166056</v>
+        <v>1154521.958919462</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1021209.143762158</v>
+        <v>1226009.349779515</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1080797.042358259</v>
+        <v>1297496.740639568</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1140384.940954361</v>
+        <v>1368984.131499621</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1199972.839550463</v>
+        <v>1440471.522359674</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1259560.738146564</v>
+        <v>1511958.913219727</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1319148.636742666</v>
+        <v>1583446.30407978</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1378736.535338768</v>
+        <v>1654933.694939833</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1438324.433934869</v>
+        <v>1726421.085799886</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1497912.332530971</v>
+        <v>1797908.476659939</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1557500.231127073</v>
+        <v>1869395.867519992</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1617088.129723174</v>
+        <v>1940883.258380045</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1676676.028319276</v>
+        <v>2012370.649240097</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1736263.926915378</v>
+        <v>2083858.040100151</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1795851.82551148</v>
+        <v>2155345.430960204</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1855439.724107581</v>
+        <v>2226832.821820257</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1915027.622703683</v>
+        <v>2298320.21268031</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1974615.521299785</v>
+        <v>2369807.603540362</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2034203.419895886</v>
+        <v>2441294.994400416</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>325.2766928219726</v>
+        <v>329.0846208177029</v>
       </c>
       <c r="B37" t="n">
-        <v>1032</v>
+        <v>2846</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1824.317733079683</v>
+        <v>2965.559955700613</v>
       </c>
       <c r="B38" t="n">
-        <v>2352</v>
+        <v>3443</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3323.358773337392</v>
+        <v>5602.035290583523</v>
       </c>
       <c r="B39" t="n">
-        <v>2096</v>
+        <v>1844</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4822.399813595102</v>
+        <v>8238.510625466433</v>
       </c>
       <c r="B40" t="n">
-        <v>1456</v>
+        <v>894</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6321.440853852812</v>
+        <v>10874.98596034934</v>
       </c>
       <c r="B41" t="n">
-        <v>951</v>
+        <v>421</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7820.481894110522</v>
+        <v>13511.46129523225</v>
       </c>
       <c r="B42" t="n">
-        <v>606</v>
+        <v>222</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9319.522934368233</v>
+        <v>16147.93663011516</v>
       </c>
       <c r="B43" t="n">
-        <v>448</v>
+        <v>128</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10818.56397462594</v>
+        <v>18784.41196499807</v>
       </c>
       <c r="B44" t="n">
-        <v>311</v>
+        <v>63</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>12317.60501488365</v>
+        <v>21420.88729988098</v>
       </c>
       <c r="B45" t="n">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>13816.64605514136</v>
+        <v>24057.36263476389</v>
       </c>
       <c r="B46" t="n">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>15315.68709539907</v>
+        <v>26693.8379696468</v>
       </c>
       <c r="B47" t="n">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16814.72813565678</v>
+        <v>29330.31330452971</v>
       </c>
       <c r="B48" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>18313.76917591449</v>
+        <v>31966.78863941262</v>
       </c>
       <c r="B49" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>19812.8102161722</v>
+        <v>34603.26397429553</v>
       </c>
       <c r="B50" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>21311.85125642991</v>
+        <v>37239.73930917844</v>
       </c>
       <c r="B51" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>22810.89229668762</v>
+        <v>39876.21464406135</v>
       </c>
       <c r="B52" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>24309.93333694533</v>
+        <v>42512.68997894426</v>
       </c>
       <c r="B53" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>25808.97437720304</v>
+        <v>45149.16531382717</v>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27308.01541746075</v>
+        <v>47785.64064871008</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28807.05645771846</v>
+        <v>50422.11598359299</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>30306.09749797617</v>
+        <v>53058.5913184759</v>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>31805.13853823388</v>
+        <v>55695.06665335881</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>33304.17957849159</v>
+        <v>58331.54198824172</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>34803.2206187493</v>
+        <v>60968.01732312463</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>36302.26165900701</v>
+        <v>63604.49265800754</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>37801.30269926472</v>
+        <v>66240.96799289045</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>39300.34373952243</v>
+        <v>68877.44332777336</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>40799.38477978014</v>
+        <v>71513.91866265627</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>42298.42582003785</v>
+        <v>74150.39399753918</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43797.46686029556</v>
+        <v>76786.86933242209</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>45296.50790055327</v>
+        <v>79423.34466730501</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>46795.54894081098</v>
+        <v>82059.82000218792</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>48294.58998106869</v>
+        <v>84696.29533707083</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>49793.6310213264</v>
+        <v>87332.77067195374</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>51292.67206158411</v>
+        <v>89969.24600683665</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.7116888037574309</v>
+        <v>0.58983260910202</v>
       </c>
       <c r="B72" t="n">
-        <v>6906</v>
+        <v>7353</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>57.00020329726327</v>
+        <v>63.97609461625833</v>
       </c>
       <c r="B73" t="n">
-        <v>1807</v>
+        <v>1626</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>113.2887177907691</v>
+        <v>127.3623566234146</v>
       </c>
       <c r="B74" t="n">
-        <v>666</v>
+        <v>531</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>169.5772322842749</v>
+        <v>190.7486186305709</v>
       </c>
       <c r="B75" t="n">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>225.8657467777808</v>
+        <v>254.1348806377273</v>
       </c>
       <c r="B76" t="n">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>282.1542612712867</v>
+        <v>317.5211426448836</v>
       </c>
       <c r="B77" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>338.4427757647925</v>
+        <v>380.9074046520399</v>
       </c>
       <c r="B78" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>394.7312902582983</v>
+        <v>444.2936666591962</v>
       </c>
       <c r="B79" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>451.0198047518041</v>
+        <v>507.6799286663525</v>
       </c>
       <c r="B80" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>507.30831924531</v>
+        <v>571.0661906735088</v>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>563.5968337388158</v>
+        <v>634.4524526806651</v>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>619.8853482323216</v>
+        <v>697.8387146878215</v>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>676.1738627258275</v>
+        <v>761.2249766949777</v>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>732.4623772193332</v>
+        <v>824.6112387021341</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>788.7508917128391</v>
+        <v>887.9975007092904</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>845.0394062063449</v>
+        <v>951.3837627164467</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>901.3279206998508</v>
+        <v>1014.770024723603</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>957.6164351933567</v>
+        <v>1078.156286730759</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1013.904949686862</v>
+        <v>1141.542548737916</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1070.193464180368</v>
+        <v>1204.928810745072</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1126.481978673874</v>
+        <v>1268.315072752228</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1182.77049316738</v>
+        <v>1331.701334759385</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1239.059007660886</v>
+        <v>1395.087596766541</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1295.347522154392</v>
+        <v>1458.473858773697</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1351.636036647898</v>
+        <v>1521.860120780854</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1407.924551141403</v>
+        <v>1585.24638278801</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1464.213065634909</v>
+        <v>1648.632644795166</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1520.501580128415</v>
+        <v>1712.018906802323</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1576.790094621921</v>
+        <v>1775.405168809479</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1633.078609115427</v>
+        <v>1838.791430816635</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1689.367123608932</v>
+        <v>1902.177692823791</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1745.655638102438</v>
+        <v>1965.563954830948</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1801.944152595944</v>
+        <v>2028.950216838104</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1858.23266708945</v>
+        <v>2092.33647884526</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1914.521181582956</v>
+        <v>2155.722740852416</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10723.70515861414</v>
+        <v>14727.47488133497</v>
       </c>
       <c r="B2" t="n">
-        <v>1132</v>
+        <v>684</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82211.09601866713</v>
+        <v>67316.46486376988</v>
       </c>
       <c r="B3" t="n">
-        <v>2725</v>
+        <v>1839</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>153698.4868787201</v>
+        <v>119905.4548462048</v>
       </c>
       <c r="B4" t="n">
-        <v>2238</v>
+        <v>1950</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>225185.8777387731</v>
+        <v>172494.4448286397</v>
       </c>
       <c r="B5" t="n">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>296673.2685988261</v>
+        <v>225083.4348110746</v>
       </c>
       <c r="B6" t="n">
-        <v>858</v>
+        <v>1142</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>368160.6594588791</v>
+        <v>277672.4247935095</v>
       </c>
       <c r="B7" t="n">
-        <v>501</v>
+        <v>842</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>439648.050318932</v>
+        <v>330261.4147759445</v>
       </c>
       <c r="B8" t="n">
-        <v>353</v>
+        <v>568</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>511135.441178985</v>
+        <v>382850.4047583794</v>
       </c>
       <c r="B9" t="n">
-        <v>221</v>
+        <v>382</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>582622.832039038</v>
+        <v>435439.3947408143</v>
       </c>
       <c r="B10" t="n">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>654110.222899091</v>
+        <v>488028.3847232492</v>
       </c>
       <c r="B11" t="n">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>725597.613759144</v>
+        <v>540617.374705684</v>
       </c>
       <c r="B12" t="n">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>797085.0046191969</v>
+        <v>593206.3646881189</v>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>868572.3954792499</v>
+        <v>645795.3546705539</v>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>940059.7863393029</v>
+        <v>698384.3446529888</v>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1011547.177199356</v>
+        <v>750973.3346354237</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1083034.568059409</v>
+        <v>803562.3246178586</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1154521.958919462</v>
+        <v>856151.3146002935</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1226009.349779515</v>
+        <v>908740.3045827284</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1297496.740639568</v>
+        <v>961329.2945651633</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1368984.131499621</v>
+        <v>1013918.284547598</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1440471.522359674</v>
+        <v>1066507.274530033</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1511958.913219727</v>
+        <v>1119096.264512468</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1583446.30407978</v>
+        <v>1171685.254494903</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1654933.694939833</v>
+        <v>1224274.244477338</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1726421.085799886</v>
+        <v>1276863.234459773</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1797908.476659939</v>
+        <v>1329452.224442208</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1869395.867519992</v>
+        <v>1382041.214424643</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1940883.258380045</v>
+        <v>1434630.204407078</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2012370.649240097</v>
+        <v>1487219.194389513</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2083858.040100151</v>
+        <v>1539808.184371947</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2155345.430960204</v>
+        <v>1592397.174354382</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2226832.821820257</v>
+        <v>1644986.164336817</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2298320.21268031</v>
+        <v>1697575.154319252</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2369807.603540362</v>
+        <v>1750164.144301687</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2441294.994400416</v>
+        <v>1802753.134284122</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>329.0846208177029</v>
+        <v>249.498079974015</v>
       </c>
       <c r="B37" t="n">
-        <v>2846</v>
+        <v>1052</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2965.559955700613</v>
+        <v>1836.080143070462</v>
       </c>
       <c r="B38" t="n">
-        <v>3443</v>
+        <v>2605</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5602.035290583523</v>
+        <v>3422.662206166909</v>
       </c>
       <c r="B39" t="n">
-        <v>1844</v>
+        <v>2042</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8238.510625466433</v>
+        <v>5009.244269263356</v>
       </c>
       <c r="B40" t="n">
-        <v>894</v>
+        <v>1473</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10874.98596034934</v>
+        <v>6595.826332359802</v>
       </c>
       <c r="B41" t="n">
-        <v>421</v>
+        <v>923</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13511.46129523225</v>
+        <v>8182.408395456248</v>
       </c>
       <c r="B42" t="n">
-        <v>222</v>
+        <v>592</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16147.93663011516</v>
+        <v>9768.990458552697</v>
       </c>
       <c r="B43" t="n">
-        <v>128</v>
+        <v>431</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18784.41196499807</v>
+        <v>11355.57252164914</v>
       </c>
       <c r="B44" t="n">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>21420.88729988098</v>
+        <v>12942.15458474559</v>
       </c>
       <c r="B45" t="n">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24057.36263476389</v>
+        <v>14528.73664784204</v>
       </c>
       <c r="B46" t="n">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>26693.8379696468</v>
+        <v>16115.31871093848</v>
       </c>
       <c r="B47" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>29330.31330452971</v>
+        <v>17701.90077403493</v>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>31966.78863941262</v>
+        <v>19288.48283713138</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>34603.26397429553</v>
+        <v>20875.06490022782</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>37239.73930917844</v>
+        <v>22461.64696332427</v>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>39876.21464406135</v>
+        <v>24048.22902642071</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>42512.68997894426</v>
+        <v>25634.81108951716</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>45149.16531382717</v>
+        <v>27221.39315261361</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>47785.64064871008</v>
+        <v>28807.97521571006</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>50422.11598359299</v>
+        <v>30394.5572788065</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>53058.5913184759</v>
+        <v>31981.13934190295</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>55695.06665335881</v>
+        <v>33567.7214049994</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58331.54198824172</v>
+        <v>35154.30346809584</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>60968.01732312463</v>
+        <v>36740.88553119229</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>63604.49265800754</v>
+        <v>38327.46759428874</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>66240.96799289045</v>
+        <v>39914.04965738519</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>68877.44332777336</v>
+        <v>41500.63172048163</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>71513.91866265627</v>
+        <v>43087.21378357807</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>74150.39399753918</v>
+        <v>44673.79584667453</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>76786.86933242209</v>
+        <v>46260.37790977097</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>79423.34466730501</v>
+        <v>47846.95997286741</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>82059.82000218792</v>
+        <v>49433.54203596387</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>84696.29533707083</v>
+        <v>51020.12409906031</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>87332.77067195374</v>
+        <v>52606.70616215676</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>89969.24600683665</v>
+        <v>54193.28822525321</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.58983260910202</v>
+        <v>0.3682305490421514</v>
       </c>
       <c r="B72" t="n">
-        <v>7353</v>
+        <v>8060</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>63.97609461625833</v>
+        <v>81.26716683831354</v>
       </c>
       <c r="B73" t="n">
-        <v>1626</v>
+        <v>1267</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>127.3623566234146</v>
+        <v>162.1661031275849</v>
       </c>
       <c r="B74" t="n">
-        <v>531</v>
+        <v>359</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>190.7486186305709</v>
+        <v>243.0650394168563</v>
       </c>
       <c r="B75" t="n">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>254.1348806377273</v>
+        <v>323.9639757061277</v>
       </c>
       <c r="B76" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>317.5211426448836</v>
+        <v>404.8629119953991</v>
       </c>
       <c r="B77" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>380.9074046520399</v>
+        <v>485.7618482846705</v>
       </c>
       <c r="B78" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>444.2936666591962</v>
+        <v>566.6607845739418</v>
       </c>
       <c r="B79" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>507.6799286663525</v>
+        <v>647.5597208632132</v>
       </c>
       <c r="B80" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>571.0661906735088</v>
+        <v>728.4586571524846</v>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>634.4524526806651</v>
+        <v>809.357593441756</v>
       </c>
       <c r="B82" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>697.8387146878215</v>
+        <v>890.2565297310274</v>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>761.2249766949777</v>
+        <v>971.1554660202988</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>824.6112387021341</v>
+        <v>1052.05440230957</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>887.9975007092904</v>
+        <v>1132.953338598842</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>951.3837627164467</v>
+        <v>1213.852274888113</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1014.770024723603</v>
+        <v>1294.751211177384</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1078.156286730759</v>
+        <v>1375.650147466656</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1141.542548737916</v>
+        <v>1456.549083755927</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1204.928810745072</v>
+        <v>1537.448020045199</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1268.315072752228</v>
+        <v>1618.34695633447</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1331.701334759385</v>
+        <v>1699.245892623741</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1395.087596766541</v>
+        <v>1780.144828913013</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1458.473858773697</v>
+        <v>1861.043765202284</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1521.860120780854</v>
+        <v>1941.942701491556</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1585.24638278801</v>
+        <v>2022.841637780827</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1648.632644795166</v>
+        <v>2103.740574070098</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1712.018906802323</v>
+        <v>2184.63951035937</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1775.405168809479</v>
+        <v>2265.538446648641</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1838.791430816635</v>
+        <v>2346.437382937912</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1902.177692823791</v>
+        <v>2427.336319227184</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1965.563954830948</v>
+        <v>2508.235255516455</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2028.950216838104</v>
+        <v>2589.134191805726</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2092.33647884526</v>
+        <v>2670.033128094998</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2155.722740852416</v>
+        <v>2750.932064384269</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14727.47488133497</v>
+        <v>17209.13803307713</v>
       </c>
       <c r="B2" t="n">
-        <v>684</v>
+        <v>1034</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67316.46486376988</v>
+        <v>77707.68075703681</v>
       </c>
       <c r="B3" t="n">
-        <v>1839</v>
+        <v>2441</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>119905.4548462048</v>
+        <v>138206.2234809965</v>
       </c>
       <c r="B4" t="n">
-        <v>1950</v>
+        <v>2101</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>172494.4448286397</v>
+        <v>198704.7662049562</v>
       </c>
       <c r="B5" t="n">
-        <v>1534</v>
+        <v>1428</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>225083.4348110746</v>
+        <v>259203.3089289159</v>
       </c>
       <c r="B6" t="n">
-        <v>1142</v>
+        <v>1012</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>277672.4247935095</v>
+        <v>319701.8516528755</v>
       </c>
       <c r="B7" t="n">
-        <v>842</v>
+        <v>645</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>330261.4147759445</v>
+        <v>380200.3943768352</v>
       </c>
       <c r="B8" t="n">
-        <v>568</v>
+        <v>418</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>382850.4047583794</v>
+        <v>440698.9371007949</v>
       </c>
       <c r="B9" t="n">
-        <v>382</v>
+        <v>269</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>435439.3947408143</v>
+        <v>501197.4798247546</v>
       </c>
       <c r="B10" t="n">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>488028.3847232492</v>
+        <v>561696.0225487143</v>
       </c>
       <c r="B11" t="n">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>540617.374705684</v>
+        <v>622194.565272674</v>
       </c>
       <c r="B12" t="n">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>593206.3646881189</v>
+        <v>682693.1079966336</v>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>645795.3546705539</v>
+        <v>743191.6507205933</v>
       </c>
       <c r="B14" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>698384.3446529888</v>
+        <v>803690.1934445529</v>
       </c>
       <c r="B15" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>750973.3346354237</v>
+        <v>864188.7361685127</v>
       </c>
       <c r="B16" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>803562.3246178586</v>
+        <v>924687.2788924724</v>
       </c>
       <c r="B17" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>856151.3146002935</v>
+        <v>985185.821616432</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>908740.3045827284</v>
+        <v>1045684.364340392</v>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>961329.2945651633</v>
+        <v>1106182.907064351</v>
       </c>
       <c r="B20" t="n">
         <v>13</v>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1013918.284547598</v>
+        <v>1166681.449788311</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1066507.274530033</v>
+        <v>1227179.992512271</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1119096.264512468</v>
+        <v>1287678.53523623</v>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1171685.254494903</v>
+        <v>1348177.07796019</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1224274.244477338</v>
+        <v>1408675.62068415</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1276863.234459773</v>
+        <v>1469174.163408109</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1329452.224442208</v>
+        <v>1529672.706132069</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1382041.214424643</v>
+        <v>1590171.248856029</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1434630.204407078</v>
+        <v>1650669.791579989</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1487219.194389513</v>
+        <v>1711168.334303948</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1539808.184371947</v>
+        <v>1771666.877027908</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1592397.174354382</v>
+        <v>1832165.419751868</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1644986.164336817</v>
+        <v>1892663.962475827</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1697575.154319252</v>
+        <v>1953162.505199787</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1750164.144301687</v>
+        <v>2013661.047923747</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1802753.134284122</v>
+        <v>2074159.590647706</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>249.498079974015</v>
+        <v>370.4854806991858</v>
       </c>
       <c r="B37" t="n">
-        <v>1052</v>
+        <v>3101</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1836.080143070462</v>
+        <v>2919.969554248803</v>
       </c>
       <c r="B38" t="n">
-        <v>2605</v>
+        <v>3515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3422.662206166909</v>
+        <v>5469.453627798421</v>
       </c>
       <c r="B39" t="n">
-        <v>2042</v>
+        <v>1659</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5009.244269263356</v>
+        <v>8018.937701348038</v>
       </c>
       <c r="B40" t="n">
-        <v>1473</v>
+        <v>833</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6595.826332359802</v>
+        <v>10568.42177489766</v>
       </c>
       <c r="B41" t="n">
-        <v>923</v>
+        <v>397</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8182.408395456248</v>
+        <v>13117.90584844727</v>
       </c>
       <c r="B42" t="n">
-        <v>592</v>
+        <v>197</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9768.990458552697</v>
+        <v>15667.38992199689</v>
       </c>
       <c r="B43" t="n">
-        <v>431</v>
+        <v>135</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11355.57252164914</v>
+        <v>18216.87399554651</v>
       </c>
       <c r="B44" t="n">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>12942.15458474559</v>
+        <v>20766.35806909612</v>
       </c>
       <c r="B45" t="n">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14528.73664784204</v>
+        <v>23315.84214264574</v>
       </c>
       <c r="B46" t="n">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16115.31871093848</v>
+        <v>25865.32621619536</v>
       </c>
       <c r="B47" t="n">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17701.90077403493</v>
+        <v>28414.81028974498</v>
       </c>
       <c r="B48" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19288.48283713138</v>
+        <v>30964.29436329459</v>
       </c>
       <c r="B49" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20875.06490022782</v>
+        <v>33513.77843684421</v>
       </c>
       <c r="B50" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>22461.64696332427</v>
+        <v>36063.26251039383</v>
       </c>
       <c r="B51" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>24048.22902642071</v>
+        <v>38612.74658394344</v>
       </c>
       <c r="B52" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>25634.81108951716</v>
+        <v>41162.23065749306</v>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27221.39315261361</v>
+        <v>43711.71473104268</v>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>28807.97521571006</v>
+        <v>46261.1988045923</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>30394.5572788065</v>
+        <v>48810.68287814192</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>31981.13934190295</v>
+        <v>51360.16695169154</v>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>33567.7214049994</v>
+        <v>53909.65102524115</v>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>35154.30346809584</v>
+        <v>56459.13509879076</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>36740.88553119229</v>
+        <v>59008.61917234038</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>38327.46759428874</v>
+        <v>61558.10324589</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>39914.04965738519</v>
+        <v>64107.58731943962</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>41500.63172048163</v>
+        <v>66657.07139298922</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43087.21378357807</v>
+        <v>69206.55546653885</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>44673.79584667453</v>
+        <v>71756.03954008846</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>46260.37790977097</v>
+        <v>74305.52361363808</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>47846.95997286741</v>
+        <v>76855.0076871877</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>49433.54203596387</v>
+        <v>79404.49176073732</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>51020.12409906031</v>
+        <v>81953.97583428693</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>52606.70616215676</v>
+        <v>84503.45990783654</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>54193.28822525321</v>
+        <v>87052.94398138617</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3682305490421514</v>
+        <v>0.5875351372408569</v>
       </c>
       <c r="B72" t="n">
-        <v>8060</v>
+        <v>6341</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>81.26716683831354</v>
+        <v>43.7880273053544</v>
       </c>
       <c r="B73" t="n">
-        <v>1267</v>
+        <v>2011</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>162.1661031275849</v>
+        <v>86.98851947346796</v>
       </c>
       <c r="B74" t="n">
-        <v>359</v>
+        <v>747</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>243.0650394168563</v>
+        <v>130.1890116415815</v>
       </c>
       <c r="B75" t="n">
-        <v>137</v>
+        <v>354</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>323.9639757061277</v>
+        <v>173.389503809695</v>
       </c>
       <c r="B76" t="n">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>404.8629119953991</v>
+        <v>216.5899959778086</v>
       </c>
       <c r="B77" t="n">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>485.7618482846705</v>
+        <v>259.7904881459222</v>
       </c>
       <c r="B78" t="n">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>566.6607845739418</v>
+        <v>302.9909803140357</v>
       </c>
       <c r="B79" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>647.5597208632132</v>
+        <v>346.1914724821493</v>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>728.4586571524846</v>
+        <v>389.3919646502628</v>
       </c>
       <c r="B81" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>809.357593441756</v>
+        <v>432.5924568183764</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>890.2565297310274</v>
+        <v>475.7929489864899</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>971.1554660202988</v>
+        <v>518.9934411546034</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1052.05440230957</v>
+        <v>562.1939333227169</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1132.953338598842</v>
+        <v>605.3944254908305</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1213.852274888113</v>
+        <v>648.594917658944</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1294.751211177384</v>
+        <v>691.7954098270576</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1375.650147466656</v>
+        <v>734.9959019951712</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1456.549083755927</v>
+        <v>778.1963941632847</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1537.448020045199</v>
+        <v>821.3968863313983</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1618.34695633447</v>
+        <v>864.5973784995118</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1699.245892623741</v>
+        <v>907.7978706676254</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1780.144828913013</v>
+        <v>950.9983628357389</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1861.043765202284</v>
+        <v>994.1988550038525</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1941.942701491556</v>
+        <v>1037.399347171966</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2022.841637780827</v>
+        <v>1080.59983934008</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2103.740574070098</v>
+        <v>1123.800331508193</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2184.63951035937</v>
+        <v>1167.000823676307</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2265.538446648641</v>
+        <v>1210.20131584442</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2346.437382937912</v>
+        <v>1253.401808012534</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2427.336319227184</v>
+        <v>1296.602300180647</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2508.235255516455</v>
+        <v>1339.802792348761</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2589.134191805726</v>
+        <v>1383.003284516874</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2670.033128094998</v>
+        <v>1426.203776684988</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2750.932064384269</v>
+        <v>1469.404268853101</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17209.13803307713</v>
+        <v>14190.61216867932</v>
       </c>
       <c r="B2" t="n">
-        <v>1034</v>
+        <v>850</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>77707.68075703681</v>
+        <v>70707.00568400099</v>
       </c>
       <c r="B3" t="n">
-        <v>2441</v>
+        <v>2236</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>138206.2234809965</v>
+        <v>127223.3991993227</v>
       </c>
       <c r="B4" t="n">
-        <v>2101</v>
+        <v>2083</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>198704.7662049562</v>
+        <v>183739.7927146444</v>
       </c>
       <c r="B5" t="n">
-        <v>1428</v>
+        <v>1542</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>259203.3089289159</v>
+        <v>240256.186229966</v>
       </c>
       <c r="B6" t="n">
-        <v>1012</v>
+        <v>994</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>319701.8516528755</v>
+        <v>296772.5797452877</v>
       </c>
       <c r="B7" t="n">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>380200.3943768352</v>
+        <v>353288.9732606094</v>
       </c>
       <c r="B8" t="n">
-        <v>418</v>
+        <v>495</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>440698.9371007949</v>
+        <v>409805.366775931</v>
       </c>
       <c r="B9" t="n">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>501197.4798247546</v>
+        <v>466321.7602912527</v>
       </c>
       <c r="B10" t="n">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>561696.0225487143</v>
+        <v>522838.1538065744</v>
       </c>
       <c r="B11" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>622194.565272674</v>
+        <v>579354.5473218961</v>
       </c>
       <c r="B12" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>682693.1079966336</v>
+        <v>635870.9408372177</v>
       </c>
       <c r="B13" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>743191.6507205933</v>
+        <v>692387.3343525395</v>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>803690.1934445529</v>
+        <v>748903.7278678612</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>864188.7361685127</v>
+        <v>805420.1213831828</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>924687.2788924724</v>
+        <v>861936.5148985045</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>985185.821616432</v>
+        <v>918452.9084138261</v>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1045684.364340392</v>
+        <v>974969.3019291478</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1106182.907064351</v>
+        <v>1031485.695444469</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1166681.449788311</v>
+        <v>1088002.088959791</v>
       </c>
       <c r="B21" t="n">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1227179.992512271</v>
+        <v>1144518.482475113</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1287678.53523623</v>
+        <v>1201034.875990434</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1348177.07796019</v>
+        <v>1257551.269505756</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1408675.62068415</v>
+        <v>1314067.663021078</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1469174.163408109</v>
+        <v>1370584.0565364</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1529672.706132069</v>
+        <v>1427100.450051721</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1590171.248856029</v>
+        <v>1483616.843567043</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1650669.791579989</v>
+        <v>1540133.237082365</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1711168.334303948</v>
+        <v>1596649.630597686</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1771666.877027908</v>
+        <v>1653166.024113008</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1832165.419751868</v>
+        <v>1709682.417628329</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1892663.962475827</v>
+        <v>1766198.811143651</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1953162.505199787</v>
+        <v>1822715.204658973</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2013661.047923747</v>
+        <v>1879231.598174294</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2074159.590647706</v>
+        <v>1935747.991689616</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>370.4854806991858</v>
+        <v>319.4930306380194</v>
       </c>
       <c r="B37" t="n">
-        <v>3101</v>
+        <v>1651</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2919.969554248803</v>
+        <v>2149.871479181283</v>
       </c>
       <c r="B38" t="n">
-        <v>3515</v>
+        <v>2947</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5469.453627798421</v>
+        <v>3980.249927724547</v>
       </c>
       <c r="B39" t="n">
-        <v>1659</v>
+        <v>2164</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8018.937701348038</v>
+        <v>5810.62837626781</v>
       </c>
       <c r="B40" t="n">
-        <v>833</v>
+        <v>1225</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10568.42177489766</v>
+        <v>7641.006824811074</v>
       </c>
       <c r="B41" t="n">
-        <v>397</v>
+        <v>737</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13117.90584844727</v>
+        <v>9471.385273354337</v>
       </c>
       <c r="B42" t="n">
-        <v>197</v>
+        <v>466</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15667.38992199689</v>
+        <v>11301.7637218976</v>
       </c>
       <c r="B43" t="n">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18216.87399554651</v>
+        <v>13132.14217044086</v>
       </c>
       <c r="B44" t="n">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20766.35806909612</v>
+        <v>14962.52061898413</v>
       </c>
       <c r="B45" t="n">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23315.84214264574</v>
+        <v>16792.89906752739</v>
       </c>
       <c r="B46" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25865.32621619536</v>
+        <v>18623.27751607066</v>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>28414.81028974498</v>
+        <v>20453.65596461392</v>
       </c>
       <c r="B48" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>30964.29436329459</v>
+        <v>22284.03441315718</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>33513.77843684421</v>
+        <v>24114.41286170045</v>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>36063.26251039383</v>
+        <v>25944.79131024371</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>38612.74658394344</v>
+        <v>27775.16975878697</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>41162.23065749306</v>
+        <v>29605.54820733024</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43711.71473104268</v>
+        <v>31435.9266558735</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>46261.1988045923</v>
+        <v>33266.30510441677</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>48810.68287814192</v>
+        <v>35096.68355296003</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>51360.16695169154</v>
+        <v>36927.06200150329</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>53909.65102524115</v>
+        <v>38757.44045004655</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56459.13509879076</v>
+        <v>40587.81889858982</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59008.61917234038</v>
+        <v>42418.19734713309</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>61558.10324589</v>
+        <v>44248.57579567635</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>64107.58731943962</v>
+        <v>46078.95424421961</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66657.07139298922</v>
+        <v>47909.33269276287</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>69206.55546653885</v>
+        <v>49739.71114130614</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>71756.03954008846</v>
+        <v>51570.0895898494</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74305.52361363808</v>
+        <v>53400.46803839267</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>76855.0076871877</v>
+        <v>55230.84648693593</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>79404.49176073732</v>
+        <v>57061.22493547919</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>81953.97583428693</v>
+        <v>58891.60338402246</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>84503.45990783654</v>
+        <v>60721.98183256572</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>87052.94398138617</v>
+        <v>62552.36028110898</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5875351372408569</v>
+        <v>0.2875523430553128</v>
       </c>
       <c r="B72" t="n">
-        <v>6341</v>
+        <v>5891</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43.7880273053544</v>
+        <v>40.14605685146542</v>
       </c>
       <c r="B73" t="n">
-        <v>2011</v>
+        <v>2173</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>86.98851947346796</v>
+        <v>80.00456135987554</v>
       </c>
       <c r="B74" t="n">
-        <v>747</v>
+        <v>859</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130.1890116415815</v>
+        <v>119.8630658682857</v>
       </c>
       <c r="B75" t="n">
-        <v>354</v>
+        <v>417</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>173.389503809695</v>
+        <v>159.7215703766958</v>
       </c>
       <c r="B76" t="n">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>216.5899959778086</v>
+        <v>199.5800748851059</v>
       </c>
       <c r="B77" t="n">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>259.7904881459222</v>
+        <v>239.438579393516</v>
       </c>
       <c r="B78" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>302.9909803140357</v>
+        <v>279.2970839019261</v>
       </c>
       <c r="B79" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>346.1914724821493</v>
+        <v>319.1555884103362</v>
       </c>
       <c r="B80" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>389.3919646502628</v>
+        <v>359.0140929187464</v>
       </c>
       <c r="B81" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>432.5924568183764</v>
+        <v>398.8725974271564</v>
       </c>
       <c r="B82" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>475.7929489864899</v>
+        <v>438.7311019355666</v>
       </c>
       <c r="B83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>518.9934411546034</v>
+        <v>478.5896064439767</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>562.1939333227169</v>
+        <v>518.4481109523867</v>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>605.3944254908305</v>
+        <v>558.3066154607968</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>648.594917658944</v>
+        <v>598.165119969207</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>691.7954098270576</v>
+        <v>638.0236244776171</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>734.9959019951712</v>
+        <v>677.8821289860272</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>778.1963941632847</v>
+        <v>717.7406334944374</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>821.3968863313983</v>
+        <v>757.5991380028474</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>864.5973784995118</v>
+        <v>797.4576425112575</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>907.7978706676254</v>
+        <v>837.3161470196677</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>950.9983628357389</v>
+        <v>877.1746515280778</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>994.1988550038525</v>
+        <v>917.0331560364879</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1037.399347171966</v>
+        <v>956.8916605448981</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1080.59983934008</v>
+        <v>996.7501650533081</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1123.800331508193</v>
+        <v>1036.608669561718</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1167.000823676307</v>
+        <v>1076.467174070128</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1210.20131584442</v>
+        <v>1116.325678578538</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1253.401808012534</v>
+        <v>1156.184183086949</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1296.602300180647</v>
+        <v>1196.042687595359</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1339.802792348761</v>
+        <v>1235.901192103769</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1383.003284516874</v>
+        <v>1275.759696612179</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1426.203776684988</v>
+        <v>1315.618201120589</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1469.404268853101</v>
+        <v>1355.476705628999</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14190.61216867932</v>
+        <v>14681.9752513351</v>
       </c>
       <c r="B2" t="n">
-        <v>850</v>
+        <v>1334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70707.00568400099</v>
+        <v>83342.29708607009</v>
       </c>
       <c r="B3" t="n">
-        <v>2236</v>
+        <v>3371</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>127223.3991993227</v>
+        <v>152002.6189208051</v>
       </c>
       <c r="B4" t="n">
-        <v>2083</v>
+        <v>2498</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>183739.7927146444</v>
+        <v>220662.9407555401</v>
       </c>
       <c r="B5" t="n">
-        <v>1542</v>
+        <v>1308</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>240256.186229966</v>
+        <v>289323.2625902751</v>
       </c>
       <c r="B6" t="n">
-        <v>994</v>
+        <v>652</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>296772.5797452877</v>
+        <v>357983.5844250101</v>
       </c>
       <c r="B7" t="n">
-        <v>688</v>
+        <v>356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>353288.9732606094</v>
+        <v>426643.9062597451</v>
       </c>
       <c r="B8" t="n">
-        <v>495</v>
+        <v>216</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>409805.366775931</v>
+        <v>495304.2280944801</v>
       </c>
       <c r="B9" t="n">
-        <v>333</v>
+        <v>115</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>466321.7602912527</v>
+        <v>563964.549929215</v>
       </c>
       <c r="B10" t="n">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>522838.1538065744</v>
+        <v>632624.87176395</v>
       </c>
       <c r="B11" t="n">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>579354.5473218961</v>
+        <v>701285.193598685</v>
       </c>
       <c r="B12" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>635870.9408372177</v>
+        <v>769945.51543342</v>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>692387.3343525395</v>
+        <v>838605.837268155</v>
       </c>
       <c r="B14" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>748903.7278678612</v>
+        <v>907266.1591028899</v>
       </c>
       <c r="B15" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>805420.1213831828</v>
+        <v>975926.4809376249</v>
       </c>
       <c r="B16" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>861936.5148985045</v>
+        <v>1044586.80277236</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>918452.9084138261</v>
+        <v>1113247.124607095</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>974969.3019291478</v>
+        <v>1181907.44644183</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1031485.695444469</v>
+        <v>1250567.768276565</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1088002.088959791</v>
+        <v>1319228.0901113</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1144518.482475113</v>
+        <v>1387888.411946035</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1201034.875990434</v>
+        <v>1456548.73378077</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1257551.269505756</v>
+        <v>1525209.055615505</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1314067.663021078</v>
+        <v>1593869.37745024</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1370584.0565364</v>
+        <v>1662529.699284975</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1427100.450051721</v>
+        <v>1731190.02111971</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1483616.843567043</v>
+        <v>1799850.342954445</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1540133.237082365</v>
+        <v>1868510.66478918</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1596649.630597686</v>
+        <v>1937170.986623915</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1653166.024113008</v>
+        <v>2005831.30845865</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1709682.417628329</v>
+        <v>2074491.630293385</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1766198.811143651</v>
+        <v>2143151.95212812</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1822715.204658973</v>
+        <v>2211812.273962855</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1879231.598174294</v>
+        <v>2280472.59579759</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1935747.991689616</v>
+        <v>2349132.917632325</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>319.4930306380194</v>
+        <v>371.7480838218765</v>
       </c>
       <c r="B37" t="n">
-        <v>1651</v>
+        <v>1470</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2149.871479181283</v>
+        <v>2340.199679619231</v>
       </c>
       <c r="B38" t="n">
-        <v>2947</v>
+        <v>2612</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3980.249927724547</v>
+        <v>4308.651275416585</v>
       </c>
       <c r="B39" t="n">
-        <v>2164</v>
+        <v>2065</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5810.62837626781</v>
+        <v>6277.10287121394</v>
       </c>
       <c r="B40" t="n">
-        <v>1225</v>
+        <v>1313</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7641.006824811074</v>
+        <v>8245.554467011294</v>
       </c>
       <c r="B41" t="n">
-        <v>737</v>
+        <v>836</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9471.385273354337</v>
+        <v>10214.00606280865</v>
       </c>
       <c r="B42" t="n">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11301.7637218976</v>
+        <v>12182.457658606</v>
       </c>
       <c r="B43" t="n">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13132.14217044086</v>
+        <v>14150.90925440336</v>
       </c>
       <c r="B44" t="n">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14962.52061898413</v>
+        <v>16119.36085020071</v>
       </c>
       <c r="B45" t="n">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16792.89906752739</v>
+        <v>18087.81244599807</v>
       </c>
       <c r="B46" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18623.27751607066</v>
+        <v>20056.26404179542</v>
       </c>
       <c r="B47" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20453.65596461392</v>
+        <v>22024.71563759277</v>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22284.03441315718</v>
+        <v>23993.16723339013</v>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>24114.41286170045</v>
+        <v>25961.61882918749</v>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25944.79131024371</v>
+        <v>27930.07042498484</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27775.16975878697</v>
+        <v>29898.52202078219</v>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>29605.54820733024</v>
+        <v>31866.97361657955</v>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>31435.9266558735</v>
+        <v>33835.4252123769</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>33266.30510441677</v>
+        <v>35803.87680817426</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>35096.68355296003</v>
+        <v>37772.32840397161</v>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>36927.06200150329</v>
+        <v>39740.77999976897</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>38757.44045004655</v>
+        <v>41709.23159556632</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>40587.81889858982</v>
+        <v>43677.68319136367</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>42418.19734713309</v>
+        <v>45646.13478716103</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>44248.57579567635</v>
+        <v>47614.58638295838</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>46078.95424421961</v>
+        <v>49583.03797875574</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>47909.33269276287</v>
+        <v>51551.4895745531</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>49739.71114130614</v>
+        <v>53519.94117035044</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>51570.0895898494</v>
+        <v>55488.3927661478</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>53400.46803839267</v>
+        <v>57456.84436194516</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>55230.84648693593</v>
+        <v>59425.29595774251</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>57061.22493547919</v>
+        <v>61393.74755353986</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>58891.60338402246</v>
+        <v>63362.19914933722</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>60721.98183256572</v>
+        <v>65330.65074513458</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>62552.36028110898</v>
+        <v>67299.10234093193</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2875523430553128</v>
+        <v>0.5682058228655719</v>
       </c>
       <c r="B72" t="n">
-        <v>5891</v>
+        <v>7220</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>40.14605685146542</v>
+        <v>57.86444955964406</v>
       </c>
       <c r="B73" t="n">
-        <v>2173</v>
+        <v>1745</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>80.00456135987554</v>
+        <v>115.1606932964226</v>
       </c>
       <c r="B74" t="n">
-        <v>859</v>
+        <v>540</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>119.8630658682857</v>
+        <v>172.4569370332011</v>
       </c>
       <c r="B75" t="n">
-        <v>417</v>
+        <v>233</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>159.7215703766958</v>
+        <v>229.7531807699795</v>
       </c>
       <c r="B76" t="n">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>199.5800748851059</v>
+        <v>287.049424506758</v>
       </c>
       <c r="B77" t="n">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>239.438579393516</v>
+        <v>344.3456682435366</v>
       </c>
       <c r="B78" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>279.2970839019261</v>
+        <v>401.6419119803151</v>
       </c>
       <c r="B79" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>319.1555884103362</v>
+        <v>458.9381557170935</v>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>359.0140929187464</v>
+        <v>516.234399453872</v>
       </c>
       <c r="B81" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>398.8725974271564</v>
+        <v>573.5306431906505</v>
       </c>
       <c r="B82" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>438.7311019355666</v>
+        <v>630.826886927429</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>478.5896064439767</v>
+        <v>688.1231306642076</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>518.4481109523867</v>
+        <v>745.419374400986</v>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>558.3066154607968</v>
+        <v>802.7156181377645</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>598.165119969207</v>
+        <v>860.011861874543</v>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>638.0236244776171</v>
+        <v>917.3081056113215</v>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>677.8821289860272</v>
+        <v>974.6043493481</v>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>717.7406334944374</v>
+        <v>1031.900593084878</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>757.5991380028474</v>
+        <v>1089.196836821657</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>797.4576425112575</v>
+        <v>1146.493080558435</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>837.3161470196677</v>
+        <v>1203.789324295214</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>877.1746515280778</v>
+        <v>1261.085568031992</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>917.0331560364879</v>
+        <v>1318.381811768771</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>956.8916605448981</v>
+        <v>1375.67805550555</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>996.7501650533081</v>
+        <v>1432.974299242328</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1036.608669561718</v>
+        <v>1490.270542979106</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1076.467174070128</v>
+        <v>1547.566786715885</v>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1116.325678578538</v>
+        <v>1604.863030452663</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1156.184183086949</v>
+        <v>1662.159274189442</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1196.042687595359</v>
+        <v>1719.45551792622</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1235.901192103769</v>
+        <v>1776.751761662999</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1275.759696612179</v>
+        <v>1834.048005399777</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1315.618201120589</v>
+        <v>1891.344249136556</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1355.476705628999</v>
+        <v>1948.640492873334</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1812,6 +1812,461 @@
       <c r="C106" t="inlineStr">
         <is>
           <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-1.358663159208301e+68</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-1.09465832319042e+68</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-8.306534871725392e+67</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-5.666486511546579e+67</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-3.026438151367768e+67</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-3.863897911889562e+66</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9993</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2.253658568989857e+67</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4.893706929168667e+67</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>7.53375528934748e+67</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.017380364952629e+68</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.28138520097051e+68</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.545390036988391e+68</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.809394873006273e+68</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2.073399709024154e+68</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2.337404545042035e+68</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2.601409381059917e+68</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2.865414217077797e+68</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3.129419053095679e+68</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3.39342388911356e+68</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>3.657428725131441e+68</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>3.921433561149322e+68</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>4.185438397167204e+68</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4.449443233185084e+68</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>4.713448069202966e+68</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4.977452905220847e+68</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>5.241457741238728e+68</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>5.505462577256609e+68</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>5.769467413274491e+68</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>6.033472249292371e+68</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>6.297477085310253e+68</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>6.561481921328134e+68</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>6.825486757346015e+68</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>7.089491593363896e+68</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>7.353496429381777e+68</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>7.617501265399659e+68</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>aave</t>
         </is>
       </c>
     </row>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14681.9752513351</v>
+        <v>11239.20969652552</v>
       </c>
       <c r="B2" t="n">
-        <v>1334</v>
+        <v>2232</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83342.29708607009</v>
+        <v>118733.8923615243</v>
       </c>
       <c r="B3" t="n">
-        <v>3371</v>
+        <v>2994</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>152002.6189208051</v>
+        <v>226228.575026523</v>
       </c>
       <c r="B4" t="n">
-        <v>2498</v>
+        <v>1868</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>220662.9407555401</v>
+        <v>333723.2576915218</v>
       </c>
       <c r="B5" t="n">
-        <v>1308</v>
+        <v>1089</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>289323.2625902751</v>
+        <v>441217.9403565205</v>
       </c>
       <c r="B6" t="n">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>357983.5844250101</v>
+        <v>548712.6230215193</v>
       </c>
       <c r="B7" t="n">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>426643.9062597451</v>
+        <v>656207.305686518</v>
       </c>
       <c r="B8" t="n">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>495304.2280944801</v>
+        <v>763701.9883515167</v>
       </c>
       <c r="B9" t="n">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>563964.549929215</v>
+        <v>871196.6710165155</v>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>632624.87176395</v>
+        <v>978691.3536815143</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>701285.193598685</v>
+        <v>1086186.036346513</v>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>769945.51543342</v>
+        <v>1193680.719011512</v>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>838605.837268155</v>
+        <v>1301175.40167651</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>907266.1591028899</v>
+        <v>1408670.084341509</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>975926.4809376249</v>
+        <v>1516164.767006508</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1044586.80277236</v>
+        <v>1623659.449671507</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1113247.124607095</v>
+        <v>1731154.132336505</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1181907.44644183</v>
+        <v>1838648.815001504</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1250567.768276565</v>
+        <v>1946143.497666503</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1319228.0901113</v>
+        <v>2053638.180331502</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1387888.411946035</v>
+        <v>2161132.862996501</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1456548.73378077</v>
+        <v>2268627.545661499</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1525209.055615505</v>
+        <v>2376122.228326498</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1593869.37745024</v>
+        <v>2483616.910991497</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1662529.699284975</v>
+        <v>2591111.593656496</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1731190.02111971</v>
+        <v>2698606.276321494</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1799850.342954445</v>
+        <v>2806100.958986493</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1868510.66478918</v>
+        <v>2913595.641651492</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1937170.986623915</v>
+        <v>3021090.32431649</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2005831.30845865</v>
+        <v>3128585.006981489</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2074491.630293385</v>
+        <v>3236079.689646488</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2143151.95212812</v>
+        <v>3343574.372311487</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2211812.273962855</v>
+        <v>3451069.054976486</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2280472.59579759</v>
+        <v>3558563.737641484</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2349132.917632325</v>
+        <v>3666058.420306483</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>371.7480838218765</v>
+        <v>230.0621882900669</v>
       </c>
       <c r="B37" t="n">
-        <v>1470</v>
+        <v>2335</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2340.199679619231</v>
+        <v>2984.268582877523</v>
       </c>
       <c r="B38" t="n">
-        <v>2612</v>
+        <v>3248</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4308.651275416585</v>
+        <v>5738.47497746498</v>
       </c>
       <c r="B39" t="n">
-        <v>2065</v>
+        <v>1923</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6277.10287121394</v>
+        <v>8492.681372052437</v>
       </c>
       <c r="B40" t="n">
-        <v>1313</v>
+        <v>1020</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8245.554467011294</v>
+        <v>11246.88776663989</v>
       </c>
       <c r="B41" t="n">
-        <v>836</v>
+        <v>564</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10214.00606280865</v>
+        <v>14001.09416122735</v>
       </c>
       <c r="B42" t="n">
-        <v>517</v>
+        <v>355</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12182.457658606</v>
+        <v>16755.30055581481</v>
       </c>
       <c r="B43" t="n">
-        <v>375</v>
+        <v>215</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14150.90925440336</v>
+        <v>19509.50695040226</v>
       </c>
       <c r="B44" t="n">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16119.36085020071</v>
+        <v>22263.71334498972</v>
       </c>
       <c r="B45" t="n">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18087.81244599807</v>
+        <v>25017.91973957718</v>
       </c>
       <c r="B46" t="n">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20056.26404179542</v>
+        <v>27772.12613416463</v>
       </c>
       <c r="B47" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22024.71563759277</v>
+        <v>30526.33252875209</v>
       </c>
       <c r="B48" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>23993.16723339013</v>
+        <v>33280.53892333955</v>
       </c>
       <c r="B49" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25961.61882918749</v>
+        <v>36034.745317927</v>
       </c>
       <c r="B50" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>27930.07042498484</v>
+        <v>38788.95171251446</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>29898.52202078219</v>
+        <v>41543.15810710192</v>
       </c>
       <c r="B52" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>31866.97361657955</v>
+        <v>44297.36450168937</v>
       </c>
       <c r="B53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>33835.4252123769</v>
+        <v>47051.57089627683</v>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>35803.87680817426</v>
+        <v>49805.77729086429</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>37772.32840397161</v>
+        <v>52559.98368545174</v>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>39740.77999976897</v>
+        <v>55314.1900800392</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>41709.23159556632</v>
+        <v>58068.39647462666</v>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43677.68319136367</v>
+        <v>60822.60286921411</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>45646.13478716103</v>
+        <v>63576.80926380157</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>47614.58638295838</v>
+        <v>66331.01565838903</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>49583.03797875574</v>
+        <v>69085.22205297649</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>51551.4895745531</v>
+        <v>71839.42844756394</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>53519.94117035044</v>
+        <v>74593.6348421514</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>55488.3927661478</v>
+        <v>77347.84123673885</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>57456.84436194516</v>
+        <v>80102.04763132632</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>59425.29595774251</v>
+        <v>82856.25402591377</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>61393.74755353986</v>
+        <v>85610.46042050123</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>63362.19914933722</v>
+        <v>88364.66681508868</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>65330.65074513458</v>
+        <v>91118.87320967614</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>67299.10234093193</v>
+        <v>93873.07960426359</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5682058228655719</v>
+        <v>0.938683900612014</v>
       </c>
       <c r="B72" t="n">
-        <v>7220</v>
+        <v>7710</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>57.86444955964406</v>
+        <v>67.54537497276011</v>
       </c>
       <c r="B73" t="n">
-        <v>1745</v>
+        <v>1459</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>115.1606932964226</v>
+        <v>134.1520660449082</v>
       </c>
       <c r="B74" t="n">
-        <v>540</v>
+        <v>463</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>172.4569370332011</v>
+        <v>200.7587571170563</v>
       </c>
       <c r="B75" t="n">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>229.7531807699795</v>
+        <v>267.3654481892044</v>
       </c>
       <c r="B76" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>287.049424506758</v>
+        <v>333.9721392613525</v>
       </c>
       <c r="B77" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>344.3456682435366</v>
+        <v>400.5788303335006</v>
       </c>
       <c r="B78" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>401.6419119803151</v>
+        <v>467.1855214056487</v>
       </c>
       <c r="B79" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>458.9381557170935</v>
+        <v>533.7922124777967</v>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>516.234399453872</v>
+        <v>600.3989035499449</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>573.5306431906505</v>
+        <v>667.005594622093</v>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>630.826886927429</v>
+        <v>733.612285694241</v>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>688.1231306642076</v>
+        <v>800.2189767663891</v>
       </c>
       <c r="B84" t="n">
         <v>2</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>745.419374400986</v>
+        <v>866.8256678385372</v>
       </c>
       <c r="B85" t="n">
         <v>2</v>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>802.7156181377645</v>
+        <v>933.4323589106853</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>860.011861874543</v>
+        <v>1000.039049982833</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>917.3081056113215</v>
+        <v>1066.645741054981</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>974.6043493481</v>
+        <v>1133.25243212713</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1031.900593084878</v>
+        <v>1199.859123199278</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1089.196836821657</v>
+        <v>1266.465814271426</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1146.493080558435</v>
+        <v>1333.072505343574</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1203.789324295214</v>
+        <v>1399.679196415722</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1261.085568031992</v>
+        <v>1466.28588748787</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1318.381811768771</v>
+        <v>1532.892578560018</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1375.67805550555</v>
+        <v>1599.499269632166</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1432.974299242328</v>
+        <v>1666.105960704314</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1490.270542979106</v>
+        <v>1732.712651776463</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1547.566786715885</v>
+        <v>1799.319342848611</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1604.863030452663</v>
+        <v>1865.926033920759</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1662.159274189442</v>
+        <v>1932.532724992907</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1719.45551792622</v>
+        <v>1999.139416065055</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1776.751761662999</v>
+        <v>2065.746107137203</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1834.048005399777</v>
+        <v>2132.352798209351</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1891.344249136556</v>
+        <v>2198.959489281499</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1948.640492873334</v>
+        <v>2265.566180353647</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.358663159208301e+68</v>
+        <v>-1.139853953495928e+74</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.09465832319042e+68</v>
+        <v>-1.10728632573371e+74</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-8.306534871725392e+67</v>
+        <v>-1.074718697971491e+74</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-5.666486511546579e+67</v>
+        <v>-1.042151070209272e+74</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-3.026438151367768e+67</v>
+        <v>-1.009583442447053e+74</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-3.863897911889562e+66</v>
+        <v>-9.770158146848347e+73</v>
       </c>
       <c r="B112" t="n">
-        <v>9993</v>
+        <v>0</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.253658568989857e+67</v>
+        <v>-9.444481869226161e+73</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4.893706929168667e+67</v>
+        <v>-9.118805591603973e+73</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>7.53375528934748e+67</v>
+        <v>-8.793129313981786e+73</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.017380364952629e+68</v>
+        <v>-8.467453036359598e+73</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.28138520097051e+68</v>
+        <v>-8.14177675873741e+73</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.545390036988391e+68</v>
+        <v>-7.816100481115224e+73</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.809394873006273e+68</v>
+        <v>-7.490424203493036e+73</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.073399709024154e+68</v>
+        <v>-7.164747925870849e+73</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.337404545042035e+68</v>
+        <v>-6.839071648248662e+73</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.601409381059917e+68</v>
+        <v>-6.513395370626475e+73</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.865414217077797e+68</v>
+        <v>-6.187719093004287e+73</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3.129419053095679e+68</v>
+        <v>-5.862042815382099e+73</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.39342388911356e+68</v>
+        <v>-5.536366537759912e+73</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.657428725131441e+68</v>
+        <v>-5.210690260137725e+73</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.921433561149322e+68</v>
+        <v>-4.885013982515538e+73</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4.185438397167204e+68</v>
+        <v>-4.55933770489335e+73</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4.449443233185084e+68</v>
+        <v>-4.233661427271164e+73</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4.713448069202966e+68</v>
+        <v>-3.907985149648976e+73</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4.977452905220847e+68</v>
+        <v>-3.582308872026789e+73</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5.241457741238728e+68</v>
+        <v>-3.256632594404601e+73</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.505462577256609e+68</v>
+        <v>-2.930956316782413e+73</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5.769467413274491e+68</v>
+        <v>-2.605280039160227e+73</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>6.033472249292371e+68</v>
+        <v>-2.279603761538039e+73</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>6.297477085310253e+68</v>
+        <v>-1.953927483915852e+73</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6.561481921328134e+68</v>
+        <v>-1.628251206293665e+73</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.825486757346015e+68</v>
+        <v>-1.302574928671478e+73</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7.089491593363896e+68</v>
+        <v>-9.7689865104929e+72</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>7.353496429381777e+68</v>
+        <v>-6.512223734271024e+72</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>7.617501265399659e+68</v>
+        <v>-3.255460958049147e+72</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11239.20969652552</v>
+        <v>9933.297057803557</v>
       </c>
       <c r="B2" t="n">
-        <v>2232</v>
+        <v>2153</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>118733.8923615243</v>
+        <v>118619.6841493279</v>
       </c>
       <c r="B3" t="n">
-        <v>2994</v>
+        <v>3116</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>226228.575026523</v>
+        <v>227306.0712408523</v>
       </c>
       <c r="B4" t="n">
-        <v>1868</v>
+        <v>1890</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>333723.2576915218</v>
+        <v>335992.4583323766</v>
       </c>
       <c r="B5" t="n">
-        <v>1089</v>
+        <v>1118</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>441217.9403565205</v>
+        <v>444678.845423901</v>
       </c>
       <c r="B6" t="n">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>548712.6230215193</v>
+        <v>553365.2325154254</v>
       </c>
       <c r="B7" t="n">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>656207.305686518</v>
+        <v>662051.6196069497</v>
       </c>
       <c r="B8" t="n">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>763701.9883515167</v>
+        <v>770738.0066984742</v>
       </c>
       <c r="B9" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>871196.6710165155</v>
+        <v>879424.3937899985</v>
       </c>
       <c r="B10" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>978691.3536815143</v>
+        <v>988110.7808815228</v>
       </c>
       <c r="B11" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1086186.036346513</v>
+        <v>1096797.167973047</v>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1193680.719011512</v>
+        <v>1205483.555064572</v>
       </c>
       <c r="B13" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1301175.40167651</v>
+        <v>1314169.942156096</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1408670.084341509</v>
+        <v>1422856.32924762</v>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1516164.767006508</v>
+        <v>1531542.716339145</v>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1623659.449671507</v>
+        <v>1640229.103430669</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1731154.132336505</v>
+        <v>1748915.490522193</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1838648.815001504</v>
+        <v>1857601.877613718</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1946143.497666503</v>
+        <v>1966288.264705242</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2053638.180331502</v>
+        <v>2074974.651796766</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2161132.862996501</v>
+        <v>2183661.038888291</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2268627.545661499</v>
+        <v>2292347.425979815</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2376122.228326498</v>
+        <v>2401033.81307134</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2483616.910991497</v>
+        <v>2509720.200162864</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2591111.593656496</v>
+        <v>2618406.587254388</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2698606.276321494</v>
+        <v>2727092.974345913</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2806100.958986493</v>
+        <v>2835779.361437437</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2913595.641651492</v>
+        <v>2944465.748528962</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3021090.32431649</v>
+        <v>3053152.135620486</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3128585.006981489</v>
+        <v>3161838.52271201</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3236079.689646488</v>
+        <v>3270524.909803534</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3343574.372311487</v>
+        <v>3379211.296895059</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3451069.054976486</v>
+        <v>3487897.683986583</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3558563.737641484</v>
+        <v>3596584.071078108</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3666058.420306483</v>
+        <v>3705270.458169632</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>230.0621882900669</v>
+        <v>337.9610421212462</v>
       </c>
       <c r="B37" t="n">
-        <v>2335</v>
+        <v>2524</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2984.268582877523</v>
+        <v>3103.235285992915</v>
       </c>
       <c r="B38" t="n">
-        <v>3248</v>
+        <v>3152</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5738.47497746498</v>
+        <v>5868.509529864585</v>
       </c>
       <c r="B39" t="n">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8492.681372052437</v>
+        <v>8633.783773736253</v>
       </c>
       <c r="B40" t="n">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11246.88776663989</v>
+        <v>11399.05801760792</v>
       </c>
       <c r="B41" t="n">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14001.09416122735</v>
+        <v>14164.33226147959</v>
       </c>
       <c r="B42" t="n">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16755.30055581481</v>
+        <v>16929.60650535126</v>
       </c>
       <c r="B43" t="n">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19509.50695040226</v>
+        <v>19694.88074922293</v>
       </c>
       <c r="B44" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22263.71334498972</v>
+        <v>22460.1549930946</v>
       </c>
       <c r="B45" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25017.91973957718</v>
+        <v>25225.42923696627</v>
       </c>
       <c r="B46" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>27772.12613416463</v>
+        <v>27990.70348083794</v>
       </c>
       <c r="B47" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>30526.33252875209</v>
+        <v>30755.97772470961</v>
       </c>
       <c r="B48" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>33280.53892333955</v>
+        <v>33521.25196858128</v>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>36034.745317927</v>
+        <v>36286.52621245295</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>38788.95171251446</v>
+        <v>39051.80045632461</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>41543.15810710192</v>
+        <v>41817.07470019629</v>
       </c>
       <c r="B52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>44297.36450168937</v>
+        <v>44582.34894406796</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>47051.57089627683</v>
+        <v>47347.62318793962</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>49805.77729086429</v>
+        <v>50112.8974318113</v>
       </c>
       <c r="B55" t="n">
         <v>4</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>52559.98368545174</v>
+        <v>52878.17167568296</v>
       </c>
       <c r="B56" t="n">
         <v>2</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55314.1900800392</v>
+        <v>55643.44591955463</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>58068.39647462666</v>
+        <v>58408.7201634263</v>
       </c>
       <c r="B58" t="n">
         <v>2</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>60822.60286921411</v>
+        <v>61173.99440729797</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>63576.80926380157</v>
+        <v>63939.26865116964</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>66331.01565838903</v>
+        <v>66704.5428950413</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69085.22205297649</v>
+        <v>69469.81713891297</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>71839.42844756394</v>
+        <v>72235.09138278464</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>74593.6348421514</v>
+        <v>75000.3656266563</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>77347.84123673885</v>
+        <v>77765.63987052797</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>80102.04763132632</v>
+        <v>80530.91411439965</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>82856.25402591377</v>
+        <v>83296.18835827132</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>85610.46042050123</v>
+        <v>86061.46260214299</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>88364.66681508868</v>
+        <v>88826.73684601465</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>91118.87320967614</v>
+        <v>91592.01108988632</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>93873.07960426359</v>
+        <v>94357.28533375799</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.938683900612014</v>
+        <v>0.5968274969248638</v>
       </c>
       <c r="B72" t="n">
-        <v>7710</v>
+        <v>6365</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>67.54537497276011</v>
+        <v>44.42910829575285</v>
       </c>
       <c r="B73" t="n">
-        <v>1459</v>
+        <v>2083</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>134.1520660449082</v>
+        <v>88.26138909458084</v>
       </c>
       <c r="B74" t="n">
-        <v>463</v>
+        <v>712</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>200.7587571170563</v>
+        <v>132.0936698934088</v>
       </c>
       <c r="B75" t="n">
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>267.3654481892044</v>
+        <v>175.9259506922368</v>
       </c>
       <c r="B76" t="n">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>333.9721392613525</v>
+        <v>219.7582314910648</v>
       </c>
       <c r="B77" t="n">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>400.5788303335006</v>
+        <v>263.5905122898928</v>
       </c>
       <c r="B78" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>467.1855214056487</v>
+        <v>307.4227930887208</v>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>533.7922124777967</v>
+        <v>351.2550738875487</v>
       </c>
       <c r="B80" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>600.3989035499449</v>
+        <v>395.0873546863767</v>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>667.005594622093</v>
+        <v>438.9196354852047</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>733.612285694241</v>
+        <v>482.7519162840327</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>800.2189767663891</v>
+        <v>526.5841970828608</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>866.8256678385372</v>
+        <v>570.4164778816887</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>933.4323589106853</v>
+        <v>614.2487586805167</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1000.039049982833</v>
+        <v>658.0810394793447</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1066.645741054981</v>
+        <v>701.9133202781727</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1133.25243212713</v>
+        <v>745.7456010770007</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1199.859123199278</v>
+        <v>789.5778818758287</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1266.465814271426</v>
+        <v>833.4101626746567</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1333.072505343574</v>
+        <v>877.2424434734846</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1399.679196415722</v>
+        <v>921.0747242723127</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1466.28588748787</v>
+        <v>964.9070050711406</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1532.892578560018</v>
+        <v>1008.739285869969</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1599.499269632166</v>
+        <v>1052.571566668797</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1666.105960704314</v>
+        <v>1096.403847467624</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1732.712651776463</v>
+        <v>1140.236128266452</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1799.319342848611</v>
+        <v>1184.068409065281</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1865.926033920759</v>
+        <v>1227.900689864108</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1932.532724992907</v>
+        <v>1271.732970662936</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1999.139416065055</v>
+        <v>1315.565251461764</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2065.746107137203</v>
+        <v>1359.397532260592</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2132.352798209351</v>
+        <v>1403.22981305942</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2198.959489281499</v>
+        <v>1447.062093858248</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2265.566180353647</v>
+        <v>1490.894374657076</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.139853953495928e+74</v>
+        <v>-3.324570734446354e+69</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.10728632573371e+74</v>
+        <v>-3.226313897453343e+69</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1.074718697971491e+74</v>
+        <v>-3.128057060460333e+69</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.042151070209272e+74</v>
+        <v>-3.029800223467322e+69</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-1.009583442447053e+74</v>
+        <v>-2.931543386474312e+69</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-9.770158146848347e+73</v>
+        <v>-2.833286549481302e+69</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-9.444481869226161e+73</v>
+        <v>-2.735029712488291e+69</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-9.118805591603973e+73</v>
+        <v>-2.63677287549528e+69</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-8.793129313981786e+73</v>
+        <v>-2.53851603850227e+69</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-8.467453036359598e+73</v>
+        <v>-2.440259201509259e+69</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-8.14177675873741e+73</v>
+        <v>-2.342002364516249e+69</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-7.816100481115224e+73</v>
+        <v>-2.243745527523238e+69</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-7.490424203493036e+73</v>
+        <v>-2.145488690530228e+69</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-7.164747925870849e+73</v>
+        <v>-2.047231853537217e+69</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-6.839071648248662e+73</v>
+        <v>-1.948975016544207e+69</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-6.513395370626475e+73</v>
+        <v>-1.850718179551196e+69</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-6.187719093004287e+73</v>
+        <v>-1.752461342558185e+69</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-5.862042815382099e+73</v>
+        <v>-1.654204505565175e+69</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-5.536366537759912e+73</v>
+        <v>-1.555947668572165e+69</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-5.210690260137725e+73</v>
+        <v>-1.457690831579154e+69</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-4.885013982515538e+73</v>
+        <v>-1.359433994586144e+69</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-4.55933770489335e+73</v>
+        <v>-1.261177157593133e+69</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-4.233661427271164e+73</v>
+        <v>-1.162920320600122e+69</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-3.907985149648976e+73</v>
+        <v>-1.064663483607112e+69</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-3.582308872026789e+73</v>
+        <v>-9.664066466141015e+68</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-3.256632594404601e+73</v>
+        <v>-8.681498096210908e+68</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-2.930956316782413e+73</v>
+        <v>-7.698929726280802e+68</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-2.605280039160227e+73</v>
+        <v>-6.7163613563507e+68</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-2.279603761538039e+73</v>
+        <v>-5.733792986420593e+68</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.953927483915852e+73</v>
+        <v>-4.751224616490487e+68</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.628251206293665e+73</v>
+        <v>-3.768656246560381e+68</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1.302574928671478e+73</v>
+        <v>-2.786087876630278e+68</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-9.7689865104929e+72</v>
+        <v>-1.803519506700172e+68</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-6.512223734271024e+72</v>
+        <v>-8.209511367700653e+67</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>9997</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-3.255460958049147e+72</v>
+        <v>1.616172331600372e+67</v>
       </c>
       <c r="B141" t="n">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9933.297057803557</v>
+        <v>12751.10735226819</v>
       </c>
       <c r="B2" t="n">
-        <v>2153</v>
+        <v>3666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>118619.6841493279</v>
+        <v>170378.5709599442</v>
       </c>
       <c r="B3" t="n">
-        <v>3116</v>
+        <v>3207</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>227306.0712408523</v>
+        <v>328006.0345676203</v>
       </c>
       <c r="B4" t="n">
-        <v>1890</v>
+        <v>1510</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>335992.4583323766</v>
+        <v>485633.4981752964</v>
       </c>
       <c r="B5" t="n">
-        <v>1118</v>
+        <v>744</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>444678.845423901</v>
+        <v>643260.9617829724</v>
       </c>
       <c r="B6" t="n">
-        <v>593</v>
+        <v>386</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>553365.2325154254</v>
+        <v>800888.4253906485</v>
       </c>
       <c r="B7" t="n">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>662051.6196069497</v>
+        <v>958515.8889983245</v>
       </c>
       <c r="B8" t="n">
-        <v>255</v>
+        <v>96</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>770738.0066984742</v>
+        <v>1116143.352606001</v>
       </c>
       <c r="B9" t="n">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>879424.3937899985</v>
+        <v>1273770.816213677</v>
       </c>
       <c r="B10" t="n">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>988110.7808815228</v>
+        <v>1431398.279821353</v>
       </c>
       <c r="B11" t="n">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1096797.167973047</v>
+        <v>1589025.743429029</v>
       </c>
       <c r="B12" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1205483.555064572</v>
+        <v>1746653.207036705</v>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1314169.942156096</v>
+        <v>1904280.670644381</v>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1422856.32924762</v>
+        <v>2061908.134252057</v>
       </c>
       <c r="B15" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1531542.716339145</v>
+        <v>2219535.597859733</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1640229.103430669</v>
+        <v>2377163.06146741</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1748915.490522193</v>
+        <v>2534790.525075085</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1857601.877613718</v>
+        <v>2692417.988682761</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1966288.264705242</v>
+        <v>2850045.452290438</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2074974.651796766</v>
+        <v>3007672.915898114</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2183661.038888291</v>
+        <v>3165300.37950579</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2292347.425979815</v>
+        <v>3322927.843113466</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2401033.81307134</v>
+        <v>3480555.306721142</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2509720.200162864</v>
+        <v>3638182.770328818</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2618406.587254388</v>
+        <v>3795810.233936494</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2727092.974345913</v>
+        <v>3953437.69754417</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2835779.361437437</v>
+        <v>4111065.161151846</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2944465.748528962</v>
+        <v>4268692.624759521</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3053152.135620486</v>
+        <v>4426320.088367198</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3161838.52271201</v>
+        <v>4583947.551974874</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3270524.909803534</v>
+        <v>4741575.01558255</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3379211.296895059</v>
+        <v>4899202.479190226</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3487897.683986583</v>
+        <v>5056829.942797902</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3596584.071078108</v>
+        <v>5214457.406405578</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3705270.458169632</v>
+        <v>5372084.870013254</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>337.9610421212462</v>
+        <v>442.1772795475646</v>
       </c>
       <c r="B37" t="n">
-        <v>2524</v>
+        <v>3554</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3103.235285992915</v>
+        <v>3998.611576874548</v>
       </c>
       <c r="B38" t="n">
-        <v>3152</v>
+        <v>3338</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5868.509529864585</v>
+        <v>7555.045874201531</v>
       </c>
       <c r="B39" t="n">
-        <v>1914</v>
+        <v>1555</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8633.783773736253</v>
+        <v>11111.48017152851</v>
       </c>
       <c r="B40" t="n">
-        <v>1008</v>
+        <v>730</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11399.05801760792</v>
+        <v>14667.9144688555</v>
       </c>
       <c r="B41" t="n">
-        <v>537</v>
+        <v>367</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14164.33226147959</v>
+        <v>18224.34876618248</v>
       </c>
       <c r="B42" t="n">
-        <v>308</v>
+        <v>187</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16929.60650535126</v>
+        <v>21780.78306350947</v>
       </c>
       <c r="B43" t="n">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19694.88074922293</v>
+        <v>25337.21736083645</v>
       </c>
       <c r="B44" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22460.1549930946</v>
+        <v>28893.65165816343</v>
       </c>
       <c r="B45" t="n">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25225.42923696627</v>
+        <v>32450.08595549041</v>
       </c>
       <c r="B46" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>27990.70348083794</v>
+        <v>36006.52025281739</v>
       </c>
       <c r="B47" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>30755.97772470961</v>
+        <v>39562.95455014438</v>
       </c>
       <c r="B48" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>33521.25196858128</v>
+        <v>43119.38884747136</v>
       </c>
       <c r="B49" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>36286.52621245295</v>
+        <v>46675.82314479834</v>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>39051.80045632461</v>
+        <v>50232.25744212533</v>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>41817.07470019629</v>
+        <v>53788.69173945231</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>44582.34894406796</v>
+        <v>57345.12603677929</v>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>47347.62318793962</v>
+        <v>60901.56033410627</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>50112.8974318113</v>
+        <v>64457.99463143326</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>52878.17167568296</v>
+        <v>68014.42892876024</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55643.44591955463</v>
+        <v>71570.86322608723</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>58408.7201634263</v>
+        <v>75127.29752341422</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>61173.99440729797</v>
+        <v>78683.7318207412</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>63939.26865116964</v>
+        <v>82240.16611806818</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>66704.5428950413</v>
+        <v>85796.60041539517</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69469.81713891297</v>
+        <v>89353.03471272215</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>72235.09138278464</v>
+        <v>92909.46901004913</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>75000.3656266563</v>
+        <v>96465.90330737611</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>77765.63987052797</v>
+        <v>100022.3376047031</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>80530.91411439965</v>
+        <v>103578.7719020301</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>83296.18835827132</v>
+        <v>107135.2061993571</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>86061.46260214299</v>
+        <v>110691.640496684</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>88826.73684601465</v>
+        <v>114248.074794011</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>91592.01108988632</v>
+        <v>117804.509091338</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>94357.28533375799</v>
+        <v>121360.943388665</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5968274969248638</v>
+        <v>0.5037216137065672</v>
       </c>
       <c r="B72" t="n">
-        <v>6365</v>
+        <v>7397</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>44.42910829575285</v>
+        <v>62.73113104244653</v>
       </c>
       <c r="B73" t="n">
-        <v>2083</v>
+        <v>1671</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>88.26138909458084</v>
+        <v>124.9585404711865</v>
       </c>
       <c r="B74" t="n">
-        <v>712</v>
+        <v>488</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>132.0936698934088</v>
+        <v>187.1859498999264</v>
       </c>
       <c r="B75" t="n">
-        <v>368</v>
+        <v>207</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>175.9259506922368</v>
+        <v>249.4133593286664</v>
       </c>
       <c r="B76" t="n">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>219.7582314910648</v>
+        <v>311.6407687574064</v>
       </c>
       <c r="B77" t="n">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>263.5905122898928</v>
+        <v>373.8681781861463</v>
       </c>
       <c r="B78" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>307.4227930887208</v>
+        <v>436.0955876148863</v>
       </c>
       <c r="B79" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>351.2550738875487</v>
+        <v>498.3229970436262</v>
       </c>
       <c r="B80" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>395.0873546863767</v>
+        <v>560.5504064723663</v>
       </c>
       <c r="B81" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>438.9196354852047</v>
+        <v>622.7778159011062</v>
       </c>
       <c r="B82" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>482.7519162840327</v>
+        <v>685.0052253298462</v>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>526.5841970828608</v>
+        <v>747.2326347585861</v>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>570.4164778816887</v>
+        <v>809.460044187326</v>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>614.2487586805167</v>
+        <v>871.687453616066</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>658.0810394793447</v>
+        <v>933.914863044806</v>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>701.9133202781727</v>
+        <v>996.142272473546</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>745.7456010770007</v>
+        <v>1058.369681902286</v>
       </c>
       <c r="B89" t="n">
         <v>3</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>789.5778818758287</v>
+        <v>1120.597091331026</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>833.4101626746567</v>
+        <v>1182.824500759766</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>877.2424434734846</v>
+        <v>1245.051910188506</v>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>921.0747242723127</v>
+        <v>1307.279319617246</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>964.9070050711406</v>
+        <v>1369.506729045986</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1008.739285869969</v>
+        <v>1431.734138474726</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1052.571566668797</v>
+        <v>1493.961547903466</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1096.403847467624</v>
+        <v>1556.188957332206</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1140.236128266452</v>
+        <v>1618.416366760945</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1184.068409065281</v>
+        <v>1680.643776189685</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1227.900689864108</v>
+        <v>1742.871185618425</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1271.732970662936</v>
+        <v>1805.098595047165</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1315.565251461764</v>
+        <v>1867.326004475905</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1359.397532260592</v>
+        <v>1929.553413904645</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1403.22981305942</v>
+        <v>1991.780823333385</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1447.062093858248</v>
+        <v>2054.008232762125</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1490.894374657076</v>
+        <v>2116.235642190865</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-3.324570734446354e+69</v>
+        <v>-7.777237353917294e+68</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-3.226313897453343e+69</v>
+        <v>-7.555022892088924e+68</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-3.128057060460333e+69</v>
+        <v>-7.332808430260552e+68</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-3.029800223467322e+69</v>
+        <v>-7.110593968432181e+68</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-2.931543386474312e+69</v>
+        <v>-6.88837950660381e+68</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-2.833286549481302e+69</v>
+        <v>-6.666165044775438e+68</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-2.735029712488291e+69</v>
+        <v>-6.443950582947067e+68</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-2.63677287549528e+69</v>
+        <v>-6.221736121118696e+68</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-2.53851603850227e+69</v>
+        <v>-5.999521659290324e+68</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-2.440259201509259e+69</v>
+        <v>-5.777307197461953e+68</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-2.342002364516249e+69</v>
+        <v>-5.555092735633583e+68</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-2.243745527523238e+69</v>
+        <v>-5.332878273805211e+68</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-2.145488690530228e+69</v>
+        <v>-5.11066381197684e+68</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-2.047231853537217e+69</v>
+        <v>-4.888449350148469e+68</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.948975016544207e+69</v>
+        <v>-4.666234888320097e+68</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1.850718179551196e+69</v>
+        <v>-4.444020426491727e+68</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1.752461342558185e+69</v>
+        <v>-4.221805964663355e+68</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.654204505565175e+69</v>
+        <v>-3.999591502834984e+68</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.555947668572165e+69</v>
+        <v>-3.777377041006613e+68</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1.457690831579154e+69</v>
+        <v>-3.555162579178242e+68</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-1.359433994586144e+69</v>
+        <v>-3.332948117349871e+68</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.261177157593133e+69</v>
+        <v>-3.110733655521499e+68</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.162920320600122e+69</v>
+        <v>-2.888519193693128e+68</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-1.064663483607112e+69</v>
+        <v>-2.666304731864757e+68</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-9.664066466141015e+68</v>
+        <v>-2.444090270036385e+68</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-8.681498096210908e+68</v>
+        <v>-2.221875808208014e+68</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-7.698929726280802e+68</v>
+        <v>-1.999661346379643e+68</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-6.7163613563507e+68</v>
+        <v>-1.777446884551272e+68</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-5.733792986420593e+68</v>
+        <v>-1.5552324227229e+68</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-4.751224616490487e+68</v>
+        <v>-1.33301796089453e+68</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-3.768656246560381e+68</v>
+        <v>-1.110803499066159e+68</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-2.786087876630278e+68</v>
+        <v>-8.885890372377868e+67</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-1.803519506700172e+68</v>
+        <v>-6.663745754094159e+67</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-8.209511367700653e+67</v>
+        <v>-4.44160113581045e+67</v>
       </c>
       <c r="B140" t="n">
-        <v>9997</v>
+        <v>0</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.616172331600372e+67</v>
+        <v>-2.219456517526731e+67</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>9998</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12751.10735226819</v>
+        <v>12215.08263912651</v>
       </c>
       <c r="B2" t="n">
-        <v>3666</v>
+        <v>2470</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>170378.5709599442</v>
+        <v>132555.2145430816</v>
       </c>
       <c r="B3" t="n">
-        <v>3207</v>
+        <v>3082</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>328006.0345676203</v>
+        <v>252895.3464470367</v>
       </c>
       <c r="B4" t="n">
-        <v>1510</v>
+        <v>1805</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>485633.4981752964</v>
+        <v>373235.4783509918</v>
       </c>
       <c r="B5" t="n">
-        <v>744</v>
+        <v>1046</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>643260.9617829724</v>
+        <v>493575.6102549469</v>
       </c>
       <c r="B6" t="n">
-        <v>386</v>
+        <v>581</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>800888.4253906485</v>
+        <v>613915.742158902</v>
       </c>
       <c r="B7" t="n">
-        <v>196</v>
+        <v>343</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>958515.8889983245</v>
+        <v>734255.874062857</v>
       </c>
       <c r="B8" t="n">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1116143.352606001</v>
+        <v>854596.0059668121</v>
       </c>
       <c r="B9" t="n">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1273770.816213677</v>
+        <v>974936.1378707673</v>
       </c>
       <c r="B10" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1431398.279821353</v>
+        <v>1095276.269774722</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1589025.743429029</v>
+        <v>1215616.401678678</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1746653.207036705</v>
+        <v>1335956.533582633</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1904280.670644381</v>
+        <v>1456296.665486588</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2061908.134252057</v>
+        <v>1576636.797390543</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2219535.597859733</v>
+        <v>1696976.929294498</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2377163.06146741</v>
+        <v>1817317.061198453</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2534790.525075085</v>
+        <v>1937657.193102408</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2692417.988682761</v>
+        <v>2057997.325006363</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2850045.452290438</v>
+        <v>2178337.456910318</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3007672.915898114</v>
+        <v>2298677.588814273</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3165300.37950579</v>
+        <v>2419017.720718229</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3322927.843113466</v>
+        <v>2539357.852622184</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3480555.306721142</v>
+        <v>2659697.984526139</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3638182.770328818</v>
+        <v>2780038.116430094</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3795810.233936494</v>
+        <v>2900378.248334049</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3953437.69754417</v>
+        <v>3020718.380238004</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4111065.161151846</v>
+        <v>3141058.512141959</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4268692.624759521</v>
+        <v>3261398.644045915</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4426320.088367198</v>
+        <v>3381738.775949869</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4583947.551974874</v>
+        <v>3502078.907853825</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4741575.01558255</v>
+        <v>3622419.03975778</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4899202.479190226</v>
+        <v>3742759.171661735</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5056829.942797902</v>
+        <v>3863099.30356569</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5214457.406405578</v>
+        <v>3983439.435469645</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5372084.870013254</v>
+        <v>4103779.5673736</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>442.1772795475646</v>
+        <v>357.3706233208592</v>
       </c>
       <c r="B37" t="n">
-        <v>3554</v>
+        <v>2420</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3998.611576874548</v>
+        <v>3140.968752266891</v>
       </c>
       <c r="B38" t="n">
-        <v>3338</v>
+        <v>3140</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7555.045874201531</v>
+        <v>5924.566881212923</v>
       </c>
       <c r="B39" t="n">
-        <v>1555</v>
+        <v>1877</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11111.48017152851</v>
+        <v>8708.165010158955</v>
       </c>
       <c r="B40" t="n">
-        <v>730</v>
+        <v>1104</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14667.9144688555</v>
+        <v>11491.76313910499</v>
       </c>
       <c r="B41" t="n">
-        <v>367</v>
+        <v>532</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18224.34876618248</v>
+        <v>14275.36126805102</v>
       </c>
       <c r="B42" t="n">
-        <v>187</v>
+        <v>372</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>21780.78306350947</v>
+        <v>17058.95939699705</v>
       </c>
       <c r="B43" t="n">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>25337.21736083645</v>
+        <v>19842.55752594308</v>
       </c>
       <c r="B44" t="n">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>28893.65165816343</v>
+        <v>22626.15565488911</v>
       </c>
       <c r="B45" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>32450.08595549041</v>
+        <v>25409.75378383515</v>
       </c>
       <c r="B46" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>36006.52025281739</v>
+        <v>28193.35191278118</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>39562.95455014438</v>
+        <v>30976.95004172721</v>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43119.38884747136</v>
+        <v>33760.54817067324</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>46675.82314479834</v>
+        <v>36544.14629961927</v>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50232.25744212533</v>
+        <v>39327.7444285653</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>53788.69173945231</v>
+        <v>42111.34255751134</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>57345.12603677929</v>
+        <v>44894.94068645737</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60901.56033410627</v>
+        <v>47678.5388154034</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>64457.99463143326</v>
+        <v>50462.13694434943</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>68014.42892876024</v>
+        <v>53245.73507329547</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>71570.86322608723</v>
+        <v>56029.3332022415</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>75127.29752341422</v>
+        <v>58812.93133118753</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>78683.7318207412</v>
+        <v>61596.52946013356</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>82240.16611806818</v>
+        <v>64380.1275890796</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>85796.60041539517</v>
+        <v>67163.72571802563</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>89353.03471272215</v>
+        <v>69947.32384697166</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>92909.46901004913</v>
+        <v>72730.92197591769</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>96465.90330737611</v>
+        <v>75514.52010486372</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>100022.3376047031</v>
+        <v>78298.11823380976</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>103578.7719020301</v>
+        <v>81081.71636275579</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>107135.2061993571</v>
+        <v>83865.31449170182</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>110691.640496684</v>
+        <v>86648.91262064785</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>114248.074794011</v>
+        <v>89432.51074959389</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>117804.509091338</v>
+        <v>92216.10887853992</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>121360.943388665</v>
+        <v>94999.70700748595</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5037216137065672</v>
+        <v>0.5016556229864195</v>
       </c>
       <c r="B72" t="n">
-        <v>7397</v>
+        <v>6181</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>62.73113104244653</v>
+        <v>43.44335394134248</v>
       </c>
       <c r="B73" t="n">
-        <v>1671</v>
+        <v>2103</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>124.9585404711865</v>
+        <v>86.38505225969854</v>
       </c>
       <c r="B74" t="n">
-        <v>488</v>
+        <v>792</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>187.1859498999264</v>
+        <v>129.3267505780546</v>
       </c>
       <c r="B75" t="n">
-        <v>207</v>
+        <v>398</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>249.4133593286664</v>
+        <v>172.2684488964107</v>
       </c>
       <c r="B76" t="n">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>311.6407687574064</v>
+        <v>215.2101472147667</v>
       </c>
       <c r="B77" t="n">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>373.8681781861463</v>
+        <v>258.1518455331228</v>
       </c>
       <c r="B78" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>436.0955876148863</v>
+        <v>301.0935438514788</v>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>498.3229970436262</v>
+        <v>344.0352421698349</v>
       </c>
       <c r="B80" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>560.5504064723663</v>
+        <v>386.976940488191</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>622.7778159011062</v>
+        <v>429.9186388065471</v>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>685.0052253298462</v>
+        <v>472.8603371249031</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>747.2326347585861</v>
+        <v>515.8020354432591</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>809.460044187326</v>
+        <v>558.7437337616152</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>871.687453616066</v>
+        <v>601.6854320799712</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>933.914863044806</v>
+        <v>644.6271303983273</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>996.142272473546</v>
+        <v>687.5688287166834</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1058.369681902286</v>
+        <v>730.5105270350394</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1120.597091331026</v>
+        <v>773.4522253533955</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1182.824500759766</v>
+        <v>816.3939236717515</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1245.051910188506</v>
+        <v>859.3356219901076</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1307.279319617246</v>
+        <v>902.2773203084637</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1369.506729045986</v>
+        <v>945.2190186268197</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1431.734138474726</v>
+        <v>988.1607169451757</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1493.961547903466</v>
+        <v>1031.102415263532</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1556.188957332206</v>
+        <v>1074.044113581888</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1618.416366760945</v>
+        <v>1116.985811900244</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1680.643776189685</v>
+        <v>1159.9275102186</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1742.871185618425</v>
+        <v>1202.869208536956</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1805.098595047165</v>
+        <v>1245.810906855312</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1867.326004475905</v>
+        <v>1288.752605173668</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1929.553413904645</v>
+        <v>1331.694303492024</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1991.780823333385</v>
+        <v>1374.63600181038</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2054.008232762125</v>
+        <v>1417.577700128736</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2116.235642190865</v>
+        <v>1460.519398447092</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-7.777237353917294e+68</v>
+        <v>-9.531666458574445e+68</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-7.555022892088924e+68</v>
+        <v>-9.244109201851608e+68</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-7.332808430260552e+68</v>
+        <v>-8.95655194512877e+68</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-7.110593968432181e+68</v>
+        <v>-8.668994688405933e+68</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-6.88837950660381e+68</v>
+        <v>-8.381437431683096e+68</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-6.666165044775438e+68</v>
+        <v>-8.093880174960258e+68</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-6.443950582947067e+68</v>
+        <v>-7.80632291823742e+68</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-6.221736121118696e+68</v>
+        <v>-7.518765661514583e+68</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-5.999521659290324e+68</v>
+        <v>-7.231208404791746e+68</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-5.777307197461953e+68</v>
+        <v>-6.943651148068907e+68</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-5.555092735633583e+68</v>
+        <v>-6.656093891346071e+68</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-5.332878273805211e+68</v>
+        <v>-6.368536634623233e+68</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-5.11066381197684e+68</v>
+        <v>-6.080979377900395e+68</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-4.888449350148469e+68</v>
+        <v>-5.793422121177559e+68</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-4.666234888320097e+68</v>
+        <v>-5.50586486445472e+68</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-4.444020426491727e+68</v>
+        <v>-5.218307607731883e+68</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-4.221805964663355e+68</v>
+        <v>-4.930750351009046e+68</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-3.999591502834984e+68</v>
+        <v>-4.643193094286208e+68</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-3.777377041006613e+68</v>
+        <v>-4.35563583756337e+68</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-3.555162579178242e+68</v>
+        <v>-4.068078580840534e+68</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-3.332948117349871e+68</v>
+        <v>-3.780521324117696e+68</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-3.110733655521499e+68</v>
+        <v>-3.492964067394858e+68</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-2.888519193693128e+68</v>
+        <v>-3.205406810672021e+68</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-2.666304731864757e+68</v>
+        <v>-2.917849553949183e+68</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-2.444090270036385e+68</v>
+        <v>-2.630292297226345e+68</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-2.221875808208014e+68</v>
+        <v>-2.342735040503509e+68</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-1.999661346379643e+68</v>
+        <v>-2.055177783780671e+68</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-1.777446884551272e+68</v>
+        <v>-1.767620527057833e+68</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-1.5552324227229e+68</v>
+        <v>-1.480063270334996e+68</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.33301796089453e+68</v>
+        <v>-1.192506013612158e+68</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.110803499066159e+68</v>
+        <v>-9.049487568893215e+67</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-8.885890372377868e+67</v>
+        <v>-6.173915001664829e+67</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-6.663745754094159e+67</v>
+        <v>-3.298342434436462e+67</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-4.44160113581045e+67</v>
+        <v>-4.22769867208095e+66</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>9997</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-2.219456517526731e+67</v>
+        <v>2.452802700020291e+67</v>
       </c>
       <c r="B141" t="n">
-        <v>9998</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12215.08263912651</v>
+        <v>6731.99617792499</v>
       </c>
       <c r="B2" t="n">
-        <v>2470</v>
+        <v>4149</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>132555.2145430816</v>
+        <v>190036.213486361</v>
       </c>
       <c r="B3" t="n">
-        <v>3082</v>
+        <v>3293</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252895.3464470367</v>
+        <v>373340.430794797</v>
       </c>
       <c r="B4" t="n">
-        <v>1805</v>
+        <v>1343</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>373235.4783509918</v>
+        <v>556644.6481032331</v>
       </c>
       <c r="B5" t="n">
-        <v>1046</v>
+        <v>593</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>493575.6102549469</v>
+        <v>739948.8654116691</v>
       </c>
       <c r="B6" t="n">
-        <v>581</v>
+        <v>279</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>613915.742158902</v>
+        <v>923253.0827201052</v>
       </c>
       <c r="B7" t="n">
-        <v>343</v>
+        <v>141</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>734255.874062857</v>
+        <v>1106557.300028541</v>
       </c>
       <c r="B8" t="n">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>854596.0059668121</v>
+        <v>1289861.517336977</v>
       </c>
       <c r="B9" t="n">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>974936.1378707673</v>
+        <v>1473165.734645413</v>
       </c>
       <c r="B10" t="n">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1095276.269774722</v>
+        <v>1656469.951953849</v>
       </c>
       <c r="B11" t="n">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1215616.401678678</v>
+        <v>1839774.169262285</v>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1335956.533582633</v>
+        <v>2023078.386570721</v>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1456296.665486588</v>
+        <v>2206382.603879157</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1576636.797390543</v>
+        <v>2389686.821187593</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1696976.929294498</v>
+        <v>2572991.038496029</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1817317.061198453</v>
+        <v>2756295.255804465</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1937657.193102408</v>
+        <v>2939599.473112901</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2057997.325006363</v>
+        <v>3122903.690421337</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2178337.456910318</v>
+        <v>3306207.907729773</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2298677.588814273</v>
+        <v>3489512.125038209</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2419017.720718229</v>
+        <v>3672816.342346645</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2539357.852622184</v>
+        <v>3856120.559655081</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2659697.984526139</v>
+        <v>4039424.776963518</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2780038.116430094</v>
+        <v>4222728.994271954</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2900378.248334049</v>
+        <v>4406033.211580389</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3020718.380238004</v>
+        <v>4589337.428888826</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3141058.512141959</v>
+        <v>4772641.646197261</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3261398.644045915</v>
+        <v>4955945.863505698</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3381738.775949869</v>
+        <v>5139250.080814133</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3502078.907853825</v>
+        <v>5322554.29812257</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3622419.03975778</v>
+        <v>5505858.515431006</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3742759.171661735</v>
+        <v>5689162.732739442</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3863099.30356569</v>
+        <v>5872466.950047878</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3983439.435469645</v>
+        <v>6055771.167356313</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4103779.5673736</v>
+        <v>6239075.38466475</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>357.3706233208592</v>
+        <v>209.9402668477042</v>
       </c>
       <c r="B37" t="n">
-        <v>2420</v>
+        <v>1926</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3140.968752266891</v>
+        <v>2906.623914618613</v>
       </c>
       <c r="B38" t="n">
-        <v>3140</v>
+        <v>3224</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5924.566881212923</v>
+        <v>5603.307562389522</v>
       </c>
       <c r="B39" t="n">
-        <v>1877</v>
+        <v>1973</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8708.165010158955</v>
+        <v>8299.991210160431</v>
       </c>
       <c r="B40" t="n">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11491.76313910499</v>
+        <v>10996.67485793134</v>
       </c>
       <c r="B41" t="n">
-        <v>532</v>
+        <v>645</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14275.36126805102</v>
+        <v>13693.35850570225</v>
       </c>
       <c r="B42" t="n">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17058.95939699705</v>
+        <v>16390.04215347316</v>
       </c>
       <c r="B43" t="n">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19842.55752594308</v>
+        <v>19086.72580124407</v>
       </c>
       <c r="B44" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22626.15565488911</v>
+        <v>21783.40944901498</v>
       </c>
       <c r="B45" t="n">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25409.75378383515</v>
+        <v>24480.09309678588</v>
       </c>
       <c r="B46" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>28193.35191278118</v>
+        <v>27176.7767445568</v>
       </c>
       <c r="B47" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>30976.95004172721</v>
+        <v>29873.4603923277</v>
       </c>
       <c r="B48" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>33760.54817067324</v>
+        <v>32570.14404009861</v>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>36544.14629961927</v>
+        <v>35266.82768786952</v>
       </c>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>39327.7444285653</v>
+        <v>37963.51133564043</v>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>42111.34255751134</v>
+        <v>40660.19498341134</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>44894.94068645737</v>
+        <v>43356.87863118225</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>47678.5388154034</v>
+        <v>46053.56227895316</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>50462.13694434943</v>
+        <v>48750.24592672406</v>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>53245.73507329547</v>
+        <v>51446.92957449498</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56029.3332022415</v>
+        <v>54143.61322226589</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>58812.93133118753</v>
+        <v>56840.29687003679</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>61596.52946013356</v>
+        <v>59536.9805178077</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>64380.1275890796</v>
+        <v>62233.66416557861</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>67163.72571802563</v>
+        <v>64930.34781334952</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69947.32384697166</v>
+        <v>67627.03146112042</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>72730.92197591769</v>
+        <v>70323.71510889132</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>75514.52010486372</v>
+        <v>73020.39875666224</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>78298.11823380976</v>
+        <v>75717.08240443315</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>81081.71636275579</v>
+        <v>78413.76605220405</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>83865.31449170182</v>
+        <v>81110.44969997497</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>86648.91262064785</v>
+        <v>83807.13334774587</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>89432.51074959389</v>
+        <v>86503.81699551678</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>92216.10887853992</v>
+        <v>89200.5006432877</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>94999.70700748595</v>
+        <v>91897.1842910586</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5016556229864195</v>
+        <v>0.8073021899112079</v>
       </c>
       <c r="B72" t="n">
-        <v>6181</v>
+        <v>5023</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43.44335394134248</v>
+        <v>33.17522442329102</v>
       </c>
       <c r="B73" t="n">
-        <v>2103</v>
+        <v>2389</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>86.38505225969854</v>
+        <v>65.54314665667084</v>
       </c>
       <c r="B74" t="n">
-        <v>792</v>
+        <v>1086</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>129.3267505780546</v>
+        <v>97.91106889005066</v>
       </c>
       <c r="B75" t="n">
-        <v>398</v>
+        <v>534</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>172.2684488964107</v>
+        <v>130.2789911234305</v>
       </c>
       <c r="B76" t="n">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>215.2101472147667</v>
+        <v>162.6469133568103</v>
       </c>
       <c r="B77" t="n">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>258.1518455331228</v>
+        <v>195.0148355901901</v>
       </c>
       <c r="B78" t="n">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>301.0935438514788</v>
+        <v>227.3827578235699</v>
       </c>
       <c r="B79" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>344.0352421698349</v>
+        <v>259.7506800569497</v>
       </c>
       <c r="B80" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>386.976940488191</v>
+        <v>292.1186022903295</v>
       </c>
       <c r="B81" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>429.9186388065471</v>
+        <v>324.4865245237094</v>
       </c>
       <c r="B82" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>472.8603371249031</v>
+        <v>356.8544467570891</v>
       </c>
       <c r="B83" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>515.8020354432591</v>
+        <v>389.222368990469</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>558.7437337616152</v>
+        <v>421.5902912238488</v>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>601.6854320799712</v>
+        <v>453.9582134572286</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>644.6271303983273</v>
+        <v>486.3261356906084</v>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>687.5688287166834</v>
+        <v>518.6940579239882</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>730.5105270350394</v>
+        <v>551.061980157368</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>773.4522253533955</v>
+        <v>583.4299023907479</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>816.3939236717515</v>
+        <v>615.7978246241277</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>859.3356219901076</v>
+        <v>648.1657468575075</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>902.2773203084637</v>
+        <v>680.5336690908873</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>945.2190186268197</v>
+        <v>712.9015913242671</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>988.1607169451757</v>
+        <v>745.269513557647</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1031.102415263532</v>
+        <v>777.6374357910267</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1074.044113581888</v>
+        <v>810.0053580244065</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1116.985811900244</v>
+        <v>842.3732802577864</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1159.9275102186</v>
+        <v>874.7412024911662</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1202.869208536956</v>
+        <v>907.1091247245459</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1245.810906855312</v>
+        <v>939.4770469579258</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1288.752605173668</v>
+        <v>971.8449691913056</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1331.694303492024</v>
+        <v>1004.212891424685</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1374.63600181038</v>
+        <v>1036.580813658065</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1417.577700128736</v>
+        <v>1068.948735891445</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1460.519398447092</v>
+        <v>1101.316658124825</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-9.531666458574445e+68</v>
+        <v>-3.53281559288696e+67</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-9.244109201851608e+68</v>
+        <v>1.403941864225774e+67</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-8.95655194512877e+68</v>
+        <v>6.340699321338507e+67</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-8.668994688405933e+68</v>
+        <v>1.127745677845124e+68</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-8.381437431683096e+68</v>
+        <v>1.621421423556398e+68</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-8.093880174960258e+68</v>
+        <v>2.115097169267671e+68</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-7.80632291823742e+68</v>
+        <v>2.608772914978945e+68</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-7.518765661514583e+68</v>
+        <v>3.102448660690218e+68</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-7.231208404791746e+68</v>
+        <v>3.596124406401491e+68</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-6.943651148068907e+68</v>
+        <v>4.089800152112765e+68</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-6.656093891346071e+68</v>
+        <v>4.583475897824038e+68</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-6.368536634623233e+68</v>
+        <v>5.077151643535311e+68</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-6.080979377900395e+68</v>
+        <v>5.570827389246586e+68</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-5.793422121177559e+68</v>
+        <v>6.064503134957859e+68</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-5.50586486445472e+68</v>
+        <v>6.558178880669132e+68</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-5.218307607731883e+68</v>
+        <v>7.051854626380405e+68</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-4.930750351009046e+68</v>
+        <v>7.545530372091679e+68</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-4.643193094286208e+68</v>
+        <v>8.039206117802952e+68</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-4.35563583756337e+68</v>
+        <v>8.532881863514225e+68</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-4.068078580840534e+68</v>
+        <v>9.026557609225499e+68</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-3.780521324117696e+68</v>
+        <v>9.520233354936772e+68</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-3.492964067394858e+68</v>
+        <v>1.001390910064805e+69</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-3.205406810672021e+68</v>
+        <v>1.050758484635932e+69</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-2.917849553949183e+68</v>
+        <v>1.100126059207059e+69</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-2.630292297226345e+68</v>
+        <v>1.149493633778187e+69</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-2.342735040503509e+68</v>
+        <v>1.198861208349314e+69</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-2.055177783780671e+68</v>
+        <v>1.248228782920441e+69</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-1.767620527057833e+68</v>
+        <v>1.297596357491569e+69</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-1.480063270334996e+68</v>
+        <v>1.346963932062696e+69</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.192506013612158e+68</v>
+        <v>1.396331506633823e+69</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-9.049487568893215e+67</v>
+        <v>1.445699081204951e+69</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-6.173915001664829e+67</v>
+        <v>1.495066655776078e+69</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-3.298342434436462e+67</v>
+        <v>1.544434230347205e+69</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-4.22769867208095e+66</v>
+        <v>1.593801804918333e+69</v>
       </c>
       <c r="B140" t="n">
-        <v>9997</v>
+        <v>0</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.452802700020291e+67</v>
+        <v>1.64316937948946e+69</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6731.99617792499</v>
+        <v>12512.01030900312</v>
       </c>
       <c r="B2" t="n">
-        <v>4149</v>
+        <v>2217</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>190036.213486361</v>
+        <v>128401.942474609</v>
       </c>
       <c r="B3" t="n">
-        <v>3293</v>
+        <v>2991</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>373340.430794797</v>
+        <v>244291.8746402148</v>
       </c>
       <c r="B4" t="n">
-        <v>1343</v>
+        <v>1874</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>556644.6481032331</v>
+        <v>360181.8068058207</v>
       </c>
       <c r="B5" t="n">
-        <v>593</v>
+        <v>1052</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>739948.8654116691</v>
+        <v>476071.7389714266</v>
       </c>
       <c r="B6" t="n">
-        <v>279</v>
+        <v>647</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>923253.0827201052</v>
+        <v>591961.6711370323</v>
       </c>
       <c r="B7" t="n">
-        <v>141</v>
+        <v>401</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1106557.300028541</v>
+        <v>707851.6033026383</v>
       </c>
       <c r="B8" t="n">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1289861.517336977</v>
+        <v>823741.5354682441</v>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1473165.734645413</v>
+        <v>939631.4676338499</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1656469.951953849</v>
+        <v>1055521.399799456</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1839774.169262285</v>
+        <v>1171411.331965062</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2023078.386570721</v>
+        <v>1287301.264130668</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2206382.603879157</v>
+        <v>1403191.196296273</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2389686.821187593</v>
+        <v>1519081.128461879</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2572991.038496029</v>
+        <v>1634971.060627485</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2756295.255804465</v>
+        <v>1750860.992793091</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2939599.473112901</v>
+        <v>1866750.924958697</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3122903.690421337</v>
+        <v>1982640.857124303</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3306207.907729773</v>
+        <v>2098530.789289908</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3489512.125038209</v>
+        <v>2214420.721455514</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3672816.342346645</v>
+        <v>2330310.65362112</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3856120.559655081</v>
+        <v>2446200.585786726</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4039424.776963518</v>
+        <v>2562090.517952332</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4222728.994271954</v>
+        <v>2677980.450117938</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4406033.211580389</v>
+        <v>2793870.382283544</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4589337.428888826</v>
+        <v>2909760.31444915</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4772641.646197261</v>
+        <v>3025650.246614756</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4955945.863505698</v>
+        <v>3141540.178780362</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5139250.080814133</v>
+        <v>3257430.110945967</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5322554.29812257</v>
+        <v>3373320.043111573</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5505858.515431006</v>
+        <v>3489209.975277179</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5689162.732739442</v>
+        <v>3605099.907442785</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5872466.950047878</v>
+        <v>3720989.839608391</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6055771.167356313</v>
+        <v>3836879.771773997</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6239075.38466475</v>
+        <v>3952769.703939603</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>209.9402668477042</v>
+        <v>430.4964281894378</v>
       </c>
       <c r="B37" t="n">
-        <v>1926</v>
+        <v>1868</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2906.623914618613</v>
+        <v>2894.496070822658</v>
       </c>
       <c r="B38" t="n">
-        <v>3224</v>
+        <v>2910</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5603.307562389522</v>
+        <v>5358.495713455878</v>
       </c>
       <c r="B39" t="n">
-        <v>1973</v>
+        <v>1995</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8299.991210160431</v>
+        <v>7822.495356089098</v>
       </c>
       <c r="B40" t="n">
-        <v>1101</v>
+        <v>1224</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10996.67485793134</v>
+        <v>10286.49499872232</v>
       </c>
       <c r="B41" t="n">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13693.35850570225</v>
+        <v>12750.49464135554</v>
       </c>
       <c r="B42" t="n">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16390.04215347316</v>
+        <v>15214.49428398876</v>
       </c>
       <c r="B43" t="n">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19086.72580124407</v>
+        <v>17678.49392662198</v>
       </c>
       <c r="B44" t="n">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>21783.40944901498</v>
+        <v>20142.4935692552</v>
       </c>
       <c r="B45" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24480.09309678588</v>
+        <v>22606.49321188842</v>
       </c>
       <c r="B46" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>27176.7767445568</v>
+        <v>25070.49285452164</v>
       </c>
       <c r="B47" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>29873.4603923277</v>
+        <v>27534.49249715486</v>
       </c>
       <c r="B48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>32570.14404009861</v>
+        <v>29998.49213978808</v>
       </c>
       <c r="B49" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>35266.82768786952</v>
+        <v>32462.4917824213</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>37963.51133564043</v>
+        <v>34926.49142505451</v>
       </c>
       <c r="B51" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>40660.19498341134</v>
+        <v>37390.49106768773</v>
       </c>
       <c r="B52" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43356.87863118225</v>
+        <v>39854.49071032096</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>46053.56227895316</v>
+        <v>42318.49035295418</v>
       </c>
       <c r="B54" t="n">
         <v>7</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>48750.24592672406</v>
+        <v>44782.4899955874</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>51446.92957449498</v>
+        <v>47246.48963822061</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>54143.61322226589</v>
+        <v>49710.48928085384</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56840.29687003679</v>
+        <v>52174.48892348706</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>59536.9805178077</v>
+        <v>54638.48856612027</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>62233.66416557861</v>
+        <v>57102.48820875349</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>64930.34781334952</v>
+        <v>59566.48785138672</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67627.03146112042</v>
+        <v>62030.48749401994</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>70323.71510889132</v>
+        <v>64494.48713665316</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>73020.39875666224</v>
+        <v>66958.48677928638</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>75717.08240443315</v>
+        <v>69422.48642191959</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>78413.76605220405</v>
+        <v>71886.48606455281</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>81110.44969997497</v>
+        <v>74350.48570718603</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>83807.13334774587</v>
+        <v>76814.48534981925</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>86503.81699551678</v>
+        <v>79278.48499245248</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>89200.5006432877</v>
+        <v>81742.4846350857</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>91897.1842910586</v>
+        <v>84206.48427771892</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8073021899112079</v>
+        <v>0.3750018142637118</v>
       </c>
       <c r="B72" t="n">
-        <v>5023</v>
+        <v>6653</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>33.17522442329102</v>
+        <v>53.48014471488979</v>
       </c>
       <c r="B73" t="n">
-        <v>2389</v>
+        <v>1945</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>65.54314665667084</v>
+        <v>106.5852876155159</v>
       </c>
       <c r="B74" t="n">
-        <v>1086</v>
+        <v>697</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>97.91106889005066</v>
+        <v>159.690430516142</v>
       </c>
       <c r="B75" t="n">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130.2789911234305</v>
+        <v>212.795573416768</v>
       </c>
       <c r="B76" t="n">
-        <v>325</v>
+        <v>157</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>162.6469133568103</v>
+        <v>265.9007163173941</v>
       </c>
       <c r="B77" t="n">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>195.0148355901901</v>
+        <v>319.0058592180202</v>
       </c>
       <c r="B78" t="n">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>227.3827578235699</v>
+        <v>372.1110021186462</v>
       </c>
       <c r="B79" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>259.7506800569497</v>
+        <v>425.2161450192723</v>
       </c>
       <c r="B80" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>292.1186022903295</v>
+        <v>478.3212879198985</v>
       </c>
       <c r="B81" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>324.4865245237094</v>
+        <v>531.4264308205245</v>
       </c>
       <c r="B82" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>356.8544467570891</v>
+        <v>584.5315737211505</v>
       </c>
       <c r="B83" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>389.222368990469</v>
+        <v>637.6367166217766</v>
       </c>
       <c r="B84" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>421.5902912238488</v>
+        <v>690.7418595224027</v>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>453.9582134572286</v>
+        <v>743.8470024230287</v>
       </c>
       <c r="B86" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>486.3261356906084</v>
+        <v>796.9521453236548</v>
       </c>
       <c r="B87" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>518.6940579239882</v>
+        <v>850.0572882242809</v>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>551.061980157368</v>
+        <v>903.162431124907</v>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>583.4299023907479</v>
+        <v>956.2675740255331</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>615.7978246241277</v>
+        <v>1009.372716926159</v>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>648.1657468575075</v>
+        <v>1062.477859826785</v>
       </c>
       <c r="B92" t="n">
         <v>2</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>680.5336690908873</v>
+        <v>1115.583002727411</v>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>712.9015913242671</v>
+        <v>1168.688145628037</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>745.269513557647</v>
+        <v>1221.793288528663</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>777.6374357910267</v>
+        <v>1274.89843142929</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>810.0053580244065</v>
+        <v>1328.003574329916</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>842.3732802577864</v>
+        <v>1381.108717230542</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>874.7412024911662</v>
+        <v>1434.213860131168</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>907.1091247245459</v>
+        <v>1487.319003031794</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>939.4770469579258</v>
+        <v>1540.42414593242</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>971.8449691913056</v>
+        <v>1593.529288833046</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1004.212891424685</v>
+        <v>1646.634431733672</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1036.580813658065</v>
+        <v>1699.739574634298</v>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1068.948735891445</v>
+        <v>1752.844717534924</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1101.316658124825</v>
+        <v>1805.94986043555</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-3.53281559288696e+67</v>
+        <v>-4.650113155228319e+66</v>
       </c>
       <c r="B107" t="n">
-        <v>9999</v>
+        <v>9998</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.403941864225774e+67</v>
+        <v>4.148912567812396e+66</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6.340699321338507e+67</v>
+        <v>1.294793829085311e+67</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.127745677845124e+68</v>
+        <v>2.174696401389383e+67</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.621421423556398e+68</v>
+        <v>3.054598973693454e+67</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.115097169267671e+68</v>
+        <v>3.934501545997525e+67</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.608772914978945e+68</v>
+        <v>4.814404118301597e+67</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.102448660690218e+68</v>
+        <v>5.694306690605668e+67</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3.596124406401491e+68</v>
+        <v>6.57420926290974e+67</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4.089800152112765e+68</v>
+        <v>7.454111835213812e+67</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4.583475897824038e+68</v>
+        <v>8.334014407517883e+67</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5.077151643535311e+68</v>
+        <v>9.213916979821953e+67</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5.570827389246586e+68</v>
+        <v>1.009381955212603e+68</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6.064503134957859e+68</v>
+        <v>1.09737221244301e+68</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6.558178880669132e+68</v>
+        <v>1.185362469673417e+68</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7.051854626380405e+68</v>
+        <v>1.273352726903824e+68</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>7.545530372091679e+68</v>
+        <v>1.361342984134231e+68</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>8.039206117802952e+68</v>
+        <v>1.449333241364638e+68</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8.532881863514225e+68</v>
+        <v>1.537323498595046e+68</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.026557609225499e+68</v>
+        <v>1.625313755825453e+68</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.520233354936772e+68</v>
+        <v>1.71330401305586e+68</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.001390910064805e+69</v>
+        <v>1.801294270286267e+68</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.050758484635932e+69</v>
+        <v>1.889284527516674e+68</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.100126059207059e+69</v>
+        <v>1.977274784747081e+68</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.149493633778187e+69</v>
+        <v>2.065265041977488e+68</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.198861208349314e+69</v>
+        <v>2.153255299207896e+68</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.248228782920441e+69</v>
+        <v>2.241245556438303e+68</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.297596357491569e+69</v>
+        <v>2.32923581366871e+68</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.346963932062696e+69</v>
+        <v>2.417226070899117e+68</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.396331506633823e+69</v>
+        <v>2.505216328129524e+68</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.445699081204951e+69</v>
+        <v>2.593206585359931e+68</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.495066655776078e+69</v>
+        <v>2.681196842590338e+68</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.544434230347205e+69</v>
+        <v>2.769187099820746e+68</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.593801804918333e+69</v>
+        <v>2.857177357051153e+68</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.64316937948946e+69</v>
+        <v>2.94516761428156e+68</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12512.01030900312</v>
+        <v>15457.86438528094</v>
       </c>
       <c r="B2" t="n">
-        <v>2217</v>
+        <v>1890</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>128401.942474609</v>
+        <v>120402.0395962248</v>
       </c>
       <c r="B3" t="n">
-        <v>2991</v>
+        <v>2833</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>244291.8746402148</v>
+        <v>225346.2148071686</v>
       </c>
       <c r="B4" t="n">
-        <v>1874</v>
+        <v>1934</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>360181.8068058207</v>
+        <v>330290.3900181124</v>
       </c>
       <c r="B5" t="n">
-        <v>1052</v>
+        <v>1198</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>476071.7389714266</v>
+        <v>435234.5652290562</v>
       </c>
       <c r="B6" t="n">
-        <v>647</v>
+        <v>720</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>591961.6711370323</v>
+        <v>540178.7404400001</v>
       </c>
       <c r="B7" t="n">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>707851.6033026383</v>
+        <v>645122.915650944</v>
       </c>
       <c r="B8" t="n">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>823741.5354682441</v>
+        <v>750067.0908618878</v>
       </c>
       <c r="B9" t="n">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>939631.4676338499</v>
+        <v>855011.2660728316</v>
       </c>
       <c r="B10" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1055521.399799456</v>
+        <v>959955.4412837754</v>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1171411.331965062</v>
+        <v>1064899.616494719</v>
       </c>
       <c r="B12" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1287301.264130668</v>
+        <v>1169843.791705663</v>
       </c>
       <c r="B13" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1403191.196296273</v>
+        <v>1274787.966916607</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1519081.128461879</v>
+        <v>1379732.142127551</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1634971.060627485</v>
+        <v>1484676.317338495</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1750860.992793091</v>
+        <v>1589620.492549438</v>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1866750.924958697</v>
+        <v>1694564.667760382</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1982640.857124303</v>
+        <v>1799508.842971326</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2098530.789289908</v>
+        <v>1904453.01818227</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2214420.721455514</v>
+        <v>2009397.193393214</v>
       </c>
       <c r="B21" t="n">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2330310.65362112</v>
+        <v>2114341.368604157</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2446200.585786726</v>
+        <v>2219285.543815101</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2562090.517952332</v>
+        <v>2324229.719026045</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2677980.450117938</v>
+        <v>2429173.894236989</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2793870.382283544</v>
+        <v>2534118.069447933</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2909760.31444915</v>
+        <v>2639062.244658876</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3025650.246614756</v>
+        <v>2744006.41986982</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3141540.178780362</v>
+        <v>2848950.595080764</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3257430.110945967</v>
+        <v>2953894.770291708</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3373320.043111573</v>
+        <v>3058838.945502652</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3489209.975277179</v>
+        <v>3163783.120713595</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3605099.907442785</v>
+        <v>3268727.295924539</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3720989.839608391</v>
+        <v>3373671.471135483</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3836879.771773997</v>
+        <v>3478615.646346427</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3952769.703939603</v>
+        <v>3583559.821557371</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>430.4964281894378</v>
+        <v>394.8926475581499</v>
       </c>
       <c r="B37" t="n">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2894.496070822658</v>
+        <v>2947.187018973788</v>
       </c>
       <c r="B38" t="n">
-        <v>2910</v>
+        <v>2988</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5358.495713455878</v>
+        <v>5499.481390389426</v>
       </c>
       <c r="B39" t="n">
-        <v>1995</v>
+        <v>1903</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7822.495356089098</v>
+        <v>8051.775761805065</v>
       </c>
       <c r="B40" t="n">
-        <v>1224</v>
+        <v>1238</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10286.49499872232</v>
+        <v>10604.0701332207</v>
       </c>
       <c r="B41" t="n">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12750.49464135554</v>
+        <v>13156.36450463634</v>
       </c>
       <c r="B42" t="n">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15214.49428398876</v>
+        <v>15708.65887605198</v>
       </c>
       <c r="B43" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17678.49392662198</v>
+        <v>18260.95324746762</v>
       </c>
       <c r="B44" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20142.4935692552</v>
+        <v>20813.24761888326</v>
       </c>
       <c r="B45" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22606.49321188842</v>
+        <v>23365.54199029889</v>
       </c>
       <c r="B46" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25070.49285452164</v>
+        <v>25917.83636171453</v>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>27534.49249715486</v>
+        <v>28470.13073313017</v>
       </c>
       <c r="B48" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>29998.49213978808</v>
+        <v>31022.42510454581</v>
       </c>
       <c r="B49" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>32462.4917824213</v>
+        <v>33574.71947596144</v>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>34926.49142505451</v>
+        <v>36127.01384737708</v>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>37390.49106768773</v>
+        <v>38679.30821879272</v>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>39854.49071032096</v>
+        <v>41231.60259020836</v>
       </c>
       <c r="B53" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>42318.49035295418</v>
+        <v>43783.89696162399</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>44782.4899955874</v>
+        <v>46336.19133303963</v>
       </c>
       <c r="B55" t="n">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>47246.48963822061</v>
+        <v>48888.48570445527</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>49710.48928085384</v>
+        <v>51440.78007587091</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>52174.48892348706</v>
+        <v>53993.07444728655</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>54638.48856612027</v>
+        <v>56545.36881870218</v>
       </c>
       <c r="B59" t="n">
         <v>4</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>57102.48820875349</v>
+        <v>59097.66319011783</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>59566.48785138672</v>
+        <v>61649.95756153346</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>62030.48749401994</v>
+        <v>64202.2519329491</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>64494.48713665316</v>
+        <v>66754.54630436475</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>66958.48677928638</v>
+        <v>69306.84067578039</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>69422.48642191959</v>
+        <v>71859.13504719602</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>71886.48606455281</v>
+        <v>74411.42941861166</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>74350.48570718603</v>
+        <v>76963.7237900273</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76814.48534981925</v>
+        <v>79516.01816144293</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>79278.48499245248</v>
+        <v>82068.31253285857</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>81742.4846350857</v>
+        <v>84620.60690427422</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>84206.48427771892</v>
+        <v>87172.90127568984</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3750018142637118</v>
+        <v>0.3896183742266702</v>
       </c>
       <c r="B72" t="n">
-        <v>6653</v>
+        <v>5960</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>53.48014471488979</v>
+        <v>44.41003378875158</v>
       </c>
       <c r="B73" t="n">
-        <v>1945</v>
+        <v>2211</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>106.5852876155159</v>
+        <v>88.43044920327648</v>
       </c>
       <c r="B74" t="n">
-        <v>697</v>
+        <v>873</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>159.690430516142</v>
+        <v>132.4508646178014</v>
       </c>
       <c r="B75" t="n">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>212.795573416768</v>
+        <v>176.4712800323263</v>
       </c>
       <c r="B76" t="n">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>265.9007163173941</v>
+        <v>220.4916954468512</v>
       </c>
       <c r="B77" t="n">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>319.0058592180202</v>
+        <v>264.5121108613761</v>
       </c>
       <c r="B78" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>372.1110021186462</v>
+        <v>308.532526275901</v>
       </c>
       <c r="B79" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>425.2161450192723</v>
+        <v>352.5529416904259</v>
       </c>
       <c r="B80" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>478.3212879198985</v>
+        <v>396.5733571049508</v>
       </c>
       <c r="B81" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>531.4264308205245</v>
+        <v>440.5937725194757</v>
       </c>
       <c r="B82" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>584.5315737211505</v>
+        <v>484.6141879340006</v>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>637.6367166217766</v>
+        <v>528.6346033485255</v>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>690.7418595224027</v>
+        <v>572.6550187630504</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>743.8470024230287</v>
+        <v>616.6754341775753</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>796.9521453236548</v>
+        <v>660.6958495921002</v>
       </c>
       <c r="B87" t="n">
         <v>3</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>850.0572882242809</v>
+        <v>704.7162650066251</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>903.162431124907</v>
+        <v>748.73668042115</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>956.2675740255331</v>
+        <v>792.7570958356749</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1009.372716926159</v>
+        <v>836.7775112501998</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1062.477859826785</v>
+        <v>880.7979266647247</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1115.583002727411</v>
+        <v>924.8183420792496</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1168.688145628037</v>
+        <v>968.8387574937746</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1221.793288528663</v>
+        <v>1012.859172908299</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1274.89843142929</v>
+        <v>1056.879588322824</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1328.003574329916</v>
+        <v>1100.900003737349</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1381.108717230542</v>
+        <v>1144.920419151874</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1434.213860131168</v>
+        <v>1188.940834566399</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1487.319003031794</v>
+        <v>1232.961249980924</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1540.42414593242</v>
+        <v>1276.981665395449</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1593.529288833046</v>
+        <v>1321.002080809974</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1646.634431733672</v>
+        <v>1365.022496224499</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1699.739574634298</v>
+        <v>1409.042911639024</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1752.844717534924</v>
+        <v>1453.063327053549</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1805.94986043555</v>
+        <v>1497.083742468074</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-4.650113155228319e+66</v>
+        <v>-2.084728884463431e+70</v>
       </c>
       <c r="B107" t="n">
-        <v>9998</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4.148912567812396e+66</v>
+        <v>-2.025158101556068e+70</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.294793829085311e+67</v>
+        <v>-1.965587318648705e+70</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.174696401389383e+67</v>
+        <v>-1.906016535741342e+70</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.054598973693454e+67</v>
+        <v>-1.846445752833979e+70</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.934501545997525e+67</v>
+        <v>-1.786874969926616e+70</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4.814404118301597e+67</v>
+        <v>-1.727304187019253e+70</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.694306690605668e+67</v>
+        <v>-1.66773340411189e+70</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6.57420926290974e+67</v>
+        <v>-1.608162621204527e+70</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>7.454111835213812e+67</v>
+        <v>-1.548591838297164e+70</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>8.334014407517883e+67</v>
+        <v>-1.489021055389801e+70</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.213916979821953e+67</v>
+        <v>-1.429450272482438e+70</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.009381955212603e+68</v>
+        <v>-1.369879489575075e+70</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.09737221244301e+68</v>
+        <v>-1.310308706667712e+70</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.185362469673417e+68</v>
+        <v>-1.250737923760349e+70</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.273352726903824e+68</v>
+        <v>-1.191167140852986e+70</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.361342984134231e+68</v>
+        <v>-1.131596357945623e+70</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.449333241364638e+68</v>
+        <v>-1.07202557503826e+70</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.537323498595046e+68</v>
+        <v>-1.012454792130898e+70</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.625313755825453e+68</v>
+        <v>-9.528840092235345e+69</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.71330401305586e+68</v>
+        <v>-8.933132263161717e+69</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.801294270286267e+68</v>
+        <v>-8.337424434088086e+69</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.889284527516674e+68</v>
+        <v>-7.741716605014456e+69</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.977274784747081e+68</v>
+        <v>-7.146008775940828e+69</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.065265041977488e+68</v>
+        <v>-6.550300946867196e+69</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.153255299207896e+68</v>
+        <v>-5.954593117793569e+69</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.241245556438303e+68</v>
+        <v>-5.358885288719939e+69</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.32923581366871e+68</v>
+        <v>-4.763177459646309e+69</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.417226070899117e+68</v>
+        <v>-4.167469630572679e+69</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.505216328129524e+68</v>
+        <v>-3.571761801499048e+69</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.593206585359931e+68</v>
+        <v>-2.976053972425421e+69</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.681196842590338e+68</v>
+        <v>-2.380346143351791e+69</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.769187099820746e+68</v>
+        <v>-1.784638314278161e+69</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.857177357051153e+68</v>
+        <v>-1.188930485204531e+69</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.94516761428156e+68</v>
+        <v>-5.932226561309009e+68</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>9998</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15457.86438528094</v>
+        <v>12392.30392558903</v>
       </c>
       <c r="B2" t="n">
-        <v>1890</v>
+        <v>1950</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>120402.0395962248</v>
+        <v>122273.6128058659</v>
       </c>
       <c r="B3" t="n">
-        <v>2833</v>
+        <v>2820</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>225346.2148071686</v>
+        <v>232154.9216861428</v>
       </c>
       <c r="B4" t="n">
-        <v>1934</v>
+        <v>1989</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>330290.3900181124</v>
+        <v>342036.2305664197</v>
       </c>
       <c r="B5" t="n">
-        <v>1198</v>
+        <v>1168</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>435234.5652290562</v>
+        <v>451917.5394466966</v>
       </c>
       <c r="B6" t="n">
-        <v>720</v>
+        <v>685</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>540178.7404400001</v>
+        <v>561798.8483269736</v>
       </c>
       <c r="B7" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>645122.915650944</v>
+        <v>671680.1572072505</v>
       </c>
       <c r="B8" t="n">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>750067.0908618878</v>
+        <v>781561.4660875275</v>
       </c>
       <c r="B9" t="n">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>855011.2660728316</v>
+        <v>891442.7749678043</v>
       </c>
       <c r="B10" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>959955.4412837754</v>
+        <v>1001324.083848081</v>
       </c>
       <c r="B11" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1064899.616494719</v>
+        <v>1111205.392728358</v>
       </c>
       <c r="B12" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1169843.791705663</v>
+        <v>1221086.701608635</v>
       </c>
       <c r="B13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1274787.966916607</v>
+        <v>1330968.010488912</v>
       </c>
       <c r="B14" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1379732.142127551</v>
+        <v>1440849.319369189</v>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1484676.317338495</v>
+        <v>1550730.628249466</v>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1589620.492549438</v>
+        <v>1660611.937129742</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1694564.667760382</v>
+        <v>1770493.246010019</v>
       </c>
       <c r="B18" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1799508.842971326</v>
+        <v>1880374.554890296</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1904453.01818227</v>
+        <v>1990255.863770573</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2009397.193393214</v>
+        <v>2100137.17265085</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2114341.368604157</v>
+        <v>2210018.481531127</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2219285.543815101</v>
+        <v>2319899.790411404</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2324229.719026045</v>
+        <v>2429781.099291681</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2429173.894236989</v>
+        <v>2539662.408171958</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2534118.069447933</v>
+        <v>2649543.717052235</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2639062.244658876</v>
+        <v>2759425.025932512</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2744006.41986982</v>
+        <v>2869306.334812789</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2848950.595080764</v>
+        <v>2979187.643693066</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2953894.770291708</v>
+        <v>3089068.952573343</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3058838.945502652</v>
+        <v>3198950.261453619</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3163783.120713595</v>
+        <v>3308831.570333896</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3268727.295924539</v>
+        <v>3418712.879214173</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3373671.471135483</v>
+        <v>3528594.18809445</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3478615.646346427</v>
+        <v>3638475.496974727</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3583559.821557371</v>
+        <v>3748356.805855004</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>394.8926475581499</v>
+        <v>320.9957782203906</v>
       </c>
       <c r="B37" t="n">
-        <v>1864</v>
+        <v>1651</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2947.187018973788</v>
+        <v>2846.714272248196</v>
       </c>
       <c r="B38" t="n">
-        <v>2988</v>
+        <v>2914</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5499.481390389426</v>
+        <v>5372.432766276002</v>
       </c>
       <c r="B39" t="n">
-        <v>1903</v>
+        <v>2089</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8051.775761805065</v>
+        <v>7898.151260303806</v>
       </c>
       <c r="B40" t="n">
-        <v>1238</v>
+        <v>1212</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10604.0701332207</v>
+        <v>10423.86975433161</v>
       </c>
       <c r="B41" t="n">
-        <v>696</v>
+        <v>756</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13156.36450463634</v>
+        <v>12949.58824835942</v>
       </c>
       <c r="B42" t="n">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15708.65887605198</v>
+        <v>15475.30674238722</v>
       </c>
       <c r="B43" t="n">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18260.95324746762</v>
+        <v>18001.02523641503</v>
       </c>
       <c r="B44" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20813.24761888326</v>
+        <v>20526.74373044283</v>
       </c>
       <c r="B45" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23365.54199029889</v>
+        <v>23052.46222447064</v>
       </c>
       <c r="B46" t="n">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25917.83636171453</v>
+        <v>25578.18071849844</v>
       </c>
       <c r="B47" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>28470.13073313017</v>
+        <v>28103.89921252625</v>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>31022.42510454581</v>
+        <v>30629.61770655405</v>
       </c>
       <c r="B49" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>33574.71947596144</v>
+        <v>33155.33620058186</v>
       </c>
       <c r="B50" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>36127.01384737708</v>
+        <v>35681.05469460967</v>
       </c>
       <c r="B51" t="n">
         <v>20</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>38679.30821879272</v>
+        <v>38206.77318863747</v>
       </c>
       <c r="B52" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>41231.60259020836</v>
+        <v>40732.49168266528</v>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43783.89696162399</v>
+        <v>43258.21017669308</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>46336.19133303963</v>
+        <v>45783.92867072089</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>48888.48570445527</v>
+        <v>48309.64716474869</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>51440.78007587091</v>
+        <v>50835.3656587765</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>53993.07444728655</v>
+        <v>53361.0841528043</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56545.36881870218</v>
+        <v>55886.80264683211</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59097.66319011783</v>
+        <v>58412.52114085991</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>61649.95756153346</v>
+        <v>60938.23963488772</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>64202.2519329491</v>
+        <v>63463.95812891552</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66754.54630436475</v>
+        <v>65989.67662294333</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>69306.84067578039</v>
+        <v>68515.39511697112</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>71859.13504719602</v>
+        <v>71041.11361099893</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74411.42941861166</v>
+        <v>73566.83210502674</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>76963.7237900273</v>
+        <v>76092.55059905455</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>79516.01816144293</v>
+        <v>78618.26909308234</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>82068.31253285857</v>
+        <v>81143.98758711015</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>84620.60690427422</v>
+        <v>83669.70608113796</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>87172.90127568984</v>
+        <v>86195.42457516576</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3896183742266702</v>
+        <v>0.6895157588796622</v>
       </c>
       <c r="B72" t="n">
-        <v>5960</v>
+        <v>5750</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>44.41003378875158</v>
+        <v>40.30531344861608</v>
       </c>
       <c r="B73" t="n">
-        <v>2211</v>
+        <v>2236</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>88.43044920327648</v>
+        <v>79.9211111383525</v>
       </c>
       <c r="B74" t="n">
-        <v>873</v>
+        <v>907</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>132.4508646178014</v>
+        <v>119.5369088280889</v>
       </c>
       <c r="B75" t="n">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>176.4712800323263</v>
+        <v>159.1527065178253</v>
       </c>
       <c r="B76" t="n">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>220.4916954468512</v>
+        <v>198.7685042075617</v>
       </c>
       <c r="B77" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>264.5121108613761</v>
+        <v>238.3843018972982</v>
       </c>
       <c r="B78" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>308.532526275901</v>
+        <v>278.0000995870346</v>
       </c>
       <c r="B79" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>352.5529416904259</v>
+        <v>317.615897276771</v>
       </c>
       <c r="B80" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>396.5733571049508</v>
+        <v>357.2316949665075</v>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>440.5937725194757</v>
+        <v>396.8474926562438</v>
       </c>
       <c r="B82" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>484.6141879340006</v>
+        <v>436.4632903459803</v>
       </c>
       <c r="B83" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>528.6346033485255</v>
+        <v>476.0790880357167</v>
       </c>
       <c r="B84" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>572.6550187630504</v>
+        <v>515.6948857254531</v>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>616.6754341775753</v>
+        <v>555.3106834151895</v>
       </c>
       <c r="B86" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>660.6958495921002</v>
+        <v>594.926481104926</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>704.7162650066251</v>
+        <v>634.5422787946624</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>748.73668042115</v>
+        <v>674.1580764843987</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>792.7570958356749</v>
+        <v>713.7738741741352</v>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>836.7775112501998</v>
+        <v>753.3896718638716</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>880.7979266647247</v>
+        <v>793.005469553608</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>924.8183420792496</v>
+        <v>832.6212672433445</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>968.8387574937746</v>
+        <v>872.2370649330809</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1012.859172908299</v>
+        <v>911.8528626228173</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1056.879588322824</v>
+        <v>951.4686603125538</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1100.900003737349</v>
+        <v>991.0844580022901</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1144.920419151874</v>
+        <v>1030.700255692027</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1188.940834566399</v>
+        <v>1070.316053381763</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1232.961249980924</v>
+        <v>1109.931851071499</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1276.981665395449</v>
+        <v>1149.547648761236</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1321.002080809974</v>
+        <v>1189.163446450972</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1365.022496224499</v>
+        <v>1228.779244140709</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1409.042911639024</v>
+        <v>1268.395041830445</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1453.063327053549</v>
+        <v>1308.010839520181</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1497.083742468074</v>
+        <v>1347.626637209918</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-2.084728884463431e+70</v>
+        <v>-9.348740503663997e+67</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-2.025158101556068e+70</v>
+        <v>-8.889984067236057e+67</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1.965587318648705e+70</v>
+        <v>-8.431227630808117e+67</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.906016535741342e+70</v>
+        <v>-7.972471194380178e+67</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-1.846445752833979e+70</v>
+        <v>-7.513714757952239e+67</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.786874969926616e+70</v>
+        <v>-7.054958321524298e+67</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1.727304187019253e+70</v>
+        <v>-6.596201885096359e+67</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.66773340411189e+70</v>
+        <v>-6.13744544866842e+67</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.608162621204527e+70</v>
+        <v>-5.678689012240481e+67</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-1.548591838297164e+70</v>
+        <v>-5.21993257581254e+67</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1.489021055389801e+70</v>
+        <v>-4.761176139384601e+67</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1.429450272482438e+70</v>
+        <v>-4.302419702956662e+67</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.369879489575075e+70</v>
+        <v>-3.843663266528722e+67</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.310308706667712e+70</v>
+        <v>-3.384906830100783e+67</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.250737923760349e+70</v>
+        <v>-2.926150393672843e+67</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1.191167140852986e+70</v>
+        <v>-2.467393957244903e+67</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1.131596357945623e+70</v>
+        <v>-2.008637520816964e+67</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.07202557503826e+70</v>
+        <v>-1.549881084389025e+67</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.012454792130898e+70</v>
+        <v>-1.091124647961084e+67</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-9.528840092235345e+69</v>
+        <v>-6.323682115331452e+66</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-8.933132263161717e+69</v>
+        <v>-1.736117751052061e+66</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>9997</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-8.337424434088086e+69</v>
+        <v>2.851446613227343e+66</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-7.741716605014456e+69</v>
+        <v>7.439010977506734e+66</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-7.146008775940828e+69</v>
+        <v>1.202657534178613e+67</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-6.550300946867196e+69</v>
+        <v>1.661413970606553e+67</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-5.954593117793569e+69</v>
+        <v>2.120170407034492e+67</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-5.358885288719939e+69</v>
+        <v>2.578926843462431e+67</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-4.763177459646309e+69</v>
+        <v>3.03768327989037e+67</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4.167469630572679e+69</v>
+        <v>3.49643971631831e+67</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-3.571761801499048e+69</v>
+        <v>3.955196152746251e+67</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-2.976053972425421e+69</v>
+        <v>4.41395258917419e+67</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-2.380346143351791e+69</v>
+        <v>4.87270902560213e+67</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-1.784638314278161e+69</v>
+        <v>5.331465462030069e+67</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-1.188930485204531e+69</v>
+        <v>5.790221898458008e+67</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-5.932226561309009e+68</v>
+        <v>6.248978334885947e+67</v>
       </c>
       <c r="B141" t="n">
-        <v>9998</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12392.30392558903</v>
+        <v>15434.67368349124</v>
       </c>
       <c r="B2" t="n">
-        <v>1950</v>
+        <v>3675</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>122273.6128058659</v>
+        <v>185743.9182293979</v>
       </c>
       <c r="B3" t="n">
-        <v>2820</v>
+        <v>3254</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>232154.9216861428</v>
+        <v>356053.1627753045</v>
       </c>
       <c r="B4" t="n">
-        <v>1989</v>
+        <v>1489</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>342036.2305664197</v>
+        <v>526362.4073212111</v>
       </c>
       <c r="B5" t="n">
-        <v>1168</v>
+        <v>720</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>451917.5394466966</v>
+        <v>696671.6518671176</v>
       </c>
       <c r="B6" t="n">
-        <v>685</v>
+        <v>379</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>561798.8483269736</v>
+        <v>866980.8964130242</v>
       </c>
       <c r="B7" t="n">
-        <v>430</v>
+        <v>187</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>671680.1572072505</v>
+        <v>1037290.140958931</v>
       </c>
       <c r="B8" t="n">
-        <v>273</v>
+        <v>119</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>781561.4660875275</v>
+        <v>1207599.385504838</v>
       </c>
       <c r="B9" t="n">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>891442.7749678043</v>
+        <v>1377908.630050744</v>
       </c>
       <c r="B10" t="n">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1001324.083848081</v>
+        <v>1548217.874596651</v>
       </c>
       <c r="B11" t="n">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1111205.392728358</v>
+        <v>1718527.119142557</v>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1221086.701608635</v>
+        <v>1888836.363688464</v>
       </c>
       <c r="B13" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1330968.010488912</v>
+        <v>2059145.608234371</v>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1440849.319369189</v>
+        <v>2229454.852780277</v>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1550730.628249466</v>
+        <v>2399764.097326184</v>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1660611.937129742</v>
+        <v>2570073.34187209</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1770493.246010019</v>
+        <v>2740382.586417997</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1880374.554890296</v>
+        <v>2910691.830963904</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1990255.863770573</v>
+        <v>3081001.07550981</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2100137.17265085</v>
+        <v>3251310.320055717</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2210018.481531127</v>
+        <v>3421619.564601623</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2319899.790411404</v>
+        <v>3591928.80914753</v>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2429781.099291681</v>
+        <v>3762238.053693437</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2539662.408171958</v>
+        <v>3932547.298239343</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2649543.717052235</v>
+        <v>4102856.54278525</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2759425.025932512</v>
+        <v>4273165.787331156</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2869306.334812789</v>
+        <v>4443475.031877063</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2979187.643693066</v>
+        <v>4613784.27642297</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3089068.952573343</v>
+        <v>4784093.520968877</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3198950.261453619</v>
+        <v>4954402.765514784</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3308831.570333896</v>
+        <v>5124712.010060689</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3418712.879214173</v>
+        <v>5295021.254606596</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3528594.18809445</v>
+        <v>5465330.499152503</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3638475.496974727</v>
+        <v>5635639.74369841</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3748356.805855004</v>
+        <v>5805948.988244317</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>320.9957782203906</v>
+        <v>227.4453995412264</v>
       </c>
       <c r="B37" t="n">
-        <v>1651</v>
+        <v>2474</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2846.714272248196</v>
+        <v>3516.768785343377</v>
       </c>
       <c r="B38" t="n">
-        <v>2914</v>
+        <v>3302</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5372.432766276002</v>
+        <v>6806.092171145528</v>
       </c>
       <c r="B39" t="n">
-        <v>2089</v>
+        <v>1945</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7898.151260303806</v>
+        <v>10095.41555694768</v>
       </c>
       <c r="B40" t="n">
-        <v>1212</v>
+        <v>994</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10423.86975433161</v>
+        <v>13384.73894274983</v>
       </c>
       <c r="B41" t="n">
-        <v>756</v>
+        <v>537</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12949.58824835942</v>
+        <v>16674.06232855198</v>
       </c>
       <c r="B42" t="n">
-        <v>452</v>
+        <v>291</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15475.30674238722</v>
+        <v>19963.38571435413</v>
       </c>
       <c r="B43" t="n">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18001.02523641503</v>
+        <v>23252.70910015628</v>
       </c>
       <c r="B44" t="n">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20526.74373044283</v>
+        <v>26542.03248595843</v>
       </c>
       <c r="B45" t="n">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23052.46222447064</v>
+        <v>29831.35587176058</v>
       </c>
       <c r="B46" t="n">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25578.18071849844</v>
+        <v>33120.67925756273</v>
       </c>
       <c r="B47" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>28103.89921252625</v>
+        <v>36410.00264336488</v>
       </c>
       <c r="B48" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>30629.61770655405</v>
+        <v>39699.32602916704</v>
       </c>
       <c r="B49" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>33155.33620058186</v>
+        <v>42988.64941496919</v>
       </c>
       <c r="B50" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>35681.05469460967</v>
+        <v>46277.97280077133</v>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>38206.77318863747</v>
+        <v>49567.29618657349</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>40732.49168266528</v>
+        <v>52856.61957237564</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43258.21017669308</v>
+        <v>56145.94295817779</v>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>45783.92867072089</v>
+        <v>59435.26634397994</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>48309.64716474869</v>
+        <v>62724.58972978209</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>50835.3656587765</v>
+        <v>66013.91311558425</v>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>53361.0841528043</v>
+        <v>69303.2365013864</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>55886.80264683211</v>
+        <v>72592.55988718854</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>58412.52114085991</v>
+        <v>75881.8832729907</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60938.23963488772</v>
+        <v>79171.20665879286</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>63463.95812891552</v>
+        <v>82460.530044595</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>65989.67662294333</v>
+        <v>85749.85343039715</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68515.39511697112</v>
+        <v>89039.17681619931</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>71041.11361099893</v>
+        <v>92328.50020200145</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>73566.83210502674</v>
+        <v>95617.82358780361</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>76092.55059905455</v>
+        <v>98907.14697360576</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>78618.26909308234</v>
+        <v>102196.4703594079</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>81143.98758711015</v>
+        <v>105485.7937452101</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>83669.70608113796</v>
+        <v>108775.1171310122</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>86195.42457516576</v>
+        <v>112064.4405168144</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6895157588796622</v>
+        <v>0.6048141721147493</v>
       </c>
       <c r="B72" t="n">
-        <v>5750</v>
+        <v>7057</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>40.30531344861608</v>
+        <v>59.67285381828841</v>
       </c>
       <c r="B73" t="n">
-        <v>2236</v>
+        <v>1734</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>79.9211111383525</v>
+        <v>118.7408934644621</v>
       </c>
       <c r="B74" t="n">
-        <v>907</v>
+        <v>635</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>119.5369088280889</v>
+        <v>177.8089331106357</v>
       </c>
       <c r="B75" t="n">
-        <v>424</v>
+        <v>249</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>159.1527065178253</v>
+        <v>236.8769727568094</v>
       </c>
       <c r="B76" t="n">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>198.7685042075617</v>
+        <v>295.945012402983</v>
       </c>
       <c r="B77" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>238.3843018972982</v>
+        <v>355.0130520491567</v>
       </c>
       <c r="B78" t="n">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>278.0000995870346</v>
+        <v>414.0810916953304</v>
       </c>
       <c r="B79" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>317.615897276771</v>
+        <v>473.149131341504</v>
       </c>
       <c r="B80" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>357.2316949665075</v>
+        <v>532.2171709876777</v>
       </c>
       <c r="B81" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>396.8474926562438</v>
+        <v>591.2852106338513</v>
       </c>
       <c r="B82" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>436.4632903459803</v>
+        <v>650.353250280025</v>
       </c>
       <c r="B83" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>476.0790880357167</v>
+        <v>709.4212899261987</v>
       </c>
       <c r="B84" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>515.6948857254531</v>
+        <v>768.4893295723723</v>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>555.3106834151895</v>
+        <v>827.557369218546</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>594.926481104926</v>
+        <v>886.6254088647196</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>634.5422787946624</v>
+        <v>945.6934485108933</v>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>674.1580764843987</v>
+        <v>1004.761488157067</v>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>713.7738741741352</v>
+        <v>1063.829527803241</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>753.3896718638716</v>
+        <v>1122.897567449414</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>793.005469553608</v>
+        <v>1181.965607095588</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>832.6212672433445</v>
+        <v>1241.033646741762</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>872.2370649330809</v>
+        <v>1300.101686387935</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>911.8528626228173</v>
+        <v>1359.169726034109</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>951.4686603125538</v>
+        <v>1418.237765680283</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>991.0844580022901</v>
+        <v>1477.305805326456</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1030.700255692027</v>
+        <v>1536.37384497263</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1070.316053381763</v>
+        <v>1595.441884618804</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1109.931851071499</v>
+        <v>1654.509924264977</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1149.547648761236</v>
+        <v>1713.577963911151</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1189.163446450972</v>
+        <v>1772.646003557325</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1228.779244140709</v>
+        <v>1831.714043203498</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1268.395041830445</v>
+        <v>1890.782082849672</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1308.010839520181</v>
+        <v>1949.850122495846</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1347.626637209918</v>
+        <v>2008.918162142019</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-9.348740503663997e+67</v>
+        <v>-1.220554493506739e+68</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>9998</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-8.889984067236057e+67</v>
+        <v>5.753368520046957e+67</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-8.431227630808117e+67</v>
+        <v>2.37122819751613e+68</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-7.972471194380178e+67</v>
+        <v>4.167119543027565e+68</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-7.513714757952239e+67</v>
+        <v>5.963010888539e+68</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-7.054958321524298e+67</v>
+        <v>7.758902234050435e+68</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-6.596201885096359e+67</v>
+        <v>9.554793579561868e+68</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-6.13744544866842e+67</v>
+        <v>1.13506849250733e+69</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-5.678689012240481e+67</v>
+        <v>1.314657627058474e+69</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-5.21993257581254e+67</v>
+        <v>1.494246761609617e+69</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4.761176139384601e+67</v>
+        <v>1.673835896160761e+69</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-4.302419702956662e+67</v>
+        <v>1.853425030711904e+69</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-3.843663266528722e+67</v>
+        <v>2.033014165263048e+69</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-3.384906830100783e+67</v>
+        <v>2.212603299814191e+69</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-2.926150393672843e+67</v>
+        <v>2.392192434365335e+69</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-2.467393957244903e+67</v>
+        <v>2.571781568916478e+69</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-2.008637520816964e+67</v>
+        <v>2.751370703467622e+69</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.549881084389025e+67</v>
+        <v>2.930959838018765e+69</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.091124647961084e+67</v>
+        <v>3.110548972569909e+69</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-6.323682115331452e+66</v>
+        <v>3.290138107121052e+69</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-1.736117751052061e+66</v>
+        <v>3.469727241672196e+69</v>
       </c>
       <c r="B127" t="n">
-        <v>9997</v>
+        <v>0</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.851446613227343e+66</v>
+        <v>3.649316376223339e+69</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>7.439010977506734e+66</v>
+        <v>3.828905510774483e+69</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.202657534178613e+67</v>
+        <v>4.008494645325626e+69</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.661413970606553e+67</v>
+        <v>4.188083779876769e+69</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.120170407034492e+67</v>
+        <v>4.367672914427913e+69</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.578926843462431e+67</v>
+        <v>4.547262048979056e+69</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3.03768327989037e+67</v>
+        <v>4.7268511835302e+69</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.49643971631831e+67</v>
+        <v>4.906440318081343e+69</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3.955196152746251e+67</v>
+        <v>5.086029452632487e+69</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4.41395258917419e+67</v>
+        <v>5.26561858718363e+69</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4.87270902560213e+67</v>
+        <v>5.445207721734774e+69</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5.331465462030069e+67</v>
+        <v>5.624796856285917e+69</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5.790221898458008e+67</v>
+        <v>5.804385990837061e+69</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6.248978334885947e+67</v>
+        <v>5.983975125388204e+69</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15434.67368349124</v>
+        <v>12660.46759433364</v>
       </c>
       <c r="B2" t="n">
-        <v>3675</v>
+        <v>2739</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>185743.9182293979</v>
+        <v>153740.434172909</v>
       </c>
       <c r="B3" t="n">
-        <v>3254</v>
+        <v>3234</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>356053.1627753045</v>
+        <v>294820.4007514843</v>
       </c>
       <c r="B4" t="n">
-        <v>1489</v>
+        <v>1763</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>526362.4073212111</v>
+        <v>435900.3673300596</v>
       </c>
       <c r="B5" t="n">
-        <v>720</v>
+        <v>932</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>696671.6518671176</v>
+        <v>576980.333908635</v>
       </c>
       <c r="B6" t="n">
-        <v>379</v>
+        <v>480</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>866980.8964130242</v>
+        <v>718060.3004872103</v>
       </c>
       <c r="B7" t="n">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1037290.140958931</v>
+        <v>859140.2670657856</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1207599.385504838</v>
+        <v>1000220.233644361</v>
       </c>
       <c r="B9" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1377908.630050744</v>
+        <v>1141300.200222936</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1548217.874596651</v>
+        <v>1282380.166801512</v>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1718527.119142557</v>
+        <v>1423460.133380087</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1888836.363688464</v>
+        <v>1564540.099958662</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2059145.608234371</v>
+        <v>1705620.066537237</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2229454.852780277</v>
+        <v>1846700.033115813</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2399764.097326184</v>
+        <v>1987779.999694388</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2570073.34187209</v>
+        <v>2128859.966272963</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2740382.586417997</v>
+        <v>2269939.932851539</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2910691.830963904</v>
+        <v>2411019.899430114</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3081001.07550981</v>
+        <v>2552099.866008689</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3251310.320055717</v>
+        <v>2693179.832587264</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3421619.564601623</v>
+        <v>2834259.79916584</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3591928.80914753</v>
+        <v>2975339.765744415</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3762238.053693437</v>
+        <v>3116419.73232299</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3932547.298239343</v>
+        <v>3257499.698901566</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4102856.54278525</v>
+        <v>3398579.665480141</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4273165.787331156</v>
+        <v>3539659.632058716</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4443475.031877063</v>
+        <v>3680739.598637292</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4613784.27642297</v>
+        <v>3821819.565215867</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4784093.520968877</v>
+        <v>3962899.531794442</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4954402.765514784</v>
+        <v>4103979.498373018</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5124712.010060689</v>
+        <v>4245059.464951593</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5295021.254606596</v>
+        <v>4386139.431530169</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5465330.499152503</v>
+        <v>4527219.398108744</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5635639.74369841</v>
+        <v>4668299.364687319</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5805948.988244317</v>
+        <v>4809379.331265895</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>227.4453995412264</v>
+        <v>304.6373118562546</v>
       </c>
       <c r="B37" t="n">
-        <v>2474</v>
+        <v>1913</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3516.768785343377</v>
+        <v>3073.284700870483</v>
       </c>
       <c r="B38" t="n">
-        <v>3302</v>
+        <v>3027</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6806.092171145528</v>
+        <v>5841.932089884712</v>
       </c>
       <c r="B39" t="n">
-        <v>1945</v>
+        <v>1978</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10095.41555694768</v>
+        <v>8610.579478898941</v>
       </c>
       <c r="B40" t="n">
-        <v>994</v>
+        <v>1193</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13384.73894274983</v>
+        <v>11379.22686791317</v>
       </c>
       <c r="B41" t="n">
-        <v>537</v>
+        <v>665</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16674.06232855198</v>
+        <v>14147.8742569274</v>
       </c>
       <c r="B42" t="n">
-        <v>291</v>
+        <v>396</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19963.38571435413</v>
+        <v>16916.52164594163</v>
       </c>
       <c r="B43" t="n">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>23252.70910015628</v>
+        <v>19685.16903495586</v>
       </c>
       <c r="B44" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>26542.03248595843</v>
+        <v>22453.81642397009</v>
       </c>
       <c r="B45" t="n">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>29831.35587176058</v>
+        <v>25222.46381298432</v>
       </c>
       <c r="B46" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>33120.67925756273</v>
+        <v>27991.11120199854</v>
       </c>
       <c r="B47" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>36410.00264336488</v>
+        <v>30759.75859101277</v>
       </c>
       <c r="B48" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>39699.32602916704</v>
+        <v>33528.405980027</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>42988.64941496919</v>
+        <v>36297.05336904123</v>
       </c>
       <c r="B50" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>46277.97280077133</v>
+        <v>39065.70075805546</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>49567.29618657349</v>
+        <v>41834.34814706969</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52856.61957237564</v>
+        <v>44602.99553608392</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>56145.94295817779</v>
+        <v>47371.64292509815</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>59435.26634397994</v>
+        <v>50140.29031411238</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62724.58972978209</v>
+        <v>52908.9377031266</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>66013.91311558425</v>
+        <v>55677.58509214083</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>69303.2365013864</v>
+        <v>58446.23248115506</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>72592.55988718854</v>
+        <v>61214.87987016929</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>75881.8832729907</v>
+        <v>63983.52725918352</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>79171.20665879286</v>
+        <v>66752.17464819773</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>82460.530044595</v>
+        <v>69520.82203721197</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>85749.85343039715</v>
+        <v>72289.46942622619</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>89039.17681619931</v>
+        <v>75058.11681524043</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>92328.50020200145</v>
+        <v>77826.76420425465</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>95617.82358780361</v>
+        <v>80595.41159326889</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>98907.14697360576</v>
+        <v>83364.05898228311</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>102196.4703594079</v>
+        <v>86132.70637129735</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>105485.7937452101</v>
+        <v>88901.35376031157</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>108775.1171310122</v>
+        <v>91670.00114932579</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112064.4405168144</v>
+        <v>94438.64853834003</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6048141721147493</v>
+        <v>0.4716260033529548</v>
       </c>
       <c r="B72" t="n">
-        <v>7057</v>
+        <v>5891</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>59.67285381828841</v>
+        <v>42.83260688643961</v>
       </c>
       <c r="B73" t="n">
-        <v>1734</v>
+        <v>2234</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>118.7408934644621</v>
+        <v>85.19358776952626</v>
       </c>
       <c r="B74" t="n">
-        <v>635</v>
+        <v>876</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>177.8089331106357</v>
+        <v>127.5545686526129</v>
       </c>
       <c r="B75" t="n">
-        <v>249</v>
+        <v>396</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>236.8769727568094</v>
+        <v>169.9155495356996</v>
       </c>
       <c r="B76" t="n">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>295.945012402983</v>
+        <v>212.2765304187862</v>
       </c>
       <c r="B77" t="n">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>355.0130520491567</v>
+        <v>254.6375113018729</v>
       </c>
       <c r="B78" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>414.0810916953304</v>
+        <v>296.9984921849596</v>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>473.149131341504</v>
+        <v>339.3594730680462</v>
       </c>
       <c r="B80" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>532.2171709876777</v>
+        <v>381.7204539511329</v>
       </c>
       <c r="B81" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>591.2852106338513</v>
+        <v>424.0814348342195</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>650.353250280025</v>
+        <v>466.4424157173062</v>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>709.4212899261987</v>
+        <v>508.8033966003928</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>768.4893295723723</v>
+        <v>551.1643774834795</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>827.557369218546</v>
+        <v>593.5253583665661</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>886.6254088647196</v>
+        <v>635.8863392496528</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>945.6934485108933</v>
+        <v>678.2473201327394</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1004.761488157067</v>
+        <v>720.6083010158261</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1063.829527803241</v>
+        <v>762.9692818989128</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1122.897567449414</v>
+        <v>805.3302627819994</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1181.965607095588</v>
+        <v>847.6912436650861</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1241.033646741762</v>
+        <v>890.0522245481727</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1300.101686387935</v>
+        <v>932.4132054312594</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1359.169726034109</v>
+        <v>974.774186314346</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1418.237765680283</v>
+        <v>1017.135167197433</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1477.305805326456</v>
+        <v>1059.496148080519</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1536.37384497263</v>
+        <v>1101.857128963606</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1595.441884618804</v>
+        <v>1144.218109846693</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1654.509924264977</v>
+        <v>1186.579090729779</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1713.577963911151</v>
+        <v>1228.940071612866</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1772.646003557325</v>
+        <v>1271.301052495952</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1831.714043203498</v>
+        <v>1313.662033379039</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1890.782082849672</v>
+        <v>1356.023014262126</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1949.850122495846</v>
+        <v>1398.383995145212</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2008.918162142019</v>
+        <v>1440.744976028299</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.220554493506739e+68</v>
+        <v>-5.707924440740918e+65</v>
       </c>
       <c r="B107" t="n">
-        <v>9998</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5.753368520046957e+67</v>
+        <v>-3.381147022570499e+65</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.37122819751613e+68</v>
+        <v>-1.054369604400081e+65</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>9995</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4.167119543027565e+68</v>
+        <v>1.272407813770338e+65</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5.963010888539e+68</v>
+        <v>3.599185231940756e+65</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>7.758902234050435e+68</v>
+        <v>5.925962650111174e+65</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9.554793579561868e+68</v>
+        <v>8.252740068281594e+65</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.13506849250733e+69</v>
+        <v>1.057951748645201e+66</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.314657627058474e+69</v>
+        <v>1.290629490462243e+66</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.494246761609617e+69</v>
+        <v>1.523307232279285e+66</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.673835896160761e+69</v>
+        <v>1.755984974096327e+66</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.853425030711904e+69</v>
+        <v>1.988662715913369e+66</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.033014165263048e+69</v>
+        <v>2.221340457730411e+66</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.212603299814191e+69</v>
+        <v>2.454018199547452e+66</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.392192434365335e+69</v>
+        <v>2.686695941364494e+66</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.571781568916478e+69</v>
+        <v>2.919373683181536e+66</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.751370703467622e+69</v>
+        <v>3.152051424998578e+66</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.930959838018765e+69</v>
+        <v>3.384729166815619e+66</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.110548972569909e+69</v>
+        <v>3.617406908632662e+66</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.290138107121052e+69</v>
+        <v>3.850084650449703e+66</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.469727241672196e+69</v>
+        <v>4.082762392266745e+66</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3.649316376223339e+69</v>
+        <v>4.315440134083787e+66</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3.828905510774483e+69</v>
+        <v>4.548117875900829e+66</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4.008494645325626e+69</v>
+        <v>4.780795617717871e+66</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4.188083779876769e+69</v>
+        <v>5.013473359534913e+66</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4.367672914427913e+69</v>
+        <v>5.246151101351955e+66</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4.547262048979056e+69</v>
+        <v>5.478828843168996e+66</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4.7268511835302e+69</v>
+        <v>5.711506584986038e+66</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4.906440318081343e+69</v>
+        <v>5.94418432680308e+66</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5.086029452632487e+69</v>
+        <v>6.176862068620123e+66</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5.26561858718363e+69</v>
+        <v>6.409539810437164e+66</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>5.445207721734774e+69</v>
+        <v>6.642217552254206e+66</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5.624796856285917e+69</v>
+        <v>6.874895294071248e+66</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5.804385990837061e+69</v>
+        <v>7.10757303588829e+66</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5.983975125388204e+69</v>
+        <v>7.340250777705332e+66</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12660.46759433364</v>
+        <v>17061.30033892114</v>
       </c>
       <c r="B2" t="n">
-        <v>2739</v>
+        <v>1913</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>153740.434172909</v>
+        <v>126037.117599536</v>
       </c>
       <c r="B3" t="n">
-        <v>3234</v>
+        <v>2766</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>294820.4007514843</v>
+        <v>235012.9348601508</v>
       </c>
       <c r="B4" t="n">
-        <v>1763</v>
+        <v>1965</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>435900.3673300596</v>
+        <v>343988.7521207656</v>
       </c>
       <c r="B5" t="n">
-        <v>932</v>
+        <v>1171</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>576980.333908635</v>
+        <v>452964.5693813804</v>
       </c>
       <c r="B6" t="n">
-        <v>480</v>
+        <v>722</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>718060.3004872103</v>
+        <v>561940.3866419952</v>
       </c>
       <c r="B7" t="n">
-        <v>313</v>
+        <v>442</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>859140.2670657856</v>
+        <v>670916.20390261</v>
       </c>
       <c r="B8" t="n">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1000220.233644361</v>
+        <v>779892.0211632248</v>
       </c>
       <c r="B9" t="n">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1141300.200222936</v>
+        <v>888867.8384238397</v>
       </c>
       <c r="B10" t="n">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1282380.166801512</v>
+        <v>997843.6556844545</v>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1423460.133380087</v>
+        <v>1106819.472945069</v>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1564540.099958662</v>
+        <v>1215795.290205684</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1705620.066537237</v>
+        <v>1324771.107466299</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1846700.033115813</v>
+        <v>1433746.924726914</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1987779.999694388</v>
+        <v>1542722.741987529</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2128859.966272963</v>
+        <v>1651698.559248143</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2269939.932851539</v>
+        <v>1760674.376508758</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2411019.899430114</v>
+        <v>1869650.193769373</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2552099.866008689</v>
+        <v>1978626.011029988</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2693179.832587264</v>
+        <v>2087601.828290603</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2834259.79916584</v>
+        <v>2196577.645551217</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2975339.765744415</v>
+        <v>2305553.462811832</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3116419.73232299</v>
+        <v>2414529.280072447</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3257499.698901566</v>
+        <v>2523505.097333062</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3398579.665480141</v>
+        <v>2632480.914593677</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3539659.632058716</v>
+        <v>2741456.731854292</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3680739.598637292</v>
+        <v>2850432.549114906</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3821819.565215867</v>
+        <v>2959408.366375521</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3962899.531794442</v>
+        <v>3068384.183636136</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4103979.498373018</v>
+        <v>3177360.000896751</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4245059.464951593</v>
+        <v>3286335.818157366</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4386139.431530169</v>
+        <v>3395311.635417981</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4527219.398108744</v>
+        <v>3504287.452678595</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4668299.364687319</v>
+        <v>3613263.26993921</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4809379.331265895</v>
+        <v>3722239.087199825</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>304.6373118562546</v>
+        <v>426.8930617389719</v>
       </c>
       <c r="B37" t="n">
-        <v>1913</v>
+        <v>1936</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3073.284700870483</v>
+        <v>3224.768990678057</v>
       </c>
       <c r="B38" t="n">
-        <v>3027</v>
+        <v>2992</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5841.932089884712</v>
+        <v>6022.644919617142</v>
       </c>
       <c r="B39" t="n">
-        <v>1978</v>
+        <v>1967</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8610.579478898941</v>
+        <v>8820.520848556227</v>
       </c>
       <c r="B40" t="n">
-        <v>1193</v>
+        <v>1235</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11379.22686791317</v>
+        <v>11618.39677749531</v>
       </c>
       <c r="B41" t="n">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14147.8742569274</v>
+        <v>14416.2727064344</v>
       </c>
       <c r="B42" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16916.52164594163</v>
+        <v>17214.14863537348</v>
       </c>
       <c r="B43" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19685.16903495586</v>
+        <v>20012.02456431257</v>
       </c>
       <c r="B44" t="n">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22453.81642397009</v>
+        <v>22809.90049325165</v>
       </c>
       <c r="B45" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25222.46381298432</v>
+        <v>25607.77642219073</v>
       </c>
       <c r="B46" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>27991.11120199854</v>
+        <v>28405.65235112982</v>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>30759.75859101277</v>
+        <v>31203.52828006891</v>
       </c>
       <c r="B48" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>33528.405980027</v>
+        <v>34001.40420900799</v>
       </c>
       <c r="B49" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>36297.05336904123</v>
+        <v>36799.28013794708</v>
       </c>
       <c r="B50" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>39065.70075805546</v>
+        <v>39597.15606688616</v>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>41834.34814706969</v>
+        <v>42395.03199582524</v>
       </c>
       <c r="B52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>44602.99553608392</v>
+        <v>45192.90792476433</v>
       </c>
       <c r="B53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>47371.64292509815</v>
+        <v>47990.78385370342</v>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>50140.29031411238</v>
+        <v>50788.6597826425</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>52908.9377031266</v>
+        <v>53586.53571158159</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55677.58509214083</v>
+        <v>56384.41164052067</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>58446.23248115506</v>
+        <v>59182.28756945975</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>61214.87987016929</v>
+        <v>61980.16349839884</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>63983.52725918352</v>
+        <v>64778.03942733793</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>66752.17464819773</v>
+        <v>67575.91535627701</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69520.82203721197</v>
+        <v>70373.7912852161</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>72289.46942622619</v>
+        <v>73171.66721415518</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>75058.11681524043</v>
+        <v>75969.54314309427</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>77826.76420425465</v>
+        <v>78767.41907203336</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>80595.41159326889</v>
+        <v>81565.29500097243</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>83364.05898228311</v>
+        <v>84363.17092991152</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>86132.70637129735</v>
+        <v>87161.0468588506</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>88901.35376031157</v>
+        <v>89958.92278778969</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>91670.00114932579</v>
+        <v>92756.79871672878</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>94438.64853834003</v>
+        <v>95554.67464566787</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4716260033529548</v>
+        <v>0.2757848804922599</v>
       </c>
       <c r="B72" t="n">
-        <v>5891</v>
+        <v>5335</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>42.83260688643961</v>
+        <v>38.2197257916969</v>
       </c>
       <c r="B73" t="n">
-        <v>2234</v>
+        <v>2414</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>85.19358776952626</v>
+        <v>76.16366670290152</v>
       </c>
       <c r="B74" t="n">
-        <v>876</v>
+        <v>1014</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>127.5545686526129</v>
+        <v>114.1076076141062</v>
       </c>
       <c r="B75" t="n">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>169.9155495356996</v>
+        <v>152.0515485253108</v>
       </c>
       <c r="B76" t="n">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>212.2765304187862</v>
+        <v>189.9954894365154</v>
       </c>
       <c r="B77" t="n">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>254.6375113018729</v>
+        <v>227.9394303477201</v>
       </c>
       <c r="B78" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>296.9984921849596</v>
+        <v>265.8833712589247</v>
       </c>
       <c r="B79" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>339.3594730680462</v>
+        <v>303.8273121701293</v>
       </c>
       <c r="B80" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>381.7204539511329</v>
+        <v>341.771253081334</v>
       </c>
       <c r="B81" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>424.0814348342195</v>
+        <v>379.7151939925386</v>
       </c>
       <c r="B82" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>466.4424157173062</v>
+        <v>417.6591349037432</v>
       </c>
       <c r="B83" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>508.8033966003928</v>
+        <v>455.6030758149479</v>
       </c>
       <c r="B84" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>551.1643774834795</v>
+        <v>493.5470167261525</v>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>593.5253583665661</v>
+        <v>531.490957637357</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>635.8863392496528</v>
+        <v>569.4348985485617</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>678.2473201327394</v>
+        <v>607.3788394597664</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>720.6083010158261</v>
+        <v>645.322780370971</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>762.9692818989128</v>
+        <v>683.2667212821757</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>805.3302627819994</v>
+        <v>721.2106621933802</v>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>847.6912436650861</v>
+        <v>759.1546031045849</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>890.0522245481727</v>
+        <v>797.0985440157896</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>932.4132054312594</v>
+        <v>835.0424849269941</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>974.774186314346</v>
+        <v>872.9864258381988</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1017.135167197433</v>
+        <v>910.9303667494034</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1059.496148080519</v>
+        <v>948.8743076606081</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1101.857128963606</v>
+        <v>986.8182485718128</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1144.218109846693</v>
+        <v>1024.762189483017</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1186.579090729779</v>
+        <v>1062.706130394222</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1228.940071612866</v>
+        <v>1100.650071305427</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1271.301052495952</v>
+        <v>1138.594012216631</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1313.662033379039</v>
+        <v>1176.537953127836</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1356.023014262126</v>
+        <v>1214.481894039041</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1398.383995145212</v>
+        <v>1252.425834950245</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1440.744976028299</v>
+        <v>1290.36977586145</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-5.707924440740918e+65</v>
+        <v>-3.262972073080938e+68</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-3.381147022570499e+65</v>
+        <v>-3.120309629258469e+68</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1.054369604400081e+65</v>
+        <v>-2.977647185436001e+68</v>
       </c>
       <c r="B109" t="n">
-        <v>9995</v>
+        <v>0</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.272407813770338e+65</v>
+        <v>-2.834984741613533e+68</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.599185231940756e+65</v>
+        <v>-2.692322297791065e+68</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5.925962650111174e+65</v>
+        <v>-2.549659853968597e+68</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.252740068281594e+65</v>
+        <v>-2.406997410146129e+68</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.057951748645201e+66</v>
+        <v>-2.26433496632366e+68</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.290629490462243e+66</v>
+        <v>-2.121672522501192e+68</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.523307232279285e+66</v>
+        <v>-1.979010078678724e+68</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.755984974096327e+66</v>
+        <v>-1.836347634856255e+68</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.988662715913369e+66</v>
+        <v>-1.693685191033787e+68</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.221340457730411e+66</v>
+        <v>-1.551022747211319e+68</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.454018199547452e+66</v>
+        <v>-1.408360303388851e+68</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.686695941364494e+66</v>
+        <v>-1.265697859566383e+68</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.919373683181536e+66</v>
+        <v>-1.123035415743915e+68</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.152051424998578e+66</v>
+        <v>-9.803729719214464e+67</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3.384729166815619e+66</v>
+        <v>-8.377105280989781e+67</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.617406908632662e+66</v>
+        <v>-6.950480842765099e+67</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.850084650449703e+66</v>
+        <v>-5.523856404540416e+67</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4.082762392266745e+66</v>
+        <v>-4.097231966315734e+67</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4.315440134083787e+66</v>
+        <v>-2.670607528091056e+67</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4.548117875900829e+66</v>
+        <v>-1.243983089866373e+67</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>9994</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4.780795617717871e+66</v>
+        <v>1.826413483583092e+66</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5.013473359534913e+66</v>
+        <v>1.609265786582992e+67</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5.246151101351955e+66</v>
+        <v>3.035890224807674e+67</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.478828843168996e+66</v>
+        <v>4.462514663032357e+67</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5.711506584986038e+66</v>
+        <v>5.88913910125704e+67</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5.94418432680308e+66</v>
+        <v>7.315763539481717e+67</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>6.176862068620123e+66</v>
+        <v>8.7423879777064e+67</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6.409539810437164e+66</v>
+        <v>1.016901241593108e+68</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.642217552254206e+66</v>
+        <v>1.159563685415577e+68</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6.874895294071248e+66</v>
+        <v>1.302226129238045e+68</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>7.10757303588829e+66</v>
+        <v>1.444888573060513e+68</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>7.340250777705332e+66</v>
+        <v>1.587551016882981e+68</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17061.30033892114</v>
+        <v>11870.47079221479</v>
       </c>
       <c r="B2" t="n">
-        <v>1913</v>
+        <v>1423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>126037.117599536</v>
+        <v>105311.5421502787</v>
       </c>
       <c r="B3" t="n">
-        <v>2766</v>
+        <v>2584</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>235012.9348601508</v>
+        <v>198752.6135083426</v>
       </c>
       <c r="B4" t="n">
-        <v>1965</v>
+        <v>1917</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>343988.7521207656</v>
+        <v>292193.6848664065</v>
       </c>
       <c r="B5" t="n">
-        <v>1171</v>
+        <v>1319</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>452964.5693813804</v>
+        <v>385634.7562244704</v>
       </c>
       <c r="B6" t="n">
-        <v>722</v>
+        <v>784</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>561940.3866419952</v>
+        <v>479075.8275825343</v>
       </c>
       <c r="B7" t="n">
-        <v>442</v>
+        <v>571</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>670916.20390261</v>
+        <v>572516.8989405981</v>
       </c>
       <c r="B8" t="n">
-        <v>286</v>
+        <v>384</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>779892.0211632248</v>
+        <v>665957.970298662</v>
       </c>
       <c r="B9" t="n">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>888867.8384238397</v>
+        <v>759399.0416567259</v>
       </c>
       <c r="B10" t="n">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>997843.6556844545</v>
+        <v>852840.1130147899</v>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1106819.472945069</v>
+        <v>946281.1843728537</v>
       </c>
       <c r="B12" t="n">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1215795.290205684</v>
+        <v>1039722.255730918</v>
       </c>
       <c r="B13" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1324771.107466299</v>
+        <v>1133163.327088982</v>
       </c>
       <c r="B14" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1433746.924726914</v>
+        <v>1226604.398447046</v>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1542722.741987529</v>
+        <v>1320045.469805109</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1651698.559248143</v>
+        <v>1413486.541163173</v>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1760674.376508758</v>
+        <v>1506927.612521237</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1869650.193769373</v>
+        <v>1600368.683879301</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1978626.011029988</v>
+        <v>1693809.755237365</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2087601.828290603</v>
+        <v>1787250.826595429</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2196577.645551217</v>
+        <v>1880691.897953493</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2305553.462811832</v>
+        <v>1974132.969311557</v>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2414529.280072447</v>
+        <v>2067574.040669621</v>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2523505.097333062</v>
+        <v>2161015.112027685</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2632480.914593677</v>
+        <v>2254456.183385748</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2741456.731854292</v>
+        <v>2347897.254743812</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2850432.549114906</v>
+        <v>2441338.326101876</v>
       </c>
       <c r="B28" t="n">
         <v>2</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2959408.366375521</v>
+        <v>2534779.39745994</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3068384.183636136</v>
+        <v>2628220.468818004</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3177360.000896751</v>
+        <v>2721661.540176068</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3286335.818157366</v>
+        <v>2815102.611534132</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3395311.635417981</v>
+        <v>2908543.682892196</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3504287.452678595</v>
+        <v>3001984.75425026</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3613263.26993921</v>
+        <v>3095425.825608323</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3722239.087199825</v>
+        <v>3188866.896966388</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>426.8930617389719</v>
+        <v>425.4996984732422</v>
       </c>
       <c r="B37" t="n">
-        <v>1936</v>
+        <v>1789</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3224.768990678057</v>
+        <v>2957.541301879093</v>
       </c>
       <c r="B38" t="n">
-        <v>2992</v>
+        <v>2962</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6022.644919617142</v>
+        <v>5489.582905284944</v>
       </c>
       <c r="B39" t="n">
-        <v>1967</v>
+        <v>2023</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8820.520848556227</v>
+        <v>8021.624508690795</v>
       </c>
       <c r="B40" t="n">
-        <v>1235</v>
+        <v>1161</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11618.39677749531</v>
+        <v>10553.66611209665</v>
       </c>
       <c r="B41" t="n">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14416.2727064344</v>
+        <v>13085.7077155025</v>
       </c>
       <c r="B42" t="n">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17214.14863537348</v>
+        <v>15617.74931890835</v>
       </c>
       <c r="B43" t="n">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20012.02456431257</v>
+        <v>18149.7909223142</v>
       </c>
       <c r="B44" t="n">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22809.90049325165</v>
+        <v>20681.83252572005</v>
       </c>
       <c r="B45" t="n">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25607.77642219073</v>
+        <v>23213.8741291259</v>
       </c>
       <c r="B46" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>28405.65235112982</v>
+        <v>25745.91573253175</v>
       </c>
       <c r="B47" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>31203.52828006891</v>
+        <v>28277.9573359376</v>
       </c>
       <c r="B48" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>34001.40420900799</v>
+        <v>30809.99893934345</v>
       </c>
       <c r="B49" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>36799.28013794708</v>
+        <v>33342.0405427493</v>
       </c>
       <c r="B50" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>39597.15606688616</v>
+        <v>35874.08214615515</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>42395.03199582524</v>
+        <v>38406.123749561</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>45192.90792476433</v>
+        <v>40938.16535296685</v>
       </c>
       <c r="B53" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>47990.78385370342</v>
+        <v>43470.20695637271</v>
       </c>
       <c r="B54" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>50788.6597826425</v>
+        <v>46002.24855977856</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>53586.53571158159</v>
+        <v>48534.29016318441</v>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56384.41164052067</v>
+        <v>51066.33176659026</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>59182.28756945975</v>
+        <v>53598.37336999611</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>61980.16349839884</v>
+        <v>56130.41497340196</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>64778.03942733793</v>
+        <v>58662.45657680781</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>67575.91535627701</v>
+        <v>61194.49818021366</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>70373.7912852161</v>
+        <v>63726.53978361951</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>73171.66721415518</v>
+        <v>66258.58138702536</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>75969.54314309427</v>
+        <v>68790.62299043122</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>78767.41907203336</v>
+        <v>71322.66459383706</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>81565.29500097243</v>
+        <v>73854.70619724291</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>84363.17092991152</v>
+        <v>76386.74780064877</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>87161.0468588506</v>
+        <v>78918.78940405462</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>89958.92278778969</v>
+        <v>81450.83100746047</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>92756.79871672878</v>
+        <v>83982.87261086631</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>95554.67464566787</v>
+        <v>86514.91421427217</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2757848804922599</v>
+        <v>0.860448288059724</v>
       </c>
       <c r="B72" t="n">
-        <v>5335</v>
+        <v>7887</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>38.2197257916969</v>
+        <v>79.32674162606868</v>
       </c>
       <c r="B73" t="n">
-        <v>2414</v>
+        <v>1440</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>76.16366670290152</v>
+        <v>157.7930349640776</v>
       </c>
       <c r="B74" t="n">
-        <v>1014</v>
+        <v>370</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>114.1076076141062</v>
+        <v>236.2593283020866</v>
       </c>
       <c r="B75" t="n">
-        <v>471</v>
+        <v>137</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>152.0515485253108</v>
+        <v>314.7256216400955</v>
       </c>
       <c r="B76" t="n">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>189.9954894365154</v>
+        <v>393.1919149781045</v>
       </c>
       <c r="B77" t="n">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>227.9394303477201</v>
+        <v>471.6582083161135</v>
       </c>
       <c r="B78" t="n">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>265.8833712589247</v>
+        <v>550.1245016541224</v>
       </c>
       <c r="B79" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>303.8273121701293</v>
+        <v>628.5907949921314</v>
       </c>
       <c r="B80" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>341.771253081334</v>
+        <v>707.0570883301403</v>
       </c>
       <c r="B81" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>379.7151939925386</v>
+        <v>785.5233816681492</v>
       </c>
       <c r="B82" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>417.6591349037432</v>
+        <v>863.9896750061582</v>
       </c>
       <c r="B83" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>455.6030758149479</v>
+        <v>942.4559683441672</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>493.5470167261525</v>
+        <v>1020.922261682176</v>
       </c>
       <c r="B85" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>531.490957637357</v>
+        <v>1099.388555020185</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>569.4348985485617</v>
+        <v>1177.854848358194</v>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>607.3788394597664</v>
+        <v>1256.321141696203</v>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>645.322780370971</v>
+        <v>1334.787435034212</v>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>683.2667212821757</v>
+        <v>1413.253728372221</v>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>721.2106621933802</v>
+        <v>1491.72002171023</v>
       </c>
       <c r="B91" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>759.1546031045849</v>
+        <v>1570.186315048239</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>797.0985440157896</v>
+        <v>1648.652608386248</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>835.0424849269941</v>
+        <v>1727.118901724257</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>872.9864258381988</v>
+        <v>1805.585195062265</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>910.9303667494034</v>
+        <v>1884.051488400275</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>948.8743076606081</v>
+        <v>1962.517781738283</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>986.8182485718128</v>
+        <v>2040.984075076292</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1024.762189483017</v>
+        <v>2119.450368414301</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1062.706130394222</v>
+        <v>2197.91666175231</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1100.650071305427</v>
+        <v>2276.382955090319</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1138.594012216631</v>
+        <v>2354.849248428328</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1176.537953127836</v>
+        <v>2433.315541766337</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1214.481894039041</v>
+        <v>2511.781835104346</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1252.425834950245</v>
+        <v>2590.248128442355</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1290.36977586145</v>
+        <v>2668.714421780364</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-3.262972073080938e+68</v>
+        <v>-7.376164101334296e+71</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-3.120309629258469e+68</v>
+        <v>-7.165402709611616e+71</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-2.977647185436001e+68</v>
+        <v>-6.954641317888936e+71</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-2.834984741613533e+68</v>
+        <v>-6.743879926166257e+71</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-2.692322297791065e+68</v>
+        <v>-6.533118534443576e+71</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-2.549659853968597e+68</v>
+        <v>-6.322357142720897e+71</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-2.406997410146129e+68</v>
+        <v>-6.111595750998216e+71</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-2.26433496632366e+68</v>
+        <v>-5.900834359275537e+71</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-2.121672522501192e+68</v>
+        <v>-5.690072967552857e+71</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-1.979010078678724e+68</v>
+        <v>-5.479311575830177e+71</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1.836347634856255e+68</v>
+        <v>-5.268550184107497e+71</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1.693685191033787e+68</v>
+        <v>-5.057788792384817e+71</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.551022747211319e+68</v>
+        <v>-4.847027400662137e+71</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.408360303388851e+68</v>
+        <v>-4.636266008939458e+71</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.265697859566383e+68</v>
+        <v>-4.425504617216778e+71</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1.123035415743915e+68</v>
+        <v>-4.214743225494098e+71</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-9.803729719214464e+67</v>
+        <v>-4.003981833771418e+71</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-8.377105280989781e+67</v>
+        <v>-3.793220442048738e+71</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-6.950480842765099e+67</v>
+        <v>-3.582459050326058e+71</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-5.523856404540416e+67</v>
+        <v>-3.371697658603378e+71</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-4.097231966315734e+67</v>
+        <v>-3.160936266880698e+71</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-2.670607528091056e+67</v>
+        <v>-2.950174875158018e+71</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.243983089866373e+67</v>
+        <v>-2.739413483435339e+71</v>
       </c>
       <c r="B129" t="n">
-        <v>9994</v>
+        <v>0</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.826413483583092e+66</v>
+        <v>-2.528652091712659e+71</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.609265786582992e+67</v>
+        <v>-2.317890699989979e+71</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3.035890224807674e+67</v>
+        <v>-2.107129308267299e+71</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4.462514663032357e+67</v>
+        <v>-1.896367916544619e+71</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5.88913910125704e+67</v>
+        <v>-1.685606524821939e+71</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>7.315763539481717e+67</v>
+        <v>-1.47484513309926e+71</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8.7423879777064e+67</v>
+        <v>-1.264083741376579e+71</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.016901241593108e+68</v>
+        <v>-1.0533223496539e+71</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.159563685415577e+68</v>
+        <v>-8.425609579312193e+70</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.302226129238045e+68</v>
+        <v>-6.317995662085399e+70</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.444888573060513e+68</v>
+        <v>-4.210381744858605e+70</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.587551016882981e+68</v>
+        <v>-2.102767827631801e+70</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11870.47079221479</v>
+        <v>11796.22010651979</v>
       </c>
       <c r="B2" t="n">
-        <v>1423</v>
+        <v>2850</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105311.5421502787</v>
+        <v>157252.0365583308</v>
       </c>
       <c r="B3" t="n">
-        <v>2584</v>
+        <v>3155</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>198752.6135083426</v>
+        <v>302707.8530101419</v>
       </c>
       <c r="B4" t="n">
-        <v>1917</v>
+        <v>1833</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>292193.6848664065</v>
+        <v>448163.669461953</v>
       </c>
       <c r="B5" t="n">
-        <v>1319</v>
+        <v>916</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>385634.7562244704</v>
+        <v>593619.485913764</v>
       </c>
       <c r="B6" t="n">
-        <v>784</v>
+        <v>470</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>479075.8275825343</v>
+        <v>739075.302365575</v>
       </c>
       <c r="B7" t="n">
-        <v>571</v>
+        <v>289</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>572516.8989405981</v>
+        <v>884531.1188173861</v>
       </c>
       <c r="B8" t="n">
-        <v>384</v>
+        <v>166</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>665957.970298662</v>
+        <v>1029986.935269197</v>
       </c>
       <c r="B9" t="n">
-        <v>269</v>
+        <v>113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>759399.0416567259</v>
+        <v>1175442.751721008</v>
       </c>
       <c r="B10" t="n">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>852840.1130147899</v>
+        <v>1320898.568172819</v>
       </c>
       <c r="B11" t="n">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>946281.1843728537</v>
+        <v>1466354.38462463</v>
       </c>
       <c r="B12" t="n">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1039722.255730918</v>
+        <v>1611810.201076441</v>
       </c>
       <c r="B13" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1133163.327088982</v>
+        <v>1757266.017528252</v>
       </c>
       <c r="B14" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1226604.398447046</v>
+        <v>1902721.833980063</v>
       </c>
       <c r="B15" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1320045.469805109</v>
+        <v>2048177.650431875</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1413486.541163173</v>
+        <v>2193633.466883685</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1506927.612521237</v>
+        <v>2339089.283335497</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1600368.683879301</v>
+        <v>2484545.099787308</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1693809.755237365</v>
+        <v>2630000.916239119</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1787250.826595429</v>
+        <v>2775456.73269093</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1880691.897953493</v>
+        <v>2920912.549142741</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1974132.969311557</v>
+        <v>3066368.365594552</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2067574.040669621</v>
+        <v>3211824.182046363</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2161015.112027685</v>
+        <v>3357279.998498174</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2254456.183385748</v>
+        <v>3502735.814949985</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2347897.254743812</v>
+        <v>3648191.631401796</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2441338.326101876</v>
+        <v>3793647.447853607</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2534779.39745994</v>
+        <v>3939103.264305418</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2628220.468818004</v>
+        <v>4084559.08075723</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2721661.540176068</v>
+        <v>4230014.897209041</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2815102.611534132</v>
+        <v>4375470.713660851</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2908543.682892196</v>
+        <v>4520926.530112662</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3001984.75425026</v>
+        <v>4666382.346564474</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3095425.825608323</v>
+        <v>4811838.163016285</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3188866.896966388</v>
+        <v>4957293.979468096</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>425.4996984732422</v>
+        <v>298.6133094330216</v>
       </c>
       <c r="B37" t="n">
-        <v>1789</v>
+        <v>2197</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2957.541301879093</v>
+        <v>3163.966897972529</v>
       </c>
       <c r="B38" t="n">
-        <v>2962</v>
+        <v>3138</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5489.582905284944</v>
+        <v>6029.320486512036</v>
       </c>
       <c r="B39" t="n">
-        <v>2023</v>
+        <v>1944</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8021.624508690795</v>
+        <v>8894.674075051544</v>
       </c>
       <c r="B40" t="n">
-        <v>1161</v>
+        <v>1107</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10553.66611209665</v>
+        <v>11760.02766359105</v>
       </c>
       <c r="B41" t="n">
-        <v>688</v>
+        <v>611</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13085.7077155025</v>
+        <v>14625.38125213056</v>
       </c>
       <c r="B42" t="n">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15617.74931890835</v>
+        <v>17490.73484067007</v>
       </c>
       <c r="B43" t="n">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18149.7909223142</v>
+        <v>20356.08842920957</v>
       </c>
       <c r="B44" t="n">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20681.83252572005</v>
+        <v>23221.44201774908</v>
       </c>
       <c r="B45" t="n">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23213.8741291259</v>
+        <v>26086.79560628859</v>
       </c>
       <c r="B46" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25745.91573253175</v>
+        <v>28952.14919482809</v>
       </c>
       <c r="B47" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>28277.9573359376</v>
+        <v>31817.5027833676</v>
       </c>
       <c r="B48" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>30809.99893934345</v>
+        <v>34682.85637190711</v>
       </c>
       <c r="B49" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>33342.0405427493</v>
+        <v>37548.20996044661</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>35874.08214615515</v>
+        <v>40413.56354898612</v>
       </c>
       <c r="B51" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>38406.123749561</v>
+        <v>43278.91713752563</v>
       </c>
       <c r="B52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>40938.16535296685</v>
+        <v>46144.27072606514</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43470.20695637271</v>
+        <v>49009.62431460465</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>46002.24855977856</v>
+        <v>51874.97790314415</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>48534.29016318441</v>
+        <v>54740.33149168366</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>51066.33176659026</v>
+        <v>57605.68508022316</v>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>53598.37336999611</v>
+        <v>60471.03866876267</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56130.41497340196</v>
+        <v>63336.39225730218</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>58662.45657680781</v>
+        <v>66201.74584584168</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>61194.49818021366</v>
+        <v>69067.09943438119</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>63726.53978361951</v>
+        <v>71932.4530229207</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66258.58138702536</v>
+        <v>74797.8066114602</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68790.62299043122</v>
+        <v>77663.16019999971</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>71322.66459383706</v>
+        <v>80528.51378853922</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>73854.70619724291</v>
+        <v>83393.86737707873</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>76386.74780064877</v>
+        <v>86259.22096561822</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>78918.78940405462</v>
+        <v>89124.57455415773</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>81450.83100746047</v>
+        <v>91989.92814269724</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>83982.87261086631</v>
+        <v>94855.28173123676</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>86514.91421427217</v>
+        <v>97720.63531977627</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.860448288059724</v>
+        <v>0.6285071460389675</v>
       </c>
       <c r="B72" t="n">
-        <v>7887</v>
+        <v>5865</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>79.32674162606868</v>
+        <v>41.59878428972564</v>
       </c>
       <c r="B73" t="n">
-        <v>1440</v>
+        <v>2208</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>157.7930349640776</v>
+        <v>82.56906143341232</v>
       </c>
       <c r="B74" t="n">
-        <v>370</v>
+        <v>873</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>236.2593283020866</v>
+        <v>123.539338577099</v>
       </c>
       <c r="B75" t="n">
-        <v>137</v>
+        <v>431</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>314.7256216400955</v>
+        <v>164.5096157207857</v>
       </c>
       <c r="B76" t="n">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>393.1919149781045</v>
+        <v>205.4798928644723</v>
       </c>
       <c r="B77" t="n">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>471.6582083161135</v>
+        <v>246.450170008159</v>
       </c>
       <c r="B78" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>550.1245016541224</v>
+        <v>287.4204471518457</v>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>628.5907949921314</v>
+        <v>328.3907242955323</v>
       </c>
       <c r="B80" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>707.0570883301403</v>
+        <v>369.361001439219</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>785.5233816681492</v>
+        <v>410.3312785829057</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>863.9896750061582</v>
+        <v>451.3015557265924</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>942.4559683441672</v>
+        <v>492.271832870279</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1020.922261682176</v>
+        <v>533.2421100139657</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1099.388555020185</v>
+        <v>574.2123871576524</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1177.854848358194</v>
+        <v>615.1826643013391</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1256.321141696203</v>
+        <v>656.1529414450257</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1334.787435034212</v>
+        <v>697.1232185887123</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1413.253728372221</v>
+        <v>738.093495732399</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1491.72002171023</v>
+        <v>779.0637728760857</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1570.186315048239</v>
+        <v>820.0340500197724</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1648.652608386248</v>
+        <v>861.004327163459</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1727.118901724257</v>
+        <v>901.9746043071458</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1805.585195062265</v>
+        <v>942.9448814508324</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1884.051488400275</v>
+        <v>983.9151585945191</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1962.517781738283</v>
+        <v>1024.885435738206</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2040.984075076292</v>
+        <v>1065.855712881892</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2119.450368414301</v>
+        <v>1106.825990025579</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2197.91666175231</v>
+        <v>1147.796267169266</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2276.382955090319</v>
+        <v>1188.766544312953</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2354.849248428328</v>
+        <v>1229.736821456639</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2433.315541766337</v>
+        <v>1270.707098600326</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2511.781835104346</v>
+        <v>1311.677375744013</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2590.248128442355</v>
+        <v>1352.647652887699</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2668.714421780364</v>
+        <v>1393.617930031386</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-7.376164101334296e+71</v>
+        <v>-9.006492351468664e+68</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-7.165402709611616e+71</v>
+        <v>1.566102862737946e+70</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-6.954641317888936e+71</v>
+        <v>3.222270648990579e+70</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-6.743879926166257e+71</v>
+        <v>4.878438435243212e+70</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-6.533118534443576e+71</v>
+        <v>6.534606221495846e+70</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-6.322357142720897e+71</v>
+        <v>8.19077400774848e+70</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-6.111595750998216e+71</v>
+        <v>9.846941794001112e+70</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-5.900834359275537e+71</v>
+        <v>1.150310958025374e+71</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-5.690072967552857e+71</v>
+        <v>1.315927736650638e+71</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-5.479311575830177e+71</v>
+        <v>1.481544515275901e+71</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-5.268550184107497e+71</v>
+        <v>1.647161293901164e+71</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-5.057788792384817e+71</v>
+        <v>1.812778072526428e+71</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-4.847027400662137e+71</v>
+        <v>1.978394851151691e+71</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-4.636266008939458e+71</v>
+        <v>2.144011629776954e+71</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-4.425504617216778e+71</v>
+        <v>2.309628408402218e+71</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-4.214743225494098e+71</v>
+        <v>2.475245187027481e+71</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-4.003981833771418e+71</v>
+        <v>2.640861965652744e+71</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-3.793220442048738e+71</v>
+        <v>2.806478744278008e+71</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-3.582459050326058e+71</v>
+        <v>2.972095522903271e+71</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-3.371697658603378e+71</v>
+        <v>3.137712301528535e+71</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-3.160936266880698e+71</v>
+        <v>3.303329080153798e+71</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-2.950174875158018e+71</v>
+        <v>3.468945858779061e+71</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-2.739413483435339e+71</v>
+        <v>3.634562637404324e+71</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-2.528652091712659e+71</v>
+        <v>3.800179416029588e+71</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-2.317890699989979e+71</v>
+        <v>3.965796194654851e+71</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-2.107129308267299e+71</v>
+        <v>4.131412973280114e+71</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-1.896367916544619e+71</v>
+        <v>4.297029751905378e+71</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-1.685606524821939e+71</v>
+        <v>4.462646530530641e+71</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-1.47484513309926e+71</v>
+        <v>4.628263309155903e+71</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.264083741376579e+71</v>
+        <v>4.793880087781167e+71</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.0533223496539e+71</v>
+        <v>4.95949686640643e+71</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-8.425609579312193e+70</v>
+        <v>5.125113645031694e+71</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-6.317995662085399e+70</v>
+        <v>5.290730423656957e+71</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-4.210381744858605e+70</v>
+        <v>5.45634720228222e+71</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-2.102767827631801e+70</v>
+        <v>5.621963980907484e+71</v>
       </c>
       <c r="B141" t="n">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11796.22010651979</v>
+        <v>16371.91000683787</v>
       </c>
       <c r="B2" t="n">
-        <v>2850</v>
+        <v>2222</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>157252.0365583308</v>
+        <v>133736.9905558671</v>
       </c>
       <c r="B3" t="n">
-        <v>3155</v>
+        <v>3002</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>302707.8530101419</v>
+        <v>251102.0711048963</v>
       </c>
       <c r="B4" t="n">
-        <v>1833</v>
+        <v>1878</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>448163.669461953</v>
+        <v>368467.1516539255</v>
       </c>
       <c r="B5" t="n">
-        <v>916</v>
+        <v>1068</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>593619.485913764</v>
+        <v>485832.2322029546</v>
       </c>
       <c r="B6" t="n">
-        <v>470</v>
+        <v>666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>739075.302365575</v>
+        <v>603197.3127519839</v>
       </c>
       <c r="B7" t="n">
-        <v>289</v>
+        <v>403</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>884531.1188173861</v>
+        <v>720562.3933010132</v>
       </c>
       <c r="B8" t="n">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1029986.935269197</v>
+        <v>837927.4738500423</v>
       </c>
       <c r="B9" t="n">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1175442.751721008</v>
+        <v>955292.5543990715</v>
       </c>
       <c r="B10" t="n">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1320898.568172819</v>
+        <v>1072657.634948101</v>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1466354.38462463</v>
+        <v>1190022.71549713</v>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1611810.201076441</v>
+        <v>1307387.796046159</v>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1757266.017528252</v>
+        <v>1424752.876595188</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1902721.833980063</v>
+        <v>1542117.957144218</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2048177.650431875</v>
+        <v>1659483.037693247</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2193633.466883685</v>
+        <v>1776848.118242276</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2339089.283335497</v>
+        <v>1894213.198791305</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2484545.099787308</v>
+        <v>2011578.279340334</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2630000.916239119</v>
+        <v>2128943.359889363</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2775456.73269093</v>
+        <v>2246308.440438393</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2920912.549142741</v>
+        <v>2363673.520987422</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3066368.365594552</v>
+        <v>2481038.601536451</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3211824.182046363</v>
+        <v>2598403.68208548</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3357279.998498174</v>
+        <v>2715768.762634509</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3502735.814949985</v>
+        <v>2833133.843183539</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3648191.631401796</v>
+        <v>2950498.923732568</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3793647.447853607</v>
+        <v>3067864.004281597</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3939103.264305418</v>
+        <v>3185229.084830626</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4084559.08075723</v>
+        <v>3302594.165379656</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4230014.897209041</v>
+        <v>3419959.245928685</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4375470.713660851</v>
+        <v>3537324.326477714</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4520926.530112662</v>
+        <v>3654689.407026743</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4666382.346564474</v>
+        <v>3772054.487575772</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4811838.163016285</v>
+        <v>3889419.568124801</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4957293.979468096</v>
+        <v>4006784.648673831</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>298.6133094330216</v>
+        <v>256.6846478975672</v>
       </c>
       <c r="B37" t="n">
-        <v>2197</v>
+        <v>3579</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3163.966897972529</v>
+        <v>4256.474797776166</v>
       </c>
       <c r="B38" t="n">
-        <v>3138</v>
+        <v>3420</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6029.320486512036</v>
+        <v>8256.264947654765</v>
       </c>
       <c r="B39" t="n">
-        <v>1944</v>
+        <v>1551</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8894.674075051544</v>
+        <v>12256.05509753336</v>
       </c>
       <c r="B40" t="n">
-        <v>1107</v>
+        <v>711</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11760.02766359105</v>
+        <v>16255.84524741196</v>
       </c>
       <c r="B41" t="n">
-        <v>611</v>
+        <v>313</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14625.38125213056</v>
+        <v>20255.63539729056</v>
       </c>
       <c r="B42" t="n">
-        <v>378</v>
+        <v>185</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17490.73484067007</v>
+        <v>24255.42554716916</v>
       </c>
       <c r="B43" t="n">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20356.08842920957</v>
+        <v>28255.21569704776</v>
       </c>
       <c r="B44" t="n">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23221.44201774908</v>
+        <v>32255.00584692636</v>
       </c>
       <c r="B45" t="n">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>26086.79560628859</v>
+        <v>36254.79599680495</v>
       </c>
       <c r="B46" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>28952.14919482809</v>
+        <v>40254.58614668356</v>
       </c>
       <c r="B47" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>31817.5027833676</v>
+        <v>44254.37629656216</v>
       </c>
       <c r="B48" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>34682.85637190711</v>
+        <v>48254.16644644075</v>
       </c>
       <c r="B49" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>37548.20996044661</v>
+        <v>52253.95659631935</v>
       </c>
       <c r="B50" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40413.56354898612</v>
+        <v>56253.74674619795</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43278.91713752563</v>
+        <v>60253.53689607655</v>
       </c>
       <c r="B52" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>46144.27072606514</v>
+        <v>64253.32704595515</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>49009.62431460465</v>
+        <v>68253.11719583375</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>51874.97790314415</v>
+        <v>72252.90734571234</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54740.33149168366</v>
+        <v>76252.69749559095</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>57605.68508022316</v>
+        <v>80252.48764546955</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>60471.03866876267</v>
+        <v>84252.27779534814</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>63336.39225730218</v>
+        <v>88252.06794522675</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>66201.74584584168</v>
+        <v>92251.85809510534</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>69067.09943438119</v>
+        <v>96251.64824498394</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>71932.4530229207</v>
+        <v>100251.4383948625</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>74797.8066114602</v>
+        <v>104251.2285447411</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>77663.16019999971</v>
+        <v>108251.0186946197</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>80528.51378853922</v>
+        <v>112250.8088444983</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>83393.86737707873</v>
+        <v>116250.5989943769</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>86259.22096561822</v>
+        <v>120250.3891442555</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>89124.57455415773</v>
+        <v>124250.1792941341</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>91989.92814269724</v>
+        <v>128249.9694440127</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>94855.28173123676</v>
+        <v>132249.7595938914</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>97720.63531977627</v>
+        <v>136249.54974377</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6285071460389675</v>
+        <v>0.5557940057824233</v>
       </c>
       <c r="B72" t="n">
-        <v>5865</v>
+        <v>5889</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>41.59878428972564</v>
+        <v>43.70528614997185</v>
       </c>
       <c r="B73" t="n">
-        <v>2208</v>
+        <v>2246</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>82.56906143341232</v>
+        <v>86.85477829416128</v>
       </c>
       <c r="B74" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>123.539338577099</v>
+        <v>130.0042704383507</v>
       </c>
       <c r="B75" t="n">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>164.5096157207857</v>
+        <v>173.1537625825401</v>
       </c>
       <c r="B76" t="n">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>205.4798928644723</v>
+        <v>216.3032547267296</v>
       </c>
       <c r="B77" t="n">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>246.450170008159</v>
+        <v>259.452746870919</v>
       </c>
       <c r="B78" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>287.4204471518457</v>
+        <v>302.6022390151085</v>
       </c>
       <c r="B79" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>328.3907242955323</v>
+        <v>345.7517311592979</v>
       </c>
       <c r="B80" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>369.361001439219</v>
+        <v>388.9012233034873</v>
       </c>
       <c r="B81" t="n">
         <v>17</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>410.3312785829057</v>
+        <v>432.0507154476767</v>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>451.3015557265924</v>
+        <v>475.2002075918662</v>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>492.271832870279</v>
+        <v>518.3496997360556</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>533.2421100139657</v>
+        <v>561.499191880245</v>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>574.2123871576524</v>
+        <v>604.6486840244345</v>
       </c>
       <c r="B86" t="n">
         <v>6</v>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>615.1826643013391</v>
+        <v>647.7981761686239</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>656.1529414450257</v>
+        <v>690.9476683128133</v>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>697.1232185887123</v>
+        <v>734.0971604570028</v>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>738.093495732399</v>
+        <v>777.2466526011922</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>779.0637728760857</v>
+        <v>820.3961447453817</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>820.0340500197724</v>
+        <v>863.545636889571</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>861.004327163459</v>
+        <v>906.6951290337605</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>901.9746043071458</v>
+        <v>949.8446211779499</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>942.9448814508324</v>
+        <v>992.9941133221394</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>983.9151585945191</v>
+        <v>1036.143605466329</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1024.885435738206</v>
+        <v>1079.293097610518</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1065.855712881892</v>
+        <v>1122.442589754708</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1106.825990025579</v>
+        <v>1165.592081898897</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1147.796267169266</v>
+        <v>1208.741574043087</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1188.766544312953</v>
+        <v>1251.891066187276</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1229.736821456639</v>
+        <v>1295.040558331465</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1270.707098600326</v>
+        <v>1338.190050475655</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1311.677375744013</v>
+        <v>1381.339542619844</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1352.647652887699</v>
+        <v>1424.489034764034</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1393.617930031386</v>
+        <v>1467.638526908223</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-9.006492351468664e+68</v>
+        <v>-2.467076999860504e+69</v>
       </c>
       <c r="B107" t="n">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.566102862737946e+70</v>
+        <v>-2.396585525630765e+69</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3.222270648990579e+70</v>
+        <v>-2.326094051401026e+69</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4.878438435243212e+70</v>
+        <v>-2.255602577171287e+69</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6.534606221495846e+70</v>
+        <v>-2.185111102941548e+69</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8.19077400774848e+70</v>
+        <v>-2.114619628711809e+69</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9.846941794001112e+70</v>
+        <v>-2.04412815448207e+69</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.150310958025374e+71</v>
+        <v>-1.973636680252331e+69</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.315927736650638e+71</v>
+        <v>-1.903145206022592e+69</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.481544515275901e+71</v>
+        <v>-1.832653731792853e+69</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.647161293901164e+71</v>
+        <v>-1.762162257563114e+69</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.812778072526428e+71</v>
+        <v>-1.691670783333375e+69</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.978394851151691e+71</v>
+        <v>-1.621179309103636e+69</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.144011629776954e+71</v>
+        <v>-1.550687834873897e+69</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.309628408402218e+71</v>
+        <v>-1.480196360644158e+69</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.475245187027481e+71</v>
+        <v>-1.40970488641442e+69</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.640861965652744e+71</v>
+        <v>-1.339213412184681e+69</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.806478744278008e+71</v>
+        <v>-1.268721937954942e+69</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.972095522903271e+71</v>
+        <v>-1.198230463725203e+69</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.137712301528535e+71</v>
+        <v>-1.127738989495464e+69</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.303329080153798e+71</v>
+        <v>-1.057247515265725e+69</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3.468945858779061e+71</v>
+        <v>-9.86756041035986e+68</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3.634562637404324e+71</v>
+        <v>-9.16264566806247e+68</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3.800179416029588e+71</v>
+        <v>-8.45773092576508e+68</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3.965796194654851e+71</v>
+        <v>-7.752816183467692e+68</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4.131412973280114e+71</v>
+        <v>-7.0479014411703e+68</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4.297029751905378e+71</v>
+        <v>-6.342986698872912e+68</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4.462646530530641e+71</v>
+        <v>-5.638071956575524e+68</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4.628263309155903e+71</v>
+        <v>-4.933157214278132e+68</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4.793880087781167e+71</v>
+        <v>-4.228242471980744e+68</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4.95949686640643e+71</v>
+        <v>-3.523327729683356e+68</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>5.125113645031694e+71</v>
+        <v>-2.818412987385964e+68</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5.290730423656957e+71</v>
+        <v>-2.113498245088576e+68</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5.45634720228222e+71</v>
+        <v>-1.408583502791188e+68</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5.621963980907484e+71</v>
+        <v>-7.036687604937959e+67</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>9998</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16371.91000683787</v>
+        <v>12721.56510840138</v>
       </c>
       <c r="B2" t="n">
-        <v>2222</v>
+        <v>2847</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>133736.9905558671</v>
+        <v>144629.8584019195</v>
       </c>
       <c r="B3" t="n">
-        <v>3002</v>
+        <v>3195</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251102.0711048963</v>
+        <v>276538.1516954377</v>
       </c>
       <c r="B4" t="n">
-        <v>1878</v>
+        <v>1754</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>368467.1516539255</v>
+        <v>408446.4449889559</v>
       </c>
       <c r="B5" t="n">
-        <v>1068</v>
+        <v>871</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>485832.2322029546</v>
+        <v>540354.738282474</v>
       </c>
       <c r="B6" t="n">
-        <v>666</v>
+        <v>501</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>603197.3127519839</v>
+        <v>672263.0315759921</v>
       </c>
       <c r="B7" t="n">
-        <v>403</v>
+        <v>298</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>720562.3933010132</v>
+        <v>804171.3248695104</v>
       </c>
       <c r="B8" t="n">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>837927.4738500423</v>
+        <v>936079.6181630285</v>
       </c>
       <c r="B9" t="n">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>955292.5543990715</v>
+        <v>1067987.911456547</v>
       </c>
       <c r="B10" t="n">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1072657.634948101</v>
+        <v>1199896.204750065</v>
       </c>
       <c r="B11" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1190022.71549713</v>
+        <v>1331804.498043583</v>
       </c>
       <c r="B12" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1307387.796046159</v>
+        <v>1463712.791337101</v>
       </c>
       <c r="B13" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1424752.876595188</v>
+        <v>1595621.08463062</v>
       </c>
       <c r="B14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1542117.957144218</v>
+        <v>1727529.377924138</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1659483.037693247</v>
+        <v>1859437.671217656</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1776848.118242276</v>
+        <v>1991345.964511174</v>
       </c>
       <c r="B17" t="n">
         <v>6</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1894213.198791305</v>
+        <v>2123254.257804692</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2011578.279340334</v>
+        <v>2255162.55109821</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2128943.359889363</v>
+        <v>2387070.844391728</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2246308.440438393</v>
+        <v>2518979.137685246</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2363673.520987422</v>
+        <v>2650887.430978764</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2481038.601536451</v>
+        <v>2782795.724272283</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2598403.68208548</v>
+        <v>2914704.017565801</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2715768.762634509</v>
+        <v>3046612.310859319</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2833133.843183539</v>
+        <v>3178520.604152837</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2950498.923732568</v>
+        <v>3310428.897446355</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3067864.004281597</v>
+        <v>3442337.190739873</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3185229.084830626</v>
+        <v>3574245.484033391</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3302594.165379656</v>
+        <v>3706153.77732691</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3419959.245928685</v>
+        <v>3838062.070620428</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3537324.326477714</v>
+        <v>3969970.363913946</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3654689.407026743</v>
+        <v>4101878.657207464</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3772054.487575772</v>
+        <v>4233786.950500983</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3889419.568124801</v>
+        <v>4365695.243794501</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4006784.648673831</v>
+        <v>4497603.537088019</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>256.6846478975672</v>
+        <v>251.5677677243398</v>
       </c>
       <c r="B37" t="n">
-        <v>3579</v>
+        <v>1526</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4256.474797776166</v>
+        <v>2281.604660122863</v>
       </c>
       <c r="B38" t="n">
-        <v>3420</v>
+        <v>2860</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8256.264947654765</v>
+        <v>4311.641552521385</v>
       </c>
       <c r="B39" t="n">
-        <v>1551</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12256.05509753336</v>
+        <v>6341.678444919909</v>
       </c>
       <c r="B40" t="n">
-        <v>711</v>
+        <v>1262</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>16255.84524741196</v>
+        <v>8371.715337318432</v>
       </c>
       <c r="B41" t="n">
-        <v>313</v>
+        <v>809</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20255.63539729056</v>
+        <v>10401.75222971695</v>
       </c>
       <c r="B42" t="n">
-        <v>185</v>
+        <v>494</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>24255.42554716916</v>
+        <v>12431.78912211548</v>
       </c>
       <c r="B43" t="n">
-        <v>112</v>
+        <v>337</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>28255.21569704776</v>
+        <v>14461.826014514</v>
       </c>
       <c r="B44" t="n">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>32255.00584692636</v>
+        <v>16491.86290691252</v>
       </c>
       <c r="B45" t="n">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>36254.79599680495</v>
+        <v>18521.89979931105</v>
       </c>
       <c r="B46" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>40254.58614668356</v>
+        <v>20551.93669170957</v>
       </c>
       <c r="B47" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>44254.37629656216</v>
+        <v>22581.97358410809</v>
       </c>
       <c r="B48" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48254.16644644075</v>
+        <v>24612.01047650662</v>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>52253.95659631935</v>
+        <v>26642.04736890514</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56253.74674619795</v>
+        <v>28672.08426130366</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>60253.53689607655</v>
+        <v>30702.12115370218</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>64253.32704595515</v>
+        <v>32732.15804610071</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>68253.11719583375</v>
+        <v>34762.19493849923</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>72252.90734571234</v>
+        <v>36792.23183089775</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>76252.69749559095</v>
+        <v>38822.26872329627</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>80252.48764546955</v>
+        <v>40852.30561569479</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>84252.27779534814</v>
+        <v>42882.34250809332</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>88252.06794522675</v>
+        <v>44912.37940049184</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>92251.85809510534</v>
+        <v>46942.41629289036</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>96251.64824498394</v>
+        <v>48972.45318528889</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>100251.4383948625</v>
+        <v>51002.49007768741</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>104251.2285447411</v>
+        <v>53032.52697008594</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>108251.0186946197</v>
+        <v>55062.56386248446</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112250.8088444983</v>
+        <v>57092.60075488298</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>116250.5989943769</v>
+        <v>59122.6376472815</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>120250.3891442555</v>
+        <v>61152.67453968003</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>124250.1792941341</v>
+        <v>63182.71143207855</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>128249.9694440127</v>
+        <v>65212.74832447707</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>132249.7595938914</v>
+        <v>67242.78521687559</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>136249.54974377</v>
+        <v>69272.82210927412</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5557940057824233</v>
+        <v>0.1327947682126419</v>
       </c>
       <c r="B72" t="n">
-        <v>5889</v>
+        <v>5763</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43.70528614997185</v>
+        <v>32.72310005997333</v>
       </c>
       <c r="B73" t="n">
-        <v>2246</v>
+        <v>2270</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>86.85477829416128</v>
+        <v>65.31340535173403</v>
       </c>
       <c r="B74" t="n">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130.0042704383507</v>
+        <v>97.90371064349472</v>
       </c>
       <c r="B75" t="n">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>173.1537625825401</v>
+        <v>130.4940159352554</v>
       </c>
       <c r="B76" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>216.3032547267296</v>
+        <v>163.0843212270161</v>
       </c>
       <c r="B77" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>259.452746870919</v>
+        <v>195.6746265187768</v>
       </c>
       <c r="B78" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>302.6022390151085</v>
+        <v>228.2649318105375</v>
       </c>
       <c r="B79" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>345.7517311592979</v>
+        <v>260.8552371022982</v>
       </c>
       <c r="B80" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>388.9012233034873</v>
+        <v>293.4455423940589</v>
       </c>
       <c r="B81" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>432.0507154476767</v>
+        <v>326.0358476858196</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>475.2002075918662</v>
+        <v>358.6261529775803</v>
       </c>
       <c r="B83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>518.3496997360556</v>
+        <v>391.2164582693409</v>
       </c>
       <c r="B84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>561.499191880245</v>
+        <v>423.8067635611017</v>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>604.6486840244345</v>
+        <v>456.3970688528623</v>
       </c>
       <c r="B86" t="n">
         <v>6</v>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>647.7981761686239</v>
+        <v>488.9873741446231</v>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>690.9476683128133</v>
+        <v>521.5776794363837</v>
       </c>
       <c r="B88" t="n">
         <v>4</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>734.0971604570028</v>
+        <v>554.1679847281445</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>777.2466526011922</v>
+        <v>586.7582900199051</v>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>820.3961447453817</v>
+        <v>619.3485953116658</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>863.545636889571</v>
+        <v>651.9389006034265</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>906.6951290337605</v>
+        <v>684.5292058951871</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>949.8446211779499</v>
+        <v>717.1195111869479</v>
       </c>
       <c r="B94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>992.9941133221394</v>
+        <v>749.7098164787086</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1036.143605466329</v>
+        <v>782.3001217704692</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1079.293097610518</v>
+        <v>814.8904270622299</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1122.442589754708</v>
+        <v>847.4807323539907</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1165.592081898897</v>
+        <v>880.0710376457514</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1208.741574043087</v>
+        <v>912.661342937512</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1251.891066187276</v>
+        <v>945.2516482292727</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1295.040558331465</v>
+        <v>977.8419535210335</v>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1338.190050475655</v>
+        <v>1010.432258812794</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1381.339542619844</v>
+        <v>1043.022564104555</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1424.489034764034</v>
+        <v>1075.612869396315</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1467.638526908223</v>
+        <v>1108.203174688076</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-2.467076999860504e+69</v>
+        <v>-1.162115680619863e+74</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-2.396585525630765e+69</v>
+        <v>-1.128912375429054e+74</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-2.326094051401026e+69</v>
+        <v>-1.095709070238246e+74</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-2.255602577171287e+69</v>
+        <v>-1.062505765047437e+74</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-2.185111102941548e+69</v>
+        <v>-1.029302459856628e+74</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-2.114619628711809e+69</v>
+        <v>-9.960991546658194e+73</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-2.04412815448207e+69</v>
+        <v>-9.628958494750106e+73</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.973636680252331e+69</v>
+        <v>-9.29692544284202e+73</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.903145206022592e+69</v>
+        <v>-8.964892390933932e+73</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-1.832653731792853e+69</v>
+        <v>-8.632859339025846e+73</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1.762162257563114e+69</v>
+        <v>-8.300826287117759e+73</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1.691670783333375e+69</v>
+        <v>-7.968793235209671e+73</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.621179309103636e+69</v>
+        <v>-7.636760183301585e+73</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.550687834873897e+69</v>
+        <v>-7.304727131393498e+73</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.480196360644158e+69</v>
+        <v>-6.972694079485411e+73</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1.40970488641442e+69</v>
+        <v>-6.640661027577323e+73</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1.339213412184681e+69</v>
+        <v>-6.308627975669235e+73</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.268721937954942e+69</v>
+        <v>-5.976594923761149e+73</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.198230463725203e+69</v>
+        <v>-5.644561871853062e+73</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1.127738989495464e+69</v>
+        <v>-5.312528819944975e+73</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-1.057247515265725e+69</v>
+        <v>-4.980495768036888e+73</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-9.86756041035986e+68</v>
+        <v>-4.648462716128801e+73</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-9.16264566806247e+68</v>
+        <v>-4.316429664220714e+73</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-8.45773092576508e+68</v>
+        <v>-3.984396612312626e+73</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-7.752816183467692e+68</v>
+        <v>-3.65236356040454e+73</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-7.0479014411703e+68</v>
+        <v>-3.320330508496452e+73</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-6.342986698872912e+68</v>
+        <v>-2.988297456588366e+73</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-5.638071956575524e+68</v>
+        <v>-2.656264404680278e+73</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4.933157214278132e+68</v>
+        <v>-2.324231352772191e+73</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-4.228242471980744e+68</v>
+        <v>-1.992198300864104e+73</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-3.523327729683356e+68</v>
+        <v>-1.660165248956017e+73</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-2.818412987385964e+68</v>
+        <v>-1.32813219704793e+73</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-2.113498245088576e+68</v>
+        <v>-9.960991451398427e+72</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-1.408583502791188e+68</v>
+        <v>-6.640660932317551e+72</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-7.036687604937959e+67</v>
+        <v>-3.320330413236688e+72</v>
       </c>
       <c r="B141" t="n">
-        <v>9998</v>
+        <v>9999</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12721.56510840138</v>
+        <v>7595.696791813626</v>
       </c>
       <c r="B2" t="n">
-        <v>2847</v>
+        <v>2218</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>144629.8584019195</v>
+        <v>120709.4189546769</v>
       </c>
       <c r="B3" t="n">
-        <v>3195</v>
+        <v>3136</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>276538.1516954377</v>
+        <v>233823.1411175402</v>
       </c>
       <c r="B4" t="n">
-        <v>1754</v>
+        <v>1911</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>408446.4449889559</v>
+        <v>346936.8632804035</v>
       </c>
       <c r="B5" t="n">
-        <v>871</v>
+        <v>1073</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>540354.738282474</v>
+        <v>460050.5854432668</v>
       </c>
       <c r="B6" t="n">
-        <v>501</v>
+        <v>600</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>672263.0315759921</v>
+        <v>573164.30760613</v>
       </c>
       <c r="B7" t="n">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>804171.3248695104</v>
+        <v>686278.0297689933</v>
       </c>
       <c r="B8" t="n">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>936079.6181630285</v>
+        <v>799391.7519318566</v>
       </c>
       <c r="B9" t="n">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1067987.911456547</v>
+        <v>912505.4740947199</v>
       </c>
       <c r="B10" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1199896.204750065</v>
+        <v>1025619.196257583</v>
       </c>
       <c r="B11" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1331804.498043583</v>
+        <v>1138732.918420447</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1463712.791337101</v>
+        <v>1251846.64058331</v>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1595621.08463062</v>
+        <v>1364960.362746173</v>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1727529.377924138</v>
+        <v>1478074.084909036</v>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1859437.671217656</v>
+        <v>1591187.8070719</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1991345.964511174</v>
+        <v>1704301.529234763</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2123254.257804692</v>
+        <v>1817415.251397626</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2255162.55109821</v>
+        <v>1930528.973560489</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2387070.844391728</v>
+        <v>2043642.695723353</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2518979.137685246</v>
+        <v>2156756.417886216</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2650887.430978764</v>
+        <v>2269870.140049079</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2782795.724272283</v>
+        <v>2382983.862211943</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2914704.017565801</v>
+        <v>2496097.584374806</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3046612.310859319</v>
+        <v>2609211.306537669</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3178520.604152837</v>
+        <v>2722325.028700532</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3310428.897446355</v>
+        <v>2835438.750863396</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3442337.190739873</v>
+        <v>2948552.473026259</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3574245.484033391</v>
+        <v>3061666.195189123</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3706153.77732691</v>
+        <v>3174779.917351986</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3838062.070620428</v>
+        <v>3287893.639514849</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3969970.363913946</v>
+        <v>3401007.361677712</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4101878.657207464</v>
+        <v>3514121.083840576</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4233786.950500983</v>
+        <v>3627234.806003439</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4365695.243794501</v>
+        <v>3740348.528166302</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4497603.537088019</v>
+        <v>3853462.250329165</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251.5677677243398</v>
+        <v>179.2288218370888</v>
       </c>
       <c r="B37" t="n">
-        <v>1526</v>
+        <v>1591</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2281.604660122863</v>
+        <v>2269.614679060549</v>
       </c>
       <c r="B38" t="n">
-        <v>2860</v>
+        <v>2834</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4311.641552521385</v>
+        <v>4360.000536284008</v>
       </c>
       <c r="B39" t="n">
-        <v>1983</v>
+        <v>2064</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6341.678444919909</v>
+        <v>6450.386393507468</v>
       </c>
       <c r="B40" t="n">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8371.715337318432</v>
+        <v>8540.772250730928</v>
       </c>
       <c r="B41" t="n">
-        <v>809</v>
+        <v>771</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10401.75222971695</v>
+        <v>10631.15810795439</v>
       </c>
       <c r="B42" t="n">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12431.78912211548</v>
+        <v>12721.54396517785</v>
       </c>
       <c r="B43" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14461.826014514</v>
+        <v>14811.92982240131</v>
       </c>
       <c r="B44" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16491.86290691252</v>
+        <v>16902.31567962477</v>
       </c>
       <c r="B45" t="n">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18521.89979931105</v>
+        <v>18992.70153684823</v>
       </c>
       <c r="B46" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20551.93669170957</v>
+        <v>21083.08739407169</v>
       </c>
       <c r="B47" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22581.97358410809</v>
+        <v>23173.47325129515</v>
       </c>
       <c r="B48" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24612.01047650662</v>
+        <v>25263.85910851861</v>
       </c>
       <c r="B49" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26642.04736890514</v>
+        <v>27354.24496574207</v>
       </c>
       <c r="B50" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>28672.08426130366</v>
+        <v>29444.63082296553</v>
       </c>
       <c r="B51" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>30702.12115370218</v>
+        <v>31535.01668018899</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>32732.15804610071</v>
+        <v>33625.40253741245</v>
       </c>
       <c r="B53" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>34762.19493849923</v>
+        <v>35715.78839463591</v>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>36792.23183089775</v>
+        <v>37806.17425185937</v>
       </c>
       <c r="B55" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>38822.26872329627</v>
+        <v>39896.56010908283</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>40852.30561569479</v>
+        <v>41986.94596630629</v>
       </c>
       <c r="B57" t="n">
         <v>4</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>42882.34250809332</v>
+        <v>44077.33182352975</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>44912.37940049184</v>
+        <v>46167.71768075321</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>46942.41629289036</v>
+        <v>48258.10353797667</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>48972.45318528889</v>
+        <v>50348.48939520012</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>51002.49007768741</v>
+        <v>52438.87525242358</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>53032.52697008594</v>
+        <v>54529.26110964704</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>55062.56386248446</v>
+        <v>56619.6469668705</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>57092.60075488298</v>
+        <v>58710.03282409396</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>59122.6376472815</v>
+        <v>60800.41868131742</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>61152.67453968003</v>
+        <v>62890.80453854088</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>63182.71143207855</v>
+        <v>64981.19039576434</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>65212.74832447707</v>
+        <v>67071.57625298781</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>67242.78521687559</v>
+        <v>69161.96211021127</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>69272.82210927412</v>
+        <v>71252.34796743473</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1327947682126419</v>
+        <v>0.3952757287400038</v>
       </c>
       <c r="B72" t="n">
-        <v>5763</v>
+        <v>4541</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>32.72310005997333</v>
+        <v>22.97126414374753</v>
       </c>
       <c r="B73" t="n">
-        <v>2270</v>
+        <v>2430</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>65.31340535173403</v>
+        <v>45.54725255875505</v>
       </c>
       <c r="B74" t="n">
-        <v>883</v>
+        <v>1209</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>97.90371064349472</v>
+        <v>68.12324097376258</v>
       </c>
       <c r="B75" t="n">
-        <v>447</v>
+        <v>654</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130.4940159352554</v>
+        <v>90.69922938877009</v>
       </c>
       <c r="B76" t="n">
-        <v>209</v>
+        <v>359</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>163.0843212270161</v>
+        <v>113.2752178037776</v>
       </c>
       <c r="B77" t="n">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>195.6746265187768</v>
+        <v>135.8512062187852</v>
       </c>
       <c r="B78" t="n">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>228.2649318105375</v>
+        <v>158.4271946337927</v>
       </c>
       <c r="B79" t="n">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>260.8552371022982</v>
+        <v>181.0031830488002</v>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>293.4455423940589</v>
+        <v>203.5791714638077</v>
       </c>
       <c r="B81" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>326.0358476858196</v>
+        <v>226.1551598788152</v>
       </c>
       <c r="B82" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>358.6261529775803</v>
+        <v>248.7311482938228</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>391.2164582693409</v>
+        <v>271.3071367088303</v>
       </c>
       <c r="B84" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>423.8067635611017</v>
+        <v>293.8831251238378</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>456.3970688528623</v>
+        <v>316.4591135388453</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>488.9873741446231</v>
+        <v>339.0351019538528</v>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>521.5776794363837</v>
+        <v>361.6110903688603</v>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>554.1679847281445</v>
+        <v>384.1870787838679</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>586.7582900199051</v>
+        <v>406.7630671988754</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>619.3485953116658</v>
+        <v>429.3390556138829</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>651.9389006034265</v>
+        <v>451.9150440288904</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>684.5292058951871</v>
+        <v>474.491032443898</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>717.1195111869479</v>
+        <v>497.0670208589055</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>749.7098164787086</v>
+        <v>519.643009273913</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>782.3001217704692</v>
+        <v>542.2189976889206</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>814.8904270622299</v>
+        <v>564.7949861039281</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>847.4807323539907</v>
+        <v>587.3709745189356</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>880.0710376457514</v>
+        <v>609.946962933943</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>912.661342937512</v>
+        <v>632.5229513489506</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>945.2516482292727</v>
+        <v>655.0989397639581</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>977.8419535210335</v>
+        <v>677.6749281789656</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1010.432258812794</v>
+        <v>700.2509165939732</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1043.022564104555</v>
+        <v>722.8269050089807</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1075.612869396315</v>
+        <v>745.4028934239882</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1108.203174688076</v>
+        <v>767.9788818389958</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.162115680619863e+74</v>
+        <v>-2.72184596864575e+68</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.128912375429054e+74</v>
+        <v>-1.597788444497727e+68</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1.095709070238246e+74</v>
+        <v>-4.737309203497037e+67</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>9998</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.062505765047437e+74</v>
+        <v>6.503266037983191e+67</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-1.029302459856628e+74</v>
+        <v>1.774384127946342e+68</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-9.960991546658194e+73</v>
+        <v>2.898441652094364e+68</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-9.628958494750106e+73</v>
+        <v>4.022499176242388e+68</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-9.29692544284202e+73</v>
+        <v>5.146556700390411e+68</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-8.964892390933932e+73</v>
+        <v>6.270614224538434e+68</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-8.632859339025846e+73</v>
+        <v>7.394671748686456e+68</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-8.300826287117759e+73</v>
+        <v>8.518729272834478e+68</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-7.968793235209671e+73</v>
+        <v>9.642786796982502e+68</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-7.636760183301585e+73</v>
+        <v>1.076684432113052e+69</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-7.304727131393498e+73</v>
+        <v>1.189090184527855e+69</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-6.972694079485411e+73</v>
+        <v>1.301495936942657e+69</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-6.640661027577323e+73</v>
+        <v>1.41390168935746e+69</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-6.308627975669235e+73</v>
+        <v>1.526307441772262e+69</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-5.976594923761149e+73</v>
+        <v>1.638713194187064e+69</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-5.644561871853062e+73</v>
+        <v>1.751118946601866e+69</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-5.312528819944975e+73</v>
+        <v>1.863524699016668e+69</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-4.980495768036888e+73</v>
+        <v>1.975930451431471e+69</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-4.648462716128801e+73</v>
+        <v>2.088336203846273e+69</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-4.316429664220714e+73</v>
+        <v>2.200741956261076e+69</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-3.984396612312626e+73</v>
+        <v>2.313147708675878e+69</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-3.65236356040454e+73</v>
+        <v>2.42555346109068e+69</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-3.320330508496452e+73</v>
+        <v>2.537959213505482e+69</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-2.988297456588366e+73</v>
+        <v>2.650364965920285e+69</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-2.656264404680278e+73</v>
+        <v>2.762770718335087e+69</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-2.324231352772191e+73</v>
+        <v>2.875176470749889e+69</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.992198300864104e+73</v>
+        <v>2.987582223164692e+69</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.660165248956017e+73</v>
+        <v>3.099987975579494e+69</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1.32813219704793e+73</v>
+        <v>3.212393727994296e+69</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-9.960991451398427e+72</v>
+        <v>3.324799480409098e+69</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-6.640660932317551e+72</v>
+        <v>3.437205232823901e+69</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-3.320330413236688e+72</v>
+        <v>3.549610985238702e+69</v>
       </c>
       <c r="B141" t="n">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7595.696791813626</v>
+        <v>9978.814470087871</v>
       </c>
       <c r="B2" t="n">
-        <v>2218</v>
+        <v>2229</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>120709.4189546769</v>
+        <v>125806.257434858</v>
       </c>
       <c r="B3" t="n">
-        <v>3136</v>
+        <v>3090</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>233823.1411175402</v>
+        <v>241633.7003996281</v>
       </c>
       <c r="B4" t="n">
-        <v>1911</v>
+        <v>1920</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>346936.8632804035</v>
+        <v>357461.1433643983</v>
       </c>
       <c r="B5" t="n">
-        <v>1073</v>
+        <v>1039</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>460050.5854432668</v>
+        <v>473288.5863291684</v>
       </c>
       <c r="B6" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>573164.30760613</v>
+        <v>589116.0292939385</v>
       </c>
       <c r="B7" t="n">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>686278.0297689933</v>
+        <v>704943.4722587087</v>
       </c>
       <c r="B8" t="n">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>799391.7519318566</v>
+        <v>820770.9152234788</v>
       </c>
       <c r="B9" t="n">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>912505.4740947199</v>
+        <v>936598.3581882489</v>
       </c>
       <c r="B10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1025619.196257583</v>
+        <v>1052425.801153019</v>
       </c>
       <c r="B11" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1138732.918420447</v>
+        <v>1168253.244117789</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1251846.64058331</v>
+        <v>1284080.687082559</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1364960.362746173</v>
+        <v>1399908.130047329</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1478074.084909036</v>
+        <v>1515735.5730121</v>
       </c>
       <c r="B15" t="n">
         <v>22</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1591187.8070719</v>
+        <v>1631563.01597687</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1704301.529234763</v>
+        <v>1747390.45894164</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1817415.251397626</v>
+        <v>1863217.90190641</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1930528.973560489</v>
+        <v>1979045.34487118</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2043642.695723353</v>
+        <v>2094872.78783595</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2156756.417886216</v>
+        <v>2210700.23080072</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2269870.140049079</v>
+        <v>2326527.67376549</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2382983.862211943</v>
+        <v>2442355.11673026</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2496097.584374806</v>
+        <v>2558182.559695031</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2609211.306537669</v>
+        <v>2674010.002659801</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2722325.028700532</v>
+        <v>2789837.445624571</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2835438.750863396</v>
+        <v>2905664.888589341</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2948552.473026259</v>
+        <v>3021492.331554111</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3061666.195189123</v>
+        <v>3137319.774518881</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3174779.917351986</v>
+        <v>3253147.217483651</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3287893.639514849</v>
+        <v>3368974.660448421</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3401007.361677712</v>
+        <v>3484802.103413192</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3514121.083840576</v>
+        <v>3600629.546377962</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3627234.806003439</v>
+        <v>3716456.989342732</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3740348.528166302</v>
+        <v>3832284.432307502</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3853462.250329165</v>
+        <v>3948111.875272272</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>179.2288218370888</v>
+        <v>369.0257657194297</v>
       </c>
       <c r="B37" t="n">
-        <v>1591</v>
+        <v>2714</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2269.614679060549</v>
+        <v>3379.408933547917</v>
       </c>
       <c r="B38" t="n">
-        <v>2834</v>
+        <v>3226</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4360.000536284008</v>
+        <v>6389.792101376403</v>
       </c>
       <c r="B39" t="n">
-        <v>2064</v>
+        <v>1839</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6450.386393507468</v>
+        <v>9400.17526920489</v>
       </c>
       <c r="B40" t="n">
-        <v>1266</v>
+        <v>963</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8540.772250730928</v>
+        <v>12410.55843703338</v>
       </c>
       <c r="B41" t="n">
-        <v>771</v>
+        <v>490</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10631.15810795439</v>
+        <v>15420.94160486187</v>
       </c>
       <c r="B42" t="n">
-        <v>469</v>
+        <v>314</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12721.54396517785</v>
+        <v>18431.32477269035</v>
       </c>
       <c r="B43" t="n">
-        <v>340</v>
+        <v>177</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14811.92982240131</v>
+        <v>21441.70794051884</v>
       </c>
       <c r="B44" t="n">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16902.31567962477</v>
+        <v>24452.09110834733</v>
       </c>
       <c r="B45" t="n">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18992.70153684823</v>
+        <v>27462.47427617581</v>
       </c>
       <c r="B46" t="n">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21083.08739407169</v>
+        <v>30472.8574440043</v>
       </c>
       <c r="B47" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23173.47325129515</v>
+        <v>33483.24061183279</v>
       </c>
       <c r="B48" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25263.85910851861</v>
+        <v>36493.62377966127</v>
       </c>
       <c r="B49" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27354.24496574207</v>
+        <v>39504.00694748976</v>
       </c>
       <c r="B50" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>29444.63082296553</v>
+        <v>42514.39011531825</v>
       </c>
       <c r="B51" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>31535.01668018899</v>
+        <v>45524.77328314674</v>
       </c>
       <c r="B52" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>33625.40253741245</v>
+        <v>48535.15645097522</v>
       </c>
       <c r="B53" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>35715.78839463591</v>
+        <v>51545.5396188037</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>37806.17425185937</v>
+        <v>54555.9227866322</v>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>39896.56010908283</v>
+        <v>57566.30595446068</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>41986.94596630629</v>
+        <v>60576.68912228917</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>44077.33182352975</v>
+        <v>63587.07229011766</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>46167.71768075321</v>
+        <v>66597.45545794614</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>48258.10353797667</v>
+        <v>69607.83862577463</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>50348.48939520012</v>
+        <v>72618.22179360311</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>52438.87525242358</v>
+        <v>75628.6049614316</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>54529.26110964704</v>
+        <v>78638.98812926009</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>56619.6469668705</v>
+        <v>81649.37129708858</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>58710.03282409396</v>
+        <v>84659.75446491706</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>60800.41868131742</v>
+        <v>87670.13763274555</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62890.80453854088</v>
+        <v>90680.52080057404</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>64981.19039576434</v>
+        <v>93690.90396840252</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67071.57625298781</v>
+        <v>96701.28713623101</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69161.96211021127</v>
+        <v>99711.6703040595</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>71252.34796743473</v>
+        <v>102722.053471888</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3952757287400038</v>
+        <v>0.5139852902377576</v>
       </c>
       <c r="B72" t="n">
-        <v>4541</v>
+        <v>5802</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>22.97126414374753</v>
+        <v>36.35998663754268</v>
       </c>
       <c r="B73" t="n">
-        <v>2430</v>
+        <v>2222</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>45.54725255875505</v>
+        <v>72.20598798484761</v>
       </c>
       <c r="B74" t="n">
-        <v>1209</v>
+        <v>918</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>68.12324097376258</v>
+        <v>108.0519893321525</v>
       </c>
       <c r="B75" t="n">
-        <v>654</v>
+        <v>444</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>90.69922938877009</v>
+        <v>143.8979906794575</v>
       </c>
       <c r="B76" t="n">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>113.2752178037776</v>
+        <v>179.7439920267624</v>
       </c>
       <c r="B77" t="n">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>135.8512062187852</v>
+        <v>215.5899933740673</v>
       </c>
       <c r="B78" t="n">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>158.4271946337927</v>
+        <v>251.4359947213723</v>
       </c>
       <c r="B79" t="n">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>181.0031830488002</v>
+        <v>287.2819960686772</v>
       </c>
       <c r="B80" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>203.5791714638077</v>
+        <v>323.1279974159821</v>
       </c>
       <c r="B81" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>226.1551598788152</v>
+        <v>358.9739987632871</v>
       </c>
       <c r="B82" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>248.7311482938228</v>
+        <v>394.820000110592</v>
       </c>
       <c r="B83" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>271.3071367088303</v>
+        <v>430.6660014578969</v>
       </c>
       <c r="B84" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>293.8831251238378</v>
+        <v>466.5120028052018</v>
       </c>
       <c r="B85" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>316.4591135388453</v>
+        <v>502.3580041525067</v>
       </c>
       <c r="B86" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>339.0351019538528</v>
+        <v>538.2040054998117</v>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>361.6110903688603</v>
+        <v>574.0500068471166</v>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>384.1870787838679</v>
+        <v>609.8960081944215</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>406.7630671988754</v>
+        <v>645.7420095417265</v>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>429.3390556138829</v>
+        <v>681.5880108890314</v>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>451.9150440288904</v>
+        <v>717.4340122363363</v>
       </c>
       <c r="B92" t="n">
         <v>3</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>474.491032443898</v>
+        <v>753.2800135836412</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>497.0670208589055</v>
+        <v>789.1260149309462</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>519.643009273913</v>
+        <v>824.9720162782511</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>542.2189976889206</v>
+        <v>860.818017625556</v>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>564.7949861039281</v>
+        <v>896.664018972861</v>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>587.3709745189356</v>
+        <v>932.5100203201658</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>609.946962933943</v>
+        <v>968.3560216674708</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>632.5229513489506</v>
+        <v>1004.202023014776</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>655.0989397639581</v>
+        <v>1040.048024362081</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>677.6749281789656</v>
+        <v>1075.894025709386</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>700.2509165939732</v>
+        <v>1111.74002705669</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>722.8269050089807</v>
+        <v>1147.586028403995</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>745.4028934239882</v>
+        <v>1183.4320297513</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>767.9788818389958</v>
+        <v>1219.278031098605</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-2.72184596864575e+68</v>
+        <v>-1.071790134637556e+66</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.597788444497727e+68</v>
+        <v>-6.360900782364081e+65</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-4.737309203497037e+67</v>
+        <v>-2.003900218352604e+65</v>
       </c>
       <c r="B109" t="n">
-        <v>9998</v>
+        <v>9994</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>6.503266037983191e+67</v>
+        <v>2.353100345658872e+65</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.774384127946342e+68</v>
+        <v>6.71010090967035e+65</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.898441652094364e+68</v>
+        <v>1.106710147368183e+66</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4.022499176242388e+68</v>
+        <v>1.54241020376933e+66</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.146556700390411e+68</v>
+        <v>1.978110260170478e+66</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6.270614224538434e+68</v>
+        <v>2.413810316571626e+66</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>7.394671748686456e+68</v>
+        <v>2.849510372972773e+66</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>8.518729272834478e+68</v>
+        <v>3.285210429373921e+66</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.642786796982502e+68</v>
+        <v>3.720910485775069e+66</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.076684432113052e+69</v>
+        <v>4.156610542176216e+66</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.189090184527855e+69</v>
+        <v>4.592310598577364e+66</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.301495936942657e+69</v>
+        <v>5.028010654978511e+66</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.41390168935746e+69</v>
+        <v>5.46371071137966e+66</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.526307441772262e+69</v>
+        <v>5.899410767780807e+66</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.638713194187064e+69</v>
+        <v>6.335110824181955e+66</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.751118946601866e+69</v>
+        <v>6.770810880583101e+66</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.863524699016668e+69</v>
+        <v>7.206510936984249e+66</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.975930451431471e+69</v>
+        <v>7.642210993385397e+66</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.088336203846273e+69</v>
+        <v>8.077911049786545e+66</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.200741956261076e+69</v>
+        <v>8.513611106187694e+66</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.313147708675878e+69</v>
+        <v>8.949311162588842e+66</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.42555346109068e+69</v>
+        <v>9.385011218989987e+66</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.537959213505482e+69</v>
+        <v>9.820711275391135e+66</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.650364965920285e+69</v>
+        <v>1.025641133179228e+67</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.762770718335087e+69</v>
+        <v>1.069211138819343e+67</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.875176470749889e+69</v>
+        <v>1.112781144459458e+67</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.987582223164692e+69</v>
+        <v>1.156351150099573e+67</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3.099987975579494e+69</v>
+        <v>1.199921155739688e+67</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3.212393727994296e+69</v>
+        <v>1.243491161379802e+67</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3.324799480409098e+69</v>
+        <v>1.287061167019917e+67</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3.437205232823901e+69</v>
+        <v>1.330631172660032e+67</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3.549610985238702e+69</v>
+        <v>1.374201178300147e+67</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9978.814470087871</v>
+        <v>13211.61806651784</v>
       </c>
       <c r="B2" t="n">
-        <v>2229</v>
+        <v>2440</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>125806.257434858</v>
+        <v>136373.4987395024</v>
       </c>
       <c r="B3" t="n">
-        <v>3090</v>
+        <v>3180</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>241633.7003996281</v>
+        <v>259535.379412487</v>
       </c>
       <c r="B4" t="n">
-        <v>1920</v>
+        <v>1847</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>357461.1433643983</v>
+        <v>382697.2600854715</v>
       </c>
       <c r="B5" t="n">
-        <v>1039</v>
+        <v>988</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>473288.5863291684</v>
+        <v>505859.1407584561</v>
       </c>
       <c r="B6" t="n">
-        <v>610</v>
+        <v>534</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>589116.0292939385</v>
+        <v>629021.0214314407</v>
       </c>
       <c r="B7" t="n">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>704943.4722587087</v>
+        <v>752182.9021044252</v>
       </c>
       <c r="B8" t="n">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>820770.9152234788</v>
+        <v>875344.7827774099</v>
       </c>
       <c r="B9" t="n">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>936598.3581882489</v>
+        <v>998506.6634503944</v>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1052425.801153019</v>
+        <v>1121668.544123379</v>
       </c>
       <c r="B11" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1168253.244117789</v>
+        <v>1244830.424796364</v>
       </c>
       <c r="B12" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1284080.687082559</v>
+        <v>1367992.305469348</v>
       </c>
       <c r="B13" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1399908.130047329</v>
+        <v>1491154.186142333</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1515735.5730121</v>
+        <v>1614316.066815317</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1631563.01597687</v>
+        <v>1737477.947488302</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1747390.45894164</v>
+        <v>1860639.828161286</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1863217.90190641</v>
+        <v>1983801.708834271</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1979045.34487118</v>
+        <v>2106963.589507255</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2094872.78783595</v>
+        <v>2230125.47018024</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2210700.23080072</v>
+        <v>2353287.350853224</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2326527.67376549</v>
+        <v>2476449.231526209</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2442355.11673026</v>
+        <v>2599611.112199193</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2558182.559695031</v>
+        <v>2722772.992872178</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2674010.002659801</v>
+        <v>2845934.873545163</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2789837.445624571</v>
+        <v>2969096.754218147</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2905664.888589341</v>
+        <v>3092258.634891132</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3021492.331554111</v>
+        <v>3215420.515564116</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3137319.774518881</v>
+        <v>3338582.396237101</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3253147.217483651</v>
+        <v>3461744.276910086</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3368974.660448421</v>
+        <v>3584906.15758307</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3484802.103413192</v>
+        <v>3708068.038256055</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3600629.546377962</v>
+        <v>3831229.918929039</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3716456.989342732</v>
+        <v>3954391.799602024</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3832284.432307502</v>
+        <v>4077553.680275009</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3948111.875272272</v>
+        <v>4200715.560947993</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>369.0257657194297</v>
+        <v>271.4217682054698</v>
       </c>
       <c r="B37" t="n">
-        <v>2714</v>
+        <v>3104</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3379.408933547917</v>
+        <v>3418.00181695694</v>
       </c>
       <c r="B38" t="n">
-        <v>3226</v>
+        <v>3407</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6389.792101376403</v>
+        <v>6564.581865708411</v>
       </c>
       <c r="B39" t="n">
-        <v>1839</v>
+        <v>1713</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9400.17526920489</v>
+        <v>9711.161914459881</v>
       </c>
       <c r="B40" t="n">
-        <v>963</v>
+        <v>806</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12410.55843703338</v>
+        <v>12857.74196321135</v>
       </c>
       <c r="B41" t="n">
-        <v>490</v>
+        <v>405</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15420.94160486187</v>
+        <v>16004.32201196282</v>
       </c>
       <c r="B42" t="n">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18431.32477269035</v>
+        <v>19150.90206071429</v>
       </c>
       <c r="B43" t="n">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21441.70794051884</v>
+        <v>22297.48210946576</v>
       </c>
       <c r="B44" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>24452.09110834733</v>
+        <v>25444.06215821724</v>
       </c>
       <c r="B45" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>27462.47427617581</v>
+        <v>28590.64220696871</v>
       </c>
       <c r="B46" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>30472.8574440043</v>
+        <v>31737.22225572018</v>
       </c>
       <c r="B47" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33483.24061183279</v>
+        <v>34883.80230447165</v>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>36493.62377966127</v>
+        <v>38030.38235322312</v>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>39504.00694748976</v>
+        <v>41176.96240197459</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>42514.39011531825</v>
+        <v>44323.54245072606</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>45524.77328314674</v>
+        <v>47470.12249947753</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>48535.15645097522</v>
+        <v>50616.702548229</v>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>51545.5396188037</v>
+        <v>53763.28259698048</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54555.9227866322</v>
+        <v>56909.86264573195</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>57566.30595446068</v>
+        <v>60056.44269448342</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>60576.68912228917</v>
+        <v>63203.02274323489</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>63587.07229011766</v>
+        <v>66349.60279198636</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66597.45545794614</v>
+        <v>69496.18284073783</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69607.83862577463</v>
+        <v>72642.7628894893</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>72618.22179360311</v>
+        <v>75789.34293824076</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>75628.6049614316</v>
+        <v>78935.92298699224</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>78638.98812926009</v>
+        <v>82082.50303574371</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>81649.37129708858</v>
+        <v>85229.08308449519</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>84659.75446491706</v>
+        <v>88375.66313324665</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>87670.13763274555</v>
+        <v>91522.24318199813</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>90680.52080057404</v>
+        <v>94668.82323074959</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>93690.90396840252</v>
+        <v>97815.40327950107</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>96701.28713623101</v>
+        <v>100961.9833282525</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>99711.6703040595</v>
+        <v>104108.563377004</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>102722.053471888</v>
+        <v>107255.1434257555</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5139852902377576</v>
+        <v>0.5535045825835871</v>
       </c>
       <c r="B72" t="n">
-        <v>5802</v>
+        <v>5977</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>36.35998663754268</v>
+        <v>35.77638176658838</v>
       </c>
       <c r="B73" t="n">
-        <v>2222</v>
+        <v>2197</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>72.20598798484761</v>
+        <v>70.99925895059317</v>
       </c>
       <c r="B74" t="n">
-        <v>918</v>
+        <v>882</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>108.0519893321525</v>
+        <v>106.222136134598</v>
       </c>
       <c r="B75" t="n">
-        <v>444</v>
+        <v>373</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>143.8979906794575</v>
+        <v>141.4450133186028</v>
       </c>
       <c r="B76" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>179.7439920267624</v>
+        <v>176.6678905026076</v>
       </c>
       <c r="B77" t="n">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>215.5899933740673</v>
+        <v>211.8907676866123</v>
       </c>
       <c r="B78" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251.4359947213723</v>
+        <v>247.1136448706172</v>
       </c>
       <c r="B79" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>287.2819960686772</v>
+        <v>282.3365220546219</v>
       </c>
       <c r="B80" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>323.1279974159821</v>
+        <v>317.5593992386267</v>
       </c>
       <c r="B81" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>358.9739987632871</v>
+        <v>352.7822764226315</v>
       </c>
       <c r="B82" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>394.820000110592</v>
+        <v>388.0051536066363</v>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>430.6660014578969</v>
+        <v>423.2280307906411</v>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>466.5120028052018</v>
+        <v>458.4509079746459</v>
       </c>
       <c r="B85" t="n">
         <v>6</v>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>502.3580041525067</v>
+        <v>493.6737851586507</v>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>538.2040054998117</v>
+        <v>528.8966623426555</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>574.0500068471166</v>
+        <v>564.1195395266603</v>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>609.8960081944215</v>
+        <v>599.3424167106651</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>645.7420095417265</v>
+        <v>634.5652938946699</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>681.5880108890314</v>
+        <v>669.7881710786747</v>
       </c>
       <c r="B91" t="n">
         <v>2</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>717.4340122363363</v>
+        <v>705.0110482626795</v>
       </c>
       <c r="B92" t="n">
         <v>3</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>753.2800135836412</v>
+        <v>740.2339254466843</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>789.1260149309462</v>
+        <v>775.4568026306891</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>824.9720162782511</v>
+        <v>810.6796798146939</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>860.818017625556</v>
+        <v>845.9025569986986</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>896.664018972861</v>
+        <v>881.1254341827034</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>932.5100203201658</v>
+        <v>916.3483113667082</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>968.3560216674708</v>
+        <v>951.571188550713</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1004.202023014776</v>
+        <v>986.7940657347178</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1040.048024362081</v>
+        <v>1022.016942918723</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1075.894025709386</v>
+        <v>1057.239820102727</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1111.74002705669</v>
+        <v>1092.462697286732</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1147.586028403995</v>
+        <v>1127.685574470737</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1183.4320297513</v>
+        <v>1162.908451654742</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1219.278031098605</v>
+        <v>1198.131328838747</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.071790134637556e+66</v>
+        <v>-1.199795301388487e+67</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-6.360900782364081e+65</v>
+        <v>-6.89946362591455e+66</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-2.003900218352604e+65</v>
+        <v>-1.800974237944227e+66</v>
       </c>
       <c r="B109" t="n">
-        <v>9994</v>
+        <v>9997</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.353100345658872e+65</v>
+        <v>3.297515150026095e+66</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6.71010090967035e+65</v>
+        <v>8.39600453799642e+66</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.106710147368183e+66</v>
+        <v>1.349449392596674e+67</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.54241020376933e+66</v>
+        <v>1.859298331393707e+67</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.978110260170478e+66</v>
+        <v>2.369147270190739e+67</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.413810316571626e+66</v>
+        <v>2.878996208987771e+67</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.849510372972773e+66</v>
+        <v>3.388845147784804e+67</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.285210429373921e+66</v>
+        <v>3.898694086581836e+67</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3.720910485775069e+66</v>
+        <v>4.408543025378869e+67</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.156610542176216e+66</v>
+        <v>4.918391964175901e+67</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4.592310598577364e+66</v>
+        <v>5.428240902972933e+67</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5.028010654978511e+66</v>
+        <v>5.938089841769965e+67</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5.46371071137966e+66</v>
+        <v>6.447938780566999e+67</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5.899410767780807e+66</v>
+        <v>6.957787719364031e+67</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>6.335110824181955e+66</v>
+        <v>7.467636658161063e+67</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6.770810880583101e+66</v>
+        <v>7.977485596958095e+67</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>7.206510936984249e+66</v>
+        <v>8.487334535755126e+67</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7.642210993385397e+66</v>
+        <v>8.997183474552161e+67</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.077911049786545e+66</v>
+        <v>9.507032413349192e+67</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>8.513611106187694e+66</v>
+        <v>1.001688135214622e+68</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8.949311162588842e+66</v>
+        <v>1.052673029094326e+68</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9.385011218989987e+66</v>
+        <v>1.103657922974029e+68</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9.820711275391135e+66</v>
+        <v>1.154642816853732e+68</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.025641133179228e+67</v>
+        <v>1.205627710733435e+68</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.069211138819343e+67</v>
+        <v>1.256612604613139e+68</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.112781144459458e+67</v>
+        <v>1.307597498492842e+68</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.156351150099573e+67</v>
+        <v>1.358582392372545e+68</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.199921155739688e+67</v>
+        <v>1.409567286252248e+68</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.243491161379802e+67</v>
+        <v>1.460552180131952e+68</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.287061167019917e+67</v>
+        <v>1.511537074011655e+68</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.330631172660032e+67</v>
+        <v>1.562521967891358e+68</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.374201178300147e+67</v>
+        <v>1.613506861771061e+68</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13211.61806651784</v>
+        <v>11481.59279021623</v>
       </c>
       <c r="B2" t="n">
-        <v>2440</v>
+        <v>2562</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>136373.4987395024</v>
+        <v>133012.0662028549</v>
       </c>
       <c r="B3" t="n">
-        <v>3180</v>
+        <v>3041</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>259535.379412487</v>
+        <v>254542.5396154935</v>
       </c>
       <c r="B4" t="n">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>382697.2600854715</v>
+        <v>376073.0130281321</v>
       </c>
       <c r="B5" t="n">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>505859.1407584561</v>
+        <v>497603.4864407707</v>
       </c>
       <c r="B6" t="n">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>629021.0214314407</v>
+        <v>619133.9598534093</v>
       </c>
       <c r="B7" t="n">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>752182.9021044252</v>
+        <v>740664.433266048</v>
       </c>
       <c r="B8" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>875344.7827774099</v>
+        <v>862194.9066786866</v>
       </c>
       <c r="B9" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>998506.6634503944</v>
+        <v>983725.3800913253</v>
       </c>
       <c r="B10" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1121668.544123379</v>
+        <v>1105255.853503964</v>
       </c>
       <c r="B11" t="n">
         <v>56</v>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1244830.424796364</v>
+        <v>1226786.326916602</v>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1367992.305469348</v>
+        <v>1348316.800329241</v>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1491154.186142333</v>
+        <v>1469847.27374188</v>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1614316.066815317</v>
+        <v>1591377.747154518</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1737477.947488302</v>
+        <v>1712908.220567157</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1860639.828161286</v>
+        <v>1834438.693979796</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1983801.708834271</v>
+        <v>1955969.167392434</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2106963.589507255</v>
+        <v>2077499.640805073</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2230125.47018024</v>
+        <v>2199030.114217712</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2353287.350853224</v>
+        <v>2320560.58763035</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2476449.231526209</v>
+        <v>2442091.061042989</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2599611.112199193</v>
+        <v>2563621.534455628</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2722772.992872178</v>
+        <v>2685152.007868266</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2845934.873545163</v>
+        <v>2806682.481280905</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2969096.754218147</v>
+        <v>2928212.954693543</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3092258.634891132</v>
+        <v>3049743.428106182</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3215420.515564116</v>
+        <v>3171273.901518821</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3338582.396237101</v>
+        <v>3292804.374931459</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3461744.276910086</v>
+        <v>3414334.848344098</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3584906.15758307</v>
+        <v>3535865.321756736</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3708068.038256055</v>
+        <v>3657395.795169375</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3831229.918929039</v>
+        <v>3778926.268582014</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3954391.799602024</v>
+        <v>3900456.741994652</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4077553.680275009</v>
+        <v>4021987.215407291</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4200715.560947993</v>
+        <v>4143517.688819929</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>271.4217682054698</v>
+        <v>345.9736276620262</v>
       </c>
       <c r="B37" t="n">
-        <v>3104</v>
+        <v>2578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3418.00181695694</v>
+        <v>3204.052648950384</v>
       </c>
       <c r="B38" t="n">
-        <v>3407</v>
+        <v>3208</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6564.581865708411</v>
+        <v>6062.131670238742</v>
       </c>
       <c r="B39" t="n">
-        <v>1713</v>
+        <v>1884</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9711.161914459881</v>
+        <v>8920.2106915271</v>
       </c>
       <c r="B40" t="n">
-        <v>806</v>
+        <v>959</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12857.74196321135</v>
+        <v>11778.28971281546</v>
       </c>
       <c r="B41" t="n">
-        <v>405</v>
+        <v>543</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16004.32201196282</v>
+        <v>14636.36873410382</v>
       </c>
       <c r="B42" t="n">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19150.90206071429</v>
+        <v>17494.44775539218</v>
       </c>
       <c r="B43" t="n">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22297.48210946576</v>
+        <v>20352.52677668053</v>
       </c>
       <c r="B44" t="n">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>25444.06215821724</v>
+        <v>23210.60579796889</v>
       </c>
       <c r="B45" t="n">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>28590.64220696871</v>
+        <v>26068.68481925725</v>
       </c>
       <c r="B46" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>31737.22225572018</v>
+        <v>28926.76384054561</v>
       </c>
       <c r="B47" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>34883.80230447165</v>
+        <v>31784.84286183397</v>
       </c>
       <c r="B48" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>38030.38235322312</v>
+        <v>34642.92188312232</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>41176.96240197459</v>
+        <v>37501.00090441068</v>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>44323.54245072606</v>
+        <v>40359.07992569904</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>47470.12249947753</v>
+        <v>43217.15894698739</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>50616.702548229</v>
+        <v>46075.23796827575</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53763.28259698048</v>
+        <v>48933.31698956411</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>56909.86264573195</v>
+        <v>51791.39601085247</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>60056.44269448342</v>
+        <v>54649.47503214083</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>63203.02274323489</v>
+        <v>57507.55405342919</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>66349.60279198636</v>
+        <v>60365.63307471755</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>69496.18284073783</v>
+        <v>63223.7120960059</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>72642.7628894893</v>
+        <v>66081.79111729425</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>75789.34293824076</v>
+        <v>68939.87013858261</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>78935.92298699224</v>
+        <v>71797.94915987097</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>82082.50303574371</v>
+        <v>74656.02818115933</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>85229.08308449519</v>
+        <v>77514.10720244769</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>88375.66313324665</v>
+        <v>80372.18622373605</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>91522.24318199813</v>
+        <v>83230.26524502441</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>94668.82323074959</v>
+        <v>86088.34426631276</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>97815.40327950107</v>
+        <v>88946.42328760112</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>100961.9833282525</v>
+        <v>91804.50230888948</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>104108.563377004</v>
+        <v>94662.58133017784</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>107255.1434257555</v>
+        <v>97520.6603514662</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5535045825835871</v>
+        <v>0.6827510693494283</v>
       </c>
       <c r="B72" t="n">
-        <v>5977</v>
+        <v>5009</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>35.77638176658838</v>
+        <v>28.26435772081262</v>
       </c>
       <c r="B73" t="n">
-        <v>2197</v>
+        <v>2413</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>70.99925895059317</v>
+        <v>55.84596437227582</v>
       </c>
       <c r="B74" t="n">
-        <v>882</v>
+        <v>1122</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>106.222136134598</v>
+        <v>83.42757102373901</v>
       </c>
       <c r="B75" t="n">
-        <v>373</v>
+        <v>536</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>141.4450133186028</v>
+        <v>111.0091776752022</v>
       </c>
       <c r="B76" t="n">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>176.6678905026076</v>
+        <v>138.5907843266654</v>
       </c>
       <c r="B77" t="n">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>211.8907676866123</v>
+        <v>166.1723909781286</v>
       </c>
       <c r="B78" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>247.1136448706172</v>
+        <v>193.7539976295918</v>
       </c>
       <c r="B79" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>282.3365220546219</v>
+        <v>221.335604281055</v>
       </c>
       <c r="B80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>317.5593992386267</v>
+        <v>248.9172109325182</v>
       </c>
       <c r="B81" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>352.7822764226315</v>
+        <v>276.4988175839813</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>388.0051536066363</v>
+        <v>304.0804242354445</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>423.2280307906411</v>
+        <v>331.6620308869078</v>
       </c>
       <c r="B84" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>458.4509079746459</v>
+        <v>359.2436375383709</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>493.6737851586507</v>
+        <v>386.8252441898341</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>528.8966623426555</v>
+        <v>414.4068508412973</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>564.1195395266603</v>
+        <v>441.9884574927605</v>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>599.3424167106651</v>
+        <v>469.5700641442237</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>634.5652938946699</v>
+        <v>497.1516707956869</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>669.7881710786747</v>
+        <v>524.7332774471502</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>705.0110482626795</v>
+        <v>552.3148840986133</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>740.2339254466843</v>
+        <v>579.8964907500765</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>775.4568026306891</v>
+        <v>607.4780974015397</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>810.6796798146939</v>
+        <v>635.059704053003</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>845.9025569986986</v>
+        <v>662.6413107044662</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>881.1254341827034</v>
+        <v>690.2229173559293</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>916.3483113667082</v>
+        <v>717.8045240073925</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>951.571188550713</v>
+        <v>745.3861306588557</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>986.7940657347178</v>
+        <v>772.9677373103189</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1022.016942918723</v>
+        <v>800.5493439617821</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1057.239820102727</v>
+        <v>828.1309506132453</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1092.462697286732</v>
+        <v>855.7125572647085</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1127.685574470737</v>
+        <v>883.2941639161717</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1162.908451654742</v>
+        <v>910.8757705676348</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1198.131328838747</v>
+        <v>938.457377219098</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.199795301388487e+67</v>
+        <v>-5.369068521215557e+68</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-6.89946362591455e+66</v>
+        <v>-5.193842959371138e+68</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1.800974237944227e+66</v>
+        <v>-5.018617397526721e+68</v>
       </c>
       <c r="B109" t="n">
-        <v>9997</v>
+        <v>0</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3.297515150026095e+66</v>
+        <v>-4.843391835682302e+68</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.39600453799642e+66</v>
+        <v>-4.668166273837883e+68</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.349449392596674e+67</v>
+        <v>-4.492940711993465e+68</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.859298331393707e+67</v>
+        <v>-4.317715150149047e+68</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.369147270190739e+67</v>
+        <v>-4.142489588304628e+68</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.878996208987771e+67</v>
+        <v>-3.96726402646021e+68</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3.388845147784804e+67</v>
+        <v>-3.792038464615792e+68</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.898694086581836e+67</v>
+        <v>-3.616812902771373e+68</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.408543025378869e+67</v>
+        <v>-3.441587340926955e+68</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.918391964175901e+67</v>
+        <v>-3.266361779082536e+68</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5.428240902972933e+67</v>
+        <v>-3.091136217238118e+68</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5.938089841769965e+67</v>
+        <v>-2.915910655393699e+68</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6.447938780566999e+67</v>
+        <v>-2.740685093549281e+68</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6.957787719364031e+67</v>
+        <v>-2.565459531704863e+68</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>7.467636658161063e+67</v>
+        <v>-2.390233969860445e+68</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>7.977485596958095e+67</v>
+        <v>-2.215008408016026e+68</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8.487334535755126e+67</v>
+        <v>-2.039782846171608e+68</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>8.997183474552161e+67</v>
+        <v>-1.864557284327189e+68</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9.507032413349192e+67</v>
+        <v>-1.689331722482771e+68</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.001688135214622e+68</v>
+        <v>-1.514106160638352e+68</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.052673029094326e+68</v>
+        <v>-1.338880598793934e+68</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.103657922974029e+68</v>
+        <v>-1.163655036949516e+68</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.154642816853732e+68</v>
+        <v>-9.884294751050969e+67</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.205627710733435e+68</v>
+        <v>-8.132039132606791e+67</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.256612604613139e+68</v>
+        <v>-6.379783514162603e+67</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.307597498492842e+68</v>
+        <v>-4.627527895718416e+67</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.358582392372545e+68</v>
+        <v>-2.875272277274238e+67</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.409567286252248e+68</v>
+        <v>-1.12301665883005e+67</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>9996</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.460552180131952e+68</v>
+        <v>6.29238959614128e+66</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.511537074011655e+68</v>
+        <v>2.381494578058316e+67</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.562521967891358e+68</v>
+        <v>4.133750196502503e+67</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.613506861771061e+68</v>
+        <v>5.886005814946681e+67</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11481.59279021623</v>
+        <v>12108.41959709924</v>
       </c>
       <c r="B2" t="n">
-        <v>2562</v>
+        <v>3144</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>133012.0662028549</v>
+        <v>149222.5330156938</v>
       </c>
       <c r="B3" t="n">
-        <v>3041</v>
+        <v>3220</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>254542.5396154935</v>
+        <v>286336.6464342884</v>
       </c>
       <c r="B4" t="n">
-        <v>1849</v>
+        <v>1673</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>376073.0130281321</v>
+        <v>423450.759852883</v>
       </c>
       <c r="B5" t="n">
-        <v>996</v>
+        <v>874</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>497603.4864407707</v>
+        <v>560564.8732714775</v>
       </c>
       <c r="B6" t="n">
-        <v>569</v>
+        <v>440</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>619133.9598534093</v>
+        <v>697678.9866900721</v>
       </c>
       <c r="B7" t="n">
-        <v>351</v>
+        <v>249</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>740664.433266048</v>
+        <v>834793.1001086667</v>
       </c>
       <c r="B8" t="n">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>862194.9066786866</v>
+        <v>971907.2135272613</v>
       </c>
       <c r="B9" t="n">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>983725.3800913253</v>
+        <v>1109021.326945856</v>
       </c>
       <c r="B10" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1105255.853503964</v>
+        <v>1246135.44036445</v>
       </c>
       <c r="B11" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1226786.326916602</v>
+        <v>1383249.553783045</v>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1348316.800329241</v>
+        <v>1520363.66720164</v>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1469847.27374188</v>
+        <v>1657477.780620234</v>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1591377.747154518</v>
+        <v>1794591.894038829</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1712908.220567157</v>
+        <v>1931706.007457423</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1834438.693979796</v>
+        <v>2068820.120876018</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1955969.167392434</v>
+        <v>2205934.234294612</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2077499.640805073</v>
+        <v>2343048.347713207</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2199030.114217712</v>
+        <v>2480162.461131801</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2320560.58763035</v>
+        <v>2617276.574550396</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2442091.061042989</v>
+        <v>2754390.687968991</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2563621.534455628</v>
+        <v>2891504.801387585</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2685152.007868266</v>
+        <v>3028618.91480618</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2806682.481280905</v>
+        <v>3165733.028224775</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2928212.954693543</v>
+        <v>3302847.141643369</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3049743.428106182</v>
+        <v>3439961.255061964</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3171273.901518821</v>
+        <v>3577075.368480558</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3292804.374931459</v>
+        <v>3714189.481899153</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3414334.848344098</v>
+        <v>3851303.595317747</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3535865.321756736</v>
+        <v>3988417.708736342</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3657395.795169375</v>
+        <v>4125531.822154937</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3778926.268582014</v>
+        <v>4262645.935573531</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3900456.741994652</v>
+        <v>4399760.048992126</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4021987.215407291</v>
+        <v>4536874.162410721</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4143517.688819929</v>
+        <v>4673988.275829315</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>345.9736276620262</v>
+        <v>223.6462268935528</v>
       </c>
       <c r="B37" t="n">
-        <v>2578</v>
+        <v>1696</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3204.052648950384</v>
+        <v>2526.834173356245</v>
       </c>
       <c r="B38" t="n">
-        <v>3208</v>
+        <v>2909</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6062.131670238742</v>
+        <v>4830.022119818937</v>
       </c>
       <c r="B39" t="n">
-        <v>1884</v>
+        <v>1974</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8920.2106915271</v>
+        <v>7133.210066281628</v>
       </c>
       <c r="B40" t="n">
-        <v>959</v>
+        <v>1242</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11778.28971281546</v>
+        <v>9436.398012744319</v>
       </c>
       <c r="B41" t="n">
-        <v>543</v>
+        <v>797</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14636.36873410382</v>
+        <v>11739.58595920701</v>
       </c>
       <c r="B42" t="n">
-        <v>291</v>
+        <v>455</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17494.44775539218</v>
+        <v>14042.7739056697</v>
       </c>
       <c r="B43" t="n">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20352.52677668053</v>
+        <v>16345.9618521324</v>
       </c>
       <c r="B44" t="n">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23210.60579796889</v>
+        <v>18649.14979859509</v>
       </c>
       <c r="B45" t="n">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>26068.68481925725</v>
+        <v>20952.33774505778</v>
       </c>
       <c r="B46" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>28926.76384054561</v>
+        <v>23255.52569152047</v>
       </c>
       <c r="B47" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>31784.84286183397</v>
+        <v>25558.71363798316</v>
       </c>
       <c r="B48" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>34642.92188312232</v>
+        <v>27861.90158444586</v>
       </c>
       <c r="B49" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>37501.00090441068</v>
+        <v>30165.08953090855</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40359.07992569904</v>
+        <v>32468.27747737124</v>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43217.15894698739</v>
+        <v>34771.46542383393</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>46075.23796827575</v>
+        <v>37074.65337029662</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>48933.31698956411</v>
+        <v>39377.84131675931</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>51791.39601085247</v>
+        <v>41681.029263222</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54649.47503214083</v>
+        <v>43984.21720968469</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>57507.55405342919</v>
+        <v>46287.40515614738</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>60365.63307471755</v>
+        <v>48590.59310261008</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>63223.7120960059</v>
+        <v>50893.78104907277</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>66081.79111729425</v>
+        <v>53196.96899553546</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68939.87013858261</v>
+        <v>55500.15694199815</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>71797.94915987097</v>
+        <v>57803.34488846084</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>74656.02818115933</v>
+        <v>60106.53283492354</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>77514.10720244769</v>
+        <v>62409.72078138623</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>80372.18622373605</v>
+        <v>64712.90872784892</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>83230.26524502441</v>
+        <v>67016.09667431162</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>86088.34426631276</v>
+        <v>69319.28462077431</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>88946.42328760112</v>
+        <v>71622.472567237</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>91804.50230888948</v>
+        <v>73925.6605136997</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>94662.58133017784</v>
+        <v>76228.84846016239</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>97520.6603514662</v>
+        <v>78532.03640662508</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6827510693494283</v>
+        <v>0.5843731509531572</v>
       </c>
       <c r="B72" t="n">
-        <v>5009</v>
+        <v>7357</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>28.26435772081262</v>
+        <v>52.98717247589837</v>
       </c>
       <c r="B73" t="n">
-        <v>2413</v>
+        <v>1664</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>55.84596437227582</v>
+        <v>105.3899718008436</v>
       </c>
       <c r="B74" t="n">
-        <v>1122</v>
+        <v>514</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>83.42757102373901</v>
+        <v>157.7927711257888</v>
       </c>
       <c r="B75" t="n">
-        <v>536</v>
+        <v>206</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111.0091776752022</v>
+        <v>210.195570450734</v>
       </c>
       <c r="B76" t="n">
-        <v>331</v>
+        <v>92</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>138.5907843266654</v>
+        <v>262.5983697756793</v>
       </c>
       <c r="B77" t="n">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>166.1723909781286</v>
+        <v>315.0011691006245</v>
       </c>
       <c r="B78" t="n">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>193.7539976295918</v>
+        <v>367.4039684255697</v>
       </c>
       <c r="B79" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>221.335604281055</v>
+        <v>419.8067677505149</v>
       </c>
       <c r="B80" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>248.9172109325182</v>
+        <v>472.2095670754601</v>
       </c>
       <c r="B81" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>276.4988175839813</v>
+        <v>524.6123664004053</v>
       </c>
       <c r="B82" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>304.0804242354445</v>
+        <v>577.0151657253506</v>
       </c>
       <c r="B83" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>331.6620308869078</v>
+        <v>629.4179650502957</v>
       </c>
       <c r="B84" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>359.2436375383709</v>
+        <v>681.820764375241</v>
       </c>
       <c r="B85" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>386.8252441898341</v>
+        <v>734.2235637001862</v>
       </c>
       <c r="B86" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>414.4068508412973</v>
+        <v>786.6263630251314</v>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>441.9884574927605</v>
+        <v>839.0291623500766</v>
       </c>
       <c r="B88" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>469.5700641442237</v>
+        <v>891.4319616750219</v>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>497.1516707956869</v>
+        <v>943.834760999967</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>524.7332774471502</v>
+        <v>996.2375603249122</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>552.3148840986133</v>
+        <v>1048.640359649857</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>579.8964907500765</v>
+        <v>1101.043158974803</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>607.4780974015397</v>
+        <v>1153.445958299748</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>635.059704053003</v>
+        <v>1205.848757624693</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>662.6413107044662</v>
+        <v>1258.251556949638</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>690.2229173559293</v>
+        <v>1310.654356274584</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>717.8045240073925</v>
+        <v>1363.057155599529</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>745.3861306588557</v>
+        <v>1415.459954924474</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>772.9677373103189</v>
+        <v>1467.862754249419</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>800.5493439617821</v>
+        <v>1520.265553574364</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>828.1309506132453</v>
+        <v>1572.668352899309</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>855.7125572647085</v>
+        <v>1625.071152224255</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>883.2941639161717</v>
+        <v>1677.4739515492</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>910.8757705676348</v>
+        <v>1729.876750874145</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>938.457377219098</v>
+        <v>1782.27955019909</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-5.369068521215557e+68</v>
+        <v>-1.656455168611945e+72</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-5.193842959371138e+68</v>
+        <v>-1.608998619677097e+72</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-5.018617397526721e+68</v>
+        <v>-1.561542070742248e+72</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-4.843391835682302e+68</v>
+        <v>-1.5140855218074e+72</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-4.668166273837883e+68</v>
+        <v>-1.466628972872551e+72</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-4.492940711993465e+68</v>
+        <v>-1.419172423937703e+72</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-4.317715150149047e+68</v>
+        <v>-1.371715875002854e+72</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-4.142489588304628e+68</v>
+        <v>-1.324259326068006e+72</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-3.96726402646021e+68</v>
+        <v>-1.276802777133157e+72</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-3.792038464615792e+68</v>
+        <v>-1.229346228198309e+72</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-3.616812902771373e+68</v>
+        <v>-1.181889679263461e+72</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-3.441587340926955e+68</v>
+        <v>-1.134433130328612e+72</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-3.266361779082536e+68</v>
+        <v>-1.086976581393764e+72</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-3.091136217238118e+68</v>
+        <v>-1.039520032458915e+72</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-2.915910655393699e+68</v>
+        <v>-9.920634835240669e+71</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-2.740685093549281e+68</v>
+        <v>-9.446069345892184e+71</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-2.565459531704863e+68</v>
+        <v>-8.9715038565437e+71</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-2.390233969860445e+68</v>
+        <v>-8.496938367195215e+71</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-2.215008408016026e+68</v>
+        <v>-8.022372877846731e+71</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-2.039782846171608e+68</v>
+        <v>-7.547807388498247e+71</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-1.864557284327189e+68</v>
+        <v>-7.073241899149762e+71</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.689331722482771e+68</v>
+        <v>-6.598676409801278e+71</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.514106160638352e+68</v>
+        <v>-6.124110920452794e+71</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-1.338880598793934e+68</v>
+        <v>-5.649545431104309e+71</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-1.163655036949516e+68</v>
+        <v>-5.174979941755825e+71</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-9.884294751050969e+67</v>
+        <v>-4.700414452407341e+71</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-8.132039132606791e+67</v>
+        <v>-4.225848963058856e+71</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-6.379783514162603e+67</v>
+        <v>-3.751283473710372e+71</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4.627527895718416e+67</v>
+        <v>-3.276717984361888e+71</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-2.875272277274238e+67</v>
+        <v>-2.802152495013403e+71</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.12301665883005e+67</v>
+        <v>-2.327587005664919e+71</v>
       </c>
       <c r="B137" t="n">
-        <v>9996</v>
+        <v>0</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.29238959614128e+66</v>
+        <v>-1.853021516316434e+71</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.381494578058316e+67</v>
+        <v>-1.37845602696795e+71</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4.133750196502503e+67</v>
+        <v>-9.038905376194657e+70</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5.886005814946681e+67</v>
+        <v>-4.293250482709813e+70</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12108.41959709924</v>
+        <v>11488.59594779108</v>
       </c>
       <c r="B2" t="n">
-        <v>3144</v>
+        <v>2856</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>149222.5330156938</v>
+        <v>135410.0973150062</v>
       </c>
       <c r="B3" t="n">
-        <v>3220</v>
+        <v>3137</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>286336.6464342884</v>
+        <v>259331.5986822213</v>
       </c>
       <c r="B4" t="n">
-        <v>1673</v>
+        <v>1743</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>423450.759852883</v>
+        <v>383253.1000494364</v>
       </c>
       <c r="B5" t="n">
-        <v>874</v>
+        <v>939</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>560564.8732714775</v>
+        <v>507174.6014166515</v>
       </c>
       <c r="B6" t="n">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>697678.9866900721</v>
+        <v>631096.1027838666</v>
       </c>
       <c r="B7" t="n">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>834793.1001086667</v>
+        <v>755017.6041510818</v>
       </c>
       <c r="B8" t="n">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>971907.2135272613</v>
+        <v>878939.1055182968</v>
       </c>
       <c r="B9" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1109021.326945856</v>
+        <v>1002860.606885512</v>
       </c>
       <c r="B10" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1246135.44036445</v>
+        <v>1126782.108252727</v>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1383249.553783045</v>
+        <v>1250703.609619942</v>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1520363.66720164</v>
+        <v>1374625.110987157</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1657477.780620234</v>
+        <v>1498546.612354372</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1794591.894038829</v>
+        <v>1622468.113721587</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1931706.007457423</v>
+        <v>1746389.615088803</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2068820.120876018</v>
+        <v>1870311.116456018</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2205934.234294612</v>
+        <v>1994232.617823233</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2343048.347713207</v>
+        <v>2118154.119190447</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2480162.461131801</v>
+        <v>2242075.620557663</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2617276.574550396</v>
+        <v>2365997.121924878</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2754390.687968991</v>
+        <v>2489918.623292093</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2891504.801387585</v>
+        <v>2613840.124659308</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3028618.91480618</v>
+        <v>2737761.626026523</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3165733.028224775</v>
+        <v>2861683.127393738</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3302847.141643369</v>
+        <v>2985604.628760953</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3439961.255061964</v>
+        <v>3109526.130128169</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3577075.368480558</v>
+        <v>3233447.631495384</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3714189.481899153</v>
+        <v>3357369.132862599</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3851303.595317747</v>
+        <v>3481290.634229814</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3988417.708736342</v>
+        <v>3605212.135597029</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4125531.822154937</v>
+        <v>3729133.636964244</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4262645.935573531</v>
+        <v>3853055.138331459</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4399760.048992126</v>
+        <v>3976976.639698674</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4536874.162410721</v>
+        <v>4100898.141065889</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4673988.275829315</v>
+        <v>4224819.642433104</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>223.6462268935528</v>
+        <v>365.4443953833798</v>
       </c>
       <c r="B37" t="n">
-        <v>1696</v>
+        <v>3241</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2526.834173356245</v>
+        <v>3381.218093773411</v>
       </c>
       <c r="B38" t="n">
-        <v>2909</v>
+        <v>3337</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4830.022119818937</v>
+        <v>6396.991792163442</v>
       </c>
       <c r="B39" t="n">
-        <v>1974</v>
+        <v>1669</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7133.210066281628</v>
+        <v>9412.765490553473</v>
       </c>
       <c r="B40" t="n">
-        <v>1242</v>
+        <v>824</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9436.398012744319</v>
+        <v>12428.5391889435</v>
       </c>
       <c r="B41" t="n">
-        <v>797</v>
+        <v>387</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11739.58595920701</v>
+        <v>15444.31288733354</v>
       </c>
       <c r="B42" t="n">
-        <v>455</v>
+        <v>207</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14042.7739056697</v>
+        <v>18460.08658572357</v>
       </c>
       <c r="B43" t="n">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16345.9618521324</v>
+        <v>21475.8602841136</v>
       </c>
       <c r="B44" t="n">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18649.14979859509</v>
+        <v>24491.63398250363</v>
       </c>
       <c r="B45" t="n">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20952.33774505778</v>
+        <v>27507.40768089366</v>
       </c>
       <c r="B46" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23255.52569152047</v>
+        <v>30523.18137928369</v>
       </c>
       <c r="B47" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>25558.71363798316</v>
+        <v>33538.95507767373</v>
       </c>
       <c r="B48" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>27861.90158444586</v>
+        <v>36554.72877606376</v>
       </c>
       <c r="B49" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>30165.08953090855</v>
+        <v>39570.50247445379</v>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>32468.27747737124</v>
+        <v>42586.27617284382</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>34771.46542383393</v>
+        <v>45602.04987123385</v>
       </c>
       <c r="B52" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>37074.65337029662</v>
+        <v>48617.82356962388</v>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>39377.84131675931</v>
+        <v>51633.59726801392</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>41681.029263222</v>
+        <v>54649.37096640395</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43984.21720968469</v>
+        <v>57665.14466479398</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>46287.40515614738</v>
+        <v>60680.91836318401</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>48590.59310261008</v>
+        <v>63696.69206157404</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>50893.78104907277</v>
+        <v>66712.46575996408</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>53196.96899553546</v>
+        <v>69728.2394583541</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>55500.15694199815</v>
+        <v>72744.01315674413</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>57803.34488846084</v>
+        <v>75759.78685513417</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>60106.53283492354</v>
+        <v>78775.56055352419</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>62409.72078138623</v>
+        <v>81791.33425191423</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64712.90872784892</v>
+        <v>84807.10795030426</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>67016.09667431162</v>
+        <v>87822.8816486943</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>69319.28462077431</v>
+        <v>90838.65534708432</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>71622.472567237</v>
+        <v>93854.42904547436</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>73925.6605136997</v>
+        <v>96870.20274386439</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>76228.84846016239</v>
+        <v>99885.97644225441</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>78532.03640662508</v>
+        <v>102901.7501406444</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5843731509531572</v>
+        <v>0.3225061717944613</v>
       </c>
       <c r="B72" t="n">
-        <v>7357</v>
+        <v>7607</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>52.98717247589837</v>
+        <v>48.69588958094538</v>
       </c>
       <c r="B73" t="n">
-        <v>1664</v>
+        <v>1530</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>105.3899718008436</v>
+        <v>97.06927299009631</v>
       </c>
       <c r="B74" t="n">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>157.7927711257888</v>
+        <v>145.4426563992472</v>
       </c>
       <c r="B75" t="n">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>210.195570450734</v>
+        <v>193.8160398083982</v>
       </c>
       <c r="B76" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>262.5983697756793</v>
+        <v>242.1894232175491</v>
       </c>
       <c r="B77" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>315.0011691006245</v>
+        <v>290.5628066267</v>
       </c>
       <c r="B78" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>367.4039684255697</v>
+        <v>338.936190035851</v>
       </c>
       <c r="B79" t="n">
         <v>19</v>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>419.8067677505149</v>
+        <v>387.3095734450019</v>
       </c>
       <c r="B80" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>472.2095670754601</v>
+        <v>435.6829568541528</v>
       </c>
       <c r="B81" t="n">
         <v>8</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>524.6123664004053</v>
+        <v>484.0563402633038</v>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>577.0151657253506</v>
+        <v>532.4297236724547</v>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>629.4179650502957</v>
+        <v>580.8031070816055</v>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>681.820764375241</v>
+        <v>629.1764904907565</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>734.2235637001862</v>
+        <v>677.5498738999074</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>786.6263630251314</v>
+        <v>725.9232573090583</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>839.0291623500766</v>
+        <v>774.2966407182092</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>891.4319616750219</v>
+        <v>822.6700241273602</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>943.834760999967</v>
+        <v>871.043407536511</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>996.2375603249122</v>
+        <v>919.416790945662</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1048.640359649857</v>
+        <v>967.790174354813</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1101.043158974803</v>
+        <v>1016.163557763964</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1153.445958299748</v>
+        <v>1064.536941173115</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1205.848757624693</v>
+        <v>1112.910324582266</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1258.251556949638</v>
+        <v>1161.283707991417</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1310.654356274584</v>
+        <v>1209.657091400568</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1363.057155599529</v>
+        <v>1258.030474809718</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1415.459954924474</v>
+        <v>1306.403858218869</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1467.862754249419</v>
+        <v>1354.77724162802</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1520.265553574364</v>
+        <v>1403.150625037171</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1572.668352899309</v>
+        <v>1451.524008446322</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1625.071152224255</v>
+        <v>1499.897391855473</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1677.4739515492</v>
+        <v>1548.270775264624</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1729.876750874145</v>
+        <v>1596.644158673775</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1782.27955019909</v>
+        <v>1645.017542082926</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.656455168611945e+72</v>
+        <v>-1.266171273171845e+69</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.608998619677097e+72</v>
+        <v>-1.22925453745942e+69</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1.561542070742248e+72</v>
+        <v>-1.192337801746995e+69</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.5140855218074e+72</v>
+        <v>-1.15542106603457e+69</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-1.466628972872551e+72</v>
+        <v>-1.118504330322145e+69</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.419172423937703e+72</v>
+        <v>-1.08158759460972e+69</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1.371715875002854e+72</v>
+        <v>-1.044670858897295e+69</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.324259326068006e+72</v>
+        <v>-1.00775412318487e+69</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.276802777133157e+72</v>
+        <v>-9.708373874724448e+68</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-1.229346228198309e+72</v>
+        <v>-9.339206517600196e+68</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1.181889679263461e+72</v>
+        <v>-8.970039160475946e+68</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1.134433130328612e+72</v>
+        <v>-8.600871803351695e+68</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.086976581393764e+72</v>
+        <v>-8.231704446227444e+68</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.039520032458915e+72</v>
+        <v>-7.862537089103193e+68</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-9.920634835240669e+71</v>
+        <v>-7.493369731978944e+68</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-9.446069345892184e+71</v>
+        <v>-7.124202374854693e+68</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-8.9715038565437e+71</v>
+        <v>-6.755035017730442e+68</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-8.496938367195215e+71</v>
+        <v>-6.385867660606191e+68</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-8.022372877846731e+71</v>
+        <v>-6.01670030348194e+68</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-7.547807388498247e+71</v>
+        <v>-5.64753294635769e+68</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-7.073241899149762e+71</v>
+        <v>-5.278365589233439e+68</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-6.598676409801278e+71</v>
+        <v>-4.909198232109188e+68</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-6.124110920452794e+71</v>
+        <v>-4.540030874984937e+68</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-5.649545431104309e+71</v>
+        <v>-4.170863517860686e+68</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-5.174979941755825e+71</v>
+        <v>-3.801696160736436e+68</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-4.700414452407341e+71</v>
+        <v>-3.432528803612186e+68</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-4.225848963058856e+71</v>
+        <v>-3.063361446487934e+68</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-3.751283473710372e+71</v>
+        <v>-2.694194089363684e+68</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-3.276717984361888e+71</v>
+        <v>-2.325026732239434e+68</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-2.802152495013403e+71</v>
+        <v>-1.955859375115182e+68</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-2.327587005664919e+71</v>
+        <v>-1.586692017990932e+68</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1.853021516316434e+71</v>
+        <v>-1.21752466086668e+68</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-1.37845602696795e+71</v>
+        <v>-8.483573037424304e+67</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-9.038905376194657e+70</v>
+        <v>-4.791899466181805e+67</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-4.293250482709813e+70</v>
+        <v>-1.100225894939286e+67</v>
       </c>
       <c r="B141" t="n">
-        <v>9999</v>
+        <v>9998</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11488.59594779108</v>
+        <v>12600.35989651984</v>
       </c>
       <c r="B2" t="n">
-        <v>2856</v>
+        <v>1860</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>135410.0973150062</v>
+        <v>105627.1089989535</v>
       </c>
       <c r="B3" t="n">
-        <v>3137</v>
+        <v>2876</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>259331.5986822213</v>
+        <v>198653.858101387</v>
       </c>
       <c r="B4" t="n">
-        <v>1743</v>
+        <v>1929</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>383253.1000494364</v>
+        <v>291680.6072038207</v>
       </c>
       <c r="B5" t="n">
-        <v>939</v>
+        <v>1156</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>507174.6014166515</v>
+        <v>384707.3563062543</v>
       </c>
       <c r="B6" t="n">
-        <v>505</v>
+        <v>712</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>631096.1027838666</v>
+        <v>477734.1054086879</v>
       </c>
       <c r="B7" t="n">
-        <v>298</v>
+        <v>498</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>755017.6041510818</v>
+        <v>570760.8545111214</v>
       </c>
       <c r="B8" t="n">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>878939.1055182968</v>
+        <v>663787.6036135551</v>
       </c>
       <c r="B9" t="n">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1002860.606885512</v>
+        <v>756814.3527159886</v>
       </c>
       <c r="B10" t="n">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1126782.108252727</v>
+        <v>849841.1018184222</v>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1250703.609619942</v>
+        <v>942867.8509208559</v>
       </c>
       <c r="B12" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1374625.110987157</v>
+        <v>1035894.600023289</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1498546.612354372</v>
+        <v>1128921.349125723</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1622468.113721587</v>
+        <v>1221948.098228157</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1746389.615088803</v>
+        <v>1314974.84733059</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1870311.116456018</v>
+        <v>1408001.596433024</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1994232.617823233</v>
+        <v>1501028.345535458</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2118154.119190447</v>
+        <v>1594055.094637891</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2242075.620557663</v>
+        <v>1687081.843740325</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2365997.121924878</v>
+        <v>1780108.592842758</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2489918.623292093</v>
+        <v>1873135.341945192</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2613840.124659308</v>
+        <v>1966162.091047626</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2737761.626026523</v>
+        <v>2059188.840150059</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2861683.127393738</v>
+        <v>2152215.589252492</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2985604.628760953</v>
+        <v>2245242.338354926</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3109526.130128169</v>
+        <v>2338269.08745736</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3233447.631495384</v>
+        <v>2431295.836559793</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3357369.132862599</v>
+        <v>2524322.585662227</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3481290.634229814</v>
+        <v>2617349.334764661</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3605212.135597029</v>
+        <v>2710376.083867094</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3729133.636964244</v>
+        <v>2803402.832969528</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3853055.138331459</v>
+        <v>2896429.582071961</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3976976.639698674</v>
+        <v>2989456.331174395</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4100898.141065889</v>
+        <v>3082483.080276829</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4224819.642433104</v>
+        <v>3175509.829379262</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>365.4443953833798</v>
+        <v>362.1121993617887</v>
       </c>
       <c r="B37" t="n">
-        <v>3241</v>
+        <v>2970</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3381.218093773411</v>
+        <v>3290.386017336832</v>
       </c>
       <c r="B38" t="n">
-        <v>3337</v>
+        <v>3267</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6396.991792163442</v>
+        <v>6218.659835311876</v>
       </c>
       <c r="B39" t="n">
-        <v>1669</v>
+        <v>1745</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9412.765490553473</v>
+        <v>9146.93365328692</v>
       </c>
       <c r="B40" t="n">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12428.5391889435</v>
+        <v>12075.20747126196</v>
       </c>
       <c r="B41" t="n">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15444.31288733354</v>
+        <v>15003.48128923701</v>
       </c>
       <c r="B42" t="n">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18460.08658572357</v>
+        <v>17931.75510721205</v>
       </c>
       <c r="B43" t="n">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21475.8602841136</v>
+        <v>20860.02892518709</v>
       </c>
       <c r="B44" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>24491.63398250363</v>
+        <v>23788.30274316214</v>
       </c>
       <c r="B45" t="n">
         <v>56</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>27507.40768089366</v>
+        <v>26716.57656113718</v>
       </c>
       <c r="B46" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>30523.18137928369</v>
+        <v>29644.85037911222</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33538.95507767373</v>
+        <v>32573.12419708727</v>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>36554.72877606376</v>
+        <v>35501.39801506231</v>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>39570.50247445379</v>
+        <v>38429.67183303736</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>42586.27617284382</v>
+        <v>41357.94565101239</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>45602.04987123385</v>
+        <v>44286.21946898744</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>48617.82356962388</v>
+        <v>47214.49328696248</v>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>51633.59726801392</v>
+        <v>50142.76710493753</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54649.37096640395</v>
+        <v>53071.04092291257</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>57665.14466479398</v>
+        <v>55999.31474088761</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>60680.91836318401</v>
+        <v>58927.58855886266</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>63696.69206157404</v>
+        <v>61855.8623768377</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66712.46575996408</v>
+        <v>64784.13619481275</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69728.2394583541</v>
+        <v>67712.41001278779</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>72744.01315674413</v>
+        <v>70640.68383076283</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>75759.78685513417</v>
+        <v>73568.95764873788</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>78775.56055352419</v>
+        <v>76497.23146671292</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>81791.33425191423</v>
+        <v>79425.50528468796</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>84807.10795030426</v>
+        <v>82353.779102663</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>87822.8816486943</v>
+        <v>85282.05292063805</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>90838.65534708432</v>
+        <v>88210.32673861309</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>93854.42904547436</v>
+        <v>91138.60055658814</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>96870.20274386439</v>
+        <v>94066.87437456318</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>99885.97644225441</v>
+        <v>96995.14819253822</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>102901.7501406444</v>
+        <v>99923.42201051327</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3225061717944613</v>
+        <v>0.6099699960287827</v>
       </c>
       <c r="B72" t="n">
-        <v>7607</v>
+        <v>6561</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>48.69588958094538</v>
+        <v>37.57930450747941</v>
       </c>
       <c r="B73" t="n">
-        <v>1530</v>
+        <v>2013</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>97.06927299009631</v>
+        <v>74.54863901893003</v>
       </c>
       <c r="B74" t="n">
-        <v>456</v>
+        <v>677</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>145.4426563992472</v>
+        <v>111.5179735303807</v>
       </c>
       <c r="B75" t="n">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>193.8160398083982</v>
+        <v>148.4873080418313</v>
       </c>
       <c r="B76" t="n">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>242.1894232175491</v>
+        <v>185.4566425532819</v>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>290.5628066267</v>
+        <v>222.4259770647325</v>
       </c>
       <c r="B78" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>338.936190035851</v>
+        <v>259.3953115761832</v>
       </c>
       <c r="B79" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>387.3095734450019</v>
+        <v>296.3646460876338</v>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>435.6829568541528</v>
+        <v>333.3339805990844</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>484.0563402633038</v>
+        <v>370.303315110535</v>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>532.4297236724547</v>
+        <v>407.2726496219857</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>580.8031070816055</v>
+        <v>444.2419841334363</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>629.1764904907565</v>
+        <v>481.2113186448869</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>677.5498738999074</v>
+        <v>518.1806531563376</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>725.9232573090583</v>
+        <v>555.1499876677882</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>774.2966407182092</v>
+        <v>592.1193221792388</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>822.6700241273602</v>
+        <v>629.0886566906894</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>871.043407536511</v>
+        <v>666.05799120214</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>919.416790945662</v>
+        <v>703.0273257135907</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>967.790174354813</v>
+        <v>739.9966602250413</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1016.163557763964</v>
+        <v>776.9659947364919</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1064.536941173115</v>
+        <v>813.9353292479426</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1112.910324582266</v>
+        <v>850.9046637593932</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1161.283707991417</v>
+        <v>887.8739982708438</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1209.657091400568</v>
+        <v>924.8433327822944</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1258.030474809718</v>
+        <v>961.812667293745</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1306.403858218869</v>
+        <v>998.7820018051957</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1354.77724162802</v>
+        <v>1035.751336316647</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1403.150625037171</v>
+        <v>1072.720670828097</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1451.524008446322</v>
+        <v>1109.690005339548</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1499.897391855473</v>
+        <v>1146.659339850998</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1548.270775264624</v>
+        <v>1183.628674362449</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1596.644158673775</v>
+        <v>1220.5980088739</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1645.017542082926</v>
+        <v>1257.56734338535</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.266171273171845e+69</v>
+        <v>-5.513188639317512e+65</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.22925453745942e+69</v>
+        <v>1.946416033779243e+70</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1.192337801746995e+69</v>
+        <v>3.892887199444879e+70</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.15542106603457e+69</v>
+        <v>5.839358365110516e+70</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-1.118504330322145e+69</v>
+        <v>7.785829530776152e+70</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.08158759460972e+69</v>
+        <v>9.732300696441788e+70</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1.044670858897295e+69</v>
+        <v>1.167877186210742e+71</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.00775412318487e+69</v>
+        <v>1.362524302777306e+71</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-9.708373874724448e+68</v>
+        <v>1.55717141934387e+71</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-9.339206517600196e+68</v>
+        <v>1.751818535910433e+71</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-8.970039160475946e+68</v>
+        <v>1.946465652476997e+71</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-8.600871803351695e+68</v>
+        <v>2.141112769043561e+71</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-8.231704446227444e+68</v>
+        <v>2.335759885610124e+71</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-7.862537089103193e+68</v>
+        <v>2.530407002176688e+71</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-7.493369731978944e+68</v>
+        <v>2.725054118743251e+71</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-7.124202374854693e+68</v>
+        <v>2.919701235309815e+71</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-6.755035017730442e+68</v>
+        <v>3.114348351876379e+71</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-6.385867660606191e+68</v>
+        <v>3.308995468442942e+71</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-6.01670030348194e+68</v>
+        <v>3.503642585009506e+71</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-5.64753294635769e+68</v>
+        <v>3.698289701576069e+71</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-5.278365589233439e+68</v>
+        <v>3.892936818142633e+71</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-4.909198232109188e+68</v>
+        <v>4.087583934709197e+71</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-4.540030874984937e+68</v>
+        <v>4.28223105127576e+71</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-4.170863517860686e+68</v>
+        <v>4.476878167842323e+71</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-3.801696160736436e+68</v>
+        <v>4.671525284408887e+71</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-3.432528803612186e+68</v>
+        <v>4.866172400975451e+71</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-3.063361446487934e+68</v>
+        <v>5.060819517542015e+71</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-2.694194089363684e+68</v>
+        <v>5.255466634108578e+71</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-2.325026732239434e+68</v>
+        <v>5.450113750675142e+71</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.955859375115182e+68</v>
+        <v>5.644760867241705e+71</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.586692017990932e+68</v>
+        <v>5.839407983808268e+71</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1.21752466086668e+68</v>
+        <v>6.034055100374832e+71</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-8.483573037424304e+67</v>
+        <v>6.228702216941396e+71</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-4.791899466181805e+67</v>
+        <v>6.42334933350796e+71</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-1.100225894939286e+67</v>
+        <v>6.617996450074524e+71</v>
       </c>
       <c r="B141" t="n">
-        <v>9998</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12600.35989651984</v>
+        <v>11509.39156319282</v>
       </c>
       <c r="B2" t="n">
-        <v>1860</v>
+        <v>4561</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105627.1089989535</v>
+        <v>193413.9987925992</v>
       </c>
       <c r="B3" t="n">
-        <v>2876</v>
+        <v>3141</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>198653.858101387</v>
+        <v>375318.6060220056</v>
       </c>
       <c r="B4" t="n">
-        <v>1929</v>
+        <v>1241</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>291680.6072038207</v>
+        <v>557223.213251412</v>
       </c>
       <c r="B5" t="n">
-        <v>1156</v>
+        <v>534</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>384707.3563062543</v>
+        <v>739127.8204808184</v>
       </c>
       <c r="B6" t="n">
-        <v>712</v>
+        <v>228</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>477734.1054086879</v>
+        <v>921032.4277102248</v>
       </c>
       <c r="B7" t="n">
-        <v>498</v>
+        <v>124</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>570760.8545111214</v>
+        <v>1102937.034939631</v>
       </c>
       <c r="B8" t="n">
-        <v>290</v>
+        <v>63</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>663787.6036135551</v>
+        <v>1284841.642169037</v>
       </c>
       <c r="B9" t="n">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>756814.3527159886</v>
+        <v>1466746.249398444</v>
       </c>
       <c r="B10" t="n">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>849841.1018184222</v>
+        <v>1648650.85662785</v>
       </c>
       <c r="B11" t="n">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>942867.8509208559</v>
+        <v>1830555.463857257</v>
       </c>
       <c r="B12" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1035894.600023289</v>
+        <v>2012460.071086663</v>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1128921.349125723</v>
+        <v>2194364.67831607</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1221948.098228157</v>
+        <v>2376269.285545476</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1314974.84733059</v>
+        <v>2558173.892774882</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1408001.596433024</v>
+        <v>2740078.500004289</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1501028.345535458</v>
+        <v>2921983.107233695</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1594055.094637891</v>
+        <v>3103887.714463102</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1687081.843740325</v>
+        <v>3285792.321692508</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1780108.592842758</v>
+        <v>3467696.928921914</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1873135.341945192</v>
+        <v>3649601.536151321</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1966162.091047626</v>
+        <v>3831506.143380727</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2059188.840150059</v>
+        <v>4013410.750610134</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2152215.589252492</v>
+        <v>4195315.35783954</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2245242.338354926</v>
+        <v>4377219.965068947</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2338269.08745736</v>
+        <v>4559124.572298353</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2431295.836559793</v>
+        <v>4741029.17952776</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2524322.585662227</v>
+        <v>4922933.786757166</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2617349.334764661</v>
+        <v>5104838.393986572</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2710376.083867094</v>
+        <v>5286743.001215979</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2803402.832969528</v>
+        <v>5468647.608445385</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2896429.582071961</v>
+        <v>5650552.215674791</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2989456.331174395</v>
+        <v>5832456.822904197</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3082483.080276829</v>
+        <v>6014361.430133604</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3175509.829379262</v>
+        <v>6196266.03736301</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>362.1121993617887</v>
+        <v>377.6512584175425</v>
       </c>
       <c r="B37" t="n">
-        <v>2970</v>
+        <v>1844</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3290.386017336832</v>
+        <v>2558.991049199498</v>
       </c>
       <c r="B38" t="n">
-        <v>3267</v>
+        <v>2860</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6218.659835311876</v>
+        <v>4740.330839981453</v>
       </c>
       <c r="B39" t="n">
-        <v>1745</v>
+        <v>2040</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9146.93365328692</v>
+        <v>6921.670630763409</v>
       </c>
       <c r="B40" t="n">
-        <v>859</v>
+        <v>1191</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12075.20747126196</v>
+        <v>9103.010421545363</v>
       </c>
       <c r="B41" t="n">
-        <v>485</v>
+        <v>702</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15003.48128923701</v>
+        <v>11284.35021232732</v>
       </c>
       <c r="B42" t="n">
-        <v>269</v>
+        <v>461</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17931.75510721205</v>
+        <v>13465.69000310927</v>
       </c>
       <c r="B43" t="n">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20860.02892518709</v>
+        <v>15647.02979389123</v>
       </c>
       <c r="B44" t="n">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23788.30274316214</v>
+        <v>17828.36958467319</v>
       </c>
       <c r="B45" t="n">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>26716.57656113718</v>
+        <v>20009.70937545514</v>
       </c>
       <c r="B46" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>29644.85037911222</v>
+        <v>22191.0491662371</v>
       </c>
       <c r="B47" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>32573.12419708727</v>
+        <v>24372.38895701905</v>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>35501.39801506231</v>
+        <v>26553.72874780101</v>
       </c>
       <c r="B49" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>38429.67183303736</v>
+        <v>28735.06853858296</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>41357.94565101239</v>
+        <v>30916.40832936492</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>44286.21946898744</v>
+        <v>33097.74812014687</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>47214.49328696248</v>
+        <v>35279.08791092883</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>50142.76710493753</v>
+        <v>37460.42770171078</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53071.04092291257</v>
+        <v>39641.76749249274</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55999.31474088761</v>
+        <v>41823.10728327469</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>58927.58855886266</v>
+        <v>44004.44707405665</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>61855.8623768377</v>
+        <v>46185.78686483861</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>64784.13619481275</v>
+        <v>48367.12665562056</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67712.41001278779</v>
+        <v>50548.46644640252</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>70640.68383076283</v>
+        <v>52729.80623718447</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>73568.95764873788</v>
+        <v>54911.14602796642</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>76497.23146671292</v>
+        <v>57092.48581874838</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>79425.50528468796</v>
+        <v>59273.82560953034</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>82353.779102663</v>
+        <v>61455.16540031229</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>85282.05292063805</v>
+        <v>63636.50519109425</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>88210.32673861309</v>
+        <v>65817.8449818762</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>91138.60055658814</v>
+        <v>67999.18477265815</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>94066.87437456318</v>
+        <v>70180.52456344011</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>96995.14819253822</v>
+        <v>72361.86435422207</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>99923.42201051327</v>
+        <v>74543.20414500401</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6099699960287827</v>
+        <v>0.2152788089249714</v>
       </c>
       <c r="B72" t="n">
-        <v>6561</v>
+        <v>5510</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37.57930450747941</v>
+        <v>28.1742938005127</v>
       </c>
       <c r="B73" t="n">
-        <v>2013</v>
+        <v>2310</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>74.54863901893003</v>
+        <v>56.13330879210043</v>
       </c>
       <c r="B74" t="n">
-        <v>677</v>
+        <v>964</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111.5179735303807</v>
+        <v>84.09232378368816</v>
       </c>
       <c r="B75" t="n">
-        <v>335</v>
+        <v>474</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>148.4873080418313</v>
+        <v>112.0513387752759</v>
       </c>
       <c r="B76" t="n">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>185.4566425532819</v>
+        <v>140.0103537668636</v>
       </c>
       <c r="B77" t="n">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>222.4259770647325</v>
+        <v>167.9693687584513</v>
       </c>
       <c r="B78" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>259.3953115761832</v>
+        <v>195.9283837500391</v>
       </c>
       <c r="B79" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>296.3646460876338</v>
+        <v>223.8873987416268</v>
       </c>
       <c r="B80" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>333.3339805990844</v>
+        <v>251.8464137332145</v>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>370.303315110535</v>
+        <v>279.8054287248023</v>
       </c>
       <c r="B82" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>407.2726496219857</v>
+        <v>307.76444371639</v>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>444.2419841334363</v>
+        <v>335.7234587079777</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>481.2113186448869</v>
+        <v>363.6824736995654</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>518.1806531563376</v>
+        <v>391.6414886911531</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>555.1499876677882</v>
+        <v>419.6005036827409</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>592.1193221792388</v>
+        <v>447.5595186743286</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>629.0886566906894</v>
+        <v>475.5185336659163</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>666.05799120214</v>
+        <v>503.4775486575041</v>
       </c>
       <c r="B90" t="n">
         <v>2</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>703.0273257135907</v>
+        <v>531.4365636490918</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>739.9966602250413</v>
+        <v>559.3955786406796</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>776.9659947364919</v>
+        <v>587.3545936322672</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>813.9353292479426</v>
+        <v>615.313608623855</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>850.9046637593932</v>
+        <v>643.2726236154427</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>887.8739982708438</v>
+        <v>671.2316386070304</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>924.8433327822944</v>
+        <v>699.1906535986182</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>961.812667293745</v>
+        <v>727.1496685902059</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>998.7820018051957</v>
+        <v>755.1086835817937</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1035.751336316647</v>
+        <v>783.0676985733813</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1072.720670828097</v>
+        <v>811.0267135649691</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1109.690005339548</v>
+        <v>838.9857285565569</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1146.659339850998</v>
+        <v>866.9447435481445</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1183.628674362449</v>
+        <v>894.9037585397323</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1220.5980088739</v>
+        <v>922.86277353132</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1257.56734338535</v>
+        <v>950.8217885229077</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-5.513188639317512e+65</v>
+        <v>-1.44571878295272e+67</v>
       </c>
       <c r="B107" t="n">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.946416033779243e+70</v>
+        <v>-1.310299015240467e+67</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3.892887199444879e+70</v>
+        <v>-1.174879247528213e+67</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5.839358365110516e+70</v>
+        <v>-1.03945947981596e+67</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>7.785829530776152e+70</v>
+        <v>-9.040397121037071e+66</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9.732300696441788e+70</v>
+        <v>-7.68619944391454e+66</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.167877186210742e+71</v>
+        <v>-6.332001766792008e+66</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.362524302777306e+71</v>
+        <v>-4.977804089669476e+66</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.55717141934387e+71</v>
+        <v>-3.623606412546945e+66</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.751818535910433e+71</v>
+        <v>-2.269408735424413e+66</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.946465652476997e+71</v>
+        <v>-9.152110583018815e+65</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>9995</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.141112769043561e+71</v>
+        <v>4.389866188206501e+65</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.335759885610124e+71</v>
+        <v>1.793184295943182e+66</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.530407002176688e+71</v>
+        <v>3.147381973065713e+66</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.725054118743251e+71</v>
+        <v>4.501579650188245e+66</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.919701235309815e+71</v>
+        <v>5.855777327310777e+66</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.114348351876379e+71</v>
+        <v>7.209975004433308e+66</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3.308995468442942e+71</v>
+        <v>8.56417268155584e+66</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.503642585009506e+71</v>
+        <v>9.918370358678371e+66</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.698289701576069e+71</v>
+        <v>1.12725680358009e+67</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.892936818142633e+71</v>
+        <v>1.262676571292343e+67</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4.087583934709197e+71</v>
+        <v>1.398096339004596e+67</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4.28223105127576e+71</v>
+        <v>1.53351610671685e+67</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4.476878167842323e+71</v>
+        <v>1.668935874429103e+67</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4.671525284408887e+71</v>
+        <v>1.804355642141356e+67</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4.866172400975451e+71</v>
+        <v>1.939775409853609e+67</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.060819517542015e+71</v>
+        <v>2.075195177565862e+67</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5.255466634108578e+71</v>
+        <v>2.210614945278116e+67</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5.450113750675142e+71</v>
+        <v>2.346034712990369e+67</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5.644760867241705e+71</v>
+        <v>2.481454480702622e+67</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5.839407983808268e+71</v>
+        <v>2.616874248414875e+67</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.034055100374832e+71</v>
+        <v>2.752294016127128e+67</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6.228702216941396e+71</v>
+        <v>2.887713783839381e+67</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.42334933350796e+71</v>
+        <v>3.023133551551634e+67</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6.617996450074524e+71</v>
+        <v>3.158553319263888e+67</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11509.39156319282</v>
+        <v>11850.59392097729</v>
       </c>
       <c r="B2" t="n">
-        <v>4561</v>
+        <v>2323</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>193413.9987925992</v>
+        <v>121101.9204371482</v>
       </c>
       <c r="B3" t="n">
-        <v>3141</v>
+        <v>3046</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>375318.6060220056</v>
+        <v>230353.2469533192</v>
       </c>
       <c r="B4" t="n">
-        <v>1241</v>
+        <v>1883</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>557223.213251412</v>
+        <v>339604.5734694901</v>
       </c>
       <c r="B5" t="n">
-        <v>534</v>
+        <v>1003</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>739127.8204808184</v>
+        <v>448855.8999856611</v>
       </c>
       <c r="B6" t="n">
-        <v>228</v>
+        <v>635</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>921032.4277102248</v>
+        <v>558107.2265018321</v>
       </c>
       <c r="B7" t="n">
-        <v>124</v>
+        <v>381</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1102937.034939631</v>
+        <v>667358.553018003</v>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1284841.642169037</v>
+        <v>776609.879534174</v>
       </c>
       <c r="B9" t="n">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1466746.249398444</v>
+        <v>885861.206050345</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1648650.85662785</v>
+        <v>995112.532566516</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1830555.463857257</v>
+        <v>1104363.859082687</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2012460.071086663</v>
+        <v>1213615.185598858</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2194364.67831607</v>
+        <v>1322866.512115029</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2376269.285545476</v>
+        <v>1432117.8386312</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2558173.892774882</v>
+        <v>1541369.165147371</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2740078.500004289</v>
+        <v>1650620.491663542</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2921983.107233695</v>
+        <v>1759871.818179713</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3103887.714463102</v>
+        <v>1869123.144695884</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3285792.321692508</v>
+        <v>1978374.471212055</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3467696.928921914</v>
+        <v>2087625.797728226</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3649601.536151321</v>
+        <v>2196877.124244397</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3831506.143380727</v>
+        <v>2306128.450760568</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4013410.750610134</v>
+        <v>2415379.777276739</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4195315.35783954</v>
+        <v>2524631.10379291</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4377219.965068947</v>
+        <v>2633882.43030908</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4559124.572298353</v>
+        <v>2743133.756825251</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4741029.17952776</v>
+        <v>2852385.083341422</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4922933.786757166</v>
+        <v>2961636.409857593</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5104838.393986572</v>
+        <v>3070887.736373764</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5286743.001215979</v>
+        <v>3180139.062889935</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5468647.608445385</v>
+        <v>3289390.389406106</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5650552.215674791</v>
+        <v>3398641.715922277</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5832456.822904197</v>
+        <v>3507893.042438448</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6014361.430133604</v>
+        <v>3617144.368954619</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6196266.03736301</v>
+        <v>3726395.69547079</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>377.6512584175425</v>
+        <v>249.6762614727629</v>
       </c>
       <c r="B37" t="n">
-        <v>1844</v>
+        <v>1422</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2558.991049199498</v>
+        <v>2364.624633282468</v>
       </c>
       <c r="B38" t="n">
-        <v>2860</v>
+        <v>2757</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4740.330839981453</v>
+        <v>4479.573005092173</v>
       </c>
       <c r="B39" t="n">
-        <v>2040</v>
+        <v>2116</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6921.670630763409</v>
+        <v>6594.521376901877</v>
       </c>
       <c r="B40" t="n">
-        <v>1191</v>
+        <v>1361</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9103.010421545363</v>
+        <v>8709.469748711583</v>
       </c>
       <c r="B41" t="n">
-        <v>702</v>
+        <v>815</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11284.35021232732</v>
+        <v>10824.41812052129</v>
       </c>
       <c r="B42" t="n">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13465.69000310927</v>
+        <v>12939.36649233099</v>
       </c>
       <c r="B43" t="n">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15647.02979389123</v>
+        <v>15054.3148641407</v>
       </c>
       <c r="B44" t="n">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17828.36958467319</v>
+        <v>17169.2632359504</v>
       </c>
       <c r="B45" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20009.70937545514</v>
+        <v>19284.21160776011</v>
       </c>
       <c r="B46" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22191.0491662371</v>
+        <v>21399.15997956981</v>
       </c>
       <c r="B47" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24372.38895701905</v>
+        <v>23514.10835137952</v>
       </c>
       <c r="B48" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>26553.72874780101</v>
+        <v>25629.05672318922</v>
       </c>
       <c r="B49" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>28735.06853858296</v>
+        <v>27744.00509499893</v>
       </c>
       <c r="B50" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>30916.40832936492</v>
+        <v>29858.95346680863</v>
       </c>
       <c r="B51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>33097.74812014687</v>
+        <v>31973.90183861834</v>
       </c>
       <c r="B52" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>35279.08791092883</v>
+        <v>34088.85021042804</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>37460.42770171078</v>
+        <v>36203.79858223774</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>39641.76749249274</v>
+        <v>38318.74695404745</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>41823.10728327469</v>
+        <v>40433.69532585716</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>44004.44707405665</v>
+        <v>42548.64369766686</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>46185.78686483861</v>
+        <v>44663.59206947657</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>48367.12665562056</v>
+        <v>46778.54044128627</v>
       </c>
       <c r="B59" t="n">
         <v>4</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>50548.46644640252</v>
+        <v>48893.48881309597</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>52729.80623718447</v>
+        <v>51008.43718490568</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>54911.14602796642</v>
+        <v>53123.38555671539</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>57092.48581874838</v>
+        <v>55238.33392852509</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>59273.82560953034</v>
+        <v>57353.28230033479</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>61455.16540031229</v>
+        <v>59468.2306721445</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>63636.50519109425</v>
+        <v>61583.1790439542</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>65817.8449818762</v>
+        <v>63698.12741576391</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67999.18477265815</v>
+        <v>65813.07578757362</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>70180.52456344011</v>
+        <v>67928.02415938332</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>72361.86435422207</v>
+        <v>70042.97253119302</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>74543.20414500401</v>
+        <v>72157.92090300273</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2152788089249714</v>
+        <v>0.5931918868431773</v>
       </c>
       <c r="B72" t="n">
-        <v>5510</v>
+        <v>6350</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>28.1742938005127</v>
+        <v>39.24694591796146</v>
       </c>
       <c r="B73" t="n">
-        <v>2310</v>
+        <v>2029</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>56.13330879210043</v>
+        <v>77.90069994907974</v>
       </c>
       <c r="B74" t="n">
-        <v>964</v>
+        <v>784</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>84.09232378368816</v>
+        <v>116.554453980198</v>
       </c>
       <c r="B75" t="n">
-        <v>474</v>
+        <v>339</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112.0513387752759</v>
+        <v>155.2082080113163</v>
       </c>
       <c r="B76" t="n">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>140.0103537668636</v>
+        <v>193.8619620424346</v>
       </c>
       <c r="B77" t="n">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>167.9693687584513</v>
+        <v>232.5157160735529</v>
       </c>
       <c r="B78" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>195.9283837500391</v>
+        <v>271.1694701046711</v>
       </c>
       <c r="B79" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>223.8873987416268</v>
+        <v>309.8232241357894</v>
       </c>
       <c r="B80" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251.8464137332145</v>
+        <v>348.4769781669077</v>
       </c>
       <c r="B81" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>279.8054287248023</v>
+        <v>387.130732198026</v>
       </c>
       <c r="B82" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>307.76444371639</v>
+        <v>425.7844862291442</v>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>335.7234587079777</v>
+        <v>464.4382402602625</v>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>363.6824736995654</v>
+        <v>503.0919942913808</v>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>391.6414886911531</v>
+        <v>541.7457483224991</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>419.6005036827409</v>
+        <v>580.3995023536174</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>447.5595186743286</v>
+        <v>619.0532563847357</v>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>475.5185336659163</v>
+        <v>657.707010415854</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>503.4775486575041</v>
+        <v>696.3607644469723</v>
       </c>
       <c r="B90" t="n">
         <v>2</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>531.4365636490918</v>
+        <v>735.0145184780906</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>559.3955786406796</v>
+        <v>773.6682725092089</v>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>587.3545936322672</v>
+        <v>812.3220265403271</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>615.313608623855</v>
+        <v>850.9757805714454</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>643.2726236154427</v>
+        <v>889.6295346025637</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>671.2316386070304</v>
+        <v>928.283288633682</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>699.1906535986182</v>
+        <v>966.9370426648003</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>727.1496685902059</v>
+        <v>1005.590796695919</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>755.1086835817937</v>
+        <v>1044.244550727037</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>783.0676985733813</v>
+        <v>1082.898304758155</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>811.0267135649691</v>
+        <v>1121.552058789273</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>838.9857285565569</v>
+        <v>1160.205812820392</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>866.9447435481445</v>
+        <v>1198.85956685151</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>894.9037585397323</v>
+        <v>1237.513320882628</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>922.86277353132</v>
+        <v>1276.167074913747</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>950.8217885229077</v>
+        <v>1314.820828944865</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.44571878295272e+67</v>
+        <v>-1.183593693706054e+71</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.310299015240467e+67</v>
+        <v>-1.149776671004076e+71</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1.174879247528213e+67</v>
+        <v>-1.115959648302098e+71</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.03945947981596e+67</v>
+        <v>-1.08214262560012e+71</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-9.040397121037071e+66</v>
+        <v>-1.048325602898142e+71</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-7.68619944391454e+66</v>
+        <v>-1.014508580196164e+71</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-6.332001766792008e+66</v>
+        <v>-9.806915574941862e+70</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-4.977804089669476e+66</v>
+        <v>-9.468745347922081e+70</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-3.623606412546945e+66</v>
+        <v>-9.130575120902302e+70</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-2.269408735424413e+66</v>
+        <v>-8.792404893882522e+70</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-9.152110583018815e+65</v>
+        <v>-8.454234666862743e+70</v>
       </c>
       <c r="B117" t="n">
-        <v>9995</v>
+        <v>0</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.389866188206501e+65</v>
+        <v>-8.116064439842964e+70</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.793184295943182e+66</v>
+        <v>-7.777894212823183e+70</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3.147381973065713e+66</v>
+        <v>-7.439723985803403e+70</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4.501579650188245e+66</v>
+        <v>-7.101553758783624e+70</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5.855777327310777e+66</v>
+        <v>-6.763383531763845e+70</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>7.209975004433308e+66</v>
+        <v>-6.425213304744066e+70</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>8.56417268155584e+66</v>
+        <v>-6.087043077724285e+70</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.918370358678371e+66</v>
+        <v>-5.748872850704506e+70</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.12725680358009e+67</v>
+        <v>-5.410702623684726e+70</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.262676571292343e+67</v>
+        <v>-5.072532396664947e+70</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.398096339004596e+67</v>
+        <v>-4.734362169645166e+70</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.53351610671685e+67</v>
+        <v>-4.396191942625387e+70</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.668935874429103e+67</v>
+        <v>-4.058021715605608e+70</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.804355642141356e+67</v>
+        <v>-3.719851488585828e+70</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.939775409853609e+67</v>
+        <v>-3.381681261566049e+70</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.075195177565862e+67</v>
+        <v>-3.043511034546268e+70</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.210614945278116e+67</v>
+        <v>-2.705340807526489e+70</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.346034712990369e+67</v>
+        <v>-2.36717058050671e+70</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.481454480702622e+67</v>
+        <v>-2.02900035348693e+70</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.616874248414875e+67</v>
+        <v>-1.690830126467151e+70</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.752294016127128e+67</v>
+        <v>-1.35265989944737e+70</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.887713783839381e+67</v>
+        <v>-1.014489672427591e+70</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3.023133551551634e+67</v>
+        <v>-6.763194454078108e+69</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3.158553319263888e+67</v>
+        <v>-3.381492183880317e+69</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>9998</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11850.59392097729</v>
+        <v>13594.22889853131</v>
       </c>
       <c r="B2" t="n">
-        <v>2323</v>
+        <v>2883</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>121101.9204371482</v>
+        <v>141251.3511366566</v>
       </c>
       <c r="B3" t="n">
-        <v>3046</v>
+        <v>3182</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>230353.2469533192</v>
+        <v>268908.4733747818</v>
       </c>
       <c r="B4" t="n">
-        <v>1883</v>
+        <v>1690</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>339604.5734694901</v>
+        <v>396565.5956129071</v>
       </c>
       <c r="B5" t="n">
-        <v>1003</v>
+        <v>975</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>448855.8999856611</v>
+        <v>524222.7178510323</v>
       </c>
       <c r="B6" t="n">
-        <v>635</v>
+        <v>462</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>558107.2265018321</v>
+        <v>651879.8400891576</v>
       </c>
       <c r="B7" t="n">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>667358.553018003</v>
+        <v>779536.9623272829</v>
       </c>
       <c r="B8" t="n">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>776609.879534174</v>
+        <v>907194.0845654081</v>
       </c>
       <c r="B9" t="n">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>885861.206050345</v>
+        <v>1034851.206803533</v>
       </c>
       <c r="B10" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>995112.532566516</v>
+        <v>1162508.329041659</v>
       </c>
       <c r="B11" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1104363.859082687</v>
+        <v>1290165.451279784</v>
       </c>
       <c r="B12" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1213615.185598858</v>
+        <v>1417822.573517909</v>
       </c>
       <c r="B13" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1322866.512115029</v>
+        <v>1545479.695756034</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1432117.8386312</v>
+        <v>1673136.81799416</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1541369.165147371</v>
+        <v>1800793.940232285</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1650620.491663542</v>
+        <v>1928451.06247041</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1759871.818179713</v>
+        <v>2056108.184708535</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1869123.144695884</v>
+        <v>2183765.306946661</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1978374.471212055</v>
+        <v>2311422.429184786</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2087625.797728226</v>
+        <v>2439079.551422911</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2196877.124244397</v>
+        <v>2566736.673661036</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2306128.450760568</v>
+        <v>2694393.795899162</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2415379.777276739</v>
+        <v>2822050.918137287</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2524631.10379291</v>
+        <v>2949708.040375412</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2633882.43030908</v>
+        <v>3077365.162613538</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2743133.756825251</v>
+        <v>3205022.284851663</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2852385.083341422</v>
+        <v>3332679.407089788</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2961636.409857593</v>
+        <v>3460336.529327913</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3070887.736373764</v>
+        <v>3587993.651566038</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3180139.062889935</v>
+        <v>3715650.773804164</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3289390.389406106</v>
+        <v>3843307.896042289</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3398641.715922277</v>
+        <v>3970965.018280414</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3507893.042438448</v>
+        <v>4098622.14051854</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3617144.368954619</v>
+        <v>4226279.262756665</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3726395.69547079</v>
+        <v>4353936.384994791</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>249.6762614727629</v>
+        <v>284.470144666351</v>
       </c>
       <c r="B37" t="n">
-        <v>1422</v>
+        <v>2907</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2364.624633282468</v>
+        <v>3286.019805150708</v>
       </c>
       <c r="B38" t="n">
-        <v>2757</v>
+        <v>3405</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4479.573005092173</v>
+        <v>6287.569465635064</v>
       </c>
       <c r="B39" t="n">
-        <v>2116</v>
+        <v>1769</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6594.521376901877</v>
+        <v>9289.11912611942</v>
       </c>
       <c r="B40" t="n">
-        <v>1361</v>
+        <v>848</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8709.469748711583</v>
+        <v>12290.66878660378</v>
       </c>
       <c r="B41" t="n">
-        <v>815</v>
+        <v>437</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10824.41812052129</v>
+        <v>15292.21844708813</v>
       </c>
       <c r="B42" t="n">
-        <v>512</v>
+        <v>243</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12939.36649233099</v>
+        <v>18293.76810757249</v>
       </c>
       <c r="B43" t="n">
-        <v>329</v>
+        <v>137</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15054.3148641407</v>
+        <v>21295.31776805684</v>
       </c>
       <c r="B44" t="n">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17169.2632359504</v>
+        <v>24296.8674285412</v>
       </c>
       <c r="B45" t="n">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>19284.21160776011</v>
+        <v>27298.41708902556</v>
       </c>
       <c r="B46" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21399.15997956981</v>
+        <v>30299.96674950992</v>
       </c>
       <c r="B47" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23514.10835137952</v>
+        <v>33301.51640999428</v>
       </c>
       <c r="B48" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25629.05672318922</v>
+        <v>36303.06607047863</v>
       </c>
       <c r="B49" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27744.00509499893</v>
+        <v>39304.61573096299</v>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>29858.95346680863</v>
+        <v>42306.16539144734</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>31973.90183861834</v>
+        <v>45307.7150519317</v>
       </c>
       <c r="B52" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>34088.85021042804</v>
+        <v>48309.26471241606</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>36203.79858223774</v>
+        <v>51310.81437290042</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>38318.74695404745</v>
+        <v>54312.36403338477</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>40433.69532585716</v>
+        <v>57313.91369386913</v>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>42548.64369766686</v>
+        <v>60315.46335435349</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>44663.59206947657</v>
+        <v>63317.01301483784</v>
       </c>
       <c r="B58" t="n">
         <v>2</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>46778.54044128627</v>
+        <v>66318.5626753222</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>48893.48881309597</v>
+        <v>69320.11233580655</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>51008.43718490568</v>
+        <v>72321.6619962909</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>53123.38555671539</v>
+        <v>75323.21165677527</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>55238.33392852509</v>
+        <v>78324.76131725962</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>57353.28230033479</v>
+        <v>81326.31097774398</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>59468.2306721445</v>
+        <v>84327.86063822833</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>61583.1790439542</v>
+        <v>87329.4102987127</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>63698.12741576391</v>
+        <v>90330.95995919705</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>65813.07578757362</v>
+        <v>93332.50961968141</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67928.02415938332</v>
+        <v>96334.05928016576</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>70042.97253119302</v>
+        <v>99335.60894065011</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>72157.92090300273</v>
+        <v>102337.1586011345</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5931918868431773</v>
+        <v>0.5850882406921415</v>
       </c>
       <c r="B72" t="n">
-        <v>6350</v>
+        <v>6445</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>39.24694591796146</v>
+        <v>39.50837812967529</v>
       </c>
       <c r="B73" t="n">
-        <v>2029</v>
+        <v>1997</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>77.90069994907974</v>
+        <v>78.43166801865844</v>
       </c>
       <c r="B74" t="n">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>116.554453980198</v>
+        <v>117.3549579076416</v>
       </c>
       <c r="B75" t="n">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>155.2082080113163</v>
+        <v>156.2782477966247</v>
       </c>
       <c r="B76" t="n">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>193.8619620424346</v>
+        <v>195.2015376856079</v>
       </c>
       <c r="B77" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>232.5157160735529</v>
+        <v>234.124827574591</v>
       </c>
       <c r="B78" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>271.1694701046711</v>
+        <v>273.0481174635742</v>
       </c>
       <c r="B79" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>309.8232241357894</v>
+        <v>311.9714073525573</v>
       </c>
       <c r="B80" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>348.4769781669077</v>
+        <v>350.8946972415405</v>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>387.130732198026</v>
+        <v>389.8179871305236</v>
       </c>
       <c r="B82" t="n">
         <v>14</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>425.7844862291442</v>
+        <v>428.7412770195068</v>
       </c>
       <c r="B83" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>464.4382402602625</v>
+        <v>467.6645669084899</v>
       </c>
       <c r="B84" t="n">
         <v>7</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>503.0919942913808</v>
+        <v>506.5878567974731</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>541.7457483224991</v>
+        <v>545.5111466864562</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>580.3995023536174</v>
+        <v>584.4344365754393</v>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>619.0532563847357</v>
+        <v>623.3577264644225</v>
       </c>
       <c r="B88" t="n">
         <v>3</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>657.707010415854</v>
+        <v>662.2810163534057</v>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>696.3607644469723</v>
+        <v>701.2043062423888</v>
       </c>
       <c r="B90" t="n">
         <v>2</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>735.0145184780906</v>
+        <v>740.127596131372</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>773.6682725092089</v>
+        <v>779.0508860203552</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>812.3220265403271</v>
+        <v>817.9741759093382</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>850.9757805714454</v>
+        <v>856.8974657983214</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>889.6295346025637</v>
+        <v>895.8207556873045</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>928.283288633682</v>
+        <v>934.7440455762877</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>966.9370426648003</v>
+        <v>973.6673354652709</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1005.590796695919</v>
+        <v>1012.590625354254</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1044.244550727037</v>
+        <v>1051.513915243237</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1082.898304758155</v>
+        <v>1090.43720513222</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1121.552058789273</v>
+        <v>1129.360495021203</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1160.205812820392</v>
+        <v>1168.283784910187</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1198.85956685151</v>
+        <v>1207.20707479917</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1237.513320882628</v>
+        <v>1246.130364688153</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1276.167074913747</v>
+        <v>1285.053654577136</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1314.820828944865</v>
+        <v>1323.976944466119</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.183593693706054e+71</v>
+        <v>-8.696880200177421e+65</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.149776671004076e+71</v>
+        <v>2.136475292074064e+66</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1.115959648302098e+71</v>
+        <v>5.142638604165871e+66</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.08214262560012e+71</v>
+        <v>8.148801916257678e+66</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-1.048325602898142e+71</v>
+        <v>1.115496522834948e+67</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.014508580196164e+71</v>
+        <v>1.416112854044129e+67</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-9.806915574941862e+70</v>
+        <v>1.71672918525331e+67</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-9.468745347922081e+70</v>
+        <v>2.017345516462491e+67</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-9.130575120902302e+70</v>
+        <v>2.317961847671671e+67</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-8.792404893882522e+70</v>
+        <v>2.618578178880852e+67</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-8.454234666862743e+70</v>
+        <v>2.919194510090032e+67</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-8.116064439842964e+70</v>
+        <v>3.219810841299213e+67</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-7.777894212823183e+70</v>
+        <v>3.520427172508394e+67</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-7.439723985803403e+70</v>
+        <v>3.821043503717574e+67</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-7.101553758783624e+70</v>
+        <v>4.121659834926755e+67</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-6.763383531763845e+70</v>
+        <v>4.422276166135936e+67</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-6.425213304744066e+70</v>
+        <v>4.722892497345116e+67</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-6.087043077724285e+70</v>
+        <v>5.023508828554297e+67</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-5.748872850704506e+70</v>
+        <v>5.324125159763477e+67</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-5.410702623684726e+70</v>
+        <v>5.624741490972658e+67</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-5.072532396664947e+70</v>
+        <v>5.925357822181838e+67</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-4.734362169645166e+70</v>
+        <v>6.225974153391019e+67</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-4.396191942625387e+70</v>
+        <v>6.526590484600201e+67</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-4.058021715605608e+70</v>
+        <v>6.82720681580938e+67</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-3.719851488585828e+70</v>
+        <v>7.127823147018562e+67</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-3.381681261566049e+70</v>
+        <v>7.428439478227743e+67</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-3.043511034546268e+70</v>
+        <v>7.729055809436923e+67</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-2.705340807526489e+70</v>
+        <v>8.029672140646104e+67</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-2.36717058050671e+70</v>
+        <v>8.330288471855285e+67</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-2.02900035348693e+70</v>
+        <v>8.630904803064465e+67</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.690830126467151e+70</v>
+        <v>8.931521134273646e+67</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1.35265989944737e+70</v>
+        <v>9.232137465482826e+67</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-1.014489672427591e+70</v>
+        <v>9.532753796692007e+67</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-6.763194454078108e+69</v>
+        <v>9.833370127901188e+67</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-3.381492183880317e+69</v>
+        <v>1.013398645911037e+68</v>
       </c>
       <c r="B141" t="n">
-        <v>9998</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13594.22889853131</v>
+        <v>11953.96492768928</v>
       </c>
       <c r="B2" t="n">
-        <v>2883</v>
+        <v>1777</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>141251.3511366566</v>
+        <v>104728.3257525071</v>
       </c>
       <c r="B3" t="n">
-        <v>3182</v>
+        <v>2756</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>268908.4733747818</v>
+        <v>197502.6865773248</v>
       </c>
       <c r="B4" t="n">
-        <v>1690</v>
+        <v>1897</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>396565.5956129071</v>
+        <v>290277.0474021426</v>
       </c>
       <c r="B5" t="n">
-        <v>975</v>
+        <v>1216</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>524222.7178510323</v>
+        <v>383051.4082269604</v>
       </c>
       <c r="B6" t="n">
-        <v>462</v>
+        <v>744</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>651879.8400891576</v>
+        <v>475825.7690517782</v>
       </c>
       <c r="B7" t="n">
-        <v>321</v>
+        <v>490</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>779536.9623272829</v>
+        <v>568600.1298765959</v>
       </c>
       <c r="B8" t="n">
-        <v>192</v>
+        <v>340</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>907194.0845654081</v>
+        <v>661374.4907014137</v>
       </c>
       <c r="B9" t="n">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1034851.206803533</v>
+        <v>754148.8515262315</v>
       </c>
       <c r="B10" t="n">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1162508.329041659</v>
+        <v>846923.2123510493</v>
       </c>
       <c r="B11" t="n">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1290165.451279784</v>
+        <v>939697.5731758671</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1417822.573517909</v>
+        <v>1032471.934000685</v>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1545479.695756034</v>
+        <v>1125246.294825502</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1673136.81799416</v>
+        <v>1218020.65565032</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1800793.940232285</v>
+        <v>1310795.016475138</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1928451.06247041</v>
+        <v>1403569.377299956</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2056108.184708535</v>
+        <v>1496343.738124774</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2183765.306946661</v>
+        <v>1589118.098949591</v>
       </c>
       <c r="B19" t="n">
         <v>4</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2311422.429184786</v>
+        <v>1681892.459774409</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2439079.551422911</v>
+        <v>1774666.820599227</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2566736.673661036</v>
+        <v>1867441.181424045</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2694393.795899162</v>
+        <v>1960215.542248863</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2822050.918137287</v>
+        <v>2052989.90307368</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2949708.040375412</v>
+        <v>2145764.263898498</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3077365.162613538</v>
+        <v>2238538.624723316</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3205022.284851663</v>
+        <v>2331312.985548133</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3332679.407089788</v>
+        <v>2424087.346372951</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3460336.529327913</v>
+        <v>2516861.707197769</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3587993.651566038</v>
+        <v>2609636.068022587</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3715650.773804164</v>
+        <v>2702410.428847405</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3843307.896042289</v>
+        <v>2795184.789672222</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3970965.018280414</v>
+        <v>2887959.15049704</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4098622.14051854</v>
+        <v>2980733.511321858</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4226279.262756665</v>
+        <v>3073507.872146676</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4353936.384994791</v>
+        <v>3166282.232971494</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>284.470144666351</v>
+        <v>251.6601546355184</v>
       </c>
       <c r="B37" t="n">
-        <v>2907</v>
+        <v>1540</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3286.019805150708</v>
+        <v>2293.730175595217</v>
       </c>
       <c r="B38" t="n">
-        <v>3405</v>
+        <v>2899</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6287.569465635064</v>
+        <v>4335.800196554915</v>
       </c>
       <c r="B39" t="n">
-        <v>1769</v>
+        <v>2018</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9289.11912611942</v>
+        <v>6377.870217514613</v>
       </c>
       <c r="B40" t="n">
-        <v>848</v>
+        <v>1293</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12290.66878660378</v>
+        <v>8419.94023847431</v>
       </c>
       <c r="B41" t="n">
-        <v>437</v>
+        <v>782</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15292.21844708813</v>
+        <v>10462.01025943401</v>
       </c>
       <c r="B42" t="n">
-        <v>243</v>
+        <v>500</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18293.76810757249</v>
+        <v>12504.08028039371</v>
       </c>
       <c r="B43" t="n">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21295.31776805684</v>
+        <v>14546.1503013534</v>
       </c>
       <c r="B44" t="n">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>24296.8674285412</v>
+        <v>16588.2203223131</v>
       </c>
       <c r="B45" t="n">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>27298.41708902556</v>
+        <v>18630.2903432728</v>
       </c>
       <c r="B46" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>30299.96674950992</v>
+        <v>20672.3603642325</v>
       </c>
       <c r="B47" t="n">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33301.51640999428</v>
+        <v>22714.4303851922</v>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>36303.06607047863</v>
+        <v>24756.5004061519</v>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>39304.61573096299</v>
+        <v>26798.57042711159</v>
       </c>
       <c r="B50" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>42306.16539144734</v>
+        <v>28840.64044807129</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>45307.7150519317</v>
+        <v>30882.71046903099</v>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>48309.26471241606</v>
+        <v>32924.78048999068</v>
       </c>
       <c r="B53" t="n">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>51310.81437290042</v>
+        <v>34966.85051095038</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54312.36403338477</v>
+        <v>37008.92053191008</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>57313.91369386913</v>
+        <v>39050.99055286978</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>60315.46335435349</v>
+        <v>41093.06057382948</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>63317.01301483784</v>
+        <v>43135.13059478917</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66318.5626753222</v>
+        <v>45177.20061574887</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69320.11233580655</v>
+        <v>47219.27063670857</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>72321.6619962909</v>
+        <v>49261.34065766827</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>75323.21165677527</v>
+        <v>51303.41067862797</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>78324.76131725962</v>
+        <v>53345.48069958766</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>81326.31097774398</v>
+        <v>55387.55072054736</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>84327.86063822833</v>
+        <v>57429.62074150706</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>87329.4102987127</v>
+        <v>59471.69076246676</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>90330.95995919705</v>
+        <v>61513.76078342646</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>93332.50961968141</v>
+        <v>63555.83080438615</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>96334.05928016576</v>
+        <v>65597.90082534586</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>99335.60894065011</v>
+        <v>67639.97084630556</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>102337.1586011345</v>
+        <v>69682.04086726526</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5850882406921415</v>
+        <v>0.5314784506631232</v>
       </c>
       <c r="B72" t="n">
-        <v>6445</v>
+        <v>5051</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>39.50837812967529</v>
+        <v>26.65130091537925</v>
       </c>
       <c r="B73" t="n">
-        <v>1997</v>
+        <v>2502</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>78.43166801865844</v>
+        <v>52.77112338009537</v>
       </c>
       <c r="B74" t="n">
-        <v>789</v>
+        <v>1028</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>117.3549579076416</v>
+        <v>78.8909458448115</v>
       </c>
       <c r="B75" t="n">
-        <v>313</v>
+        <v>518</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>156.2782477966247</v>
+        <v>105.0107683095276</v>
       </c>
       <c r="B76" t="n">
-        <v>176</v>
+        <v>325</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>195.2015376856079</v>
+        <v>131.1305907742437</v>
       </c>
       <c r="B77" t="n">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>234.124827574591</v>
+        <v>157.2504132389599</v>
       </c>
       <c r="B78" t="n">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>273.0481174635742</v>
+        <v>183.370235703676</v>
       </c>
       <c r="B79" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>311.9714073525573</v>
+        <v>209.4900581683921</v>
       </c>
       <c r="B80" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>350.8946972415405</v>
+        <v>235.6098806331082</v>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>389.8179871305236</v>
+        <v>261.7297030978244</v>
       </c>
       <c r="B82" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>428.7412770195068</v>
+        <v>287.8495255625405</v>
       </c>
       <c r="B83" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>467.6645669084899</v>
+        <v>313.9693480272566</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>506.5878567974731</v>
+        <v>340.0891704919727</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>545.5111466864562</v>
+        <v>366.2089929566889</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>584.4344365754393</v>
+        <v>392.328815421405</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>623.3577264644225</v>
+        <v>418.4486378861211</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>662.2810163534057</v>
+        <v>444.5684603508372</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>701.2043062423888</v>
+        <v>470.6882828155534</v>
       </c>
       <c r="B90" t="n">
         <v>2</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>740.127596131372</v>
+        <v>496.8081052802695</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>779.0508860203552</v>
+        <v>522.9279277449856</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>817.9741759093382</v>
+        <v>549.0477502097017</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>856.8974657983214</v>
+        <v>575.1675726744179</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>895.8207556873045</v>
+        <v>601.287395139134</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>934.7440455762877</v>
+        <v>627.4072176038501</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>973.6673354652709</v>
+        <v>653.5270400685662</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1012.590625354254</v>
+        <v>679.6468625332823</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1051.513915243237</v>
+        <v>705.7666849979985</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1090.43720513222</v>
+        <v>731.8865074627146</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1129.360495021203</v>
+        <v>758.0063299274307</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1168.283784910187</v>
+        <v>784.1261523921469</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1207.20707479917</v>
+        <v>810.245974856863</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1246.130364688153</v>
+        <v>836.3657973215791</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1285.053654577136</v>
+        <v>862.4856197862952</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1323.976944466119</v>
+        <v>888.6054422510113</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-8.696880200177421e+65</v>
+        <v>-2.389231677011721e+69</v>
       </c>
       <c r="B107" t="n">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.136475292074064e+66</v>
+        <v>-2.320770373759888e+69</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5.142638604165871e+66</v>
+        <v>-2.252309070508055e+69</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8.148801916257678e+66</v>
+        <v>-2.183847767256222e+69</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.115496522834948e+67</v>
+        <v>-2.115386464004389e+69</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.416112854044129e+67</v>
+        <v>-2.046925160752557e+69</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.71672918525331e+67</v>
+        <v>-1.978463857500724e+69</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.017345516462491e+67</v>
+        <v>-1.910002554248891e+69</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.317961847671671e+67</v>
+        <v>-1.841541250997057e+69</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.618578178880852e+67</v>
+        <v>-1.773079947745225e+69</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.919194510090032e+67</v>
+        <v>-1.704618644493392e+69</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3.219810841299213e+67</v>
+        <v>-1.636157341241558e+69</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.520427172508394e+67</v>
+        <v>-1.567696037989725e+69</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3.821043503717574e+67</v>
+        <v>-1.499234734737892e+69</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4.121659834926755e+67</v>
+        <v>-1.43077343148606e+69</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4.422276166135936e+67</v>
+        <v>-1.362312128234227e+69</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.722892497345116e+67</v>
+        <v>-1.293850824982394e+69</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5.023508828554297e+67</v>
+        <v>-1.225389521730561e+69</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5.324125159763477e+67</v>
+        <v>-1.156928218478728e+69</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5.624741490972658e+67</v>
+        <v>-1.088466915226895e+69</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5.925357822181838e+67</v>
+        <v>-1.020005611975062e+69</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>6.225974153391019e+67</v>
+        <v>-9.515443087232286e+68</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>6.526590484600201e+67</v>
+        <v>-8.830830054713957e+68</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>6.82720681580938e+67</v>
+        <v>-8.146217022195627e+68</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>7.127823147018562e+67</v>
+        <v>-7.461603989677298e+68</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>7.428439478227743e+67</v>
+        <v>-6.776990957158968e+68</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>7.729055809436923e+67</v>
+        <v>-6.092377924640637e+68</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>8.029672140646104e+67</v>
+        <v>-5.407764892122307e+68</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8.330288471855285e+67</v>
+        <v>-4.723151859603978e+68</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8.630904803064465e+67</v>
+        <v>-4.038538827085648e+68</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8.931521134273646e+67</v>
+        <v>-3.353925794567319e+68</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.232137465482826e+67</v>
+        <v>-2.669312762048989e+68</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9.532753796692007e+67</v>
+        <v>-1.984699729530659e+68</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9.833370127901188e+67</v>
+        <v>-1.30008669701233e+68</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.013398645911037e+68</v>
+        <v>-6.154736644940003e+67</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11953.96492768928</v>
+        <v>12113.96934264121</v>
       </c>
       <c r="B2" t="n">
-        <v>1777</v>
+        <v>2730</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104728.3257525071</v>
+        <v>132676.2584906472</v>
       </c>
       <c r="B3" t="n">
-        <v>2756</v>
+        <v>3216</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>197502.6865773248</v>
+        <v>253238.5476386532</v>
       </c>
       <c r="B4" t="n">
-        <v>1897</v>
+        <v>1671</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>290277.0474021426</v>
+        <v>373800.8367866592</v>
       </c>
       <c r="B5" t="n">
-        <v>1216</v>
+        <v>959</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>383051.4082269604</v>
+        <v>494363.1259346652</v>
       </c>
       <c r="B6" t="n">
-        <v>744</v>
+        <v>556</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>475825.7690517782</v>
+        <v>614925.4150826712</v>
       </c>
       <c r="B7" t="n">
-        <v>490</v>
+        <v>344</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>568600.1298765959</v>
+        <v>735487.7042306772</v>
       </c>
       <c r="B8" t="n">
-        <v>340</v>
+        <v>166</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>661374.4907014137</v>
+        <v>856049.9933786832</v>
       </c>
       <c r="B9" t="n">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>754148.8515262315</v>
+        <v>976612.2825266892</v>
       </c>
       <c r="B10" t="n">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>846923.2123510493</v>
+        <v>1097174.571674695</v>
       </c>
       <c r="B11" t="n">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>939697.5731758671</v>
+        <v>1217736.860822701</v>
       </c>
       <c r="B12" t="n">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1032471.934000685</v>
+        <v>1338299.149970707</v>
       </c>
       <c r="B13" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1125246.294825502</v>
+        <v>1458861.439118713</v>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1218020.65565032</v>
+        <v>1579423.728266719</v>
       </c>
       <c r="B15" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1310795.016475138</v>
+        <v>1699986.017414725</v>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1403569.377299956</v>
+        <v>1820548.306562731</v>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1496343.738124774</v>
+        <v>1941110.595710737</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1589118.098949591</v>
+        <v>2061672.884858744</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1681892.459774409</v>
+        <v>2182235.174006749</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1774666.820599227</v>
+        <v>2302797.463154755</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1867441.181424045</v>
+        <v>2423359.752302761</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1960215.542248863</v>
+        <v>2543922.041450767</v>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2052989.90307368</v>
+        <v>2664484.330598773</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2145764.263898498</v>
+        <v>2785046.619746779</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2238538.624723316</v>
+        <v>2905608.908894785</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2331312.985548133</v>
+        <v>3026171.198042791</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2424087.346372951</v>
+        <v>3146733.487190797</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2516861.707197769</v>
+        <v>3267295.776338803</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2609636.068022587</v>
+        <v>3387858.065486809</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2702410.428847405</v>
+        <v>3508420.354634815</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2795184.789672222</v>
+        <v>3628982.643782821</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2887959.15049704</v>
+        <v>3749544.932930827</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2980733.511321858</v>
+        <v>3870107.222078833</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3073507.872146676</v>
+        <v>3990669.511226839</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3166282.232971494</v>
+        <v>4111231.800374846</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251.6601546355184</v>
+        <v>329.8815584107396</v>
       </c>
       <c r="B37" t="n">
-        <v>1540</v>
+        <v>1059</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2293.730175595217</v>
+        <v>1960.50150152599</v>
       </c>
       <c r="B38" t="n">
-        <v>2899</v>
+        <v>2307</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4335.800196554915</v>
+        <v>3591.12144464124</v>
       </c>
       <c r="B39" t="n">
-        <v>2018</v>
+        <v>1988</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6377.870217514613</v>
+        <v>5221.74138775649</v>
       </c>
       <c r="B40" t="n">
-        <v>1293</v>
+        <v>1348</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8419.94023847431</v>
+        <v>6852.36133087174</v>
       </c>
       <c r="B41" t="n">
-        <v>782</v>
+        <v>950</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10462.01025943401</v>
+        <v>8482.98127398699</v>
       </c>
       <c r="B42" t="n">
-        <v>500</v>
+        <v>665</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12504.08028039371</v>
+        <v>10113.60121710224</v>
       </c>
       <c r="B43" t="n">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14546.1503013534</v>
+        <v>11744.22116021749</v>
       </c>
       <c r="B44" t="n">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16588.2203223131</v>
+        <v>13374.84110333274</v>
       </c>
       <c r="B45" t="n">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18630.2903432728</v>
+        <v>15005.46104644799</v>
       </c>
       <c r="B46" t="n">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20672.3603642325</v>
+        <v>16636.08098956324</v>
       </c>
       <c r="B47" t="n">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22714.4303851922</v>
+        <v>18266.70093267849</v>
       </c>
       <c r="B48" t="n">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24756.5004061519</v>
+        <v>19897.32087579374</v>
       </c>
       <c r="B49" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26798.57042711159</v>
+        <v>21527.94081890899</v>
       </c>
       <c r="B50" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>28840.64044807129</v>
+        <v>23158.56076202424</v>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>30882.71046903099</v>
+        <v>24789.18070513949</v>
       </c>
       <c r="B52" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>32924.78048999068</v>
+        <v>26419.80064825474</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>34966.85051095038</v>
+        <v>28050.42059136999</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>37008.92053191008</v>
+        <v>29681.04053448524</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>39050.99055286978</v>
+        <v>31311.66047760049</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>41093.06057382948</v>
+        <v>32942.28042071574</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43135.13059478917</v>
+        <v>34572.90036383099</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>45177.20061574887</v>
+        <v>36203.52030694624</v>
       </c>
       <c r="B59" t="n">
         <v>5</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>47219.27063670857</v>
+        <v>37834.14025006149</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>49261.34065766827</v>
+        <v>39464.76019317674</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>51303.41067862797</v>
+        <v>41095.38013629199</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>53345.48069958766</v>
+        <v>42726.00007940724</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>55387.55072054736</v>
+        <v>44356.62002252249</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>57429.62074150706</v>
+        <v>45987.23996563774</v>
       </c>
       <c r="B65" t="n">
         <v>2</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>59471.69076246676</v>
+        <v>47617.85990875299</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>61513.76078342646</v>
+        <v>49248.47985186824</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>63555.83080438615</v>
+        <v>50879.09979498349</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>65597.90082534586</v>
+        <v>52509.71973809874</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>67639.97084630556</v>
+        <v>54140.33968121399</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>69682.04086726526</v>
+        <v>55770.95962432924</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5314784506631232</v>
+        <v>0.3257593700206886</v>
       </c>
       <c r="B72" t="n">
-        <v>5051</v>
+        <v>5663</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>26.65130091537925</v>
+        <v>31.52157562558596</v>
       </c>
       <c r="B73" t="n">
-        <v>2502</v>
+        <v>2360</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>52.77112338009537</v>
+        <v>62.71739188115123</v>
       </c>
       <c r="B74" t="n">
-        <v>1028</v>
+        <v>915</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>78.8909458448115</v>
+        <v>93.91320813671651</v>
       </c>
       <c r="B75" t="n">
-        <v>518</v>
+        <v>425</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>105.0107683095276</v>
+        <v>125.1090243922818</v>
       </c>
       <c r="B76" t="n">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131.1305907742437</v>
+        <v>156.304840647847</v>
       </c>
       <c r="B77" t="n">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>157.2504132389599</v>
+        <v>187.5006569034123</v>
       </c>
       <c r="B78" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>183.370235703676</v>
+        <v>218.6964731589776</v>
       </c>
       <c r="B79" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>209.4900581683921</v>
+        <v>249.8922894145428</v>
       </c>
       <c r="B80" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>235.6098806331082</v>
+        <v>281.0881056701081</v>
       </c>
       <c r="B81" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>261.7297030978244</v>
+        <v>312.2839219256734</v>
       </c>
       <c r="B82" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>287.8495255625405</v>
+        <v>343.4797381812386</v>
       </c>
       <c r="B83" t="n">
         <v>21</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>313.9693480272566</v>
+        <v>374.675554436804</v>
       </c>
       <c r="B84" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>340.0891704919727</v>
+        <v>405.8713706923692</v>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>366.2089929566889</v>
+        <v>437.0671869479345</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>392.328815421405</v>
+        <v>468.2630032034997</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>418.4486378861211</v>
+        <v>499.458819459065</v>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>444.5684603508372</v>
+        <v>530.6546357146303</v>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>470.6882828155534</v>
+        <v>561.8504519701955</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>496.8081052802695</v>
+        <v>593.0462682257609</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>522.9279277449856</v>
+        <v>624.2420844813261</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>549.0477502097017</v>
+        <v>655.4379007368914</v>
       </c>
       <c r="B93" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>575.1675726744179</v>
+        <v>686.6337169924566</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>601.287395139134</v>
+        <v>717.8295332480219</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>627.4072176038501</v>
+        <v>749.0253495035872</v>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>653.5270400685662</v>
+        <v>780.2211657591524</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>679.6468625332823</v>
+        <v>811.4169820147177</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>705.7666849979985</v>
+        <v>842.612798270283</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>731.8865074627146</v>
+        <v>873.8086145258483</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>758.0063299274307</v>
+        <v>905.0044307814135</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>784.1261523921469</v>
+        <v>936.2002470369788</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>810.245974856863</v>
+        <v>967.396063292544</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>836.3657973215791</v>
+        <v>998.5918795481093</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>862.4856197862952</v>
+        <v>1029.787695803675</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>888.6054422510113</v>
+        <v>1060.98351205924</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-2.389231677011721e+69</v>
+        <v>-1.417274920048242e+64</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-2.320770373759888e+69</v>
+        <v>6.812553644221024e+74</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-2.252309070508055e+69</v>
+        <v>1.362510728858378e+75</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-2.183847767256222e+69</v>
+        <v>2.043766093294653e+75</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-2.115386464004389e+69</v>
+        <v>2.725021457730928e+75</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-2.046925160752557e+69</v>
+        <v>3.406276822167203e+75</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1.978463857500724e+69</v>
+        <v>4.087532186603479e+75</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.910002554248891e+69</v>
+        <v>4.768787551039754e+75</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.841541250997057e+69</v>
+        <v>5.450042915476029e+75</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-1.773079947745225e+69</v>
+        <v>6.131298279912305e+75</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1.704618644493392e+69</v>
+        <v>6.81255364434858e+75</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1.636157341241558e+69</v>
+        <v>7.493809008784855e+75</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.567696037989725e+69</v>
+        <v>8.17506437322113e+75</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.499234734737892e+69</v>
+        <v>8.856319737657405e+75</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.43077343148606e+69</v>
+        <v>9.53757510209368e+75</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1.362312128234227e+69</v>
+        <v>1.021883046652996e+76</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1.293850824982394e+69</v>
+        <v>1.090008583096623e+76</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.225389521730561e+69</v>
+        <v>1.158134119540251e+76</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.156928218478728e+69</v>
+        <v>1.226259655983878e+76</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1.088466915226895e+69</v>
+        <v>1.294385192427506e+76</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-1.020005611975062e+69</v>
+        <v>1.362510728871133e+76</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-9.515443087232286e+68</v>
+        <v>1.430636265314761e+76</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-8.830830054713957e+68</v>
+        <v>1.498761801758388e+76</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-8.146217022195627e+68</v>
+        <v>1.566887338202016e+76</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-7.461603989677298e+68</v>
+        <v>1.635012874645643e+76</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-6.776990957158968e+68</v>
+        <v>1.703138411089271e+76</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-6.092377924640637e+68</v>
+        <v>1.771263947532898e+76</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-5.407764892122307e+68</v>
+        <v>1.839389483976526e+76</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4.723151859603978e+68</v>
+        <v>1.907515020420153e+76</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-4.038538827085648e+68</v>
+        <v>1.975640556863781e+76</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-3.353925794567319e+68</v>
+        <v>2.043766093307408e+76</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-2.669312762048989e+68</v>
+        <v>2.111891629751036e+76</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-1.984699729530659e+68</v>
+        <v>2.180017166194663e+76</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-1.30008669701233e+68</v>
+        <v>2.248142702638291e+76</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-6.154736644940003e+67</v>
+        <v>2.316268239081918e+76</v>
       </c>
       <c r="B141" t="n">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12113.96934264121</v>
+        <v>13128.33437356014</v>
       </c>
       <c r="B2" t="n">
-        <v>2730</v>
+        <v>2250</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>132676.2584906472</v>
+        <v>117816.4070671019</v>
       </c>
       <c r="B3" t="n">
-        <v>3216</v>
+        <v>2938</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253238.5476386532</v>
+        <v>222504.4797606436</v>
       </c>
       <c r="B4" t="n">
-        <v>1671</v>
+        <v>1903</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>373800.8367866592</v>
+        <v>327192.5524541853</v>
       </c>
       <c r="B5" t="n">
-        <v>959</v>
+        <v>1082</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>494363.1259346652</v>
+        <v>431880.6251477271</v>
       </c>
       <c r="B6" t="n">
-        <v>556</v>
+        <v>629</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>614925.4150826712</v>
+        <v>536568.6978412688</v>
       </c>
       <c r="B7" t="n">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>735487.7042306772</v>
+        <v>641256.7705348105</v>
       </c>
       <c r="B8" t="n">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>856049.9933786832</v>
+        <v>745944.8432283523</v>
       </c>
       <c r="B9" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>976612.2825266892</v>
+        <v>850632.915921894</v>
       </c>
       <c r="B10" t="n">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1097174.571674695</v>
+        <v>955320.9886154358</v>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1217736.860822701</v>
+        <v>1060009.061308977</v>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1338299.149970707</v>
+        <v>1164697.134002519</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1458861.439118713</v>
+        <v>1269385.206696061</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1579423.728266719</v>
+        <v>1374073.279389603</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1699986.017414725</v>
+        <v>1478761.352083144</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1820548.306562731</v>
+        <v>1583449.424776686</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1941110.595710737</v>
+        <v>1688137.497470228</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2061672.884858744</v>
+        <v>1792825.570163769</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2182235.174006749</v>
+        <v>1897513.642857311</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2302797.463154755</v>
+        <v>2002201.715550853</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2423359.752302761</v>
+        <v>2106889.788244395</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2543922.041450767</v>
+        <v>2211577.860937937</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2664484.330598773</v>
+        <v>2316265.933631478</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2785046.619746779</v>
+        <v>2420954.00632502</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2905608.908894785</v>
+        <v>2525642.079018562</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3026171.198042791</v>
+        <v>2630330.151712104</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3146733.487190797</v>
+        <v>2735018.224405645</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3267295.776338803</v>
+        <v>2839706.297099187</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3387858.065486809</v>
+        <v>2944394.369792729</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3508420.354634815</v>
+        <v>3049082.44248627</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3628982.643782821</v>
+        <v>3153770.515179812</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3749544.932930827</v>
+        <v>3258458.587873354</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3870107.222078833</v>
+        <v>3363146.660566896</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3990669.511226839</v>
+        <v>3467834.733260437</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4111231.800374846</v>
+        <v>3572522.805953979</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>329.8815584107396</v>
+        <v>262.5248085043679</v>
       </c>
       <c r="B37" t="n">
-        <v>1059</v>
+        <v>2841</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1960.50150152599</v>
+        <v>3306.12168681711</v>
       </c>
       <c r="B38" t="n">
-        <v>2307</v>
+        <v>3389</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3591.12144464124</v>
+        <v>6349.718565129852</v>
       </c>
       <c r="B39" t="n">
-        <v>1988</v>
+        <v>1795</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5221.74138775649</v>
+        <v>9393.315443442594</v>
       </c>
       <c r="B40" t="n">
-        <v>1348</v>
+        <v>851</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6852.36133087174</v>
+        <v>12436.91232175534</v>
       </c>
       <c r="B41" t="n">
-        <v>950</v>
+        <v>491</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8482.98127398699</v>
+        <v>15480.50920006808</v>
       </c>
       <c r="B42" t="n">
-        <v>665</v>
+        <v>267</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10113.60121710224</v>
+        <v>18524.10607838082</v>
       </c>
       <c r="B43" t="n">
-        <v>430</v>
+        <v>145</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11744.22116021749</v>
+        <v>21567.70295669356</v>
       </c>
       <c r="B44" t="n">
-        <v>331</v>
+        <v>73</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13374.84110333274</v>
+        <v>24611.29983500631</v>
       </c>
       <c r="B45" t="n">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15005.46104644799</v>
+        <v>27654.89671331905</v>
       </c>
       <c r="B46" t="n">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16636.08098956324</v>
+        <v>30698.49359163179</v>
       </c>
       <c r="B47" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18266.70093267849</v>
+        <v>33742.09046994454</v>
       </c>
       <c r="B48" t="n">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19897.32087579374</v>
+        <v>36785.68734825728</v>
       </c>
       <c r="B49" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>21527.94081890899</v>
+        <v>39829.28422657002</v>
       </c>
       <c r="B50" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>23158.56076202424</v>
+        <v>42872.88110488276</v>
       </c>
       <c r="B51" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>24789.18070513949</v>
+        <v>45916.47798319551</v>
       </c>
       <c r="B52" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>26419.80064825474</v>
+        <v>48960.07486150825</v>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28050.42059136999</v>
+        <v>52003.67173982099</v>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>29681.04053448524</v>
+        <v>55047.26861813373</v>
       </c>
       <c r="B55" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>31311.66047760049</v>
+        <v>58090.86549644647</v>
       </c>
       <c r="B56" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>32942.28042071574</v>
+        <v>61134.46237475922</v>
       </c>
       <c r="B57" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>34572.90036383099</v>
+        <v>64178.05925307196</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>36203.52030694624</v>
+        <v>67221.65613138471</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>37834.14025006149</v>
+        <v>70265.25300969745</v>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>39464.76019317674</v>
+        <v>73308.84988801018</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>41095.38013629199</v>
+        <v>76352.44676632293</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>42726.00007940724</v>
+        <v>79396.04364463568</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>44356.62002252249</v>
+        <v>82439.64052294841</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>45987.23996563774</v>
+        <v>85483.23740126115</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>47617.85990875299</v>
+        <v>88526.8342795739</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>49248.47985186824</v>
+        <v>91570.43115788665</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>50879.09979498349</v>
+        <v>94614.02803619938</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>52509.71973809874</v>
+        <v>97657.62491451213</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>54140.33968121399</v>
+        <v>100701.2217928249</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>55770.95962432924</v>
+        <v>103744.8186711376</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3257593700206886</v>
+        <v>0.5986186178392551</v>
       </c>
       <c r="B72" t="n">
-        <v>5663</v>
+        <v>7009</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>31.52157562558596</v>
+        <v>45.29254638102847</v>
       </c>
       <c r="B73" t="n">
-        <v>2360</v>
+        <v>1798</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>62.71739188115123</v>
+        <v>89.98647414421767</v>
       </c>
       <c r="B74" t="n">
-        <v>915</v>
+        <v>601</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>93.91320813671651</v>
+        <v>134.6804019074069</v>
       </c>
       <c r="B75" t="n">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>125.1090243922818</v>
+        <v>179.3743296705961</v>
       </c>
       <c r="B76" t="n">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>156.304840647847</v>
+        <v>224.0682574337853</v>
       </c>
       <c r="B77" t="n">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>187.5006569034123</v>
+        <v>268.7621851969745</v>
       </c>
       <c r="B78" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>218.6964731589776</v>
+        <v>313.4561129601637</v>
       </c>
       <c r="B79" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>249.8922894145428</v>
+        <v>358.1500407233529</v>
       </c>
       <c r="B80" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>281.0881056701081</v>
+        <v>402.8439684865421</v>
       </c>
       <c r="B81" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>312.2839219256734</v>
+        <v>447.5378962497313</v>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>343.4797381812386</v>
+        <v>492.2318240129205</v>
       </c>
       <c r="B83" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>374.675554436804</v>
+        <v>536.9257517761098</v>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>405.8713706923692</v>
+        <v>581.619679539299</v>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>437.0671869479345</v>
+        <v>626.3136073024882</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>468.2630032034997</v>
+        <v>671.0075350656774</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>499.458819459065</v>
+        <v>715.7014628288666</v>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>530.6546357146303</v>
+        <v>760.3953905920558</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>561.8504519701955</v>
+        <v>805.089318355245</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>593.0462682257609</v>
+        <v>849.7832461184342</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>624.2420844813261</v>
+        <v>894.4771738816235</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>655.4379007368914</v>
+        <v>939.1711016448127</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>686.6337169924566</v>
+        <v>983.8650294080019</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>717.8295332480219</v>
+        <v>1028.558957171191</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>749.0253495035872</v>
+        <v>1073.25288493438</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>780.2211657591524</v>
+        <v>1117.946812697569</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>811.4169820147177</v>
+        <v>1162.640740460759</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>842.612798270283</v>
+        <v>1207.334668223948</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>873.8086145258483</v>
+        <v>1252.028595987137</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>905.0044307814135</v>
+        <v>1296.722523750326</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>936.2002470369788</v>
+        <v>1341.416451513516</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>967.396063292544</v>
+        <v>1386.110379276705</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>998.5918795481093</v>
+        <v>1430.804307039894</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1029.787695803675</v>
+        <v>1475.498234803083</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1060.98351205924</v>
+        <v>1520.192162566272</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.417274920048242e+64</v>
+        <v>-7.679637189077932e+68</v>
       </c>
       <c r="B107" t="n">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>6.812553644221024e+74</v>
+        <v>-7.457688109024598e+68</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.362510728858378e+75</v>
+        <v>-7.235739028971262e+68</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.043766093294653e+75</v>
+        <v>-7.013789948917927e+68</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.725021457730928e+75</v>
+        <v>-6.791840868864592e+68</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.406276822167203e+75</v>
+        <v>-6.569891788811257e+68</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4.087532186603479e+75</v>
+        <v>-6.347942708757921e+68</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4.768787551039754e+75</v>
+        <v>-6.125993628704586e+68</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5.450042915476029e+75</v>
+        <v>-5.904044548651251e+68</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6.131298279912305e+75</v>
+        <v>-5.682095468597916e+68</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>6.81255364434858e+75</v>
+        <v>-5.460146388544581e+68</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>7.493809008784855e+75</v>
+        <v>-5.238197308491245e+68</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>8.17506437322113e+75</v>
+        <v>-5.01624822843791e+68</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8.856319737657405e+75</v>
+        <v>-4.794299148384575e+68</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.53757510209368e+75</v>
+        <v>-4.57235006833124e+68</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.021883046652996e+76</v>
+        <v>-4.350400988277904e+68</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.090008583096623e+76</v>
+        <v>-4.128451908224569e+68</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.158134119540251e+76</v>
+        <v>-3.906502828171234e+68</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.226259655983878e+76</v>
+        <v>-3.684553748117899e+68</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.294385192427506e+76</v>
+        <v>-3.462604668064563e+68</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.362510728871133e+76</v>
+        <v>-3.240655588011229e+68</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.430636265314761e+76</v>
+        <v>-3.018706507957893e+68</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.498761801758388e+76</v>
+        <v>-2.796757427904558e+68</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.566887338202016e+76</v>
+        <v>-2.574808347851222e+68</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.635012874645643e+76</v>
+        <v>-2.352859267797888e+68</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.703138411089271e+76</v>
+        <v>-2.130910187744552e+68</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.771263947532898e+76</v>
+        <v>-1.908961107691217e+68</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.839389483976526e+76</v>
+        <v>-1.687012027637882e+68</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.907515020420153e+76</v>
+        <v>-1.465062947584547e+68</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.975640556863781e+76</v>
+        <v>-1.243113867531211e+68</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.043766093307408e+76</v>
+        <v>-1.021164787477876e+68</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.111891629751036e+76</v>
+        <v>-7.992157074245406e+67</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.180017166194663e+76</v>
+        <v>-5.772666273712058e+67</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.248142702638291e+76</v>
+        <v>-3.553175473178711e+67</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.316268239081918e+76</v>
+        <v>-1.333684672645354e+67</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>9998</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13128.33437356014</v>
+        <v>12024.97411008417</v>
       </c>
       <c r="B2" t="n">
-        <v>2250</v>
+        <v>3301</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>117816.4070671019</v>
+        <v>152346.1320355414</v>
       </c>
       <c r="B3" t="n">
-        <v>2938</v>
+        <v>3210</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>222504.4797606436</v>
+        <v>292667.2899609987</v>
       </c>
       <c r="B4" t="n">
-        <v>1903</v>
+        <v>1639</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>327192.5524541853</v>
+        <v>432988.447886456</v>
       </c>
       <c r="B5" t="n">
-        <v>1082</v>
+        <v>802</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>431880.6251477271</v>
+        <v>573309.6058119131</v>
       </c>
       <c r="B6" t="n">
-        <v>629</v>
+        <v>416</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>536568.6978412688</v>
+        <v>713630.7637373704</v>
       </c>
       <c r="B7" t="n">
-        <v>416</v>
+        <v>229</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>641256.7705348105</v>
+        <v>853951.9216628277</v>
       </c>
       <c r="B8" t="n">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>745944.8432283523</v>
+        <v>994273.0795882849</v>
       </c>
       <c r="B9" t="n">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>850632.915921894</v>
+        <v>1134594.237513742</v>
       </c>
       <c r="B10" t="n">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>955320.9886154358</v>
+        <v>1274915.395439199</v>
       </c>
       <c r="B11" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1060009.061308977</v>
+        <v>1415236.553364657</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1164697.134002519</v>
+        <v>1555557.711290114</v>
       </c>
       <c r="B13" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1269385.206696061</v>
+        <v>1695878.869215571</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1374073.279389603</v>
+        <v>1836200.027141029</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1478761.352083144</v>
+        <v>1976521.185066486</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1583449.424776686</v>
+        <v>2116842.342991943</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1688137.497470228</v>
+        <v>2257163.5009174</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1792825.570163769</v>
+        <v>2397484.658842857</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1897513.642857311</v>
+        <v>2537805.816768315</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2002201.715550853</v>
+        <v>2678126.974693772</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2106889.788244395</v>
+        <v>2818448.132619229</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2211577.860937937</v>
+        <v>2958769.290544686</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2316265.933631478</v>
+        <v>3099090.448470144</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2420954.00632502</v>
+        <v>3239411.606395601</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2525642.079018562</v>
+        <v>3379732.764321059</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2630330.151712104</v>
+        <v>3520053.922246516</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2735018.224405645</v>
+        <v>3660375.080171973</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2839706.297099187</v>
+        <v>3800696.23809743</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2944394.369792729</v>
+        <v>3941017.396022887</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3049082.44248627</v>
+        <v>4081338.553948345</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3153770.515179812</v>
+        <v>4221659.711873802</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3258458.587873354</v>
+        <v>4361980.869799259</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3363146.660566896</v>
+        <v>4502302.027724717</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3467834.733260437</v>
+        <v>4642623.185650175</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3572522.805953979</v>
+        <v>4782944.343575631</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>262.5248085043679</v>
+        <v>324.4356689740476</v>
       </c>
       <c r="B37" t="n">
-        <v>2841</v>
+        <v>2855</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3306.12168681711</v>
+        <v>3288.154362009338</v>
       </c>
       <c r="B38" t="n">
-        <v>3389</v>
+        <v>3328</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6349.718565129852</v>
+        <v>6251.87305504463</v>
       </c>
       <c r="B39" t="n">
-        <v>1795</v>
+        <v>1757</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9393.315443442594</v>
+        <v>9215.59174807992</v>
       </c>
       <c r="B40" t="n">
-        <v>851</v>
+        <v>898</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12436.91232175534</v>
+        <v>12179.31044111521</v>
       </c>
       <c r="B41" t="n">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15480.50920006808</v>
+        <v>15143.0291341505</v>
       </c>
       <c r="B42" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18524.10607838082</v>
+        <v>18106.74782718579</v>
       </c>
       <c r="B43" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21567.70295669356</v>
+        <v>21070.46652022109</v>
       </c>
       <c r="B44" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>24611.29983500631</v>
+        <v>24034.18521325638</v>
       </c>
       <c r="B45" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>27654.89671331905</v>
+        <v>26997.90390629167</v>
       </c>
       <c r="B46" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>30698.49359163179</v>
+        <v>29961.62259932696</v>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33742.09046994454</v>
+        <v>32925.34129236225</v>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>36785.68734825728</v>
+        <v>35889.05998539754</v>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>39829.28422657002</v>
+        <v>38852.77867843283</v>
       </c>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>42872.88110488276</v>
+        <v>41816.49737146812</v>
       </c>
       <c r="B51" t="n">
         <v>4</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>45916.47798319551</v>
+        <v>44780.21606450341</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>48960.07486150825</v>
+        <v>47743.9347575387</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52003.67173982099</v>
+        <v>50707.65345057399</v>
       </c>
       <c r="B54" t="n">
         <v>2</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>55047.26861813373</v>
+        <v>53671.37214360928</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>58090.86549644647</v>
+        <v>56635.09083664457</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>61134.46237475922</v>
+        <v>59598.80952967986</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>64178.05925307196</v>
+        <v>62562.52822271515</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67221.65613138471</v>
+        <v>65526.24691575045</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>70265.25300969745</v>
+        <v>68489.96560878574</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>73308.84988801018</v>
+        <v>71453.68430182103</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>76352.44676632293</v>
+        <v>74417.40299485633</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>79396.04364463568</v>
+        <v>77381.12168789162</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>82439.64052294841</v>
+        <v>80344.84038092691</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>85483.23740126115</v>
+        <v>83308.5590739622</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>88526.8342795739</v>
+        <v>86272.27776699749</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>91570.43115788665</v>
+        <v>89235.99646003278</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>94614.02803619938</v>
+        <v>92199.71515306807</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>97657.62491451213</v>
+        <v>95163.43384610336</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>100701.2217928249</v>
+        <v>98127.15253913865</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>103744.8186711376</v>
+        <v>101090.8712321739</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5986186178392551</v>
+        <v>0.1667693842401346</v>
       </c>
       <c r="B72" t="n">
-        <v>7009</v>
+        <v>8612</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>45.29254638102847</v>
+        <v>82.6113922162377</v>
       </c>
       <c r="B73" t="n">
-        <v>1798</v>
+        <v>967</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>89.98647414421767</v>
+        <v>165.0560150482353</v>
       </c>
       <c r="B74" t="n">
-        <v>601</v>
+        <v>251</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>134.6804019074069</v>
+        <v>247.5006378802328</v>
       </c>
       <c r="B75" t="n">
-        <v>292</v>
+        <v>98</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>179.3743296705961</v>
+        <v>329.9452607122304</v>
       </c>
       <c r="B76" t="n">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>224.0682574337853</v>
+        <v>412.3898835442279</v>
       </c>
       <c r="B77" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>268.7621851969745</v>
+        <v>494.8345063762255</v>
       </c>
       <c r="B78" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>313.4561129601637</v>
+        <v>577.2791292082231</v>
       </c>
       <c r="B79" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>358.1500407233529</v>
+        <v>659.7237520402207</v>
       </c>
       <c r="B80" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>402.8439684865421</v>
+        <v>742.1683748722182</v>
       </c>
       <c r="B81" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>447.5378962497313</v>
+        <v>824.6129977042158</v>
       </c>
       <c r="B82" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>492.2318240129205</v>
+        <v>907.0576205362133</v>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>536.9257517761098</v>
+        <v>989.502243368211</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>581.619679539299</v>
+        <v>1071.946866200208</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>626.3136073024882</v>
+        <v>1154.391489032206</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>671.0075350656774</v>
+        <v>1236.836111864204</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>715.7014628288666</v>
+        <v>1319.280734696201</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>760.3953905920558</v>
+        <v>1401.725357528199</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>805.089318355245</v>
+        <v>1484.169980360196</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>849.7832461184342</v>
+        <v>1566.614603192194</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>894.4771738816235</v>
+        <v>1649.059226024191</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>939.1711016448127</v>
+        <v>1731.503848856189</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>983.8650294080019</v>
+        <v>1813.948471688186</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1028.558957171191</v>
+        <v>1896.393094520184</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1073.25288493438</v>
+        <v>1978.837717352182</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1117.946812697569</v>
+        <v>2061.282340184179</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1162.640740460759</v>
+        <v>2143.726963016177</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1207.334668223948</v>
+        <v>2226.171585848174</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1252.028595987137</v>
+        <v>2308.616208680172</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1296.722523750326</v>
+        <v>2391.060831512169</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1341.416451513516</v>
+        <v>2473.505454344167</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1386.110379276705</v>
+        <v>2555.950077176165</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1430.804307039894</v>
+        <v>2638.394700008162</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1475.498234803083</v>
+        <v>2720.83932284016</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1520.192162566272</v>
+        <v>2803.283945672157</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-7.679637189077932e+68</v>
+        <v>-4.265901988416661e+65</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-7.457688109024598e+68</v>
+        <v>-3.155883774648436e+65</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-7.235739028971262e+68</v>
+        <v>-2.04586556088021e+65</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-7.013789948917927e+68</v>
+        <v>-9.358473471119841e+64</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>9996</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-6.791840868864592e+68</v>
+        <v>1.741708666562412e+64</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-6.569891788811257e+68</v>
+        <v>1.284189080424466e+65</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-6.347942708757921e+68</v>
+        <v>2.394207294192693e+65</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-6.125993628704586e+68</v>
+        <v>3.504225507960918e+65</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-5.904044548651251e+68</v>
+        <v>4.614243721729143e+65</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-5.682095468597916e+68</v>
+        <v>5.724261935497369e+65</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-5.460146388544581e+68</v>
+        <v>6.834280149265594e+65</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-5.238197308491245e+68</v>
+        <v>7.94429836303382e+65</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-5.01624822843791e+68</v>
+        <v>9.054316576802045e+65</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-4.794299148384575e+68</v>
+        <v>1.016433479057027e+66</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-4.57235006833124e+68</v>
+        <v>1.12743530043385e+66</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-4.350400988277904e+68</v>
+        <v>1.238437121810672e+66</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-4.128451908224569e+68</v>
+        <v>1.349438943187495e+66</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-3.906502828171234e+68</v>
+        <v>1.460440764564317e+66</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-3.684553748117899e+68</v>
+        <v>1.57144258594114e+66</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-3.462604668064563e+68</v>
+        <v>1.682444407317962e+66</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-3.240655588011229e+68</v>
+        <v>1.793446228694785e+66</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-3.018706507957893e+68</v>
+        <v>1.904448050071607e+66</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-2.796757427904558e+68</v>
+        <v>2.01544987144843e+66</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-2.574808347851222e+68</v>
+        <v>2.126451692825253e+66</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-2.352859267797888e+68</v>
+        <v>2.237453514202075e+66</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-2.130910187744552e+68</v>
+        <v>2.348455335578897e+66</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-1.908961107691217e+68</v>
+        <v>2.45945715695572e+66</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-1.687012027637882e+68</v>
+        <v>2.570458978332543e+66</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-1.465062947584547e+68</v>
+        <v>2.681460799709365e+66</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.243113867531211e+68</v>
+        <v>2.792462621086188e+66</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.021164787477876e+68</v>
+        <v>2.90346444246301e+66</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-7.992157074245406e+67</v>
+        <v>3.014466263839833e+66</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-5.772666273712058e+67</v>
+        <v>3.125468085216655e+66</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-3.553175473178711e+67</v>
+        <v>3.236469906593478e+66</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-1.333684672645354e+67</v>
+        <v>3.347471727970301e+66</v>
       </c>
       <c r="B141" t="n">
-        <v>9998</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12024.97411008417</v>
+        <v>12488.55198610769</v>
       </c>
       <c r="B2" t="n">
-        <v>3301</v>
+        <v>2714</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>152346.1320355414</v>
+        <v>134373.9360393156</v>
       </c>
       <c r="B3" t="n">
-        <v>3210</v>
+        <v>3086</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>292667.2899609987</v>
+        <v>256259.3200925235</v>
       </c>
       <c r="B4" t="n">
-        <v>1639</v>
+        <v>1764</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>432988.447886456</v>
+        <v>378144.7041457314</v>
       </c>
       <c r="B5" t="n">
-        <v>802</v>
+        <v>964</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>573309.6058119131</v>
+        <v>500030.0881989393</v>
       </c>
       <c r="B6" t="n">
-        <v>416</v>
+        <v>537</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>713630.7637373704</v>
+        <v>621915.4722521473</v>
       </c>
       <c r="B7" t="n">
-        <v>229</v>
+        <v>355</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>853951.9216628277</v>
+        <v>743800.8563053551</v>
       </c>
       <c r="B8" t="n">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>994273.0795882849</v>
+        <v>865686.240358563</v>
       </c>
       <c r="B9" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1134594.237513742</v>
+        <v>987571.624411771</v>
       </c>
       <c r="B10" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1274915.395439199</v>
+        <v>1109457.008464979</v>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1415236.553364657</v>
+        <v>1231342.392518187</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1555557.711290114</v>
+        <v>1353227.776571395</v>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1695878.869215571</v>
+        <v>1475113.160624602</v>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1836200.027141029</v>
+        <v>1596998.54467781</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1976521.185066486</v>
+        <v>1718883.928731018</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2116842.342991943</v>
+        <v>1840769.312784226</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2257163.5009174</v>
+        <v>1962654.696837434</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2397484.658842857</v>
+        <v>2084540.080890642</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2537805.816768315</v>
+        <v>2206425.46494385</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2678126.974693772</v>
+        <v>2328310.848997058</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2818448.132619229</v>
+        <v>2450196.233050266</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2958769.290544686</v>
+        <v>2572081.617103474</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3099090.448470144</v>
+        <v>2693967.001156682</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3239411.606395601</v>
+        <v>2815852.38520989</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3379732.764321059</v>
+        <v>2937737.769263097</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3520053.922246516</v>
+        <v>3059623.153316305</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3660375.080171973</v>
+        <v>3181508.537369513</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3800696.23809743</v>
+        <v>3303393.921422721</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3941017.396022887</v>
+        <v>3425279.305475929</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4081338.553948345</v>
+        <v>3547164.689529137</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4221659.711873802</v>
+        <v>3669050.073582345</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4361980.869799259</v>
+        <v>3790935.457635553</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4502302.027724717</v>
+        <v>3912820.841688761</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4642623.185650175</v>
+        <v>4034706.225741968</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4782944.343575631</v>
+        <v>4156591.609795176</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>324.4356689740476</v>
+        <v>333.6860119911447</v>
       </c>
       <c r="B37" t="n">
-        <v>2855</v>
+        <v>1791</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3288.154362009338</v>
+        <v>2538.418824345049</v>
       </c>
       <c r="B38" t="n">
-        <v>3328</v>
+        <v>2882</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6251.87305504463</v>
+        <v>4743.151636698954</v>
       </c>
       <c r="B39" t="n">
-        <v>1757</v>
+        <v>1975</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9215.59174807992</v>
+        <v>6947.884449052858</v>
       </c>
       <c r="B40" t="n">
-        <v>898</v>
+        <v>1266</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12179.31044111521</v>
+        <v>9152.617261406764</v>
       </c>
       <c r="B41" t="n">
-        <v>465</v>
+        <v>686</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15143.0291341505</v>
+        <v>11357.35007376067</v>
       </c>
       <c r="B42" t="n">
-        <v>263</v>
+        <v>469</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18106.74782718579</v>
+        <v>13562.08288611457</v>
       </c>
       <c r="B43" t="n">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21070.46652022109</v>
+        <v>15766.81569846848</v>
       </c>
       <c r="B44" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>24034.18521325638</v>
+        <v>17971.54851082238</v>
       </c>
       <c r="B45" t="n">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>26997.90390629167</v>
+        <v>20176.28132317628</v>
       </c>
       <c r="B46" t="n">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>29961.62259932696</v>
+        <v>22381.01413553019</v>
       </c>
       <c r="B47" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>32925.34129236225</v>
+        <v>24585.74694788409</v>
       </c>
       <c r="B48" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>35889.05998539754</v>
+        <v>26790.479760238</v>
       </c>
       <c r="B49" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>38852.77867843283</v>
+        <v>28995.2125725919</v>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>41816.49737146812</v>
+        <v>31199.94538494581</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>44780.21606450341</v>
+        <v>33404.67819729971</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>47743.9347575387</v>
+        <v>35609.41100965362</v>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>50707.65345057399</v>
+        <v>37814.14382200752</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53671.37214360928</v>
+        <v>40018.87663436143</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56635.09083664457</v>
+        <v>42223.60944671533</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>59598.80952967986</v>
+        <v>44428.34225906924</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>62562.52822271515</v>
+        <v>46633.07507142314</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>65526.24691575045</v>
+        <v>48837.80788377704</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>68489.96560878574</v>
+        <v>51042.54069613095</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>71453.68430182103</v>
+        <v>53247.27350848485</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>74417.40299485633</v>
+        <v>55452.00632083876</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>77381.12168789162</v>
+        <v>57656.73913319266</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>80344.84038092691</v>
+        <v>59861.47194554657</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>83308.5590739622</v>
+        <v>62066.20475790047</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>86272.27776699749</v>
+        <v>64270.93757025438</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>89235.99646003278</v>
+        <v>66475.67038260828</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>92199.71515306807</v>
+        <v>68680.40319496219</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>95163.43384610336</v>
+        <v>70885.13600731609</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>98127.15253913865</v>
+        <v>73089.86881966999</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>101090.8712321739</v>
+        <v>75294.6016320239</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1667693842401346</v>
+        <v>0.4833276977997472</v>
       </c>
       <c r="B72" t="n">
-        <v>8612</v>
+        <v>6319</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82.6113922162377</v>
+        <v>37.96186669832922</v>
       </c>
       <c r="B73" t="n">
-        <v>967</v>
+        <v>2059</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>165.0560150482353</v>
+        <v>75.44040569885871</v>
       </c>
       <c r="B74" t="n">
-        <v>251</v>
+        <v>788</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>247.5006378802328</v>
+        <v>112.9189446993882</v>
       </c>
       <c r="B75" t="n">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>329.9452607122304</v>
+        <v>150.3974836999177</v>
       </c>
       <c r="B76" t="n">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>412.3898835442279</v>
+        <v>187.8760227004472</v>
       </c>
       <c r="B77" t="n">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>494.8345063762255</v>
+        <v>225.3545617009766</v>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>577.2791292082231</v>
+        <v>262.8331007015061</v>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>659.7237520402207</v>
+        <v>300.3116397020356</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>742.1683748722182</v>
+        <v>337.7901787025651</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>824.6129977042158</v>
+        <v>375.2687177030945</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>907.0576205362133</v>
+        <v>412.747256703624</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>989.502243368211</v>
+        <v>450.2257957041535</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1071.946866200208</v>
+        <v>487.704334704683</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1154.391489032206</v>
+        <v>525.1828737052124</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1236.836111864204</v>
+        <v>562.6614127057419</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1319.280734696201</v>
+        <v>600.1399517062714</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1401.725357528199</v>
+        <v>637.6184907068009</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1484.169980360196</v>
+        <v>675.0970297073304</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1566.614603192194</v>
+        <v>712.5755687078598</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1649.059226024191</v>
+        <v>750.0541077083893</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1731.503848856189</v>
+        <v>787.5326467089188</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1813.948471688186</v>
+        <v>825.0111857094482</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1896.393094520184</v>
+        <v>862.4897247099777</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1978.837717352182</v>
+        <v>899.9682637105072</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2061.282340184179</v>
+        <v>937.4468027110368</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2143.726963016177</v>
+        <v>974.9253417115663</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2226.171585848174</v>
+        <v>1012.403880712096</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2308.616208680172</v>
+        <v>1049.882419712625</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2391.060831512169</v>
+        <v>1087.360958713155</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2473.505454344167</v>
+        <v>1124.839497713684</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2555.950077176165</v>
+        <v>1162.318036714214</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2638.394700008162</v>
+        <v>1199.796575714743</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2720.83932284016</v>
+        <v>1237.275114715273</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2803.283945672157</v>
+        <v>1274.753653715802</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-4.265901988416661e+65</v>
+        <v>-8.775405828825605e+70</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-3.155883774648436e+65</v>
+        <v>-8.524679910490955e+70</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-2.04586556088021e+65</v>
+        <v>-8.273953992156303e+70</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-9.358473471119841e+64</v>
+        <v>-8.023228073821652e+70</v>
       </c>
       <c r="B110" t="n">
-        <v>9996</v>
+        <v>0</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.741708666562412e+64</v>
+        <v>-7.772502155487002e+70</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.284189080424466e+65</v>
+        <v>-7.52177623715235e+70</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.394207294192693e+65</v>
+        <v>-7.2710503188177e+70</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.504225507960918e+65</v>
+        <v>-7.020324400483049e+70</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>4.614243721729143e+65</v>
+        <v>-6.769598482148397e+70</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5.724261935497369e+65</v>
+        <v>-6.518872563813747e+70</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>6.834280149265594e+65</v>
+        <v>-6.268146645479095e+70</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>7.94429836303382e+65</v>
+        <v>-6.017420727144445e+70</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.054316576802045e+65</v>
+        <v>-5.766694808809794e+70</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.016433479057027e+66</v>
+        <v>-5.515968890475143e+70</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.12743530043385e+66</v>
+        <v>-5.265242972140492e+70</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.238437121810672e+66</v>
+        <v>-5.014517053805842e+70</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.349438943187495e+66</v>
+        <v>-4.763791135471191e+70</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.460440764564317e+66</v>
+        <v>-4.513065217136539e+70</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.57144258594114e+66</v>
+        <v>-4.262339298801889e+70</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.682444407317962e+66</v>
+        <v>-4.011613380467238e+70</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.793446228694785e+66</v>
+        <v>-3.760887462132587e+70</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.904448050071607e+66</v>
+        <v>-3.510161543797936e+70</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.01544987144843e+66</v>
+        <v>-3.259435625463285e+70</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.126451692825253e+66</v>
+        <v>-3.008709707128634e+70</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.237453514202075e+66</v>
+        <v>-2.757983788793984e+70</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.348455335578897e+66</v>
+        <v>-2.507257870459332e+70</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.45945715695572e+66</v>
+        <v>-2.256531952124681e+70</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.570458978332543e+66</v>
+        <v>-2.005806033790031e+70</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.681460799709365e+66</v>
+        <v>-1.755080115455379e+70</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.792462621086188e+66</v>
+        <v>-1.504354197120729e+70</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.90346444246301e+66</v>
+        <v>-1.253628278786078e+70</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3.014466263839833e+66</v>
+        <v>-1.002902360451426e+70</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3.125468085216655e+66</v>
+        <v>-7.52176442116776e+69</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3.236469906593478e+66</v>
+        <v>-5.014505237821255e+69</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3.347471727970301e+66</v>
+        <v>-2.507246054474738e+69</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12488.55198610769</v>
+        <v>14149.61473792828</v>
       </c>
       <c r="B2" t="n">
-        <v>2714</v>
+        <v>1738</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>134373.9360393156</v>
+        <v>109742.9511976792</v>
       </c>
       <c r="B3" t="n">
-        <v>3086</v>
+        <v>2752</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>256259.3200925235</v>
+        <v>205336.28765743</v>
       </c>
       <c r="B4" t="n">
-        <v>1764</v>
+        <v>2044</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>378144.7041457314</v>
+        <v>300929.6241171808</v>
       </c>
       <c r="B5" t="n">
-        <v>964</v>
+        <v>1162</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>500030.0881989393</v>
+        <v>396522.9605769317</v>
       </c>
       <c r="B6" t="n">
-        <v>537</v>
+        <v>727</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>621915.4722521473</v>
+        <v>492116.2970366826</v>
       </c>
       <c r="B7" t="n">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>743800.8563053551</v>
+        <v>587709.6334964334</v>
       </c>
       <c r="B8" t="n">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>865686.240358563</v>
+        <v>683302.9699561843</v>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>987571.624411771</v>
+        <v>778896.3064159352</v>
       </c>
       <c r="B10" t="n">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1109457.008464979</v>
+        <v>874489.6428756861</v>
       </c>
       <c r="B11" t="n">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1231342.392518187</v>
+        <v>970082.9793354369</v>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1353227.776571395</v>
+        <v>1065676.315795188</v>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1475113.160624602</v>
+        <v>1161269.652254939</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1596998.54467781</v>
+        <v>1256862.98871469</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1718883.928731018</v>
+        <v>1352456.32517444</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1840769.312784226</v>
+        <v>1448049.661634191</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1962654.696837434</v>
+        <v>1543642.998093942</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2084540.080890642</v>
+        <v>1639236.334553693</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2206425.46494385</v>
+        <v>1734829.671013444</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2328310.848997058</v>
+        <v>1830423.007473195</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2450196.233050266</v>
+        <v>1926016.343932946</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2572081.617103474</v>
+        <v>2021609.680392697</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2693967.001156682</v>
+        <v>2117203.016852447</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2815852.38520989</v>
+        <v>2212796.353312198</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2937737.769263097</v>
+        <v>2308389.689771949</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3059623.153316305</v>
+        <v>2403983.0262317</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3181508.537369513</v>
+        <v>2499576.362691451</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3303393.921422721</v>
+        <v>2595169.699151202</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3425279.305475929</v>
+        <v>2690763.035610952</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3547164.689529137</v>
+        <v>2786356.372070703</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3669050.073582345</v>
+        <v>2881949.708530454</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3790935.457635553</v>
+        <v>2977543.044990205</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3912820.841688761</v>
+        <v>3073136.381449956</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4034706.225741968</v>
+        <v>3168729.717909707</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4156591.609795176</v>
+        <v>3264323.054369458</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>333.6860119911447</v>
+        <v>283.0943706160348</v>
       </c>
       <c r="B37" t="n">
-        <v>1791</v>
+        <v>2941</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2538.418824345049</v>
+        <v>3595.35571433935</v>
       </c>
       <c r="B38" t="n">
-        <v>2882</v>
+        <v>3482</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4743.151636698954</v>
+        <v>6907.617058062667</v>
       </c>
       <c r="B39" t="n">
-        <v>1975</v>
+        <v>1712</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6947.884449052858</v>
+        <v>10219.87840178598</v>
       </c>
       <c r="B40" t="n">
-        <v>1266</v>
+        <v>836</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9152.617261406764</v>
+        <v>13532.1397455093</v>
       </c>
       <c r="B41" t="n">
-        <v>686</v>
+        <v>433</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11357.35007376067</v>
+        <v>16844.40108923262</v>
       </c>
       <c r="B42" t="n">
-        <v>469</v>
+        <v>235</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13562.08288611457</v>
+        <v>20156.66243295593</v>
       </c>
       <c r="B43" t="n">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15766.81569846848</v>
+        <v>23468.92377667925</v>
       </c>
       <c r="B44" t="n">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17971.54851082238</v>
+        <v>26781.18512040256</v>
       </c>
       <c r="B45" t="n">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20176.28132317628</v>
+        <v>30093.44646412588</v>
       </c>
       <c r="B46" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22381.01413553019</v>
+        <v>33405.70780784919</v>
       </c>
       <c r="B47" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24585.74694788409</v>
+        <v>36717.96915157251</v>
       </c>
       <c r="B48" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>26790.479760238</v>
+        <v>40030.23049529582</v>
       </c>
       <c r="B49" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>28995.2125725919</v>
+        <v>43342.49183901914</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>31199.94538494581</v>
+        <v>46654.75318274245</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>33404.67819729971</v>
+        <v>49967.01452646577</v>
       </c>
       <c r="B52" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>35609.41100965362</v>
+        <v>53279.27587018909</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>37814.14382200752</v>
+        <v>56591.5372139124</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>40018.87663436143</v>
+        <v>59903.79855763572</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>42223.60944671533</v>
+        <v>63216.05990135903</v>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>44428.34225906924</v>
+        <v>66528.32124508235</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>46633.07507142314</v>
+        <v>69840.58258880566</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>48837.80788377704</v>
+        <v>73152.84393252898</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>51042.54069613095</v>
+        <v>76465.1052762523</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>53247.27350848485</v>
+        <v>79777.36661997561</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>55452.00632083876</v>
+        <v>83089.62796369892</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>57656.73913319266</v>
+        <v>86401.88930742224</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>59861.47194554657</v>
+        <v>89714.15065114557</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>62066.20475790047</v>
+        <v>93026.41199486887</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>64270.93757025438</v>
+        <v>96338.67333859218</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66475.67038260828</v>
+        <v>99650.93468231551</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>68680.40319496219</v>
+        <v>102963.1960260388</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>70885.13600731609</v>
+        <v>106275.4573697621</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>73089.86881966999</v>
+        <v>109587.7187134854</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>75294.6016320239</v>
+        <v>112899.9800572088</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4833276977997472</v>
+        <v>0.5186924233492316</v>
       </c>
       <c r="B72" t="n">
-        <v>6319</v>
+        <v>8545</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37.96186669832922</v>
+        <v>82.43798603533905</v>
       </c>
       <c r="B73" t="n">
-        <v>2059</v>
+        <v>1016</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>75.44040569885871</v>
+        <v>164.3572796473289</v>
       </c>
       <c r="B74" t="n">
-        <v>788</v>
+        <v>282</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112.9189446993882</v>
+        <v>246.2765732593187</v>
       </c>
       <c r="B75" t="n">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>150.3974836999177</v>
+        <v>328.1958668713085</v>
       </c>
       <c r="B76" t="n">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>187.8760227004472</v>
+        <v>410.1151604832983</v>
       </c>
       <c r="B77" t="n">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>225.3545617009766</v>
+        <v>492.0344540952881</v>
       </c>
       <c r="B78" t="n">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>262.8331007015061</v>
+        <v>573.9537477072779</v>
       </c>
       <c r="B79" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>300.3116397020356</v>
+        <v>655.8730413192677</v>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>337.7901787025651</v>
+        <v>737.7923349312575</v>
       </c>
       <c r="B81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>375.2687177030945</v>
+        <v>819.7116285432473</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>412.747256703624</v>
+        <v>901.6309221552372</v>
       </c>
       <c r="B83" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>450.2257957041535</v>
+        <v>983.550215767227</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>487.704334704683</v>
+        <v>1065.469509379217</v>
       </c>
       <c r="B85" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>525.1828737052124</v>
+        <v>1147.388802991207</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>562.6614127057419</v>
+        <v>1229.308096603196</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>600.1399517062714</v>
+        <v>1311.227390215186</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>637.6184907068009</v>
+        <v>1393.146683827176</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>675.0970297073304</v>
+        <v>1475.065977439166</v>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>712.5755687078598</v>
+        <v>1556.985271051156</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>750.0541077083893</v>
+        <v>1638.904564663145</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>787.5326467089188</v>
+        <v>1720.823858275135</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>825.0111857094482</v>
+        <v>1802.743151887125</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>862.4897247099777</v>
+        <v>1884.662445499115</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>899.9682637105072</v>
+        <v>1966.581739111105</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>937.4468027110368</v>
+        <v>2048.501032723095</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>974.9253417115663</v>
+        <v>2130.420326335085</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1012.403880712096</v>
+        <v>2212.339619947074</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1049.882419712625</v>
+        <v>2294.258913559064</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1087.360958713155</v>
+        <v>2376.178207171054</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1124.839497713684</v>
+        <v>2458.097500783044</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1162.318036714214</v>
+        <v>2540.016794395034</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1199.796575714743</v>
+        <v>2621.936088007023</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1237.275114715273</v>
+        <v>2703.855381619013</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1274.753653715802</v>
+        <v>2785.774675231003</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-8.775405828825605e+70</v>
+        <v>-3.425531071885953e+66</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-8.524679910490955e+70</v>
+        <v>-2.74279364860849e+66</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-8.273953992156303e+70</v>
+        <v>-2.060056225331026e+66</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-8.023228073821652e+70</v>
+        <v>-1.377318802053562e+66</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-7.772502155487002e+70</v>
+        <v>-6.94581378776098e+65</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-7.52177623715235e+70</v>
+        <v>-1.184395549863424e+64</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>9996</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-7.2710503188177e+70</v>
+        <v>6.708934677788299e+65</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-7.020324400483049e+70</v>
+        <v>1.353630891056293e+66</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-6.769598482148397e+70</v>
+        <v>2.036368314333757e+66</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-6.518872563813747e+70</v>
+        <v>2.719105737611221e+66</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-6.268146645479095e+70</v>
+        <v>3.401843160888685e+66</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-6.017420727144445e+70</v>
+        <v>4.084580584166149e+66</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-5.766694808809794e+70</v>
+        <v>4.767318007443613e+66</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-5.515968890475143e+70</v>
+        <v>5.450055430721077e+66</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-5.265242972140492e+70</v>
+        <v>6.13279285399854e+66</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-5.014517053805842e+70</v>
+        <v>6.815530277276004e+66</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-4.763791135471191e+70</v>
+        <v>7.498267700553468e+66</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-4.513065217136539e+70</v>
+        <v>8.181005123830932e+66</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-4.262339298801889e+70</v>
+        <v>8.863742547108396e+66</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-4.011613380467238e+70</v>
+        <v>9.546479970385859e+66</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-3.760887462132587e+70</v>
+        <v>1.022921739366332e+67</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-3.510161543797936e+70</v>
+        <v>1.091195481694079e+67</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-3.259435625463285e+70</v>
+        <v>1.159469224021825e+67</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-3.008709707128634e+70</v>
+        <v>1.227742966349571e+67</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-2.757983788793984e+70</v>
+        <v>1.296016708677318e+67</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-2.507257870459332e+70</v>
+        <v>1.364290451005064e+67</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-2.256531952124681e+70</v>
+        <v>1.432564193332811e+67</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-2.005806033790031e+70</v>
+        <v>1.500837935660557e+67</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-1.755080115455379e+70</v>
+        <v>1.569111677988303e+67</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.504354197120729e+70</v>
+        <v>1.63738542031605e+67</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.253628278786078e+70</v>
+        <v>1.705659162643796e+67</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1.002902360451426e+70</v>
+        <v>1.773932904971543e+67</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-7.52176442116776e+69</v>
+        <v>1.842206647299289e+67</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-5.014505237821255e+69</v>
+        <v>1.910480389627035e+67</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-2.507246054474738e+69</v>
+        <v>1.978754131954782e+67</v>
       </c>
       <c r="B141" t="n">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14149.61473792828</v>
+        <v>11013.50592205111</v>
       </c>
       <c r="B2" t="n">
-        <v>1738</v>
+        <v>4379</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>109742.9511976792</v>
+        <v>197325.8133194191</v>
       </c>
       <c r="B3" t="n">
-        <v>2752</v>
+        <v>3192</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>205336.28765743</v>
+        <v>383638.1207167871</v>
       </c>
       <c r="B4" t="n">
-        <v>2044</v>
+        <v>1305</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>300929.6241171808</v>
+        <v>569950.4281141552</v>
       </c>
       <c r="B5" t="n">
-        <v>1162</v>
+        <v>553</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>396522.9605769317</v>
+        <v>756262.7355115232</v>
       </c>
       <c r="B6" t="n">
-        <v>727</v>
+        <v>277</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>492116.2970366826</v>
+        <v>942575.0429088912</v>
       </c>
       <c r="B7" t="n">
-        <v>440</v>
+        <v>114</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>587709.6334964334</v>
+        <v>1128887.350306259</v>
       </c>
       <c r="B8" t="n">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>683302.9699561843</v>
+        <v>1315199.657703627</v>
       </c>
       <c r="B9" t="n">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>778896.3064159352</v>
+        <v>1501511.965100995</v>
       </c>
       <c r="B10" t="n">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>874489.6428756861</v>
+        <v>1687824.272498363</v>
       </c>
       <c r="B11" t="n">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>970082.9793354369</v>
+        <v>1874136.579895731</v>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1065676.315795188</v>
+        <v>2060448.887293099</v>
       </c>
       <c r="B13" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1161269.652254939</v>
+        <v>2246761.194690467</v>
       </c>
       <c r="B14" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1256862.98871469</v>
+        <v>2433073.502087835</v>
       </c>
       <c r="B15" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1352456.32517444</v>
+        <v>2619385.809485204</v>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1448049.661634191</v>
+        <v>2805698.116882571</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1543642.998093942</v>
+        <v>2992010.424279939</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1639236.334553693</v>
+        <v>3178322.731677307</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1734829.671013444</v>
+        <v>3364635.039074675</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1830423.007473195</v>
+        <v>3550947.346472044</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1926016.343932946</v>
+        <v>3737259.653869411</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2021609.680392697</v>
+        <v>3923571.961266779</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2117203.016852447</v>
+        <v>4109884.268664148</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2212796.353312198</v>
+        <v>4296196.576061515</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2308389.689771949</v>
+        <v>4482508.883458884</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2403983.0262317</v>
+        <v>4668821.190856252</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2499576.362691451</v>
+        <v>4855133.498253619</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2595169.699151202</v>
+        <v>5041445.805650988</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2690763.035610952</v>
+        <v>5227758.113048356</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2786356.372070703</v>
+        <v>5414070.420445723</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2881949.708530454</v>
+        <v>5600382.727843092</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2977543.044990205</v>
+        <v>5786695.035240459</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3073136.381449956</v>
+        <v>5973007.342637828</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3168729.717909707</v>
+        <v>6159319.650035196</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3264323.054369458</v>
+        <v>6345631.957432563</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>283.0943706160348</v>
+        <v>273.647674813513</v>
       </c>
       <c r="B37" t="n">
-        <v>2941</v>
+        <v>1844</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3595.35571433935</v>
+        <v>2606.958255629334</v>
       </c>
       <c r="B38" t="n">
-        <v>3482</v>
+        <v>3049</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6907.617058062667</v>
+        <v>4940.268836445153</v>
       </c>
       <c r="B39" t="n">
-        <v>1712</v>
+        <v>2016</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10219.87840178598</v>
+        <v>7273.579417260974</v>
       </c>
       <c r="B40" t="n">
-        <v>836</v>
+        <v>1189</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13532.1397455093</v>
+        <v>9606.889998076795</v>
       </c>
       <c r="B41" t="n">
-        <v>433</v>
+        <v>722</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16844.40108923262</v>
+        <v>11940.20057889261</v>
       </c>
       <c r="B42" t="n">
-        <v>235</v>
+        <v>418</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20156.66243295593</v>
+        <v>14273.51115970844</v>
       </c>
       <c r="B43" t="n">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>23468.92377667925</v>
+        <v>16606.82174052425</v>
       </c>
       <c r="B44" t="n">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>26781.18512040256</v>
+        <v>18940.13232134008</v>
       </c>
       <c r="B45" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>30093.44646412588</v>
+        <v>21273.4429021559</v>
       </c>
       <c r="B46" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>33405.70780784919</v>
+        <v>23606.75348297172</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>36717.96915157251</v>
+        <v>25940.06406378754</v>
       </c>
       <c r="B48" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>40030.23049529582</v>
+        <v>28273.37464460336</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43342.49183901914</v>
+        <v>30606.68522541918</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>46654.75318274245</v>
+        <v>32939.995806235</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>49967.01452646577</v>
+        <v>35273.30638705081</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>53279.27587018909</v>
+        <v>37606.61696786663</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>56591.5372139124</v>
+        <v>39939.92754868246</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>59903.79855763572</v>
+        <v>42273.23812949828</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>63216.05990135903</v>
+        <v>44606.54871031409</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>66528.32124508235</v>
+        <v>46939.85929112991</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>69840.58258880566</v>
+        <v>49273.16987194573</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>73152.84393252898</v>
+        <v>51606.48045276156</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>76465.1052762523</v>
+        <v>53939.79103357738</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>79777.36661997561</v>
+        <v>56273.1016143932</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>83089.62796369892</v>
+        <v>58606.41219520901</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>86401.88930742224</v>
+        <v>60939.72277602484</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>89714.15065114557</v>
+        <v>63273.03335684066</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>93026.41199486887</v>
+        <v>65606.34393765648</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>96338.67333859218</v>
+        <v>67939.65451847231</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>99650.93468231551</v>
+        <v>70272.96509928812</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>102963.1960260388</v>
+        <v>72606.27568010395</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>106275.4573697621</v>
+        <v>74939.58626091976</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>109587.7187134854</v>
+        <v>77272.89684173558</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112899.9800572088</v>
+        <v>79606.20742255141</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5186924233492316</v>
+        <v>0.738712196515673</v>
       </c>
       <c r="B72" t="n">
-        <v>8545</v>
+        <v>6932</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82.43798603533905</v>
+        <v>45.22668876087787</v>
       </c>
       <c r="B73" t="n">
-        <v>1016</v>
+        <v>1783</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>164.3572796473289</v>
+        <v>89.71466532524008</v>
       </c>
       <c r="B74" t="n">
-        <v>282</v>
+        <v>663</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>246.2765732593187</v>
+        <v>134.2026418896023</v>
       </c>
       <c r="B75" t="n">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>328.1958668713085</v>
+        <v>178.6906184539645</v>
       </c>
       <c r="B76" t="n">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>410.1151604832983</v>
+        <v>223.1785950183267</v>
       </c>
       <c r="B77" t="n">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>492.0344540952881</v>
+        <v>267.6665715826888</v>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>573.9537477072779</v>
+        <v>312.1545481470511</v>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>655.8730413192677</v>
+        <v>356.6425247114133</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>737.7923349312575</v>
+        <v>401.1305012757755</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>819.7116285432473</v>
+        <v>445.6184778401377</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>901.6309221552372</v>
+        <v>490.1064544044999</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>983.550215767227</v>
+        <v>534.594430968862</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1065.469509379217</v>
+        <v>579.0824075332242</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1147.388802991207</v>
+        <v>623.5703840975864</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1229.308096603196</v>
+        <v>668.0583606619487</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1311.227390215186</v>
+        <v>712.5463372263108</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1393.146683827176</v>
+        <v>757.034313790673</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1475.065977439166</v>
+        <v>801.5222903550352</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1556.985271051156</v>
+        <v>846.0102669193974</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1638.904564663145</v>
+        <v>890.4982434837597</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1720.823858275135</v>
+        <v>934.9862200481218</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1802.743151887125</v>
+        <v>979.474196612484</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1884.662445499115</v>
+        <v>1023.962173176846</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1966.581739111105</v>
+        <v>1068.450149741208</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2048.501032723095</v>
+        <v>1112.938126305571</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2130.420326335085</v>
+        <v>1157.426102869933</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2212.339619947074</v>
+        <v>1201.914079434295</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2294.258913559064</v>
+        <v>1246.402055998657</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2376.178207171054</v>
+        <v>1290.89003256302</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2458.097500783044</v>
+        <v>1335.378009127382</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2540.016794395034</v>
+        <v>1379.865985691744</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2621.936088007023</v>
+        <v>1424.353962256106</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2703.855381619013</v>
+        <v>1468.841938820468</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2785.774675231003</v>
+        <v>1513.32991538483</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-3.425531071885953e+66</v>
+        <v>-2.40450171056629e+67</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-2.74279364860849e+66</v>
+        <v>-2.306929035665987e+67</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-2.060056225331026e+66</v>
+        <v>-2.209356360765684e+67</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.377318802053562e+66</v>
+        <v>-2.111783685865381e+67</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-6.94581378776098e+65</v>
+        <v>-2.014211010965078e+67</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.184395549863424e+64</v>
+        <v>-1.916638336064774e+67</v>
       </c>
       <c r="B112" t="n">
-        <v>9996</v>
+        <v>0</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>6.708934677788299e+65</v>
+        <v>-1.819065661164471e+67</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.353630891056293e+66</v>
+        <v>-1.721492986264168e+67</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.036368314333757e+66</v>
+        <v>-1.623920311363865e+67</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.719105737611221e+66</v>
+        <v>-1.526347636463562e+67</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.401843160888685e+66</v>
+        <v>-1.428774961563259e+67</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.084580584166149e+66</v>
+        <v>-1.331202286662956e+67</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.767318007443613e+66</v>
+        <v>-1.233629611762652e+67</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5.450055430721077e+66</v>
+        <v>-1.136056936862349e+67</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6.13279285399854e+66</v>
+        <v>-1.038484261962046e+67</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6.815530277276004e+66</v>
+        <v>-9.40911587061743e+66</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>7.498267700553468e+66</v>
+        <v>-8.433389121614398e+66</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>8.181005123830932e+66</v>
+        <v>-7.457662372611367e+66</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8.863742547108396e+66</v>
+        <v>-6.481935623608335e+66</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.546479970385859e+66</v>
+        <v>-5.506208874605304e+66</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.022921739366332e+67</v>
+        <v>-4.530482125602272e+66</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.091195481694079e+67</v>
+        <v>-3.554755376599241e+66</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.159469224021825e+67</v>
+        <v>-2.579028627596209e+66</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.227742966349571e+67</v>
+        <v>-1.603301878593178e+66</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.296016708677318e+67</v>
+        <v>-6.275751295901465e+65</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>9997</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.364290451005064e+67</v>
+        <v>3.48151619412885e+65</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.432564193332811e+67</v>
+        <v>1.323878368415916e+66</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.500837935660557e+67</v>
+        <v>2.299605117418948e+66</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.569111677988303e+67</v>
+        <v>3.275331866421979e+66</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.63738542031605e+67</v>
+        <v>4.251058615425011e+66</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.705659162643796e+67</v>
+        <v>5.226785364428042e+66</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.773932904971543e+67</v>
+        <v>6.202512113431074e+66</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.842206647299289e+67</v>
+        <v>7.178238862434105e+66</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.910480389627035e+67</v>
+        <v>8.153965611437137e+66</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.978754131954782e+67</v>
+        <v>9.129692360440168e+66</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11013.50592205111</v>
+        <v>12935.51323266746</v>
       </c>
       <c r="B2" t="n">
-        <v>4379</v>
+        <v>2671</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>197325.8133194191</v>
+        <v>134247.2926867578</v>
       </c>
       <c r="B3" t="n">
-        <v>3192</v>
+        <v>3070</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>383638.1207167871</v>
+        <v>255559.0721408481</v>
       </c>
       <c r="B4" t="n">
-        <v>1305</v>
+        <v>1806</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>569950.4281141552</v>
+        <v>376870.8515949384</v>
       </c>
       <c r="B5" t="n">
-        <v>553</v>
+        <v>1019</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>756262.7355115232</v>
+        <v>498182.6310490287</v>
       </c>
       <c r="B6" t="n">
-        <v>277</v>
+        <v>544</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>942575.0429088912</v>
+        <v>619494.410503119</v>
       </c>
       <c r="B7" t="n">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1128887.350306259</v>
+        <v>740806.1899572094</v>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1315199.657703627</v>
+        <v>862117.9694112997</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1501511.965100995</v>
+        <v>983429.74886539</v>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1687824.272498363</v>
+        <v>1104741.52831948</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1874136.579895731</v>
+        <v>1226053.307773571</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2060448.887293099</v>
+        <v>1347365.087227661</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2246761.194690467</v>
+        <v>1468676.866681751</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2433073.502087835</v>
+        <v>1589988.646135841</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2619385.809485204</v>
+        <v>1711300.425589932</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2805698.116882571</v>
+        <v>1832612.205044022</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2992010.424279939</v>
+        <v>1953923.984498112</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3178322.731677307</v>
+        <v>2075235.763952203</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3364635.039074675</v>
+        <v>2196547.543406293</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3550947.346472044</v>
+        <v>2317859.322860383</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3737259.653869411</v>
+        <v>2439171.102314474</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3923571.961266779</v>
+        <v>2560482.881768564</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4109884.268664148</v>
+        <v>2681794.661222654</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4296196.576061515</v>
+        <v>2803106.440676745</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4482508.883458884</v>
+        <v>2924418.220130835</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4668821.190856252</v>
+        <v>3045729.999584925</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4855133.498253619</v>
+        <v>3167041.779039016</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5041445.805650988</v>
+        <v>3288353.558493106</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5227758.113048356</v>
+        <v>3409665.337947196</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5414070.420445723</v>
+        <v>3530977.117401286</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5600382.727843092</v>
+        <v>3652288.896855377</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5786695.035240459</v>
+        <v>3773600.676309467</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5973007.342637828</v>
+        <v>3894912.455763557</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6159319.650035196</v>
+        <v>4016224.235217648</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6345631.957432563</v>
+        <v>4137536.014671738</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>273.647674813513</v>
+        <v>286.0777190360682</v>
       </c>
       <c r="B37" t="n">
-        <v>1844</v>
+        <v>2418</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2606.958255629334</v>
+        <v>2910.736647846566</v>
       </c>
       <c r="B38" t="n">
-        <v>3049</v>
+        <v>3254</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4940.268836445153</v>
+        <v>5535.395576657065</v>
       </c>
       <c r="B39" t="n">
-        <v>2016</v>
+        <v>1885</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7273.579417260974</v>
+        <v>8160.054505467563</v>
       </c>
       <c r="B40" t="n">
-        <v>1189</v>
+        <v>981</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9606.889998076795</v>
+        <v>10784.71343427806</v>
       </c>
       <c r="B41" t="n">
-        <v>722</v>
+        <v>573</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11940.20057889261</v>
+        <v>13409.37236308856</v>
       </c>
       <c r="B42" t="n">
-        <v>418</v>
+        <v>334</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14273.51115970844</v>
+        <v>16034.03129189906</v>
       </c>
       <c r="B43" t="n">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16606.82174052425</v>
+        <v>18658.69022070956</v>
       </c>
       <c r="B44" t="n">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18940.13232134008</v>
+        <v>21283.34914952005</v>
       </c>
       <c r="B45" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>21273.4429021559</v>
+        <v>23908.00807833055</v>
       </c>
       <c r="B46" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23606.75348297172</v>
+        <v>26532.66700714105</v>
       </c>
       <c r="B47" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>25940.06406378754</v>
+        <v>29157.32593595155</v>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>28273.37464460336</v>
+        <v>31781.98486476205</v>
       </c>
       <c r="B49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>30606.68522541918</v>
+        <v>34406.64379357255</v>
       </c>
       <c r="B50" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>32939.995806235</v>
+        <v>37031.30272238304</v>
       </c>
       <c r="B51" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>35273.30638705081</v>
+        <v>39655.96165119355</v>
       </c>
       <c r="B52" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>37606.61696786663</v>
+        <v>42280.62058000404</v>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>39939.92754868246</v>
+        <v>44905.27950881454</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>42273.23812949828</v>
+        <v>47529.93843762504</v>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>44606.54871031409</v>
+        <v>50154.59736643553</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>46939.85929112991</v>
+        <v>52779.25629524604</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>49273.16987194573</v>
+        <v>55403.91522405653</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>51606.48045276156</v>
+        <v>58028.57415286703</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>53939.79103357738</v>
+        <v>60653.23308167753</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>56273.1016143932</v>
+        <v>63277.89201048802</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>58606.41219520901</v>
+        <v>65902.55093929853</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>60939.72277602484</v>
+        <v>68527.20986810903</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63273.03335684066</v>
+        <v>71151.86879691952</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>65606.34393765648</v>
+        <v>73776.52772573002</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>67939.65451847231</v>
+        <v>76401.18665454052</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>70272.96509928812</v>
+        <v>79025.84558335102</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>72606.27568010395</v>
+        <v>81650.50451216151</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>74939.58626091976</v>
+        <v>84275.16344097201</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>77272.89684173558</v>
+        <v>86899.82236978252</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>79606.20742255141</v>
+        <v>89524.481298593</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.738712196515673</v>
+        <v>0.3125085590087552</v>
       </c>
       <c r="B72" t="n">
-        <v>6932</v>
+        <v>6212</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>45.22668876087787</v>
+        <v>37.71842903678947</v>
       </c>
       <c r="B73" t="n">
-        <v>1783</v>
+        <v>2129</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>89.71466532524008</v>
+        <v>75.12434951457018</v>
       </c>
       <c r="B74" t="n">
-        <v>663</v>
+        <v>803</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>134.2026418896023</v>
+        <v>112.5302699923509</v>
       </c>
       <c r="B75" t="n">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>178.6906184539645</v>
+        <v>149.9361904701316</v>
       </c>
       <c r="B76" t="n">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>223.1785950183267</v>
+        <v>187.3421109479123</v>
       </c>
       <c r="B77" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>267.6665715826888</v>
+        <v>224.748031425693</v>
       </c>
       <c r="B78" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>312.1545481470511</v>
+        <v>262.1539519034737</v>
       </c>
       <c r="B79" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>356.6425247114133</v>
+        <v>299.5598723812544</v>
       </c>
       <c r="B80" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>401.1305012757755</v>
+        <v>336.9657928590351</v>
       </c>
       <c r="B81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>445.6184778401377</v>
+        <v>374.3717133368158</v>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>490.1064544044999</v>
+        <v>411.7776338145966</v>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>534.594430968862</v>
+        <v>449.1835542923773</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>579.0824075332242</v>
+        <v>486.5894747701579</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>623.5703840975864</v>
+        <v>523.9953952479387</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>668.0583606619487</v>
+        <v>561.4013157257194</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>712.5463372263108</v>
+        <v>598.8072362035001</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>757.034313790673</v>
+        <v>636.2131566812808</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>801.5222903550352</v>
+        <v>673.6190771590615</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>846.0102669193974</v>
+        <v>711.0249976368423</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>890.4982434837597</v>
+        <v>748.430918114623</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>934.9862200481218</v>
+        <v>785.8368385924036</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>979.474196612484</v>
+        <v>823.2427590701844</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1023.962173176846</v>
+        <v>860.6486795479651</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1068.450149741208</v>
+        <v>898.0546000257458</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1112.938126305571</v>
+        <v>935.4605205035265</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1157.426102869933</v>
+        <v>972.8664409813072</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1201.914079434295</v>
+        <v>1010.272361459088</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1246.402055998657</v>
+        <v>1047.678281936869</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1290.89003256302</v>
+        <v>1085.08420241465</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1335.378009127382</v>
+        <v>1122.49012289243</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1379.865985691744</v>
+        <v>1159.896043370211</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1424.353962256106</v>
+        <v>1197.301963847992</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1468.841938820468</v>
+        <v>1234.707884325772</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1513.32991538483</v>
+        <v>1272.113804803553</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-2.40450171056629e+67</v>
+        <v>-9.368384735457677e+67</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-2.306929035665987e+67</v>
+        <v>-9.052651376344189e+67</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-2.209356360765684e+67</v>
+        <v>-8.736918017230701e+67</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-2.111783685865381e+67</v>
+        <v>-8.421184658117213e+67</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-2.014211010965078e+67</v>
+        <v>-8.105451299003725e+67</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.916638336064774e+67</v>
+        <v>-7.789717939890237e+67</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1.819065661164471e+67</v>
+        <v>-7.473984580776748e+67</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.721492986264168e+67</v>
+        <v>-7.158251221663261e+67</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.623920311363865e+67</v>
+        <v>-6.842517862549773e+67</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-1.526347636463562e+67</v>
+        <v>-6.526784503436285e+67</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1.428774961563259e+67</v>
+        <v>-6.211051144322796e+67</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1.331202286662956e+67</v>
+        <v>-5.895317785209309e+67</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.233629611762652e+67</v>
+        <v>-5.57958442609582e+67</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.136056936862349e+67</v>
+        <v>-5.263851066982332e+67</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.038484261962046e+67</v>
+        <v>-4.948117707868844e+67</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-9.40911587061743e+66</v>
+        <v>-4.632384348755356e+67</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-8.433389121614398e+66</v>
+        <v>-4.316650989641868e+67</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-7.457662372611367e+66</v>
+        <v>-4.00091763052838e+67</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-6.481935623608335e+66</v>
+        <v>-3.685184271414892e+67</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-5.506208874605304e+66</v>
+        <v>-3.369450912301404e+67</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-4.530482125602272e+66</v>
+        <v>-3.053717553187916e+67</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-3.554755376599241e+66</v>
+        <v>-2.737984194074428e+67</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-2.579028627596209e+66</v>
+        <v>-2.42225083496094e+67</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-1.603301878593178e+66</v>
+        <v>-2.106517475847452e+67</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-6.275751295901465e+65</v>
+        <v>-1.790784116733963e+67</v>
       </c>
       <c r="B131" t="n">
-        <v>9997</v>
+        <v>0</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3.48151619412885e+65</v>
+        <v>-1.475050757620476e+67</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.323878368415916e+66</v>
+        <v>-1.159317398506987e+67</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.299605117418948e+66</v>
+        <v>-8.435840393934999e+66</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.275331866421979e+66</v>
+        <v>-5.278506802800114e+66</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4.251058615425011e+66</v>
+        <v>-2.12117321166524e+66</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>9996</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5.226785364428042e+66</v>
+        <v>1.036160379469646e+66</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.202512113431074e+66</v>
+        <v>4.19349397060452e+66</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7.178238862434105e+66</v>
+        <v>7.350827561739406e+66</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8.153965611437137e+66</v>
+        <v>1.050816115287429e+67</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.129692360440168e+66</v>
+        <v>1.366549474400917e+67</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12935.51323266746</v>
+        <v>12319.03706577487</v>
       </c>
       <c r="B2" t="n">
-        <v>2671</v>
+        <v>4281</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>134247.2926867578</v>
+        <v>182996.0071316017</v>
       </c>
       <c r="B3" t="n">
-        <v>3070</v>
+        <v>3181</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>255559.0721408481</v>
+        <v>353672.9771974286</v>
       </c>
       <c r="B4" t="n">
-        <v>1806</v>
+        <v>1327</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>376870.8515949384</v>
+        <v>524349.9472632554</v>
       </c>
       <c r="B5" t="n">
-        <v>1019</v>
+        <v>586</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>498182.6310490287</v>
+        <v>695026.9173290823</v>
       </c>
       <c r="B6" t="n">
-        <v>544</v>
+        <v>275</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>619494.410503119</v>
+        <v>865703.887394909</v>
       </c>
       <c r="B7" t="n">
-        <v>304</v>
+        <v>155</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>740806.1899572094</v>
+        <v>1036380.857460736</v>
       </c>
       <c r="B8" t="n">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>862117.9694112997</v>
+        <v>1207057.827526563</v>
       </c>
       <c r="B9" t="n">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>983429.74886539</v>
+        <v>1377734.79759239</v>
       </c>
       <c r="B10" t="n">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1104741.52831948</v>
+        <v>1548411.767658216</v>
       </c>
       <c r="B11" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1226053.307773571</v>
+        <v>1719088.737724043</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1347365.087227661</v>
+        <v>1889765.70778987</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1468676.866681751</v>
+        <v>2060442.677855697</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1589988.646135841</v>
+        <v>2231119.647921524</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1711300.425589932</v>
+        <v>2401796.617987351</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1832612.205044022</v>
+        <v>2572473.588053177</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1953923.984498112</v>
+        <v>2743150.558119004</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2075235.763952203</v>
+        <v>2913827.528184831</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2196547.543406293</v>
+        <v>3084504.498250658</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2317859.322860383</v>
+        <v>3255181.468316485</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2439171.102314474</v>
+        <v>3425858.438382311</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2560482.881768564</v>
+        <v>3596535.408448138</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2681794.661222654</v>
+        <v>3767212.378513965</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2803106.440676745</v>
+        <v>3937889.348579792</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2924418.220130835</v>
+        <v>4108566.318645619</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3045729.999584925</v>
+        <v>4279243.288711446</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3167041.779039016</v>
+        <v>4449920.258777273</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3288353.558493106</v>
+        <v>4620597.228843099</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3409665.337947196</v>
+        <v>4791274.198908927</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3530977.117401286</v>
+        <v>4961951.168974753</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3652288.896855377</v>
+        <v>5132628.13904058</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3773600.676309467</v>
+        <v>5303305.109106408</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3894912.455763557</v>
+        <v>5473982.079172234</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4016224.235217648</v>
+        <v>5644659.049238061</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4137536.014671738</v>
+        <v>5815336.019303888</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>286.0777190360682</v>
+        <v>255.1599412097096</v>
       </c>
       <c r="B37" t="n">
-        <v>2418</v>
+        <v>1585</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2910.736647846566</v>
+        <v>2289.681574737751</v>
       </c>
       <c r="B38" t="n">
-        <v>3254</v>
+        <v>2794</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5535.395576657065</v>
+        <v>4324.203208265792</v>
       </c>
       <c r="B39" t="n">
-        <v>1885</v>
+        <v>2039</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8160.054505467563</v>
+        <v>6358.724841793834</v>
       </c>
       <c r="B40" t="n">
-        <v>981</v>
+        <v>1269</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10784.71343427806</v>
+        <v>8393.246475321876</v>
       </c>
       <c r="B41" t="n">
-        <v>573</v>
+        <v>727</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13409.37236308856</v>
+        <v>10427.76810884992</v>
       </c>
       <c r="B42" t="n">
-        <v>334</v>
+        <v>501</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16034.03129189906</v>
+        <v>12462.28974237796</v>
       </c>
       <c r="B43" t="n">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18658.69022070956</v>
+        <v>14496.811375906</v>
       </c>
       <c r="B44" t="n">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>21283.34914952005</v>
+        <v>16531.33300943404</v>
       </c>
       <c r="B45" t="n">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23908.00807833055</v>
+        <v>18565.85464296208</v>
       </c>
       <c r="B46" t="n">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>26532.66700714105</v>
+        <v>20600.37627649013</v>
       </c>
       <c r="B47" t="n">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>29157.32593595155</v>
+        <v>22634.89791001817</v>
       </c>
       <c r="B48" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>31781.98486476205</v>
+        <v>24669.41954354621</v>
       </c>
       <c r="B49" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>34406.64379357255</v>
+        <v>26703.94117707425</v>
       </c>
       <c r="B50" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>37031.30272238304</v>
+        <v>28738.46281060229</v>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>39655.96165119355</v>
+        <v>30772.98444413033</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>42280.62058000404</v>
+        <v>32807.50607765838</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>44905.27950881454</v>
+        <v>34842.02771118642</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>47529.93843762504</v>
+        <v>36876.54934471446</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>50154.59736643553</v>
+        <v>38911.0709782425</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>52779.25629524604</v>
+        <v>40945.59261177055</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>55403.91522405653</v>
+        <v>42980.11424529859</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58028.57415286703</v>
+        <v>45014.63587882663</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>60653.23308167753</v>
+        <v>47049.15751235467</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>63277.89201048802</v>
+        <v>49083.67914588271</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>65902.55093929853</v>
+        <v>51118.20077941075</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>68527.20986810903</v>
+        <v>53152.72241293879</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>71151.86879691952</v>
+        <v>55187.24404646683</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73776.52772573002</v>
+        <v>57221.76567999487</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>76401.18665454052</v>
+        <v>59256.28731352292</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>79025.84558335102</v>
+        <v>61290.80894705096</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>81650.50451216151</v>
+        <v>63325.330580579</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>84275.16344097201</v>
+        <v>65359.85221410704</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>86899.82236978252</v>
+        <v>67394.37384763508</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>89524.481298593</v>
+        <v>69428.89548116313</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3125085590087552</v>
+        <v>0.4869931681425651</v>
       </c>
       <c r="B72" t="n">
-        <v>6212</v>
+        <v>8826</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37.71842903678947</v>
+        <v>86.51855854497485</v>
       </c>
       <c r="B73" t="n">
-        <v>2129</v>
+        <v>869</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>75.12434951457018</v>
+        <v>172.5501239218071</v>
       </c>
       <c r="B74" t="n">
-        <v>803</v>
+        <v>182</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112.5302699923509</v>
+        <v>258.5816892986394</v>
       </c>
       <c r="B75" t="n">
-        <v>363</v>
+        <v>62</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>149.9361904701316</v>
+        <v>344.6132546754718</v>
       </c>
       <c r="B76" t="n">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>187.3421109479123</v>
+        <v>430.6448200523041</v>
       </c>
       <c r="B77" t="n">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>224.748031425693</v>
+        <v>516.6763854291363</v>
       </c>
       <c r="B78" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>262.1539519034737</v>
+        <v>602.7079508059686</v>
       </c>
       <c r="B79" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>299.5598723812544</v>
+        <v>688.7395161828009</v>
       </c>
       <c r="B80" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>336.9657928590351</v>
+        <v>774.7710815596332</v>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>374.3717133368158</v>
+        <v>860.8026469364655</v>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>411.7776338145966</v>
+        <v>946.8342123132978</v>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>449.1835542923773</v>
+        <v>1032.86577769013</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>486.5894747701579</v>
+        <v>1118.897343066962</v>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>523.9953952479387</v>
+        <v>1204.928908443795</v>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>561.4013157257194</v>
+        <v>1290.960473820627</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>598.8072362035001</v>
+        <v>1376.992039197459</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>636.2131566812808</v>
+        <v>1463.023604574292</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>673.6190771590615</v>
+        <v>1549.055169951124</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>711.0249976368423</v>
+        <v>1635.086735327956</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>748.430918114623</v>
+        <v>1721.118300704788</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>785.8368385924036</v>
+        <v>1807.149866081621</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>823.2427590701844</v>
+        <v>1893.181431458453</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>860.6486795479651</v>
+        <v>1979.212996835285</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>898.0546000257458</v>
+        <v>2065.244562212117</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>935.4605205035265</v>
+        <v>2151.27612758895</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>972.8664409813072</v>
+        <v>2237.307692965782</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1010.272361459088</v>
+        <v>2323.339258342614</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1047.678281936869</v>
+        <v>2409.370823719446</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1085.08420241465</v>
+        <v>2495.402389096279</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1122.49012289243</v>
+        <v>2581.433954473111</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1159.896043370211</v>
+        <v>2667.465519849944</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1197.301963847992</v>
+        <v>2753.497085226776</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1234.707884325772</v>
+        <v>2839.528650603608</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1272.113804803553</v>
+        <v>2925.56021598044</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-9.368384735457677e+67</v>
+        <v>-1.731909896523854e+69</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-9.052651376344189e+67</v>
+        <v>4.881528279026359e+68</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-8.736918017230701e+67</v>
+        <v>2.708215552329126e+69</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-8.421184658117213e+67</v>
+        <v>4.928278276755615e+69</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-8.105451299003725e+67</v>
+        <v>7.148341001182106e+69</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-7.789717939890237e+67</v>
+        <v>9.368403725608594e+69</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-7.473984580776748e+67</v>
+        <v>1.158846645003508e+70</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-7.158251221663261e+67</v>
+        <v>1.380852917446157e+70</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-6.842517862549773e+67</v>
+        <v>1.602859189888806e+70</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-6.526784503436285e+67</v>
+        <v>1.824865462331456e+70</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-6.211051144322796e+67</v>
+        <v>2.046871734774104e+70</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-5.895317785209309e+67</v>
+        <v>2.268878007216753e+70</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-5.57958442609582e+67</v>
+        <v>2.490884279659402e+70</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-5.263851066982332e+67</v>
+        <v>2.712890552102051e+70</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-4.948117707868844e+67</v>
+        <v>2.9348968245447e+70</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-4.632384348755356e+67</v>
+        <v>3.156903096987349e+70</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-4.316650989641868e+67</v>
+        <v>3.378909369429998e+70</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-4.00091763052838e+67</v>
+        <v>3.600915641872647e+70</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-3.685184271414892e+67</v>
+        <v>3.822921914315296e+70</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-3.369450912301404e+67</v>
+        <v>4.044928186757945e+70</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-3.053717553187916e+67</v>
+        <v>4.266934459200594e+70</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-2.737984194074428e+67</v>
+        <v>4.488940731643243e+70</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-2.42225083496094e+67</v>
+        <v>4.710947004085892e+70</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-2.106517475847452e+67</v>
+        <v>4.932953276528541e+70</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-1.790784116733963e+67</v>
+        <v>5.15495954897119e+70</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-1.475050757620476e+67</v>
+        <v>5.376965821413838e+70</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-1.159317398506987e+67</v>
+        <v>5.598972093856487e+70</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-8.435840393934999e+66</v>
+        <v>5.820978366299136e+70</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-5.278506802800114e+66</v>
+        <v>6.042984638741784e+70</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-2.12117321166524e+66</v>
+        <v>6.264990911184434e+70</v>
       </c>
       <c r="B136" t="n">
-        <v>9996</v>
+        <v>0</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.036160379469646e+66</v>
+        <v>6.486997183627083e+70</v>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4.19349397060452e+66</v>
+        <v>6.709003456069732e+70</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7.350827561739406e+66</v>
+        <v>6.931009728512381e+70</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.050816115287429e+67</v>
+        <v>7.153016000955029e+70</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.366549474400917e+67</v>
+        <v>7.375022273397679e+70</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12319.03706577487</v>
+        <v>6927.010790396662</v>
       </c>
       <c r="B2" t="n">
-        <v>4281</v>
+        <v>1185</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>182996.0071316017</v>
+        <v>85131.57398131503</v>
       </c>
       <c r="B3" t="n">
-        <v>3181</v>
+        <v>2349</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>353672.9771974286</v>
+        <v>163336.1371722334</v>
       </c>
       <c r="B4" t="n">
-        <v>1327</v>
+        <v>1981</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>524349.9472632554</v>
+        <v>241540.7003631518</v>
       </c>
       <c r="B5" t="n">
-        <v>586</v>
+        <v>1387</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>695026.9173290823</v>
+        <v>319745.2635540701</v>
       </c>
       <c r="B6" t="n">
-        <v>275</v>
+        <v>934</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>865703.887394909</v>
+        <v>397949.8267449885</v>
       </c>
       <c r="B7" t="n">
-        <v>155</v>
+        <v>610</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1036380.857460736</v>
+        <v>476154.3899359069</v>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1207057.827526563</v>
+        <v>554358.9531268253</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1377734.79759239</v>
+        <v>632563.5163177437</v>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1548411.767658216</v>
+        <v>710768.0795086621</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1719088.737724043</v>
+        <v>788972.6426995804</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1889765.70778987</v>
+        <v>867177.2058904988</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2060442.677855697</v>
+        <v>945381.7690814172</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2231119.647921524</v>
+        <v>1023586.332272336</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2401796.617987351</v>
+        <v>1101790.895463254</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2572473.588053177</v>
+        <v>1179995.458654172</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2743150.558119004</v>
+        <v>1258200.021845091</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2913827.528184831</v>
+        <v>1336404.585036009</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3084504.498250658</v>
+        <v>1414609.148226928</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3255181.468316485</v>
+        <v>1492813.711417846</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3425858.438382311</v>
+        <v>1571018.274608764</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3596535.408448138</v>
+        <v>1649222.837799683</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3767212.378513965</v>
+        <v>1727427.400990601</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3937889.348579792</v>
+        <v>1805631.964181519</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4108566.318645619</v>
+        <v>1883836.527372438</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4279243.288711446</v>
+        <v>1962041.090563356</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4449920.258777273</v>
+        <v>2040245.653754274</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4620597.228843099</v>
+        <v>2118450.216945192</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4791274.198908927</v>
+        <v>2196654.780136111</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4961951.168974753</v>
+        <v>2274859.343327029</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5132628.13904058</v>
+        <v>2353063.906517948</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5303305.109106408</v>
+        <v>2431268.469708866</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5473982.079172234</v>
+        <v>2509473.032899784</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5644659.049238061</v>
+        <v>2587677.596090703</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5815336.019303888</v>
+        <v>2665882.159281621</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>255.1599412097096</v>
+        <v>339.7796658501202</v>
       </c>
       <c r="B37" t="n">
-        <v>1585</v>
+        <v>1742</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2289.681574737751</v>
+        <v>2442.547588700675</v>
       </c>
       <c r="B38" t="n">
-        <v>2794</v>
+        <v>2916</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4324.203208265792</v>
+        <v>4545.315511551229</v>
       </c>
       <c r="B39" t="n">
-        <v>2039</v>
+        <v>1980</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6358.724841793834</v>
+        <v>6648.083434401783</v>
       </c>
       <c r="B40" t="n">
-        <v>1269</v>
+        <v>1196</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8393.246475321876</v>
+        <v>8750.851357252337</v>
       </c>
       <c r="B41" t="n">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10427.76810884992</v>
+        <v>10853.61928010289</v>
       </c>
       <c r="B42" t="n">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12462.28974237796</v>
+        <v>12956.38720295345</v>
       </c>
       <c r="B43" t="n">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14496.811375906</v>
+        <v>15059.155125804</v>
       </c>
       <c r="B44" t="n">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16531.33300943404</v>
+        <v>17161.92304865456</v>
       </c>
       <c r="B45" t="n">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18565.85464296208</v>
+        <v>19264.69097150511</v>
       </c>
       <c r="B46" t="n">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20600.37627649013</v>
+        <v>21367.45889435567</v>
       </c>
       <c r="B47" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22634.89791001817</v>
+        <v>23470.22681720622</v>
       </c>
       <c r="B48" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24669.41954354621</v>
+        <v>25572.99474005677</v>
       </c>
       <c r="B49" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26703.94117707425</v>
+        <v>27675.76266290733</v>
       </c>
       <c r="B50" t="n">
         <v>22</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>28738.46281060229</v>
+        <v>29778.53058575788</v>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>30772.98444413033</v>
+        <v>31881.29850860844</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>32807.50607765838</v>
+        <v>33984.06643145899</v>
       </c>
       <c r="B53" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>34842.02771118642</v>
+        <v>36086.83435430954</v>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>36876.54934471446</v>
+        <v>38189.6022771601</v>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>38911.0709782425</v>
+        <v>40292.37020001065</v>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>40945.59261177055</v>
+        <v>42395.13812286121</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>42980.11424529859</v>
+        <v>44497.90604571176</v>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>45014.63587882663</v>
+        <v>46600.67396856232</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>47049.15751235467</v>
+        <v>48703.44189141287</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>49083.67914588271</v>
+        <v>50806.20981426342</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>51118.20077941075</v>
+        <v>52908.97773711398</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>53152.72241293879</v>
+        <v>55011.74565996453</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>55187.24404646683</v>
+        <v>57114.51358281509</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>57221.76567999487</v>
+        <v>59217.28150566564</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>59256.28731352292</v>
+        <v>61320.0494285162</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>61290.80894705096</v>
+        <v>63422.81735136675</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>63325.330580579</v>
+        <v>65525.58527421731</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>65359.85221410704</v>
+        <v>67628.35319706786</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>67394.37384763508</v>
+        <v>69731.12111991842</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>69428.89548116313</v>
+        <v>71833.88904276896</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4869931681425651</v>
+        <v>0.6219026833147377</v>
       </c>
       <c r="B72" t="n">
-        <v>8826</v>
+        <v>5837</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>86.51855854497485</v>
+        <v>32.92228839797377</v>
       </c>
       <c r="B73" t="n">
-        <v>869</v>
+        <v>2249</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>172.5501239218071</v>
+        <v>65.22267411263282</v>
       </c>
       <c r="B74" t="n">
-        <v>182</v>
+        <v>841</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>258.5816892986394</v>
+        <v>97.52305982729186</v>
       </c>
       <c r="B75" t="n">
-        <v>62</v>
+        <v>476</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>344.6132546754718</v>
+        <v>129.8234455419509</v>
       </c>
       <c r="B76" t="n">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>430.6448200523041</v>
+        <v>162.1238312566099</v>
       </c>
       <c r="B77" t="n">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>516.6763854291363</v>
+        <v>194.424216971269</v>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>602.7079508059686</v>
+        <v>226.724602685928</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>688.7395161828009</v>
+        <v>259.024988400587</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>774.7710815596332</v>
+        <v>291.3253741152461</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>860.8026469364655</v>
+        <v>323.6257598299051</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>946.8342123132978</v>
+        <v>355.9261455445641</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1032.86577769013</v>
+        <v>388.2265312592232</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1118.897343066962</v>
+        <v>420.5269169738822</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1204.928908443795</v>
+        <v>452.8273026885412</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1290.960473820627</v>
+        <v>485.1276884032002</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1376.992039197459</v>
+        <v>517.4280741178593</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1463.023604574292</v>
+        <v>549.7284598325183</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1549.055169951124</v>
+        <v>582.0288455471774</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1635.086735327956</v>
+        <v>614.3292312618364</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1721.118300704788</v>
+        <v>646.6296169764954</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1807.149866081621</v>
+        <v>678.9300026911545</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1893.181431458453</v>
+        <v>711.2303884058135</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1979.212996835285</v>
+        <v>743.5307741204725</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2065.244562212117</v>
+        <v>775.8311598351316</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2151.27612758895</v>
+        <v>808.1315455497906</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2237.307692965782</v>
+        <v>840.4319312644496</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2323.339258342614</v>
+        <v>872.7323169791086</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2409.370823719446</v>
+        <v>905.0327026937678</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2495.402389096279</v>
+        <v>937.3330884084268</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2581.433954473111</v>
+        <v>969.6334741230858</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2667.465519849944</v>
+        <v>1001.933859837745</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2753.497085226776</v>
+        <v>1034.234245552404</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2839.528650603608</v>
+        <v>1066.534631267063</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2925.56021598044</v>
+        <v>1098.835016981722</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.731909896523854e+69</v>
+        <v>-1.012077148641624e+70</v>
       </c>
       <c r="B107" t="n">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4.881528279026359e+68</v>
+        <v>-4.340687494144162e+69</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>9998</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.708215552329126e+69</v>
+        <v>1.439396498127918e+69</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4.928278276755615e+69</v>
+        <v>7.219480490399996e+69</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>7.148341001182106e+69</v>
+        <v>1.299956448267208e+70</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9.368403725608594e+69</v>
+        <v>1.877964847494416e+70</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.158846645003508e+70</v>
+        <v>2.455973246721623e+70</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.380852917446157e+70</v>
+        <v>3.033981645948832e+70</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.602859189888806e+70</v>
+        <v>3.61199004517604e+70</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.824865462331456e+70</v>
+        <v>4.189998444403248e+70</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.046871734774104e+70</v>
+        <v>4.768006843630456e+70</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.268878007216753e+70</v>
+        <v>5.346015242857664e+70</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.490884279659402e+70</v>
+        <v>5.92402364208487e+70</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.712890552102051e+70</v>
+        <v>6.502032041312078e+70</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.9348968245447e+70</v>
+        <v>7.080040440539286e+70</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.156903096987349e+70</v>
+        <v>7.658048839766495e+70</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.378909369429998e+70</v>
+        <v>8.236057238993703e+70</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3.600915641872647e+70</v>
+        <v>8.814065638220911e+70</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.822921914315296e+70</v>
+        <v>9.392074037448119e+70</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4.044928186757945e+70</v>
+        <v>9.970082436675327e+70</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4.266934459200594e+70</v>
+        <v>1.054809083590254e+71</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4.488940731643243e+70</v>
+        <v>1.112609923512974e+71</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4.710947004085892e+70</v>
+        <v>1.170410763435695e+71</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4.932953276528541e+70</v>
+        <v>1.228211603358416e+71</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5.15495954897119e+70</v>
+        <v>1.286012443281137e+71</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5.376965821413838e+70</v>
+        <v>1.343813283203857e+71</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.598972093856487e+70</v>
+        <v>1.401614123126578e+71</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5.820978366299136e+70</v>
+        <v>1.459414963049299e+71</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>6.042984638741784e+70</v>
+        <v>1.51721580297202e+71</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>6.264990911184434e+70</v>
+        <v>1.575016642894741e+71</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6.486997183627083e+70</v>
+        <v>1.632817482817461e+71</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.709003456069732e+70</v>
+        <v>1.690618322740182e+71</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6.931009728512381e+70</v>
+        <v>1.748419162662903e+71</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>7.153016000955029e+70</v>
+        <v>1.806220002585624e+71</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>7.375022273397679e+70</v>
+        <v>1.864020842508345e+71</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6927.010790396662</v>
+        <v>4744.414375976582</v>
       </c>
       <c r="B2" t="n">
-        <v>1185</v>
+        <v>1813</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>85131.57398131503</v>
+        <v>106989.9550453087</v>
       </c>
       <c r="B3" t="n">
-        <v>2349</v>
+        <v>2993</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>163336.1371722334</v>
+        <v>209235.4957146407</v>
       </c>
       <c r="B4" t="n">
-        <v>1981</v>
+        <v>2017</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>241540.7003631518</v>
+        <v>311481.0363839729</v>
       </c>
       <c r="B5" t="n">
-        <v>1387</v>
+        <v>1168</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>319745.2635540701</v>
+        <v>413726.5770533049</v>
       </c>
       <c r="B6" t="n">
-        <v>934</v>
+        <v>676</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>397949.8267449885</v>
+        <v>515972.117722637</v>
       </c>
       <c r="B7" t="n">
-        <v>610</v>
+        <v>464</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>476154.3899359069</v>
+        <v>618217.658391969</v>
       </c>
       <c r="B8" t="n">
-        <v>403</v>
+        <v>262</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>554358.9531268253</v>
+        <v>720463.1990613012</v>
       </c>
       <c r="B9" t="n">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>632563.5163177437</v>
+        <v>822708.7397306332</v>
       </c>
       <c r="B10" t="n">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>710768.0795086621</v>
+        <v>924954.2803999652</v>
       </c>
       <c r="B11" t="n">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>788972.6426995804</v>
+        <v>1027199.821069297</v>
       </c>
       <c r="B12" t="n">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>867177.2058904988</v>
+        <v>1129445.36173863</v>
       </c>
       <c r="B13" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>945381.7690814172</v>
+        <v>1231690.902407962</v>
       </c>
       <c r="B14" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1023586.332272336</v>
+        <v>1333936.443077294</v>
       </c>
       <c r="B15" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1101790.895463254</v>
+        <v>1436181.983746626</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1179995.458654172</v>
+        <v>1538427.524415958</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1258200.021845091</v>
+        <v>1640673.06508529</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1336404.585036009</v>
+        <v>1742918.605754622</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1414609.148226928</v>
+        <v>1845164.146423954</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1492813.711417846</v>
+        <v>1947409.687093286</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1571018.274608764</v>
+        <v>2049655.227762618</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1649222.837799683</v>
+        <v>2151900.76843195</v>
       </c>
       <c r="B23" t="n">
         <v>4</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1727427.400990601</v>
+        <v>2254146.309101283</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1805631.964181519</v>
+        <v>2356391.849770614</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1883836.527372438</v>
+        <v>2458637.390439947</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1962041.090563356</v>
+        <v>2560882.931109279</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2040245.653754274</v>
+        <v>2663128.471778611</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2118450.216945192</v>
+        <v>2765374.012447943</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2196654.780136111</v>
+        <v>2867619.553117275</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2274859.343327029</v>
+        <v>2969865.093786607</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2353063.906517948</v>
+        <v>3072110.634455939</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2431268.469708866</v>
+        <v>3174356.175125271</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2509473.032899784</v>
+        <v>3276601.715794603</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2587677.596090703</v>
+        <v>3378847.256463936</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2665882.159281621</v>
+        <v>3481092.797133267</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>339.7796658501202</v>
+        <v>344.5420723123855</v>
       </c>
       <c r="B37" t="n">
-        <v>1742</v>
+        <v>1289</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2442.547588700675</v>
+        <v>2112.598483990776</v>
       </c>
       <c r="B38" t="n">
-        <v>2916</v>
+        <v>2430</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4545.315511551229</v>
+        <v>3880.654895669166</v>
       </c>
       <c r="B39" t="n">
-        <v>1980</v>
+        <v>2003</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6648.083434401783</v>
+        <v>5648.711307347556</v>
       </c>
       <c r="B40" t="n">
-        <v>1196</v>
+        <v>1351</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8750.851357252337</v>
+        <v>7416.767719025946</v>
       </c>
       <c r="B41" t="n">
-        <v>753</v>
+        <v>945</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10853.61928010289</v>
+        <v>9184.824130704337</v>
       </c>
       <c r="B42" t="n">
-        <v>491</v>
+        <v>568</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12956.38720295345</v>
+        <v>10952.88054238273</v>
       </c>
       <c r="B43" t="n">
-        <v>295</v>
+        <v>409</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15059.155125804</v>
+        <v>12720.93695406112</v>
       </c>
       <c r="B44" t="n">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17161.92304865456</v>
+        <v>14488.99336573951</v>
       </c>
       <c r="B45" t="n">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>19264.69097150511</v>
+        <v>16257.0497774179</v>
       </c>
       <c r="B46" t="n">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21367.45889435567</v>
+        <v>18025.10618909629</v>
       </c>
       <c r="B47" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23470.22681720622</v>
+        <v>19793.16260077468</v>
       </c>
       <c r="B48" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25572.99474005677</v>
+        <v>21561.21901245307</v>
       </c>
       <c r="B49" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27675.76266290733</v>
+        <v>23329.27542413146</v>
       </c>
       <c r="B50" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>29778.53058575788</v>
+        <v>25097.33183580985</v>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>31881.29850860844</v>
+        <v>26865.38824748824</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>33984.06643145899</v>
+        <v>28633.44465916663</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>36086.83435430954</v>
+        <v>30401.50107084502</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>38189.6022771601</v>
+        <v>32169.55748252341</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>40292.37020001065</v>
+        <v>33937.61389420179</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>42395.13812286121</v>
+        <v>35705.67030588019</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>44497.90604571176</v>
+        <v>37473.72671755857</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>46600.67396856232</v>
+        <v>39241.78312923697</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>48703.44189141287</v>
+        <v>41009.83954091535</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>50806.20981426342</v>
+        <v>42777.89595259375</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>52908.97773711398</v>
+        <v>44545.95236427213</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>55011.74565996453</v>
+        <v>46314.00877595053</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>57114.51358281509</v>
+        <v>48082.06518762891</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>59217.28150566564</v>
+        <v>49850.12159930731</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>61320.0494285162</v>
+        <v>51618.17801098569</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>63422.81735136675</v>
+        <v>53386.23442266409</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>65525.58527421731</v>
+        <v>55154.29083434247</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67628.35319706786</v>
+        <v>56922.34724602086</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69731.12111991842</v>
+        <v>58690.40365769926</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>71833.88904276896</v>
+        <v>60458.46006937764</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6219026833147377</v>
+        <v>0.5300949957481474</v>
       </c>
       <c r="B72" t="n">
-        <v>5837</v>
+        <v>6478</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>32.92228839797377</v>
+        <v>37.64651775857661</v>
       </c>
       <c r="B73" t="n">
-        <v>2249</v>
+        <v>2045</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>65.22267411263282</v>
+        <v>74.76294052140506</v>
       </c>
       <c r="B74" t="n">
-        <v>841</v>
+        <v>711</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>97.52305982729186</v>
+        <v>111.8793632842335</v>
       </c>
       <c r="B75" t="n">
-        <v>476</v>
+        <v>329</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>129.8234455419509</v>
+        <v>148.995786047062</v>
       </c>
       <c r="B76" t="n">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>162.1238312566099</v>
+        <v>186.1122088098904</v>
       </c>
       <c r="B77" t="n">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>194.424216971269</v>
+        <v>223.2286315727189</v>
       </c>
       <c r="B78" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>226.724602685928</v>
+        <v>260.3450543355473</v>
       </c>
       <c r="B79" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>259.024988400587</v>
+        <v>297.4614770983758</v>
       </c>
       <c r="B80" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>291.3253741152461</v>
+        <v>334.5778998612042</v>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>323.6257598299051</v>
+        <v>371.6943226240327</v>
       </c>
       <c r="B82" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>355.9261455445641</v>
+        <v>408.8107453868611</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>388.2265312592232</v>
+        <v>445.9271681496896</v>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>420.5269169738822</v>
+        <v>483.0435909125181</v>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>452.8273026885412</v>
+        <v>520.1600136753466</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>485.1276884032002</v>
+        <v>557.276436438175</v>
       </c>
       <c r="B87" t="n">
         <v>4</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>517.4280741178593</v>
+        <v>594.3928592010035</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>549.7284598325183</v>
+        <v>631.509281963832</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>582.0288455471774</v>
+        <v>668.6257047266604</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>614.3292312618364</v>
+        <v>705.7421274894889</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>646.6296169764954</v>
+        <v>742.8585502523173</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>678.9300026911545</v>
+        <v>779.9749730151458</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>711.2303884058135</v>
+        <v>817.0913957779742</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>743.5307741204725</v>
+        <v>854.2078185408027</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>775.8311598351316</v>
+        <v>891.3242413036312</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>808.1315455497906</v>
+        <v>928.4406640664596</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>840.4319312644496</v>
+        <v>965.5570868292881</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>872.7323169791086</v>
+        <v>1002.673509592116</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>905.0327026937678</v>
+        <v>1039.789932354945</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>937.3330884084268</v>
+        <v>1076.906355117774</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>969.6334741230858</v>
+        <v>1114.022777880602</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1001.933859837745</v>
+        <v>1151.13920064343</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1034.234245552404</v>
+        <v>1188.255623406259</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1066.534631267063</v>
+        <v>1225.372046169087</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1098.835016981722</v>
+        <v>1262.488468931916</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.012077148641624e+70</v>
+        <v>-1.769399345848878e+64</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>9998</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-4.340687494144162e+69</v>
+        <v>1.308428378089756e+66</v>
       </c>
       <c r="B108" t="n">
-        <v>9998</v>
+        <v>0</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.439396498127918e+69</v>
+        <v>2.634550749638001e+66</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>7.219480490399996e+69</v>
+        <v>3.960673121186246e+66</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.299956448267208e+70</v>
+        <v>5.286795492734491e+66</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.877964847494416e+70</v>
+        <v>6.612917864282736e+66</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.455973246721623e+70</v>
+        <v>7.939040235830979e+66</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.033981645948832e+70</v>
+        <v>9.265162607379224e+66</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3.61199004517604e+70</v>
+        <v>1.059128497892747e+67</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4.189998444403248e+70</v>
+        <v>1.191740735047571e+67</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4.768006843630456e+70</v>
+        <v>1.324352972202396e+67</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5.346015242857664e+70</v>
+        <v>1.45696520935722e+67</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5.92402364208487e+70</v>
+        <v>1.589577446512045e+67</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6.502032041312078e+70</v>
+        <v>1.722189683666869e+67</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>7.080040440539286e+70</v>
+        <v>1.854801920821694e+67</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7.658048839766495e+70</v>
+        <v>1.987414157976518e+67</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>8.236057238993703e+70</v>
+        <v>2.120026395131343e+67</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>8.814065638220911e+70</v>
+        <v>2.252638632286167e+67</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.392074037448119e+70</v>
+        <v>2.385250869440992e+67</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.970082436675327e+70</v>
+        <v>2.517863106595816e+67</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.054809083590254e+71</v>
+        <v>2.650475343750641e+67</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.112609923512974e+71</v>
+        <v>2.783087580905465e+67</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.170410763435695e+71</v>
+        <v>2.91569981806029e+67</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.228211603358416e+71</v>
+        <v>3.048312055215114e+67</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.286012443281137e+71</v>
+        <v>3.180924292369939e+67</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.343813283203857e+71</v>
+        <v>3.313536529524763e+67</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.401614123126578e+71</v>
+        <v>3.446148766679588e+67</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.459414963049299e+71</v>
+        <v>3.578761003834412e+67</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.51721580297202e+71</v>
+        <v>3.711373240989237e+67</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.575016642894741e+71</v>
+        <v>3.843985478144061e+67</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.632817482817461e+71</v>
+        <v>3.976597715298886e+67</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.690618322740182e+71</v>
+        <v>4.10920995245371e+67</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.748419162662903e+71</v>
+        <v>4.241822189608535e+67</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.806220002585624e+71</v>
+        <v>4.374434426763359e+67</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.864020842508345e+71</v>
+        <v>4.507046663918184e+67</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4744.414375976582</v>
+        <v>10891.26893856728</v>
       </c>
       <c r="B2" t="n">
-        <v>1813</v>
+        <v>3680</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106989.9550453087</v>
+        <v>166540.1793663053</v>
       </c>
       <c r="B3" t="n">
-        <v>2993</v>
+        <v>3335</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>209235.4957146407</v>
+        <v>322189.0897940432</v>
       </c>
       <c r="B4" t="n">
-        <v>2017</v>
+        <v>1479</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>311481.0363839729</v>
+        <v>477838.0002217812</v>
       </c>
       <c r="B5" t="n">
-        <v>1168</v>
+        <v>704</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>413726.5770533049</v>
+        <v>633486.9106495192</v>
       </c>
       <c r="B6" t="n">
-        <v>676</v>
+        <v>337</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>515972.117722637</v>
+        <v>789135.8210772572</v>
       </c>
       <c r="B7" t="n">
-        <v>464</v>
+        <v>186</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>618217.658391969</v>
+        <v>944784.7315049951</v>
       </c>
       <c r="B8" t="n">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>720463.1990613012</v>
+        <v>1100433.641932733</v>
       </c>
       <c r="B9" t="n">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>822708.7397306332</v>
+        <v>1256082.552360471</v>
       </c>
       <c r="B10" t="n">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>924954.2803999652</v>
+        <v>1411731.462788209</v>
       </c>
       <c r="B11" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1027199.821069297</v>
+        <v>1567380.373215947</v>
       </c>
       <c r="B12" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1129445.36173863</v>
+        <v>1723029.283643685</v>
       </c>
       <c r="B13" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1231690.902407962</v>
+        <v>1878678.194071423</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1333936.443077294</v>
+        <v>2034327.104499161</v>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1436181.983746626</v>
+        <v>2189976.014926899</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1538427.524415958</v>
+        <v>2345624.925354637</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1640673.06508529</v>
+        <v>2501273.835782375</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1742918.605754622</v>
+        <v>2656922.746210113</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1845164.146423954</v>
+        <v>2812571.656637851</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1947409.687093286</v>
+        <v>2968220.567065589</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2049655.227762618</v>
+        <v>3123869.477493327</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2151900.76843195</v>
+        <v>3279518.387921065</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2254146.309101283</v>
+        <v>3435167.298348803</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,10 +751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2356391.849770614</v>
+        <v>3590816.208776541</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2458637.390439947</v>
+        <v>3746465.119204279</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2560882.931109279</v>
+        <v>3902114.029632017</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2663128.471778611</v>
+        <v>4057762.940059755</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2765374.012447943</v>
+        <v>4213411.850487493</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2867619.553117275</v>
+        <v>4369060.760915231</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2969865.093786607</v>
+        <v>4524709.671342969</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3072110.634455939</v>
+        <v>4680358.581770707</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3174356.175125271</v>
+        <v>4836007.492198445</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3276601.715794603</v>
+        <v>4991656.402626183</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3378847.256463936</v>
+        <v>5147305.313053921</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3481092.797133267</v>
+        <v>5302954.223481659</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>344.5420723123855</v>
+        <v>296.1795157009409</v>
       </c>
       <c r="B37" t="n">
-        <v>1289</v>
+        <v>1928</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2112.598483990776</v>
+        <v>2442.581635258372</v>
       </c>
       <c r="B38" t="n">
-        <v>2430</v>
+        <v>2886</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3880.654895669166</v>
+        <v>4588.983754815803</v>
       </c>
       <c r="B39" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5648.711307347556</v>
+        <v>6735.385874373233</v>
       </c>
       <c r="B40" t="n">
-        <v>1351</v>
+        <v>1194</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7416.767719025946</v>
+        <v>8881.787993930664</v>
       </c>
       <c r="B41" t="n">
-        <v>945</v>
+        <v>740</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9184.824130704337</v>
+        <v>11028.1901134881</v>
       </c>
       <c r="B42" t="n">
-        <v>568</v>
+        <v>415</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10952.88054238273</v>
+        <v>13174.59223304553</v>
       </c>
       <c r="B43" t="n">
-        <v>409</v>
+        <v>247</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12720.93695406112</v>
+        <v>15320.99435260296</v>
       </c>
       <c r="B44" t="n">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14488.99336573951</v>
+        <v>17467.39647216039</v>
       </c>
       <c r="B45" t="n">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16257.0497774179</v>
+        <v>19613.79859171782</v>
       </c>
       <c r="B46" t="n">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18025.10618909629</v>
+        <v>21760.20071127525</v>
       </c>
       <c r="B47" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>19793.16260077468</v>
+        <v>23906.60283083268</v>
       </c>
       <c r="B48" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21561.21901245307</v>
+        <v>26053.00495039011</v>
       </c>
       <c r="B49" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23329.27542413146</v>
+        <v>28199.40706994754</v>
       </c>
       <c r="B50" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25097.33183580985</v>
+        <v>30345.80918950497</v>
       </c>
       <c r="B51" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>26865.38824748824</v>
+        <v>32492.2113090624</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>28633.44465916663</v>
+        <v>34638.61342861984</v>
       </c>
       <c r="B53" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>30401.50107084502</v>
+        <v>36785.01554817727</v>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>32169.55748252341</v>
+        <v>38931.4176677347</v>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>33937.61389420179</v>
+        <v>41077.81978729213</v>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>35705.67030588019</v>
+        <v>43224.22190684956</v>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>37473.72671755857</v>
+        <v>45370.62402640699</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>39241.78312923697</v>
+        <v>47517.02614596442</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>41009.83954091535</v>
+        <v>49663.42826552186</v>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>42777.89595259375</v>
+        <v>51809.83038507928</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>44545.95236427213</v>
+        <v>53956.23250463671</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>46314.00877595053</v>
+        <v>56102.63462419414</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>48082.06518762891</v>
+        <v>58249.03674375157</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>49850.12159930731</v>
+        <v>60395.43886330901</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>51618.17801098569</v>
+        <v>62541.84098286644</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>53386.23442266409</v>
+        <v>64688.24310242387</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>55154.29083434247</v>
+        <v>66834.64522198131</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>56922.34724602086</v>
+        <v>68981.04734153874</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>58690.40365769926</v>
+        <v>71127.44946109617</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>60458.46006937764</v>
+        <v>73273.8515806536</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5300949957481474</v>
+        <v>0.2669930564811389</v>
       </c>
       <c r="B72" t="n">
-        <v>6478</v>
+        <v>6444</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37.64651775857661</v>
+        <v>34.03900714596012</v>
       </c>
       <c r="B73" t="n">
-        <v>2045</v>
+        <v>2032</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>74.76294052140506</v>
+        <v>67.8110212354391</v>
       </c>
       <c r="B74" t="n">
-        <v>711</v>
+        <v>748</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111.8793632842335</v>
+        <v>101.5830353249181</v>
       </c>
       <c r="B75" t="n">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>148.995786047062</v>
+        <v>135.3550494143971</v>
       </c>
       <c r="B76" t="n">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>186.1122088098904</v>
+        <v>169.127063503876</v>
       </c>
       <c r="B77" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>223.2286315727189</v>
+        <v>202.899077593355</v>
       </c>
       <c r="B78" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>260.3450543355473</v>
+        <v>236.671091682834</v>
       </c>
       <c r="B79" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>297.4614770983758</v>
+        <v>270.4431057723129</v>
       </c>
       <c r="B80" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>334.5778998612042</v>
+        <v>304.2151198617919</v>
       </c>
       <c r="B81" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>371.6943226240327</v>
+        <v>337.9871339512709</v>
       </c>
       <c r="B82" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>408.8107453868611</v>
+        <v>371.7591480407499</v>
       </c>
       <c r="B83" t="n">
         <v>9</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>445.9271681496896</v>
+        <v>405.5311621302289</v>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>483.0435909125181</v>
+        <v>439.3031762197078</v>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>520.1600136753466</v>
+        <v>473.0751903091868</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>557.276436438175</v>
+        <v>506.8472043986658</v>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>594.3928592010035</v>
+        <v>540.6192184881448</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>631.509281963832</v>
+        <v>574.3912325776238</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>668.6257047266604</v>
+        <v>608.1632466671028</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>705.7421274894889</v>
+        <v>641.9352607565818</v>
       </c>
       <c r="B91" t="n">
         <v>2</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>742.8585502523173</v>
+        <v>675.7072748460607</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>779.9749730151458</v>
+        <v>709.4792889355398</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>817.0913957779742</v>
+        <v>743.2513030250187</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>854.2078185408027</v>
+        <v>777.0233171144977</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>891.3242413036312</v>
+        <v>810.7953312039767</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>928.4406640664596</v>
+        <v>844.5673452934557</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>965.5570868292881</v>
+        <v>878.3393593829346</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1002.673509592116</v>
+        <v>912.1113734724136</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1039.789932354945</v>
+        <v>945.8833875618926</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1076.906355117774</v>
+        <v>979.6554016513716</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1114.022777880602</v>
+        <v>1013.427415740851</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1151.13920064343</v>
+        <v>1047.19942983033</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1188.255623406259</v>
+        <v>1080.971443919809</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1225.372046169087</v>
+        <v>1114.743458009287</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1262.488468931916</v>
+        <v>1148.515472098766</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.769399345848878e+64</v>
+        <v>-1.994719923436614e+66</v>
       </c>
       <c r="B107" t="n">
-        <v>9998</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.308428378089756e+66</v>
+        <v>-1.461837960718443e+66</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.634550749638001e+66</v>
+        <v>-9.289559980002712e+65</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3.960673121186246e+66</v>
+        <v>-3.960740352820996e+65</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>9995</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5.286795492734491e+66</v>
+        <v>1.36807927436072e+65</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6.612917864282736e+66</v>
+        <v>6.696898901542435e+65</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>7.939040235830979e+66</v>
+        <v>1.202571852872415e+66</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9.265162607379224e+66</v>
+        <v>1.735453815590587e+66</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.059128497892747e+67</v>
+        <v>2.268335778308758e+66</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.191740735047571e+67</v>
+        <v>2.80121774102693e+66</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.324352972202396e+67</v>
+        <v>3.334099703745101e+66</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.45696520935722e+67</v>
+        <v>3.866981666463272e+66</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.589577446512045e+67</v>
+        <v>4.399863629181445e+66</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.722189683666869e+67</v>
+        <v>4.932745591899616e+66</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.854801920821694e+67</v>
+        <v>5.465627554617788e+66</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.987414157976518e+67</v>
+        <v>5.99850951733596e+66</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.120026395131343e+67</v>
+        <v>6.531391480054131e+66</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.252638632286167e+67</v>
+        <v>7.064273442772302e+66</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.385250869440992e+67</v>
+        <v>7.597155405490474e+66</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.517863106595816e+67</v>
+        <v>8.130037368208646e+66</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.650475343750641e+67</v>
+        <v>8.662919330926817e+66</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.783087580905465e+67</v>
+        <v>9.195801293644988e+66</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.91569981806029e+67</v>
+        <v>9.72868325636316e+66</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3.048312055215114e+67</v>
+        <v>1.026156521908133e+67</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3.180924292369939e+67</v>
+        <v>1.07944471817995e+67</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3.313536529524763e+67</v>
+        <v>1.132732914451767e+67</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3.446148766679588e+67</v>
+        <v>1.186021110723585e+67</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3.578761003834412e+67</v>
+        <v>1.239309306995402e+67</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.711373240989237e+67</v>
+        <v>1.292597503267219e+67</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3.843985478144061e+67</v>
+        <v>1.345885699539036e+67</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3.976597715298886e+67</v>
+        <v>1.399173895810853e+67</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4.10920995245371e+67</v>
+        <v>1.45246209208267e+67</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4.241822189608535e+67</v>
+        <v>1.505750288354487e+67</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4.374434426763359e+67</v>
+        <v>1.559038484626305e+67</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4.507046663918184e+67</v>
+        <v>1.612326680898122e+67</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10891.26893856728</v>
+        <v>12444.82478974786</v>
       </c>
       <c r="B2" t="n">
-        <v>3680</v>
+        <v>6916</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>166540.1793663053</v>
+        <v>289541.4767041437</v>
       </c>
       <c r="B3" t="n">
-        <v>3335</v>
+        <v>2231</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>322189.0897940432</v>
+        <v>566638.1286185394</v>
       </c>
       <c r="B4" t="n">
-        <v>1479</v>
+        <v>539</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>477838.0002217812</v>
+        <v>843734.7805329352</v>
       </c>
       <c r="B5" t="n">
-        <v>704</v>
+        <v>175</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>633486.9106495192</v>
+        <v>1120831.432447331</v>
       </c>
       <c r="B6" t="n">
-        <v>337</v>
+        <v>73</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>789135.8210772572</v>
+        <v>1397928.084361727</v>
       </c>
       <c r="B7" t="n">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>944784.7315049951</v>
+        <v>1675024.736276123</v>
       </c>
       <c r="B8" t="n">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1100433.641932733</v>
+        <v>1952121.388190518</v>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1256082.552360471</v>
+        <v>2229218.040104914</v>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1411731.462788209</v>
+        <v>2506314.69201931</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1567380.373215947</v>
+        <v>2783411.343933706</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1723029.283643685</v>
+        <v>3060507.995848102</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1878678.194071423</v>
+        <v>3337604.647762497</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2034327.104499161</v>
+        <v>3614701.299676893</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2189976.014926899</v>
+        <v>3891797.951591289</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2345624.925354637</v>
+        <v>4168894.603505685</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2501273.835782375</v>
+        <v>4445991.25542008</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2656922.746210113</v>
+        <v>4723087.907334476</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2812571.656637851</v>
+        <v>5000184.559248872</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2968220.567065589</v>
+        <v>5277281.211163267</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3123869.477493327</v>
+        <v>5554377.863077664</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3279518.387921065</v>
+        <v>5831474.514992059</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3435167.298348803</v>
+        <v>6108571.166906456</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3590816.208776541</v>
+        <v>6385667.818820851</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3746465.119204279</v>
+        <v>6662764.470735246</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3902114.029632017</v>
+        <v>6939861.122649643</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4057762.940059755</v>
+        <v>7216957.774564038</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4213411.850487493</v>
+        <v>7494054.426478434</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4369060.760915231</v>
+        <v>7771151.07839283</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4524709.671342969</v>
+        <v>8048247.730307226</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4680358.581770707</v>
+        <v>8325344.382221621</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4836007.492198445</v>
+        <v>8602441.034136018</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4991656.402626183</v>
+        <v>8879537.686050413</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5147305.313053921</v>
+        <v>9156634.337964809</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5302954.223481659</v>
+        <v>9433730.989879204</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>296.1795157009409</v>
+        <v>185.6824615635953</v>
       </c>
       <c r="B37" t="n">
-        <v>1928</v>
+        <v>2146</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2442.581635258372</v>
+        <v>2257.62009518121</v>
       </c>
       <c r="B38" t="n">
-        <v>2886</v>
+        <v>3253</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4588.983754815803</v>
+        <v>4329.557728798824</v>
       </c>
       <c r="B39" t="n">
-        <v>1995</v>
+        <v>1935</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6735.385874373233</v>
+        <v>6401.495362416439</v>
       </c>
       <c r="B40" t="n">
-        <v>1194</v>
+        <v>1079</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8881.787993930664</v>
+        <v>8473.432996034055</v>
       </c>
       <c r="B41" t="n">
-        <v>740</v>
+        <v>600</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11028.1901134881</v>
+        <v>10545.37062965167</v>
       </c>
       <c r="B42" t="n">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13174.59223304553</v>
+        <v>12617.30826326928</v>
       </c>
       <c r="B43" t="n">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15320.99435260296</v>
+        <v>14689.2458968869</v>
       </c>
       <c r="B44" t="n">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17467.39647216039</v>
+        <v>16761.18353050451</v>
       </c>
       <c r="B45" t="n">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>19613.79859171782</v>
+        <v>18833.12116412213</v>
       </c>
       <c r="B46" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21760.20071127525</v>
+        <v>20905.05879773974</v>
       </c>
       <c r="B47" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23906.60283083268</v>
+        <v>22976.99643135736</v>
       </c>
       <c r="B48" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>26053.00495039011</v>
+        <v>25048.93406497497</v>
       </c>
       <c r="B49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>28199.40706994754</v>
+        <v>27120.87169859259</v>
       </c>
       <c r="B50" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>30345.80918950497</v>
+        <v>29192.8093322102</v>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>32492.2113090624</v>
+        <v>31264.74696582782</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>34638.61342861984</v>
+        <v>33336.68459944543</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>36785.01554817727</v>
+        <v>35408.62223306304</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>38931.4176677347</v>
+        <v>37480.55986668065</v>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>41077.81978729213</v>
+        <v>39552.49750029827</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43224.22190684956</v>
+        <v>41624.43513391588</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>45370.62402640699</v>
+        <v>43696.3727675335</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>47517.02614596442</v>
+        <v>45768.31040115112</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>49663.42826552186</v>
+        <v>47840.24803476873</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>51809.83038507928</v>
+        <v>49912.18566838634</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>53956.23250463671</v>
+        <v>51984.12330200396</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>56102.63462419414</v>
+        <v>54056.06093562157</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>58249.03674375157</v>
+        <v>56127.99856923919</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>60395.43886330901</v>
+        <v>58199.93620285681</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>62541.84098286644</v>
+        <v>60271.87383647442</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>64688.24310242387</v>
+        <v>62343.81147009203</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>66834.64522198131</v>
+        <v>64415.74910370965</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68981.04734153874</v>
+        <v>66487.68673732727</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>71127.44946109617</v>
+        <v>68559.62437094489</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>73273.8515806536</v>
+        <v>70631.5620045625</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2669930564811389</v>
+        <v>0.2758584618609189</v>
       </c>
       <c r="B72" t="n">
-        <v>6444</v>
+        <v>5321</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>34.03900714596012</v>
+        <v>23.13186133550238</v>
       </c>
       <c r="B73" t="n">
-        <v>2032</v>
+        <v>2411</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>67.8110212354391</v>
+        <v>45.98786420914384</v>
       </c>
       <c r="B74" t="n">
-        <v>748</v>
+        <v>1001</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>101.5830353249181</v>
+        <v>68.84386708278529</v>
       </c>
       <c r="B75" t="n">
-        <v>347</v>
+        <v>498</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>135.3550494143971</v>
+        <v>91.69986995642675</v>
       </c>
       <c r="B76" t="n">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>169.127063503876</v>
+        <v>114.5558728300682</v>
       </c>
       <c r="B77" t="n">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>202.899077593355</v>
+        <v>137.4118757037097</v>
       </c>
       <c r="B78" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>236.671091682834</v>
+        <v>160.2678785773511</v>
       </c>
       <c r="B79" t="n">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>270.4431057723129</v>
+        <v>183.1238814509926</v>
       </c>
       <c r="B80" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>304.2151198617919</v>
+        <v>205.979884324634</v>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>337.9871339512709</v>
+        <v>228.8358871982755</v>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>371.7591480407499</v>
+        <v>251.691890071917</v>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>405.5311621302289</v>
+        <v>274.5478929455584</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>439.3031762197078</v>
+        <v>297.4038958191999</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>473.0751903091868</v>
+        <v>320.2598986928414</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>506.8472043986658</v>
+        <v>343.1159015664828</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>540.6192184881448</v>
+        <v>365.9719044401243</v>
       </c>
       <c r="B88" t="n">
         <v>6</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>574.3912325776238</v>
+        <v>388.8279073137657</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>608.1632466671028</v>
+        <v>411.6839101874072</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>641.9352607565818</v>
+        <v>434.5399130610487</v>
       </c>
       <c r="B91" t="n">
         <v>2</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>675.7072748460607</v>
+        <v>457.3959159346901</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>709.4792889355398</v>
+        <v>480.2519188083315</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>743.2513030250187</v>
+        <v>503.107921681973</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>777.0233171144977</v>
+        <v>525.9639245556144</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>810.7953312039767</v>
+        <v>548.8199274292559</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>844.5673452934557</v>
+        <v>571.6759303028974</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>878.3393593829346</v>
+        <v>594.5319331765388</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>912.1113734724136</v>
+        <v>617.3879360501803</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>945.8833875618926</v>
+        <v>640.2439389238218</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>979.6554016513716</v>
+        <v>663.0999417974632</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1013.427415740851</v>
+        <v>685.9559446711047</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1047.19942983033</v>
+        <v>708.8119475447461</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1080.971443919809</v>
+        <v>731.6679504183876</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1114.743458009287</v>
+        <v>754.5239532920291</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1148.515472098766</v>
+        <v>777.3799561656705</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.994719923436614e+66</v>
+        <v>-3.153236950771301e+63</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>9997</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.461837960718443e+66</v>
+        <v>2.270018813475994e+64</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-9.289559980002712e+65</v>
+        <v>4.855361322029118e+64</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-3.960740352820996e+65</v>
+        <v>7.440703830582243e+64</v>
       </c>
       <c r="B110" t="n">
-        <v>9995</v>
+        <v>0</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.36807927436072e+65</v>
+        <v>1.002604633913537e+65</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6.696898901542435e+65</v>
+        <v>1.261138884768849e+65</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.202571852872415e+66</v>
+        <v>1.519673135624162e+65</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.735453815590587e+66</v>
+        <v>1.778207386479474e+65</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.268335778308758e+66</v>
+        <v>2.036741637334786e+65</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.80121774102693e+66</v>
+        <v>2.295275888190099e+65</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.334099703745101e+66</v>
+        <v>2.553810139045411e+65</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3.866981666463272e+66</v>
+        <v>2.812344389900723e+65</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.399863629181445e+66</v>
+        <v>3.070878640756036e+65</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4.932745591899616e+66</v>
+        <v>3.329412891611348e+65</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5.465627554617788e+66</v>
+        <v>3.587947142466661e+65</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5.99850951733596e+66</v>
+        <v>3.846481393321973e+65</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6.531391480054131e+66</v>
+        <v>4.105015644177285e+65</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>7.064273442772302e+66</v>
+        <v>4.363549895032598e+65</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>7.597155405490474e+66</v>
+        <v>4.622084145887911e+65</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8.130037368208646e+66</v>
+        <v>4.880618396743222e+65</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>8.662919330926817e+66</v>
+        <v>5.139152647598535e+65</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9.195801293644988e+66</v>
+        <v>5.397686898453847e+65</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>9.72868325636316e+66</v>
+        <v>5.65622114930916e+65</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.026156521908133e+67</v>
+        <v>5.914755400164473e+65</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.07944471817995e+67</v>
+        <v>6.173289651019785e+65</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.132732914451767e+67</v>
+        <v>6.431823901875097e+65</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.186021110723585e+67</v>
+        <v>6.690358152730409e+65</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.239309306995402e+67</v>
+        <v>6.948892403585722e+65</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.292597503267219e+67</v>
+        <v>7.207426654441034e+65</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.345885699539036e+67</v>
+        <v>7.465960905296347e+65</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.399173895810853e+67</v>
+        <v>7.724495156151659e+65</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.45246209208267e+67</v>
+        <v>7.983029407006971e+65</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.505750288354487e+67</v>
+        <v>8.241563657862284e+65</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.559038484626305e+67</v>
+        <v>8.500097908717595e+65</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.612326680898122e+67</v>
+        <v>8.758632159572908e+65</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12444.82478974786</v>
+        <v>6151.027961668005</v>
       </c>
       <c r="B2" t="n">
-        <v>6916</v>
+        <v>3339</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>289541.4767041437</v>
+        <v>147317.5823977849</v>
       </c>
       <c r="B3" t="n">
-        <v>2231</v>
+        <v>3380</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>566638.1286185394</v>
+        <v>288484.1368339017</v>
       </c>
       <c r="B4" t="n">
-        <v>539</v>
+        <v>1637</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>843734.7805329352</v>
+        <v>429650.6912700186</v>
       </c>
       <c r="B5" t="n">
-        <v>175</v>
+        <v>704</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1120831.432447331</v>
+        <v>570817.2457061354</v>
       </c>
       <c r="B6" t="n">
-        <v>73</v>
+        <v>381</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1397928.084361727</v>
+        <v>711983.8001422522</v>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1675024.736276123</v>
+        <v>853150.3545783692</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1952121.388190518</v>
+        <v>994316.909014486</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2229218.040104914</v>
+        <v>1135483.463450603</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2506314.69201931</v>
+        <v>1276650.01788672</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2783411.343933706</v>
+        <v>1417816.572322837</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3060507.995848102</v>
+        <v>1558983.126758954</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3337604.647762497</v>
+        <v>1700149.681195071</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3614701.299676893</v>
+        <v>1841316.235631187</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3891797.951591289</v>
+        <v>1982482.790067304</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4168894.603505685</v>
+        <v>2123649.344503421</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4445991.25542008</v>
+        <v>2264815.898939538</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4723087.907334476</v>
+        <v>2405982.453375655</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5000184.559248872</v>
+        <v>2547149.007811772</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5277281.211163267</v>
+        <v>2688315.562247888</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5554377.863077664</v>
+        <v>2829482.116684005</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5831474.514992059</v>
+        <v>2970648.671120122</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6108571.166906456</v>
+        <v>3111815.225556239</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6385667.818820851</v>
+        <v>3252981.779992356</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6662764.470735246</v>
+        <v>3394148.334428473</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6939861.122649643</v>
+        <v>3535314.888864589</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7216957.774564038</v>
+        <v>3676481.443300706</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7494054.426478434</v>
+        <v>3817647.997736823</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7771151.07839283</v>
+        <v>3958814.55217294</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8048247.730307226</v>
+        <v>4099981.106609057</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8325344.382221621</v>
+        <v>4241147.661045173</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8602441.034136018</v>
+        <v>4382314.215481291</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8879537.686050413</v>
+        <v>4523480.769917407</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9156634.337964809</v>
+        <v>4664647.324353524</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9433730.989879204</v>
+        <v>4805813.878789641</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>185.6824615635953</v>
+        <v>208.4445740612354</v>
       </c>
       <c r="B37" t="n">
-        <v>2146</v>
+        <v>1641</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2257.62009518121</v>
+        <v>2071.850100196625</v>
       </c>
       <c r="B38" t="n">
-        <v>3253</v>
+        <v>2954</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4329.557728798824</v>
+        <v>3935.255626332015</v>
       </c>
       <c r="B39" t="n">
-        <v>1935</v>
+        <v>1951</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6401.495362416439</v>
+        <v>5798.661152467405</v>
       </c>
       <c r="B40" t="n">
-        <v>1079</v>
+        <v>1240</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8473.432996034055</v>
+        <v>7662.066678602795</v>
       </c>
       <c r="B41" t="n">
-        <v>600</v>
+        <v>774</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10545.37062965167</v>
+        <v>9525.472204738186</v>
       </c>
       <c r="B42" t="n">
-        <v>367</v>
+        <v>499</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12617.30826326928</v>
+        <v>11388.87773087358</v>
       </c>
       <c r="B43" t="n">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14689.2458968869</v>
+        <v>13252.28325700896</v>
       </c>
       <c r="B44" t="n">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16761.18353050451</v>
+        <v>15115.68878314435</v>
       </c>
       <c r="B45" t="n">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18833.12116412213</v>
+        <v>16979.09430927975</v>
       </c>
       <c r="B46" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20905.05879773974</v>
+        <v>18842.49983541514</v>
       </c>
       <c r="B47" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22976.99643135736</v>
+        <v>20705.90536155053</v>
       </c>
       <c r="B48" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25048.93406497497</v>
+        <v>22569.31088768592</v>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27120.87169859259</v>
+        <v>24432.7164138213</v>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>29192.8093322102</v>
+        <v>26296.12193995669</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>31264.74696582782</v>
+        <v>28159.52746609208</v>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>33336.68459944543</v>
+        <v>30022.93299222747</v>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>35408.62223306304</v>
+        <v>31886.33851836286</v>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>37480.55986668065</v>
+        <v>33749.74404449826</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>39552.49750029827</v>
+        <v>35613.14957063364</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>41624.43513391588</v>
+        <v>37476.55509676904</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43696.3727675335</v>
+        <v>39339.96062290442</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>45768.31040115112</v>
+        <v>41203.36614903982</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>47840.24803476873</v>
+        <v>43066.7716751752</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>49912.18566838634</v>
+        <v>44930.17720131059</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>51984.12330200396</v>
+        <v>46793.58272744598</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>54056.06093562157</v>
+        <v>48656.98825358137</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>56127.99856923919</v>
+        <v>50520.39377971676</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>58199.93620285681</v>
+        <v>52383.79930585215</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>60271.87383647442</v>
+        <v>54247.20483198754</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62343.81147009203</v>
+        <v>56110.61035812293</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>64415.74910370965</v>
+        <v>57974.01588425832</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>66487.68673732727</v>
+        <v>59837.42141039371</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68559.62437094489</v>
+        <v>61700.82693652911</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70631.5620045625</v>
+        <v>63564.23246266449</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2758584618609189</v>
+        <v>0.3279043243491837</v>
       </c>
       <c r="B72" t="n">
-        <v>5321</v>
+        <v>7527</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>23.13186133550238</v>
+        <v>44.29523734082763</v>
       </c>
       <c r="B73" t="n">
-        <v>2411</v>
+        <v>1568</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>45.98786420914384</v>
+        <v>88.26257035730606</v>
       </c>
       <c r="B74" t="n">
-        <v>1001</v>
+        <v>487</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>68.84386708278529</v>
+        <v>132.2299033737845</v>
       </c>
       <c r="B75" t="n">
-        <v>498</v>
+        <v>193</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>91.69986995642675</v>
+        <v>176.197236390263</v>
       </c>
       <c r="B76" t="n">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>114.5558728300682</v>
+        <v>220.1645694067414</v>
       </c>
       <c r="B77" t="n">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>137.4118757037097</v>
+        <v>264.1319024232198</v>
       </c>
       <c r="B78" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>160.2678785773511</v>
+        <v>308.0992354396982</v>
       </c>
       <c r="B79" t="n">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>183.1238814509926</v>
+        <v>352.0665684561767</v>
       </c>
       <c r="B80" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>205.979884324634</v>
+        <v>396.0339014726551</v>
       </c>
       <c r="B81" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>228.8358871982755</v>
+        <v>440.0012344891336</v>
       </c>
       <c r="B82" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251.691890071917</v>
+        <v>483.968567505612</v>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>274.5478929455584</v>
+        <v>527.9359005220905</v>
       </c>
       <c r="B84" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>297.4038958191999</v>
+        <v>571.903233538569</v>
       </c>
       <c r="B85" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>320.2598986928414</v>
+        <v>615.8705665550474</v>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>343.1159015664828</v>
+        <v>659.8378995715259</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>365.9719044401243</v>
+        <v>703.8052325880043</v>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>388.8279073137657</v>
+        <v>747.7725656044827</v>
       </c>
       <c r="B89" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>411.6839101874072</v>
+        <v>791.7398986209612</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>434.5399130610487</v>
+        <v>835.7072316374396</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>457.3959159346901</v>
+        <v>879.6745646539181</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>480.2519188083315</v>
+        <v>923.6418976703965</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>503.107921681973</v>
+        <v>967.609230686875</v>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>525.9639245556144</v>
+        <v>1011.576563703353</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>548.8199274292559</v>
+        <v>1055.543896719832</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>571.6759303028974</v>
+        <v>1099.51122973631</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>594.5319331765388</v>
+        <v>1143.478562752789</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>617.3879360501803</v>
+        <v>1187.445895769267</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>640.2439389238218</v>
+        <v>1231.413228785746</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>663.0999417974632</v>
+        <v>1275.380561802224</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>685.9559446711047</v>
+        <v>1319.347894818703</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>708.8119475447461</v>
+        <v>1363.315227835181</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>731.6679504183876</v>
+        <v>1407.282560851659</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>754.5239532920291</v>
+        <v>1451.249893868138</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>777.3799561656705</v>
+        <v>1495.217226884616</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-3.153236950771301e+63</v>
+        <v>-3.489688021493745e+67</v>
       </c>
       <c r="B107" t="n">
-        <v>9997</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.270018813475994e+64</v>
+        <v>-3.353313864929883e+67</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4.855361322029118e+64</v>
+        <v>-3.216939708366021e+67</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>7.440703830582243e+64</v>
+        <v>-3.080565551802158e+67</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.002604633913537e+65</v>
+        <v>-2.944191395238296e+67</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.261138884768849e+65</v>
+        <v>-2.807817238674434e+67</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.519673135624162e+65</v>
+        <v>-2.671443082110572e+67</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.778207386479474e+65</v>
+        <v>-2.53506892554671e+67</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.036741637334786e+65</v>
+        <v>-2.398694768982847e+67</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.295275888190099e+65</v>
+        <v>-2.262320612418985e+67</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.553810139045411e+65</v>
+        <v>-2.125946455855123e+67</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.812344389900723e+65</v>
+        <v>-1.989572299291261e+67</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.070878640756036e+65</v>
+        <v>-1.853198142727399e+67</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3.329412891611348e+65</v>
+        <v>-1.716823986163537e+67</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>3.587947142466661e+65</v>
+        <v>-1.580449829599675e+67</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.846481393321973e+65</v>
+        <v>-1.444075673035812e+67</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.105015644177285e+65</v>
+        <v>-1.30770151647195e+67</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4.363549895032598e+65</v>
+        <v>-1.171327359908088e+67</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4.622084145887911e+65</v>
+        <v>-1.034953203344226e+67</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4.880618396743222e+65</v>
+        <v>-8.985790467803639e+66</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5.139152647598535e+65</v>
+        <v>-7.622048902165016e+66</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5.397686898453847e+65</v>
+        <v>-6.258307336526395e+66</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>5.65622114930916e+65</v>
+        <v>-4.894565770887775e+66</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5.914755400164473e+65</v>
+        <v>-3.530824205249155e+66</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>6.173289651019785e+65</v>
+        <v>-2.167082639610534e+66</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>6.431823901875097e+65</v>
+        <v>-8.033410739719081e+65</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>9998</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>6.690358152730409e+65</v>
+        <v>5.604004916667122e+65</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>6.948892403585722e+65</v>
+        <v>1.924142057305333e+66</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>7.207426654441034e+65</v>
+        <v>3.287883622943953e+66</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7.465960905296347e+65</v>
+        <v>4.651625188582573e+66</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>7.724495156151659e+65</v>
+        <v>6.015366754221199e+66</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7.983029407006971e+65</v>
+        <v>7.37910831985982e+66</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8.241563657862284e+65</v>
+        <v>8.74284988549844e+66</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8.500097908717595e+65</v>
+        <v>1.010659145113706e+67</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8.758632159572908e+65</v>
+        <v>1.147033301677568e+67</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6151.027961668005</v>
+        <v>10067.8318731723</v>
       </c>
       <c r="B2" t="n">
-        <v>3339</v>
+        <v>3239</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>147317.5823977849</v>
+        <v>139766.9785126327</v>
       </c>
       <c r="B3" t="n">
-        <v>3380</v>
+        <v>3198</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>288484.1368339017</v>
+        <v>269466.125152093</v>
       </c>
       <c r="B4" t="n">
-        <v>1637</v>
+        <v>1672</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>429650.6912700186</v>
+        <v>399165.2717915534</v>
       </c>
       <c r="B5" t="n">
-        <v>704</v>
+        <v>818</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>570817.2457061354</v>
+        <v>528864.4184310137</v>
       </c>
       <c r="B6" t="n">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>711983.8001422522</v>
+        <v>658563.5650704741</v>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>853150.3545783692</v>
+        <v>788262.7117099344</v>
       </c>
       <c r="B8" t="n">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>994316.909014486</v>
+        <v>917961.8583493948</v>
       </c>
       <c r="B9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1135483.463450603</v>
+        <v>1047661.004988855</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1276650.01788672</v>
+        <v>1177360.151628315</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1417816.572322837</v>
+        <v>1307059.298267776</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1558983.126758954</v>
+        <v>1436758.444907236</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1700149.681195071</v>
+        <v>1566457.591546696</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1841316.235631187</v>
+        <v>1696156.738186157</v>
       </c>
       <c r="B15" t="n">
         <v>6</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1982482.790067304</v>
+        <v>1825855.884825617</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2123649.344503421</v>
+        <v>1955555.031465078</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2264815.898939538</v>
+        <v>2085254.178104538</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2405982.453375655</v>
+        <v>2214953.324743998</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2547149.007811772</v>
+        <v>2344652.471383458</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2688315.562247888</v>
+        <v>2474351.618022919</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2829482.116684005</v>
+        <v>2604050.764662379</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2970648.671120122</v>
+        <v>2733749.91130184</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3111815.225556239</v>
+        <v>2863449.0579413</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3252981.779992356</v>
+        <v>2993148.204580761</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3394148.334428473</v>
+        <v>3122847.351220221</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3535314.888864589</v>
+        <v>3252546.497859681</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3676481.443300706</v>
+        <v>3382245.644499141</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3817647.997736823</v>
+        <v>3511944.791138602</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3958814.55217294</v>
+        <v>3641643.937778062</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4099981.106609057</v>
+        <v>3771343.084417522</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4241147.661045173</v>
+        <v>3901042.231056983</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4382314.215481291</v>
+        <v>4030741.377696443</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4523480.769917407</v>
+        <v>4160440.524335904</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4664647.324353524</v>
+        <v>4290139.670975364</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4805813.878789641</v>
+        <v>4419838.817614824</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>208.4445740612354</v>
+        <v>204.2124433730796</v>
       </c>
       <c r="B37" t="n">
-        <v>1641</v>
+        <v>2432</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2071.850100196625</v>
+        <v>2469.989257393428</v>
       </c>
       <c r="B38" t="n">
-        <v>2954</v>
+        <v>3341</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3935.255626332015</v>
+        <v>4735.766071413777</v>
       </c>
       <c r="B39" t="n">
-        <v>1951</v>
+        <v>1845</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5798.661152467405</v>
+        <v>7001.542885434126</v>
       </c>
       <c r="B40" t="n">
-        <v>1240</v>
+        <v>1004</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7662.066678602795</v>
+        <v>9267.319699454474</v>
       </c>
       <c r="B41" t="n">
-        <v>774</v>
+        <v>538</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9525.472204738186</v>
+        <v>11533.09651347482</v>
       </c>
       <c r="B42" t="n">
-        <v>499</v>
+        <v>329</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11388.87773087358</v>
+        <v>13798.87332749517</v>
       </c>
       <c r="B43" t="n">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13252.28325700896</v>
+        <v>16064.65014151552</v>
       </c>
       <c r="B44" t="n">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>15115.68878314435</v>
+        <v>18330.42695553587</v>
       </c>
       <c r="B45" t="n">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16979.09430927975</v>
+        <v>20596.20376955622</v>
       </c>
       <c r="B46" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18842.49983541514</v>
+        <v>22861.98058357657</v>
       </c>
       <c r="B47" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20705.90536155053</v>
+        <v>25127.75739759692</v>
       </c>
       <c r="B48" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22569.31088768592</v>
+        <v>27393.53421161727</v>
       </c>
       <c r="B49" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>24432.7164138213</v>
+        <v>29659.31102563761</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26296.12193995669</v>
+        <v>31925.08783965796</v>
       </c>
       <c r="B51" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>28159.52746609208</v>
+        <v>34190.86465367831</v>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>30022.93299222747</v>
+        <v>36456.64146769866</v>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>31886.33851836286</v>
+        <v>38722.41828171901</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>33749.74404449826</v>
+        <v>40988.19509573936</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>35613.14957063364</v>
+        <v>43253.9719097597</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>37476.55509676904</v>
+        <v>45519.74872378005</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>39339.96062290442</v>
+        <v>47785.52553780041</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>41203.36614903982</v>
+        <v>50051.30235182076</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43066.7716751752</v>
+        <v>52317.0791658411</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>44930.17720131059</v>
+        <v>54582.85597986145</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>46793.58272744598</v>
+        <v>56848.6327938818</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>48656.98825358137</v>
+        <v>59114.40960790215</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>50520.39377971676</v>
+        <v>61380.1864219225</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>52383.79930585215</v>
+        <v>63645.96323594285</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>54247.20483198754</v>
+        <v>65911.74004996319</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>56110.61035812293</v>
+        <v>68177.51686398355</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>57974.01588425832</v>
+        <v>70443.29367800389</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>59837.42141039371</v>
+        <v>72709.07049202424</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>61700.82693652911</v>
+        <v>74974.8473060446</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>63564.23246266449</v>
+        <v>77240.62412006494</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3279043243491837</v>
+        <v>0.320799061921783</v>
       </c>
       <c r="B72" t="n">
-        <v>7527</v>
+        <v>5942</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>44.29523734082763</v>
+        <v>27.42505756255924</v>
       </c>
       <c r="B73" t="n">
-        <v>1568</v>
+        <v>2152</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>88.26257035730606</v>
+        <v>54.5293160631967</v>
       </c>
       <c r="B74" t="n">
-        <v>487</v>
+        <v>863</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>132.2299033737845</v>
+        <v>81.63357456383416</v>
       </c>
       <c r="B75" t="n">
-        <v>193</v>
+        <v>446</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>176.197236390263</v>
+        <v>108.7378330644716</v>
       </c>
       <c r="B76" t="n">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>220.1645694067414</v>
+        <v>135.8420915651091</v>
       </c>
       <c r="B77" t="n">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>264.1319024232198</v>
+        <v>162.9463500657465</v>
       </c>
       <c r="B78" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>308.0992354396982</v>
+        <v>190.050608566384</v>
       </c>
       <c r="B79" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>352.0665684561767</v>
+        <v>217.1548670670214</v>
       </c>
       <c r="B80" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>396.0339014726551</v>
+        <v>244.2591255676589</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>440.0012344891336</v>
+        <v>271.3633840682963</v>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>483.968567505612</v>
+        <v>298.4676425689338</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>527.9359005220905</v>
+        <v>325.5719010695713</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>571.903233538569</v>
+        <v>352.6761595702087</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>615.8705665550474</v>
+        <v>379.7804180708462</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>659.8378995715259</v>
+        <v>406.8846765714836</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>703.8052325880043</v>
+        <v>433.9889350721211</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>747.7725656044827</v>
+        <v>461.0931935727585</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>791.7398986209612</v>
+        <v>488.197452073396</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>835.7072316374396</v>
+        <v>515.3017105740335</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>879.6745646539181</v>
+        <v>542.4059690746709</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>923.6418976703965</v>
+        <v>569.5102275753084</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>967.609230686875</v>
+        <v>596.6144860759458</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1011.576563703353</v>
+        <v>623.7187445765833</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1055.543896719832</v>
+        <v>650.8230030772207</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1099.51122973631</v>
+        <v>677.9272615778582</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1143.478562752789</v>
+        <v>705.0315200784956</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1187.445895769267</v>
+        <v>732.1357785791331</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1231.413228785746</v>
+        <v>759.2400370797706</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1275.380561802224</v>
+        <v>786.344295580408</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1319.347894818703</v>
+        <v>813.4485540810455</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1363.315227835181</v>
+        <v>840.5528125816829</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1407.282560851659</v>
+        <v>867.6570710823204</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1451.249893868138</v>
+        <v>894.7613295829578</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1495.217226884616</v>
+        <v>921.8655880835953</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-3.489688021493745e+67</v>
+        <v>-6.358067403529983e+67</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-3.353313864929883e+67</v>
+        <v>-6.147764264942021e+67</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-3.216939708366021e+67</v>
+        <v>-5.937461126354061e+67</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-3.080565551802158e+67</v>
+        <v>-5.727157987766099e+67</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-2.944191395238296e+67</v>
+        <v>-5.516854849178138e+67</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-2.807817238674434e+67</v>
+        <v>-5.306551710590176e+67</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-2.671443082110572e+67</v>
+        <v>-5.096248572002215e+67</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-2.53506892554671e+67</v>
+        <v>-4.885945433414253e+67</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-2.398694768982847e+67</v>
+        <v>-4.675642294826292e+67</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-2.262320612418985e+67</v>
+        <v>-4.465339156238331e+67</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-2.125946455855123e+67</v>
+        <v>-4.255036017650369e+67</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1.989572299291261e+67</v>
+        <v>-4.044732879062408e+67</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.853198142727399e+67</v>
+        <v>-3.834429740474446e+67</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.716823986163537e+67</v>
+        <v>-3.624126601886485e+67</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.580449829599675e+67</v>
+        <v>-3.413823463298523e+67</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1.444075673035812e+67</v>
+        <v>-3.203520324710562e+67</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1.30770151647195e+67</v>
+        <v>-2.993217186122601e+67</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.171327359908088e+67</v>
+        <v>-2.782914047534639e+67</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.034953203344226e+67</v>
+        <v>-2.572610908946678e+67</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-8.985790467803639e+66</v>
+        <v>-2.362307770358716e+67</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-7.622048902165016e+66</v>
+        <v>-2.152004631770755e+67</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-6.258307336526395e+66</v>
+        <v>-1.941701493182794e+67</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-4.894565770887775e+66</v>
+        <v>-1.731398354594832e+67</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-3.530824205249155e+66</v>
+        <v>-1.521095216006871e+67</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-2.167082639610534e+66</v>
+        <v>-1.31079207741891e+67</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-8.033410739719081e+65</v>
+        <v>-1.100488938830948e+67</v>
       </c>
       <c r="B132" t="n">
-        <v>9998</v>
+        <v>0</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.604004916667122e+65</v>
+        <v>-8.901858002429872e+66</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.924142057305333e+66</v>
+        <v>-6.798826616550253e+66</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.287883622943953e+66</v>
+        <v>-4.695795230670634e+66</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4.651625188582573e+66</v>
+        <v>-2.592763844791027e+66</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6.015366754221199e+66</v>
+        <v>-4.897324589114082e+65</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>9997</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7.37910831985982e+66</v>
+        <v>1.613298926968199e+66</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8.74284988549844e+66</v>
+        <v>3.716330312847818e+66</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.010659145113706e+67</v>
+        <v>5.819361698727437e+66</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.147033301677568e+67</v>
+        <v>7.922393084607043e+66</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10067.8318731723</v>
+        <v>8121.487584321299</v>
       </c>
       <c r="B2" t="n">
-        <v>3239</v>
+        <v>3390</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>139766.9785126327</v>
+        <v>143762.2072498747</v>
       </c>
       <c r="B3" t="n">
-        <v>3198</v>
+        <v>3314</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>269466.125152093</v>
+        <v>279402.926915428</v>
       </c>
       <c r="B4" t="n">
-        <v>1672</v>
+        <v>1569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>399165.2717915534</v>
+        <v>415043.6465809814</v>
       </c>
       <c r="B5" t="n">
-        <v>818</v>
+        <v>726</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>528864.4184310137</v>
+        <v>550684.3662465347</v>
       </c>
       <c r="B6" t="n">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>658563.5650704741</v>
+        <v>686325.0859120882</v>
       </c>
       <c r="B7" t="n">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>788262.7117099344</v>
+        <v>821965.8055776415</v>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>917961.8583493948</v>
+        <v>957606.5252431948</v>
       </c>
       <c r="B9" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1047661.004988855</v>
+        <v>1093247.244908748</v>
       </c>
       <c r="B10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1177360.151628315</v>
+        <v>1228887.964574302</v>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1307059.298267776</v>
+        <v>1364528.684239855</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1436758.444907236</v>
+        <v>1500169.403905408</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1566457.591546696</v>
+        <v>1635810.123570962</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1696156.738186157</v>
+        <v>1771450.843236515</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1825855.884825617</v>
+        <v>1907091.562902068</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1955555.031465078</v>
+        <v>2042732.282567622</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2085254.178104538</v>
+        <v>2178373.002233175</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2214953.324743998</v>
+        <v>2314013.721898729</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2344652.471383458</v>
+        <v>2449654.441564282</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2474351.618022919</v>
+        <v>2585295.161229835</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2604050.764662379</v>
+        <v>2720935.880895389</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2733749.91130184</v>
+        <v>2856576.600560942</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2863449.0579413</v>
+        <v>2992217.320226495</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2993148.204580761</v>
+        <v>3127858.039892049</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3122847.351220221</v>
+        <v>3263498.759557602</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3252546.497859681</v>
+        <v>3399139.479223155</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3382245.644499141</v>
+        <v>3534780.198888709</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3511944.791138602</v>
+        <v>3670420.918554262</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3641643.937778062</v>
+        <v>3806061.638219815</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3771343.084417522</v>
+        <v>3941702.357885369</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3901042.231056983</v>
+        <v>4077343.077550922</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4030741.377696443</v>
+        <v>4212983.797216476</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4160440.524335904</v>
+        <v>4348624.516882029</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4290139.670975364</v>
+        <v>4484265.236547583</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4419838.817614824</v>
+        <v>4619905.956213136</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>204.2124433730796</v>
+        <v>162.349993501187</v>
       </c>
       <c r="B37" t="n">
-        <v>2432</v>
+        <v>924</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2469.989257393428</v>
+        <v>1522.93239540191</v>
       </c>
       <c r="B38" t="n">
-        <v>3341</v>
+        <v>2344</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4735.766071413777</v>
+        <v>2883.514797302632</v>
       </c>
       <c r="B39" t="n">
-        <v>1845</v>
+        <v>2008</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7001.542885434126</v>
+        <v>4244.097199203356</v>
       </c>
       <c r="B40" t="n">
-        <v>1004</v>
+        <v>1447</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9267.319699454474</v>
+        <v>5604.679601104078</v>
       </c>
       <c r="B41" t="n">
-        <v>538</v>
+        <v>1031</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11533.09651347482</v>
+        <v>6965.262003004801</v>
       </c>
       <c r="B42" t="n">
-        <v>329</v>
+        <v>640</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13798.87332749517</v>
+        <v>8325.844404905523</v>
       </c>
       <c r="B43" t="n">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16064.65014151552</v>
+        <v>9686.426806806247</v>
       </c>
       <c r="B44" t="n">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18330.42695553587</v>
+        <v>11047.00920870697</v>
       </c>
       <c r="B45" t="n">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20596.20376955622</v>
+        <v>12407.59161060769</v>
       </c>
       <c r="B46" t="n">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22861.98058357657</v>
+        <v>13768.17401250842</v>
       </c>
       <c r="B47" t="n">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>25127.75739759692</v>
+        <v>15128.75641440914</v>
       </c>
       <c r="B48" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>27393.53421161727</v>
+        <v>16489.33881630986</v>
       </c>
       <c r="B49" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>29659.31102563761</v>
+        <v>17849.92121821058</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>31925.08783965796</v>
+        <v>19210.5036201113</v>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>34190.86465367831</v>
+        <v>20571.08602201203</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>36456.64146769866</v>
+        <v>21931.66842391275</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>38722.41828171901</v>
+        <v>23292.25082581347</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>40988.19509573936</v>
+        <v>24652.8332277142</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43253.9719097597</v>
+        <v>26013.41562961492</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>45519.74872378005</v>
+        <v>27373.99803151564</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>47785.52553780041</v>
+        <v>28734.58043341636</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>50051.30235182076</v>
+        <v>30095.16283531709</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>52317.0791658411</v>
+        <v>31455.74523721781</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>54582.85597986145</v>
+        <v>32816.32763911854</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>56848.6327938818</v>
+        <v>34176.91004101926</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>59114.40960790215</v>
+        <v>35537.49244291997</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>61380.1864219225</v>
+        <v>36898.0748448207</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>63645.96323594285</v>
+        <v>38258.65724672142</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65911.74004996319</v>
+        <v>39619.23964862215</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>68177.51686398355</v>
+        <v>40979.82205052287</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>70443.29367800389</v>
+        <v>42340.40445242359</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>72709.07049202424</v>
+        <v>43700.98685432431</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>74974.8473060446</v>
+        <v>45061.56925622503</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>77240.62412006494</v>
+        <v>46422.15165812576</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.320799061921783</v>
+        <v>0.3179461501409538</v>
       </c>
       <c r="B72" t="n">
-        <v>5942</v>
+        <v>7820</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>27.42505756255924</v>
+        <v>47.69874423954827</v>
       </c>
       <c r="B73" t="n">
-        <v>2152</v>
+        <v>1469</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>54.5293160631967</v>
+        <v>95.07954232895558</v>
       </c>
       <c r="B74" t="n">
-        <v>863</v>
+        <v>381</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>81.63357456383416</v>
+        <v>142.4603404183629</v>
       </c>
       <c r="B75" t="n">
-        <v>446</v>
+        <v>158</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>108.7378330644716</v>
+        <v>189.8411385077702</v>
       </c>
       <c r="B76" t="n">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>135.8420915651091</v>
+        <v>237.2219365971775</v>
       </c>
       <c r="B77" t="n">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>162.9463500657465</v>
+        <v>284.6027346865848</v>
       </c>
       <c r="B78" t="n">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>190.050608566384</v>
+        <v>331.9835327759921</v>
       </c>
       <c r="B79" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>217.1548670670214</v>
+        <v>379.3643308653994</v>
       </c>
       <c r="B80" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>244.2591255676589</v>
+        <v>426.7451289548068</v>
       </c>
       <c r="B81" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>271.3633840682963</v>
+        <v>474.1259270442141</v>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>298.4676425689338</v>
+        <v>521.5067251336214</v>
       </c>
       <c r="B83" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>325.5719010695713</v>
+        <v>568.8875232230288</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>352.6761595702087</v>
+        <v>616.2683213124361</v>
       </c>
       <c r="B85" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>379.7804180708462</v>
+        <v>663.6491194018433</v>
       </c>
       <c r="B86" t="n">
         <v>2</v>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>406.8846765714836</v>
+        <v>711.0299174912507</v>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>433.9889350721211</v>
+        <v>758.410715580658</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>461.0931935727585</v>
+        <v>805.7915136700653</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>488.197452073396</v>
+        <v>853.1723117594727</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>515.3017105740335</v>
+        <v>900.5531098488799</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>542.4059690746709</v>
+        <v>947.9339079382872</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>569.5102275753084</v>
+        <v>995.3147060276946</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>596.6144860759458</v>
+        <v>1042.695504117102</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>623.7187445765833</v>
+        <v>1090.076302206509</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>650.8230030772207</v>
+        <v>1137.457100295916</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>677.9272615778582</v>
+        <v>1184.837898385324</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>705.0315200784956</v>
+        <v>1232.218696474731</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>732.1357785791331</v>
+        <v>1279.599494564138</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>759.2400370797706</v>
+        <v>1326.980292653546</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>786.344295580408</v>
+        <v>1374.361090742953</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>813.4485540810455</v>
+        <v>1421.74188883236</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>840.5528125816829</v>
+        <v>1469.122686921768</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>867.6570710823204</v>
+        <v>1516.503485011175</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>894.7613295829578</v>
+        <v>1563.884283100582</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>921.8655880835953</v>
+        <v>1611.26508118999</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-6.358067403529983e+67</v>
+        <v>-4.467977274627358e+64</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>9995</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-6.147764264942021e+67</v>
+        <v>8.300112499455713e+63</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-5.937461126354061e+67</v>
+        <v>6.127999774518501e+64</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-5.727157987766099e+67</v>
+        <v>1.142598829909143e+65</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-5.516854849178138e+67</v>
+        <v>1.672397682366436e+65</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-5.306551710590176e+67</v>
+        <v>2.202196534823729e+65</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-5.096248572002215e+67</v>
+        <v>2.731995387281021e+65</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-4.885945433414253e+67</v>
+        <v>3.261794239738314e+65</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-4.675642294826292e+67</v>
+        <v>3.791593092195607e+65</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-4.465339156238331e+67</v>
+        <v>4.321391944652901e+65</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4.255036017650369e+67</v>
+        <v>4.851190797110194e+65</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-4.044732879062408e+67</v>
+        <v>5.380989649567486e+65</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-3.834429740474446e+67</v>
+        <v>5.910788502024779e+65</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-3.624126601886485e+67</v>
+        <v>6.440587354482072e+65</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-3.413823463298523e+67</v>
+        <v>6.970386206939365e+65</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-3.203520324710562e+67</v>
+        <v>7.500185059396658e+65</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-2.993217186122601e+67</v>
+        <v>8.029983911853951e+65</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-2.782914047534639e+67</v>
+        <v>8.559782764311244e+65</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-2.572610908946678e+67</v>
+        <v>9.089581616768537e+65</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-2.362307770358716e+67</v>
+        <v>9.61938046922583e+65</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-2.152004631770755e+67</v>
+        <v>1.014917932168312e+66</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.941701493182794e+67</v>
+        <v>1.067897817414041e+66</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.731398354594832e+67</v>
+        <v>1.120877702659771e+66</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-1.521095216006871e+67</v>
+        <v>1.1738575879055e+66</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-1.31079207741891e+67</v>
+        <v>1.226837473151229e+66</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-1.100488938830948e+67</v>
+        <v>1.279817358396959e+66</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-8.901858002429872e+66</v>
+        <v>1.332797243642688e+66</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-6.798826616550253e+66</v>
+        <v>1.385777128888417e+66</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4.695795230670634e+66</v>
+        <v>1.438757014134146e+66</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-2.592763844791027e+66</v>
+        <v>1.491736899379876e+66</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-4.897324589114082e+65</v>
+        <v>1.544716784625605e+66</v>
       </c>
       <c r="B137" t="n">
-        <v>9997</v>
+        <v>0</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.613298926968199e+66</v>
+        <v>1.597696669871334e+66</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3.716330312847818e+66</v>
+        <v>1.650676555117064e+66</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5.819361698727437e+66</v>
+        <v>1.703656440362793e+66</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>7.922393084607043e+66</v>
+        <v>1.756636325608522e+66</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>

--- a/data_cripto/montecarlo_histograma.xlsx
+++ b/data_cripto/montecarlo_histograma.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8121.487584321299</v>
+        <v>6707.743497136805</v>
       </c>
       <c r="B2" t="n">
-        <v>3390</v>
+        <v>3484</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>143762.2072498747</v>
+        <v>145682.5227683279</v>
       </c>
       <c r="B3" t="n">
-        <v>3314</v>
+        <v>3302</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>279402.926915428</v>
+        <v>284657.3020395191</v>
       </c>
       <c r="B4" t="n">
-        <v>1569</v>
+        <v>1589</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>415043.6465809814</v>
+        <v>423632.0813107102</v>
       </c>
       <c r="B5" t="n">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>550684.3662465347</v>
+        <v>562606.8605819013</v>
       </c>
       <c r="B6" t="n">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>686325.0859120882</v>
+        <v>701581.6398530924</v>
       </c>
       <c r="B7" t="n">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>821965.8055776415</v>
+        <v>840556.4191242836</v>
       </c>
       <c r="B8" t="n">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>957606.5252431948</v>
+        <v>979531.1983954747</v>
       </c>
       <c r="B9" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1093247.244908748</v>
+        <v>1118505.977666666</v>
       </c>
       <c r="B10" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -569,10 +569,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1228887.964574302</v>
+        <v>1257480.756937857</v>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1364528.684239855</v>
+        <v>1396455.536209048</v>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -595,10 +595,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1500169.403905408</v>
+        <v>1535430.315480239</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -608,10 +608,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1635810.123570962</v>
+        <v>1674405.09475143</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1771450.843236515</v>
+        <v>1813379.874022621</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1907091.562902068</v>
+        <v>1952354.653293813</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2042732.282567622</v>
+        <v>2091329.432565004</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2178373.002233175</v>
+        <v>2230304.211836195</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2314013.721898729</v>
+        <v>2369278.991107386</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2449654.441564282</v>
+        <v>2508253.770378578</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2585295.161229835</v>
+        <v>2647228.549649769</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2720935.880895389</v>
+        <v>2786203.328920959</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2856576.600560942</v>
+        <v>2925178.108192151</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2992217.320226495</v>
+        <v>3064152.887463342</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3127858.039892049</v>
+        <v>3203127.666734533</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3263498.759557602</v>
+        <v>3342102.446005724</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3399139.479223155</v>
+        <v>3481077.225276915</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3534780.198888709</v>
+        <v>3620052.004548106</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3670420.918554262</v>
+        <v>3759026.783819297</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3806061.638219815</v>
+        <v>3898001.563090489</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3941702.357885369</v>
+        <v>4036976.34236168</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4077343.077550922</v>
+        <v>4175951.121632871</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4212983.797216476</v>
+        <v>4314925.900904062</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4348624.516882029</v>
+        <v>4453900.680175253</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4484265.236547583</v>
+        <v>4592875.459446444</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4619905.956213136</v>
+        <v>4731850.238717635</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>162.349993501187</v>
+        <v>278.5179366266348</v>
       </c>
       <c r="B37" t="n">
-        <v>924</v>
+        <v>4080</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1522.93239540191</v>
+        <v>3400.044337772683</v>
       </c>
       <c r="B38" t="n">
-        <v>2344</v>
+        <v>3269</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2883.514797302632</v>
+        <v>6521.570738918732</v>
       </c>
       <c r="B39" t="n">
-        <v>2008</v>
+        <v>1434</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4244.097199203356</v>
+        <v>9643.09714006478</v>
       </c>
       <c r="B40" t="n">
-        <v>1447</v>
+        <v>580</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -959,10 +959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5604.679601104078</v>
+        <v>12764.62354121083</v>
       </c>
       <c r="B41" t="n">
-        <v>1031</v>
+        <v>291</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6965.262003004801</v>
+        <v>15886.14994235688</v>
       </c>
       <c r="B42" t="n">
-        <v>640</v>
+        <v>148</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -985,10 +985,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8325.844404905523</v>
+        <v>19007.67634350292</v>
       </c>
       <c r="B43" t="n">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9686.426806806247</v>
+        <v>22129.20274464897</v>
       </c>
       <c r="B44" t="n">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11047.00920870697</v>
+        <v>25250.72914579502</v>
       </c>
       <c r="B45" t="n">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>12407.59161060769</v>
+        <v>28372.25554694107</v>
       </c>
       <c r="B46" t="n">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>13768.17401250842</v>
+        <v>31493.78194808712</v>
       </c>
       <c r="B47" t="n">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15128.75641440914</v>
+        <v>34615.30834923316</v>
       </c>
       <c r="B48" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16489.33881630986</v>
+        <v>37736.83475037922</v>
       </c>
       <c r="B49" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17849.92121821058</v>
+        <v>40858.36115152527</v>
       </c>
       <c r="B50" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>19210.5036201113</v>
+        <v>43979.88755267131</v>
       </c>
       <c r="B51" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20571.08602201203</v>
+        <v>47101.41395381736</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>21931.66842391275</v>
+        <v>50222.94035496342</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>23292.25082581347</v>
+        <v>53344.46675610945</v>
       </c>
       <c r="B54" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>24652.8332277142</v>
+        <v>56465.99315725551</v>
       </c>
       <c r="B55" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>26013.41562961492</v>
+        <v>59587.51955840156</v>
       </c>
       <c r="B56" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>27373.99803151564</v>
+        <v>62709.04595954761</v>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28734.58043341636</v>
+        <v>65830.57236069365</v>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>30095.16283531709</v>
+        <v>68952.0987618397</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31455.74523721781</v>
+        <v>72073.62516298576</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>32816.32763911854</v>
+        <v>75195.1515641318</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>34176.91004101926</v>
+        <v>78316.67796527785</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>35537.49244291997</v>
+        <v>81438.2043664239</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>36898.0748448207</v>
+        <v>84559.73076756996</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>38258.65724672142</v>
+        <v>87681.25716871599</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>39619.23964862215</v>
+        <v>90802.78356986205</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>40979.82205052287</v>
+        <v>93924.3099710081</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>42340.40445242359</v>
+        <v>97045.83637215414</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43700.98685432431</v>
+        <v>100167.3627733002</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>45061.56925622503</v>
+        <v>103288.8891744462</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>46422.15165812576</v>
+        <v>106410.4155755923</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3179461501409538</v>
+        <v>0.4198560518789444</v>
       </c>
       <c r="B72" t="n">
-        <v>7820</v>
+        <v>6750</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>47.69874423954827</v>
+        <v>34.78484456674242</v>
       </c>
       <c r="B73" t="n">
-        <v>1469</v>
+        <v>1960</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>95.07954232895558</v>
+        <v>69.14983308160589</v>
       </c>
       <c r="B74" t="n">
-        <v>381</v>
+        <v>650</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>142.4603404183629</v>
+        <v>103.5148215964694</v>
       </c>
       <c r="B75" t="n">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>189.8411385077702</v>
+        <v>137.8798101113329</v>
       </c>
       <c r="B76" t="n">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>237.2219365971775</v>
+        <v>172.2447986261963</v>
       </c>
       <c r="B77" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>284.6027346865848</v>
+        <v>206.6097871410598</v>
       </c>
       <c r="B78" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>331.9835327759921</v>
+        <v>240.9747756559233</v>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>379.3643308653994</v>
+        <v>275.3397641707867</v>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>426.7451289548068</v>
+        <v>309.7047526856502</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>474.1259270442141</v>
+        <v>344.0697412005137</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>521.5067251336214</v>
+        <v>378.4347297153772</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>568.8875232230288</v>
+        <v>412.7997182302406</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>616.2683213124361</v>
+        <v>447.1647067451041</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>663.6491194018433</v>
+        <v>481.5296952599676</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>711.0299174912507</v>
+        <v>515.894683774831</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>758.410715580658</v>
+        <v>550.2596722896945</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>805.7915136700653</v>
+        <v>584.6246608045581</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1596,7 +1596,7 @@
     </row>
 